--- a/data/First_round_results/Results - First and Second Plate 3 reps.xlsx
+++ b/data/First_round_results/Results - First and Second Plate 3 reps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\GitHub\SynbioML\data\First_round_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55DF4F8-1785-40AC-8835-50D067E099AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB4D525-0E8A-4F98-921A-D0C872FEA5D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GFPOD" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="362">
   <si>
     <t>RBS</t>
   </si>
@@ -587,6 +587,540 @@
   </si>
   <si>
     <t>TTTAAGATTTTTTTATACAT</t>
+  </si>
+  <si>
+    <t>RBS_1by1_0</t>
+  </si>
+  <si>
+    <t>RBS_1by1_1</t>
+  </si>
+  <si>
+    <t>RBS_1by1_2</t>
+  </si>
+  <si>
+    <t>RBS_1by1_3</t>
+  </si>
+  <si>
+    <t>RBS_1by1_4</t>
+  </si>
+  <si>
+    <t>RBS_1by1_5</t>
+  </si>
+  <si>
+    <t>RBS_1by1_6</t>
+  </si>
+  <si>
+    <t>RBS_1by1_8</t>
+  </si>
+  <si>
+    <t>RBS_1by1_9</t>
+  </si>
+  <si>
+    <t>RBS_1by1_10</t>
+  </si>
+  <si>
+    <t>RBS_1by1_11</t>
+  </si>
+  <si>
+    <t>RBS_1by1_12</t>
+  </si>
+  <si>
+    <t>RBS_1by1_13</t>
+  </si>
+  <si>
+    <t>RBS_1by1_14</t>
+  </si>
+  <si>
+    <t>RBS_1by1_15</t>
+  </si>
+  <si>
+    <t>RBS_1by1_16</t>
+  </si>
+  <si>
+    <t>RBS_1by1_17</t>
+  </si>
+  <si>
+    <t>RBS_1by1_18</t>
+  </si>
+  <si>
+    <t>RBS_1by1_19</t>
+  </si>
+  <si>
+    <t>RBS_1by1_20</t>
+  </si>
+  <si>
+    <t>RBS_1by1_21</t>
+  </si>
+  <si>
+    <t>RBS_1by1_22</t>
+  </si>
+  <si>
+    <t>RBS_1by1_23</t>
+  </si>
+  <si>
+    <t>RBS_1by1_24</t>
+  </si>
+  <si>
+    <t>RBS_1by1_25</t>
+  </si>
+  <si>
+    <t>RBS_1by1_26</t>
+  </si>
+  <si>
+    <t>RBS_1by1_27</t>
+  </si>
+  <si>
+    <t>RBS_1by1_28</t>
+  </si>
+  <si>
+    <t>RBS_1by1_29</t>
+  </si>
+  <si>
+    <t>RBS_1by1_30</t>
+  </si>
+  <si>
+    <t>RBS_1by1_31</t>
+  </si>
+  <si>
+    <t>RBS_1by1_32</t>
+  </si>
+  <si>
+    <t>RBS_1by1_33</t>
+  </si>
+  <si>
+    <t>RBS_1by1_34</t>
+  </si>
+  <si>
+    <t>RBS_1by1_35</t>
+  </si>
+  <si>
+    <t>RBS_1by1_36</t>
+  </si>
+  <si>
+    <t>RBS_1by1_37</t>
+  </si>
+  <si>
+    <t>RBS_1by1_38</t>
+  </si>
+  <si>
+    <t>RBS_1by1_39</t>
+  </si>
+  <si>
+    <t>RBS_1by1_40</t>
+  </si>
+  <si>
+    <t>RBS_1by1_41</t>
+  </si>
+  <si>
+    <t>RBS_1by1_42</t>
+  </si>
+  <si>
+    <t>RBS_1by1_43</t>
+  </si>
+  <si>
+    <t>RBS_1by1_44</t>
+  </si>
+  <si>
+    <t>RBS_1by1_45</t>
+  </si>
+  <si>
+    <t>RBS_1by1_46</t>
+  </si>
+  <si>
+    <t>RBS_1by1_47</t>
+  </si>
+  <si>
+    <t>RBS_1by1_48</t>
+  </si>
+  <si>
+    <t>RBS_1by1_49</t>
+  </si>
+  <si>
+    <t>RBS_1by1_50</t>
+  </si>
+  <si>
+    <t>RBS_1by1_51</t>
+  </si>
+  <si>
+    <t>RBS_1by1_52</t>
+  </si>
+  <si>
+    <t>RBS_1by1_53</t>
+  </si>
+  <si>
+    <t>RBS_1by1_54</t>
+  </si>
+  <si>
+    <t>RBS_1by1_55</t>
+  </si>
+  <si>
+    <t>RBS_1by1_56</t>
+  </si>
+  <si>
+    <t>RBS_1by1_57</t>
+  </si>
+  <si>
+    <t>RBS_1by1_58</t>
+  </si>
+  <si>
+    <t>RBS_1by1_59</t>
+  </si>
+  <si>
+    <t>RBS_1by1_60</t>
+  </si>
+  <si>
+    <t>RBS_RU_0</t>
+  </si>
+  <si>
+    <t>RBS_RU_1</t>
+  </si>
+  <si>
+    <t>RBS_RU_2</t>
+  </si>
+  <si>
+    <t>RBS_RU_3</t>
+  </si>
+  <si>
+    <t>RBS_RU_4</t>
+  </si>
+  <si>
+    <t>RBS_RU_5</t>
+  </si>
+  <si>
+    <t>RBS_RU_6</t>
+  </si>
+  <si>
+    <t>RBS_RU_7</t>
+  </si>
+  <si>
+    <t>RBS_RU_8</t>
+  </si>
+  <si>
+    <t>RBS_RU_9</t>
+  </si>
+  <si>
+    <t>RBS_RU_10</t>
+  </si>
+  <si>
+    <t>RBS_RU_11</t>
+  </si>
+  <si>
+    <t>RBS_RU_12</t>
+  </si>
+  <si>
+    <t>RBS_RU_13</t>
+  </si>
+  <si>
+    <t>RBS_RU_14</t>
+  </si>
+  <si>
+    <t>RBS_RU_15</t>
+  </si>
+  <si>
+    <t>RBS_RU_16</t>
+  </si>
+  <si>
+    <t>RBS_RU_17</t>
+  </si>
+  <si>
+    <t>RBS_RU_18</t>
+  </si>
+  <si>
+    <t>RBS_RU_19</t>
+  </si>
+  <si>
+    <t>RBS_RU_20</t>
+  </si>
+  <si>
+    <t>RBS_RU_21</t>
+  </si>
+  <si>
+    <t>RBS_RU_22</t>
+  </si>
+  <si>
+    <t>RBS_RU_23</t>
+  </si>
+  <si>
+    <t>RBS_RU_24</t>
+  </si>
+  <si>
+    <t>RBS_RU_25</t>
+  </si>
+  <si>
+    <t>RBS_RU_26</t>
+  </si>
+  <si>
+    <t>RBS_RU_27</t>
+  </si>
+  <si>
+    <t>RBS_RU_28</t>
+  </si>
+  <si>
+    <t>RBS_BA_00</t>
+  </si>
+  <si>
+    <t>RBS_BA_01</t>
+  </si>
+  <si>
+    <t>RBS_BA_02</t>
+  </si>
+  <si>
+    <t>RBS_BA_03</t>
+  </si>
+  <si>
+    <t>RBS_BA_04</t>
+  </si>
+  <si>
+    <t>RBS_BA_05</t>
+  </si>
+  <si>
+    <t>RBS_BA_06</t>
+  </si>
+  <si>
+    <t>RBS_BA_07</t>
+  </si>
+  <si>
+    <t>RBS_BA_08</t>
+  </si>
+  <si>
+    <t>RBS_BA_09</t>
+  </si>
+  <si>
+    <t>RBS_BA_10</t>
+  </si>
+  <si>
+    <t>RBS_BA_11</t>
+  </si>
+  <si>
+    <t>RBS_BA_12</t>
+  </si>
+  <si>
+    <t>RBS_BA_13</t>
+  </si>
+  <si>
+    <t>RBS_BA_14</t>
+  </si>
+  <si>
+    <t>RBS_BA_15</t>
+  </si>
+  <si>
+    <t>RBS_BA_16</t>
+  </si>
+  <si>
+    <t>RBS_BA_17</t>
+  </si>
+  <si>
+    <t>RBS_BA_18</t>
+  </si>
+  <si>
+    <t>RBS_BA_19</t>
+  </si>
+  <si>
+    <t>RBS_BA_20</t>
+  </si>
+  <si>
+    <t>RBS_BA_21</t>
+  </si>
+  <si>
+    <t>RBS_BA_22</t>
+  </si>
+  <si>
+    <t>RBS_BA_23</t>
+  </si>
+  <si>
+    <t>RBS_BA_24</t>
+  </si>
+  <si>
+    <t>RBS_BA_25</t>
+  </si>
+  <si>
+    <t>RBS_BA_26</t>
+  </si>
+  <si>
+    <t>RBS_BA_27</t>
+  </si>
+  <si>
+    <t>RBS_BA_28</t>
+  </si>
+  <si>
+    <t>RBS_BA_29</t>
+  </si>
+  <si>
+    <t>RBS_BA_30</t>
+  </si>
+  <si>
+    <t>RBS_BA_31</t>
+  </si>
+  <si>
+    <t>RBS_BA_32</t>
+  </si>
+  <si>
+    <t>RBS_BA_33</t>
+  </si>
+  <si>
+    <t>RBS_BA_34</t>
+  </si>
+  <si>
+    <t>RBS_BA_35</t>
+  </si>
+  <si>
+    <t>RBS_BA_36</t>
+  </si>
+  <si>
+    <t>RBS_BA_37</t>
+  </si>
+  <si>
+    <t>RBS_BA_38</t>
+  </si>
+  <si>
+    <t>RBS_BA_39</t>
+  </si>
+  <si>
+    <t>RBS_BA_40</t>
+  </si>
+  <si>
+    <t>RBS_BA_41</t>
+  </si>
+  <si>
+    <t>RBS_BA_42</t>
+  </si>
+  <si>
+    <t>RBS_BA_43</t>
+  </si>
+  <si>
+    <t>RBS_BA_44</t>
+  </si>
+  <si>
+    <t>RBS_BA_45</t>
+  </si>
+  <si>
+    <t>RBS_BA_46</t>
+  </si>
+  <si>
+    <t>RBS_BA_47</t>
+  </si>
+  <si>
+    <t>RBS_BA_48</t>
+  </si>
+  <si>
+    <t>RBS_BA_49</t>
+  </si>
+  <si>
+    <t>RBS_BA_50</t>
+  </si>
+  <si>
+    <t>RBS_BA_51</t>
+  </si>
+  <si>
+    <t>RBS_BA_52</t>
+  </si>
+  <si>
+    <t>RBS_BA_53</t>
+  </si>
+  <si>
+    <t>RBS_BA_54</t>
+  </si>
+  <si>
+    <t>RBS_BA_55</t>
+  </si>
+  <si>
+    <t>RBS_BA_56</t>
+  </si>
+  <si>
+    <t>RBS_BA_57</t>
+  </si>
+  <si>
+    <t>RBS_BA_58</t>
+  </si>
+  <si>
+    <t>RBS_BA_59</t>
+  </si>
+  <si>
+    <t>RBS_RP_30</t>
+  </si>
+  <si>
+    <t>RBS_RP_31</t>
+  </si>
+  <si>
+    <t>RBS_RP_32</t>
+  </si>
+  <si>
+    <t>RBS_RP_33</t>
+  </si>
+  <si>
+    <t>RBS_RP_34</t>
+  </si>
+  <si>
+    <t>RBS_RP_35</t>
+  </si>
+  <si>
+    <t>RBS_RP_36</t>
+  </si>
+  <si>
+    <t>RBS_RP_37</t>
+  </si>
+  <si>
+    <t>RBS_RP_38</t>
+  </si>
+  <si>
+    <t>RBS_RP_39</t>
+  </si>
+  <si>
+    <t>RBS_RP_40</t>
+  </si>
+  <si>
+    <t>RBS_RP_41</t>
+  </si>
+  <si>
+    <t>RBS_RP_42</t>
+  </si>
+  <si>
+    <t>RBS_RP_43</t>
+  </si>
+  <si>
+    <t>RBS_RP_45</t>
+  </si>
+  <si>
+    <t>RBS_RP_46</t>
+  </si>
+  <si>
+    <t>RBS_RP_47</t>
+  </si>
+  <si>
+    <t>RBS_RP_48</t>
+  </si>
+  <si>
+    <t>RBS_RP_49</t>
+  </si>
+  <si>
+    <t>RBS_RP_50</t>
+  </si>
+  <si>
+    <t>RBS_RP_51</t>
+  </si>
+  <si>
+    <t>RBS_RP_52</t>
+  </si>
+  <si>
+    <t>RBS_RP_53</t>
+  </si>
+  <si>
+    <t>RBS_RP_54</t>
+  </si>
+  <si>
+    <t>RBS_RP_55</t>
+  </si>
+  <si>
+    <t>RBS_RP_57</t>
+  </si>
+  <si>
+    <t>RBS_RP_58</t>
+  </si>
+  <si>
+    <t>RBS_RP_59</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -12285,4750 +12819,5285 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J180"/>
+  <dimension ref="A1:K180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K170" sqref="K170"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L112" sqref="L112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.08984375" customWidth="1"/>
-    <col min="2" max="7" width="8.54296875" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="7" width="8.54296875" customWidth="1"/>
     <col min="8" max="1025" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="5">
         <v>80.919700000000006</v>
       </c>
-      <c r="C2" s="14">
+      <c r="D2" s="14">
         <v>52.402430874231797</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>98.720439999999996</v>
       </c>
-      <c r="E2">
-        <f>AVERAGE(B2:D2)</f>
+      <c r="F2">
+        <f>AVERAGE(C2:E2)</f>
         <v>77.347523624743928</v>
       </c>
-      <c r="F2">
-        <f>_xlfn.STDEV.P(B2:D2)</f>
+      <c r="G2">
+        <f>_xlfn.STDEV.P(C2:E2)</f>
         <v>19.077208485269214</v>
       </c>
-      <c r="G2" s="4">
-        <f t="shared" ref="G2:G33" si="0">F2/E2</f>
+      <c r="H2" s="4">
+        <f t="shared" ref="H2:H33" si="0">G2/F2</f>
         <v>0.24664278300393191</v>
       </c>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="5">
         <v>58.336880000000001</v>
       </c>
-      <c r="C3" s="14">
+      <c r="D3" s="14">
         <v>40.072951065481497</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>81.136200000000002</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E34" si="1">AVERAGE(B3:C3)</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F34" si="1">AVERAGE(C3:D3)</f>
         <v>49.204915532740749</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F34" si="2">_xlfn.STDEV.P(B3:C3)</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G34" si="2">_xlfn.STDEV.P(C3:D3)</f>
         <v>9.1319644672592499</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <f t="shared" si="0"/>
         <v>0.1855904916894508</v>
       </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="5">
         <v>38.780700000000003</v>
       </c>
-      <c r="C4" s="14">
+      <c r="D4" s="14">
         <v>28.831559098860701</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>58.763330000000003</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f t="shared" si="1"/>
         <v>33.806129549430352</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f t="shared" si="2"/>
         <v>4.9745704505696358</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <f t="shared" si="0"/>
         <v>0.14714995525577579</v>
       </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="5">
         <v>60.720820000000003</v>
       </c>
-      <c r="C5" s="14">
+      <c r="D5" s="14">
         <v>43.093359009539199</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>74.605289999999997</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="1"/>
         <v>51.907089504769601</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f t="shared" si="2"/>
         <v>8.8137304952304145</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <f t="shared" si="0"/>
         <v>0.16979820250604774</v>
       </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="5">
         <v>58.099539999999998</v>
       </c>
-      <c r="C6" s="14">
+      <c r="D6" s="14">
         <v>45.913213688575503</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>70.531620000000004</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="1"/>
         <v>52.00637684428775</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="2"/>
         <v>6.0931631557122419</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
         <v>0.11716184678574661</v>
       </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="5">
         <v>30.82338</v>
       </c>
-      <c r="C7" s="14">
+      <c r="D7" s="14">
         <v>21.973718715652002</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>47.703389999999999</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="1"/>
         <v>26.398549357825999</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="2"/>
         <v>4.4248306421740047</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
         <v>0.16761643157722372</v>
       </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="5">
         <v>51.836950000000002</v>
       </c>
-      <c r="C8" s="14">
+      <c r="D8" s="14">
         <v>35.402643899503197</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>58.743639999999999</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="1"/>
         <v>43.619796949751603</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="2"/>
         <v>8.2171530502483705</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
         <v>0.18838127696271095</v>
       </c>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="5">
         <v>57.188220000000001</v>
       </c>
-      <c r="C9" s="14">
+      <c r="D9" s="14">
         <v>40.1977444663301</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>365.5</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="1"/>
         <v>48.692982233165054</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="2"/>
         <v>8.495237766834931</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <f t="shared" si="0"/>
         <v>0.17446534135362074</v>
       </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="5">
         <v>36.167740000000002</v>
       </c>
-      <c r="C10" s="14">
+      <c r="D10" s="14">
         <v>27.1777393378885</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>69.797920000000005</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>31.672739668944253</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="2"/>
         <v>4.4950003310557536</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <f t="shared" si="0"/>
         <v>0.14192016156604192</v>
       </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="5">
         <v>56.372480000000003</v>
       </c>
-      <c r="C11" s="14">
+      <c r="D11" s="14">
         <v>30.926453127990602</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="5">
         <v>51.613819999999997</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="1"/>
         <v>43.649466563995304</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="2"/>
         <v>12.723013436004702</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <f t="shared" si="0"/>
         <v>0.29148153316722103</v>
       </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="5">
         <v>63.550339999999998</v>
       </c>
-      <c r="C12" s="14">
+      <c r="D12" s="14">
         <v>44.897779461052998</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>69.601749999999996</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="1"/>
         <v>54.224059730526498</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f t="shared" si="2"/>
         <v>9.3262802694735196</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <f t="shared" si="0"/>
         <v>0.17199524188748833</v>
       </c>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="5">
         <v>65.107550000000003</v>
       </c>
-      <c r="C13" s="14">
+      <c r="D13" s="14">
         <v>37.850634254858399</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="5">
         <v>76.232690000000005</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="1"/>
         <v>51.479092127429197</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f t="shared" si="2"/>
         <v>13.628457872570806</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <f t="shared" si="0"/>
         <v>0.26473772767467402</v>
       </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="5">
         <v>58.078800000000001</v>
       </c>
-      <c r="C14" s="14">
+      <c r="D14" s="14">
         <v>37.186557387499697</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="5">
         <v>76.092160000000007</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="1"/>
         <v>47.632678693749853</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <f t="shared" si="2"/>
         <v>10.446121306250122</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <f t="shared" si="0"/>
         <v>0.21930577059107983</v>
       </c>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="5">
         <v>52.617710000000002</v>
       </c>
-      <c r="C15" s="14">
+      <c r="D15" s="14">
         <v>36.7191236173622</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E15" s="5">
         <v>76.854759999999999</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f t="shared" si="1"/>
         <v>44.668416808681101</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <f t="shared" si="2"/>
         <v>7.9492931913188913</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <f t="shared" si="0"/>
         <v>0.17796227758343078</v>
       </c>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="5">
         <v>36.815010000000001</v>
       </c>
-      <c r="C16" s="14">
+      <c r="D16" s="14">
         <v>23.946455342029601</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E16" s="5">
         <v>63.98509</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="1"/>
         <v>30.380732671014801</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <f t="shared" si="2"/>
         <v>6.4342773289851962</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <f t="shared" si="0"/>
         <v>0.21178808946645042</v>
       </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="5">
         <v>42.687649999999998</v>
       </c>
-      <c r="C17" s="14">
+      <c r="D17" s="14">
         <v>29.705522173926799</v>
       </c>
-      <c r="D17" s="5">
+      <c r="E17" s="5">
         <v>51.966189999999997</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="1"/>
         <v>36.1965860869634</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <f t="shared" si="2"/>
         <v>6.4910639130366032</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <f t="shared" si="0"/>
         <v>0.17932806970916054</v>
       </c>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="5">
         <v>40.084040000000002</v>
       </c>
-      <c r="C18" s="14">
+      <c r="D18" s="14">
         <v>25.1140718006925</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="5">
         <v>42.432659999999998</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f t="shared" si="1"/>
         <v>32.599055900346251</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <f t="shared" si="2"/>
         <v>7.4849840996537482</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <f t="shared" si="0"/>
         <v>0.22960738870889344</v>
       </c>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="5">
         <v>41.378250000000001</v>
       </c>
-      <c r="C19" s="14">
+      <c r="D19" s="14">
         <v>28.2187559874023</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="5">
         <v>45.713760000000001</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f t="shared" si="1"/>
         <v>34.798502993701149</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <f t="shared" si="2"/>
         <v>6.5797470062988728</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <f t="shared" si="0"/>
         <v>0.18908132362733729</v>
       </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="5">
         <v>33.055370000000003</v>
       </c>
-      <c r="C20" s="14">
+      <c r="D20" s="14">
         <v>21.947024504601199</v>
       </c>
-      <c r="D20" s="5">
+      <c r="E20" s="5">
         <v>50.399459999999998</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f t="shared" si="1"/>
         <v>27.501197252300599</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <f t="shared" si="2"/>
         <v>5.5541727476994049</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <f t="shared" si="0"/>
         <v>0.20196112542826744</v>
       </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="5">
         <v>41.566409999999998</v>
       </c>
-      <c r="C21" s="14">
+      <c r="D21" s="14">
         <v>38.517309197236898</v>
       </c>
-      <c r="D21" s="5">
+      <c r="E21" s="5">
         <v>50.849089999999997</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f t="shared" si="1"/>
         <v>40.041859598618444</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <f t="shared" si="2"/>
         <v>1.5245504013815498</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <f t="shared" si="0"/>
         <v>3.8073916063432557E-2</v>
       </c>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="5">
         <v>28.702819999999999</v>
       </c>
-      <c r="C22" s="14">
+      <c r="D22" s="14">
         <v>23.434212199983399</v>
       </c>
-      <c r="D22" s="5">
+      <c r="E22" s="5">
         <v>53.352260000000001</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f t="shared" si="1"/>
         <v>26.068516099991697</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <f t="shared" si="2"/>
         <v>2.6343039000083119</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <f t="shared" si="0"/>
         <v>0.1010530821894059</v>
       </c>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="5">
         <v>38.140860000000004</v>
       </c>
-      <c r="C23" s="14">
+      <c r="D23" s="14">
         <v>30.1165285722543</v>
       </c>
-      <c r="D23" s="5">
+      <c r="E23" s="5">
         <v>41.817480000000003</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f t="shared" si="1"/>
         <v>34.12869428612715</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <f t="shared" si="2"/>
         <v>4.0121657138728768</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <f t="shared" si="0"/>
         <v>0.11755989491528153</v>
       </c>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="5">
         <v>17.194130000000001</v>
       </c>
-      <c r="C24" s="14">
+      <c r="D24" s="14">
         <v>15.7509751581518</v>
       </c>
-      <c r="D24" s="5">
+      <c r="E24" s="5">
         <v>50.857239999999997</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f t="shared" si="1"/>
         <v>16.472552579075902</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <f t="shared" si="2"/>
         <v>0.72157742092410082</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <f t="shared" si="0"/>
         <v>4.3804833371160548E-2</v>
       </c>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="5">
         <v>48.385629999999999</v>
       </c>
-      <c r="C25" s="14">
+      <c r="D25" s="14">
         <v>30.410129880343899</v>
       </c>
-      <c r="D25" s="5">
+      <c r="E25" s="5">
         <v>33.564770000000003</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <f t="shared" si="1"/>
         <v>39.397879940171947</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <f t="shared" si="2"/>
         <v>8.9877500598280573</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <f t="shared" si="0"/>
         <v>0.22812775899303459</v>
       </c>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="5">
         <v>48.905099999999997</v>
       </c>
-      <c r="C26" s="14">
+      <c r="D26" s="14">
         <v>33.031041129423997</v>
       </c>
-      <c r="D26" s="5">
+      <c r="E26" s="5">
         <v>69.513630000000006</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <f t="shared" si="1"/>
         <v>40.968070564711994</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <f t="shared" si="2"/>
         <v>7.9370294352880153</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="4">
         <f t="shared" si="0"/>
         <v>0.19373695968305146</v>
       </c>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="5">
         <v>25.205770000000001</v>
       </c>
-      <c r="C27" s="14">
+      <c r="D27" s="14">
         <v>17.319717236411801</v>
       </c>
-      <c r="D27" s="5">
+      <c r="E27" s="5">
         <v>63.579430000000002</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <f t="shared" si="1"/>
         <v>21.262743618205903</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <f t="shared" si="2"/>
         <v>3.943026381794088</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="4">
         <f t="shared" si="0"/>
         <v>0.18544297258129619</v>
       </c>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="5">
         <v>16.40183</v>
       </c>
-      <c r="C28" s="14">
+      <c r="D28" s="14">
         <v>14.475101201960801</v>
       </c>
-      <c r="D28" s="5">
+      <c r="E28" s="5">
         <v>36.599069999999998</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <f t="shared" si="1"/>
         <v>15.4384656009804</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <f t="shared" si="2"/>
         <v>0.96336439901959992</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <f t="shared" si="0"/>
         <v>6.2400268518810746E-2</v>
       </c>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" s="5">
         <v>19.432220000000001</v>
       </c>
-      <c r="C29" s="14">
+      <c r="D29" s="14">
         <v>13.7006632906307</v>
       </c>
-      <c r="D29" s="5">
+      <c r="E29" s="5">
         <v>32.797179999999997</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <f t="shared" si="1"/>
         <v>16.566441645315351</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <f t="shared" si="2"/>
         <v>2.8657783546846578</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <f t="shared" si="0"/>
         <v>0.17298695857809882</v>
       </c>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="5">
         <v>4.0942990000000004</v>
       </c>
-      <c r="C30" s="14">
+      <c r="D30" s="14">
         <v>10.30270525886</v>
       </c>
-      <c r="D30" s="5">
+      <c r="E30" s="5">
         <v>27.163430000000002</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <f t="shared" si="1"/>
         <v>7.1985021294300005</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <f t="shared" si="2"/>
         <v>3.1042031294299983</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H30" s="4">
         <f t="shared" si="0"/>
         <v>0.43122903537653029</v>
       </c>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" s="5">
         <v>13.735950000000001</v>
       </c>
-      <c r="C31" s="14">
+      <c r="D31" s="14">
         <v>2.20689740549706</v>
       </c>
-      <c r="D31" s="5">
+      <c r="E31" s="5">
         <v>7.1227999999999998</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <f t="shared" si="1"/>
         <v>7.9714237027485302</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <f t="shared" si="2"/>
         <v>5.7645262972514724</v>
       </c>
-      <c r="G31" s="4">
+      <c r="H31" s="4">
         <f t="shared" si="0"/>
         <v>0.72314890190366821</v>
       </c>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="5">
         <v>3.855629</v>
       </c>
-      <c r="C32" s="14">
+      <c r="D32" s="14">
         <v>5.09390281276871</v>
       </c>
-      <c r="D32" s="5">
+      <c r="E32" s="5">
         <v>12.219049999999999</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <f t="shared" si="1"/>
         <v>4.4747659063843548</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <f t="shared" si="2"/>
         <v>0.61913690638435614</v>
       </c>
-      <c r="G32" s="4">
+      <c r="H32" s="4">
         <f t="shared" si="0"/>
         <v>0.13836185385720512</v>
       </c>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="5">
         <v>22.466930000000001</v>
       </c>
-      <c r="C33" s="14">
+      <c r="D33" s="14">
         <v>19.344873003205301</v>
       </c>
-      <c r="D33" s="5">
+      <c r="E33" s="5">
         <v>15.769450000000001</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <f t="shared" si="1"/>
         <v>20.905901501602649</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <f t="shared" si="2"/>
         <v>1.5610284983973504</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H33" s="4">
         <f t="shared" si="0"/>
         <v>7.4669274524118548E-2</v>
       </c>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="5">
         <v>22.96256</v>
       </c>
-      <c r="C34" s="14">
+      <c r="D34" s="14">
         <v>19.662467746082498</v>
       </c>
-      <c r="D34" s="5">
+      <c r="E34" s="5">
         <v>34.856940000000002</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <f t="shared" si="1"/>
         <v>21.312513873041247</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <f t="shared" si="2"/>
         <v>1.6500461269587507</v>
       </c>
-      <c r="G34" s="4">
-        <f t="shared" ref="G34:G65" si="3">F34/E34</f>
+      <c r="H34" s="4">
+        <f t="shared" ref="H34:H65" si="3">G34/F34</f>
         <v>7.7421468757185752E-2</v>
       </c>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" s="5">
         <v>29.076550000000001</v>
       </c>
-      <c r="C35" s="14">
+      <c r="D35" s="14">
         <v>20.181648115818401</v>
       </c>
-      <c r="D35" s="5">
+      <c r="E35" s="5">
         <v>35.253309999999999</v>
       </c>
-      <c r="E35">
-        <f t="shared" ref="E35:E66" si="4">AVERAGE(B35:C35)</f>
+      <c r="F35">
+        <f t="shared" ref="F35:F66" si="4">AVERAGE(C35:D35)</f>
         <v>24.629099057909201</v>
       </c>
-      <c r="F35">
-        <f t="shared" ref="F35:F66" si="5">_xlfn.STDEV.P(B35:C35)</f>
+      <c r="G35">
+        <f t="shared" ref="G35:G66" si="5">_xlfn.STDEV.P(C35:D35)</f>
         <v>4.4474509420908088</v>
       </c>
-      <c r="G35" s="4">
+      <c r="H35" s="4">
         <f t="shared" si="3"/>
         <v>0.18057708613838183</v>
       </c>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="5">
         <v>25.283290000000001</v>
       </c>
-      <c r="C36" s="14">
+      <c r="D36" s="14">
         <v>19.394105164390101</v>
       </c>
-      <c r="D36" s="5">
+      <c r="E36" s="5">
         <v>38.101759999999999</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <f t="shared" si="4"/>
         <v>22.338697582195053</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <f t="shared" si="5"/>
         <v>2.9445924178049379</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <f t="shared" si="3"/>
         <v>0.13181576083253441</v>
       </c>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="5">
         <v>46.826149999999998</v>
       </c>
-      <c r="C37" s="14">
+      <c r="D37" s="14">
         <v>33.655348913159102</v>
       </c>
-      <c r="D37" s="5">
+      <c r="E37" s="5">
         <v>43.13908</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <f t="shared" si="4"/>
         <v>40.24074945657955</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <f t="shared" si="5"/>
         <v>6.5854005434204455</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <f t="shared" si="3"/>
         <v>0.16365004708787056</v>
       </c>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38" s="5">
         <v>31.864070000000002</v>
       </c>
-      <c r="C38" s="14">
+      <c r="D38" s="14">
         <v>21.754566911867801</v>
       </c>
-      <c r="D38" s="5">
+      <c r="E38" s="5">
         <v>67.089179999999999</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <f t="shared" si="4"/>
         <v>26.809318455933902</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <f t="shared" si="5"/>
         <v>5.0547515440661028</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <f t="shared" si="3"/>
         <v>0.18854457461775936</v>
       </c>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" t="s">
+        <v>221</v>
+      </c>
+      <c r="C39" s="5">
         <v>29.32302</v>
       </c>
-      <c r="C39" s="14">
+      <c r="D39" s="14">
         <v>22.6866044356542</v>
       </c>
-      <c r="D39" s="5">
+      <c r="E39" s="5">
         <v>46.645310000000002</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <f t="shared" si="4"/>
         <v>26.004812217827102</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <f t="shared" si="5"/>
         <v>3.318207782172891</v>
       </c>
-      <c r="G39" s="4">
+      <c r="H39" s="4">
         <f t="shared" si="3"/>
         <v>0.12759975939753787</v>
       </c>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="5">
         <v>28.972580000000001</v>
       </c>
-      <c r="C40" s="14">
+      <c r="D40" s="14">
         <v>17.606108127820999</v>
       </c>
-      <c r="D40" s="5">
+      <c r="E40" s="5">
         <v>45.231839999999998</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <f t="shared" si="4"/>
         <v>23.289344063910498</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <f t="shared" si="5"/>
         <v>5.6832359360895044</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4">
         <f t="shared" si="3"/>
         <v>0.24402730796082525</v>
       </c>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" t="s">
+        <v>223</v>
+      </c>
+      <c r="C41" s="5">
         <v>32.670119999999997</v>
       </c>
-      <c r="C41" s="14">
+      <c r="D41" s="14">
         <v>25.027898766589701</v>
       </c>
-      <c r="D41" s="5">
+      <c r="E41" s="5">
         <v>40.613889999999998</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <f t="shared" si="4"/>
         <v>28.849009383294849</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <f t="shared" si="5"/>
         <v>3.8211106167051478</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <f t="shared" si="3"/>
         <v>0.13245205635787893</v>
       </c>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" s="5">
         <v>38.546660000000003</v>
       </c>
-      <c r="C42" s="14">
+      <c r="D42" s="14">
         <v>25.355344461352001</v>
       </c>
-      <c r="D42" s="5">
+      <c r="E42" s="5">
         <v>44.109699999999997</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <f t="shared" si="4"/>
         <v>31.951002230676004</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <f t="shared" si="5"/>
         <v>6.5956577693239868</v>
       </c>
-      <c r="G42" s="4">
+      <c r="H42" s="4">
         <f t="shared" si="3"/>
         <v>0.20643038743215159</v>
       </c>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" t="s">
+        <v>225</v>
+      </c>
+      <c r="C43" s="5">
         <v>3.5672220000000001</v>
       </c>
-      <c r="C43" s="14">
+      <c r="D43" s="14">
         <v>5.61783014631719</v>
       </c>
-      <c r="D43" s="5">
+      <c r="E43" s="5">
         <v>43.193710000000003</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <f t="shared" si="4"/>
         <v>4.5925260731585951</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <f t="shared" si="5"/>
         <v>1.0253040731585943</v>
       </c>
-      <c r="G43" s="4">
+      <c r="H43" s="4">
         <f t="shared" si="3"/>
         <v>0.2232549269891074</v>
       </c>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" t="s">
+        <v>226</v>
+      </c>
+      <c r="C44" s="5">
         <v>4.3186530000000003</v>
       </c>
-      <c r="C44" s="14">
+      <c r="D44" s="14">
         <v>5.4172448938971298</v>
       </c>
-      <c r="D44" s="5">
+      <c r="E44" s="5">
         <v>14.297129999999999</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <f t="shared" si="4"/>
         <v>4.8679489469485651</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <f t="shared" si="5"/>
         <v>0.54929594694856454</v>
       </c>
-      <c r="G44" s="4">
+      <c r="H44" s="4">
         <f t="shared" si="3"/>
         <v>0.11283929904254364</v>
       </c>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" t="s">
+        <v>227</v>
+      </c>
+      <c r="C45" s="5">
         <v>43.978830000000002</v>
       </c>
-      <c r="C45" s="14">
+      <c r="D45" s="14">
         <v>37.012277350569498</v>
       </c>
-      <c r="D45" s="5">
+      <c r="E45" s="5">
         <v>4.8521130000000001</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <f t="shared" si="4"/>
         <v>40.495553675284754</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <f t="shared" si="5"/>
         <v>3.4832763247152521</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <f t="shared" si="3"/>
         <v>8.6016266196680388E-2</v>
       </c>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" s="5">
         <v>35.732439999999997</v>
       </c>
-      <c r="C46" s="14">
+      <c r="D46" s="14">
         <v>28.322704559267201</v>
       </c>
-      <c r="D46" s="5">
+      <c r="E46" s="5">
         <v>54.23715</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <f t="shared" si="4"/>
         <v>32.027572279633603</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <f t="shared" si="5"/>
         <v>3.7048677203663867</v>
       </c>
-      <c r="G46" s="4">
+      <c r="H46" s="4">
         <f t="shared" si="3"/>
         <v>0.11567744467233064</v>
       </c>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" t="s">
+        <v>229</v>
+      </c>
+      <c r="C47" s="5">
         <v>38.970750000000002</v>
       </c>
-      <c r="C47" s="14">
+      <c r="D47" s="14">
         <v>25.921623611409899</v>
       </c>
-      <c r="D47" s="5">
+      <c r="E47" s="5">
         <v>47.02431</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <f t="shared" si="4"/>
         <v>32.446186805704954</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <f t="shared" si="5"/>
         <v>6.5245631942950348</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <f t="shared" si="3"/>
         <v>0.20108875145685326</v>
       </c>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" s="5">
         <v>50.103450000000002</v>
       </c>
-      <c r="C48" s="14">
+      <c r="D48" s="14">
         <v>36.353811367536601</v>
       </c>
-      <c r="D48" s="5">
+      <c r="E48" s="5">
         <v>47.758560000000003</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <f t="shared" si="4"/>
         <v>43.228630683768301</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <f t="shared" si="5"/>
         <v>6.8748193162317071</v>
       </c>
-      <c r="G48" s="4">
+      <c r="H48" s="4">
         <f t="shared" si="3"/>
         <v>0.15903393671021596</v>
       </c>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" s="5">
         <v>71.746030000000005</v>
       </c>
-      <c r="C49" s="14">
+      <c r="D49" s="14">
         <v>43.377297230169702</v>
       </c>
-      <c r="D49" s="5">
+      <c r="E49" s="5">
         <v>67.810839999999999</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <f t="shared" si="4"/>
         <v>57.561663615084854</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <f t="shared" si="5"/>
         <v>14.184366384915158</v>
       </c>
-      <c r="G49" s="4">
+      <c r="H49" s="4">
         <f t="shared" si="3"/>
         <v>0.24642036894149014</v>
       </c>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" s="5">
         <v>51.001429999999999</v>
       </c>
-      <c r="C50" s="14">
+      <c r="D50" s="14">
         <v>30.5935251349106</v>
       </c>
-      <c r="D50" s="5">
+      <c r="E50" s="5">
         <v>82.437029999999993</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <f t="shared" si="4"/>
         <v>40.797477567455303</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <f t="shared" si="5"/>
         <v>10.203952432544678</v>
       </c>
-      <c r="G50" s="4">
+      <c r="H50" s="4">
         <f t="shared" si="3"/>
         <v>0.250112336373573</v>
       </c>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" s="5">
         <v>33.1676</v>
       </c>
-      <c r="C51" s="14">
+      <c r="D51" s="14">
         <v>24.249969458262701</v>
       </c>
-      <c r="D51" s="5">
+      <c r="E51" s="5">
         <v>67.169340000000005</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <f t="shared" si="4"/>
         <v>28.708784729131352</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <f t="shared" si="5"/>
         <v>4.4588152708686417</v>
       </c>
-      <c r="G51" s="4">
+      <c r="H51" s="4">
         <f t="shared" si="3"/>
         <v>0.15531187798221904</v>
       </c>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" s="5">
         <v>47.305230000000002</v>
       </c>
-      <c r="C52" s="14">
+      <c r="D52" s="14">
         <v>28.956546593070499</v>
       </c>
-      <c r="D52" s="5">
+      <c r="E52" s="5">
         <v>42.539079999999998</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <f t="shared" si="4"/>
         <v>38.130888296535247</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <f t="shared" si="5"/>
         <v>9.1743417034647585</v>
       </c>
-      <c r="G52" s="4">
+      <c r="H52" s="4">
         <f t="shared" si="3"/>
         <v>0.2406013107305025</v>
       </c>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" s="5">
         <v>39.719589999999997</v>
       </c>
-      <c r="C53" s="14">
+      <c r="D53" s="14">
         <v>26.3713973806905</v>
       </c>
-      <c r="D53" s="5">
+      <c r="E53" s="5">
         <v>53.893030000000003</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <f t="shared" si="4"/>
         <v>33.045493690345246</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <f t="shared" si="5"/>
         <v>6.6740963096547636</v>
       </c>
-      <c r="G53" s="4">
+      <c r="H53" s="4">
         <f t="shared" si="3"/>
         <v>0.20196691180330903</v>
       </c>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" s="5">
         <v>38.251809999999999</v>
       </c>
-      <c r="C54" s="14">
+      <c r="D54" s="14">
         <v>26.917531293683801</v>
       </c>
-      <c r="D54" s="5">
+      <c r="E54" s="5">
         <v>42.681800000000003</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <f t="shared" si="4"/>
         <v>32.5846706468419</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <f t="shared" si="5"/>
         <v>5.6671393531580998</v>
       </c>
-      <c r="G54" s="4">
+      <c r="H54" s="4">
         <f t="shared" si="3"/>
         <v>0.17392041228771352</v>
       </c>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" t="s">
+        <v>237</v>
+      </c>
+      <c r="C55" s="5">
         <v>40.386330000000001</v>
       </c>
-      <c r="C55" s="14">
+      <c r="D55" s="14">
         <v>26.203648453187501</v>
       </c>
-      <c r="D55" s="5">
+      <c r="E55" s="5">
         <v>44.78689</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <f t="shared" si="4"/>
         <v>33.294989226593749</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <f t="shared" si="5"/>
         <v>7.0913407734062703</v>
       </c>
-      <c r="G55" s="4">
+      <c r="H55" s="4">
         <f t="shared" si="3"/>
         <v>0.21298522504828429</v>
       </c>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" s="5">
         <v>39.551009999999998</v>
       </c>
-      <c r="C56" s="14">
+      <c r="D56" s="14">
         <v>28.430534944400399</v>
       </c>
-      <c r="D56" s="5">
+      <c r="E56" s="5">
         <v>43.091169999999998</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <f t="shared" si="4"/>
         <v>33.990772472200199</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <f t="shared" si="5"/>
         <v>5.5602375277997886</v>
       </c>
-      <c r="G56" s="4">
+      <c r="H56" s="4">
         <f t="shared" si="3"/>
         <v>0.16358079335641171</v>
       </c>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" s="5">
         <v>42.609099999999998</v>
       </c>
-      <c r="C57" s="14">
+      <c r="D57" s="14">
         <v>32.680488071308503</v>
       </c>
-      <c r="D57" s="5">
+      <c r="E57" s="5">
         <v>52.602699999999999</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <f t="shared" si="4"/>
         <v>37.64479403565425</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <f t="shared" si="5"/>
         <v>4.9643059643457388</v>
       </c>
-      <c r="G57" s="4">
+      <c r="H57" s="4">
         <f t="shared" si="3"/>
         <v>0.13187231040881589</v>
       </c>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" s="5">
         <v>44.16422</v>
       </c>
-      <c r="C58" s="14">
+      <c r="D58" s="14">
         <v>31.204319990647399</v>
       </c>
-      <c r="D58" s="5">
+      <c r="E58" s="5">
         <v>54.207979999999999</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <f t="shared" si="4"/>
         <v>37.684269995323703</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <f t="shared" si="5"/>
         <v>6.4799500046762786</v>
       </c>
-      <c r="G58" s="4">
+      <c r="H58" s="4">
         <f t="shared" si="3"/>
         <v>0.17195370921289932</v>
       </c>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" s="5">
         <v>46.538730000000001</v>
       </c>
-      <c r="C59" s="14">
+      <c r="D59" s="14">
         <v>29.175152229521299</v>
       </c>
-      <c r="D59" s="5">
+      <c r="E59" s="5">
         <v>54.336779999999997</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <f t="shared" si="4"/>
         <v>37.856941114760652</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <f t="shared" si="5"/>
         <v>8.681788885239337</v>
       </c>
-      <c r="G59" s="4">
+      <c r="H59" s="4">
         <f t="shared" si="3"/>
         <v>0.22933149455792282</v>
       </c>
-      <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K59" s="5"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" t="s">
+        <v>242</v>
+      </c>
+      <c r="C60" s="5">
         <v>23.192260000000001</v>
       </c>
-      <c r="C60" s="14">
+      <c r="D60" s="14">
         <v>12.902679501977399</v>
       </c>
-      <c r="D60" s="5">
+      <c r="E60" s="5">
         <v>55.675849999999997</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <f t="shared" si="4"/>
         <v>18.0474697509887</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <f t="shared" si="5"/>
         <v>5.1447902490113009</v>
       </c>
-      <c r="G60" s="4">
+      <c r="H60" s="4">
         <f t="shared" si="3"/>
         <v>0.28506989179075654</v>
       </c>
-      <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" t="s">
+        <v>243</v>
+      </c>
+      <c r="C61" s="5">
         <v>73.865489999999994</v>
       </c>
-      <c r="C61" s="14">
+      <c r="D61" s="14">
         <v>43.183172777048902</v>
       </c>
-      <c r="D61" s="5">
+      <c r="E61" s="5">
         <v>40.655140000000003</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <f t="shared" si="4"/>
         <v>58.524331388524445</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <f t="shared" si="5"/>
         <v>15.341158611475558</v>
       </c>
-      <c r="G61" s="4">
+      <c r="H61" s="4">
         <f t="shared" si="3"/>
         <v>0.26213300088181241</v>
       </c>
-      <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" t="s">
+        <v>244</v>
+      </c>
+      <c r="C62" s="5">
         <v>47.506039999999999</v>
       </c>
-      <c r="C62" s="14">
+      <c r="D62" s="14">
         <v>33.7559427295161</v>
       </c>
-      <c r="D62" s="5">
+      <c r="E62" s="5">
         <v>89.856620000000007</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <f t="shared" si="4"/>
         <v>40.630991364758046</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <f t="shared" si="5"/>
         <v>6.8750486352419582</v>
       </c>
-      <c r="G62" s="4">
+      <c r="H62" s="4">
         <f t="shared" si="3"/>
         <v>0.16920701179851458</v>
       </c>
-      <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K62" s="5"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" t="s">
+        <v>245</v>
+      </c>
+      <c r="C63" s="5">
         <v>12.620520000000001</v>
       </c>
-      <c r="C63" s="14">
+      <c r="D63" s="14">
         <v>8.1777624324439309</v>
       </c>
-      <c r="D63" s="5">
+      <c r="E63" s="5">
         <v>66.764380000000003</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <f t="shared" si="4"/>
         <v>10.399141216221967</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <f t="shared" si="5"/>
         <v>2.2213787837780332</v>
       </c>
-      <c r="G63" s="4">
+      <c r="H63" s="4">
         <f t="shared" si="3"/>
         <v>0.21361175289290527</v>
       </c>
-      <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K63" s="5"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" t="s">
+        <v>246</v>
+      </c>
+      <c r="C64" s="5">
         <v>12.715909999999999</v>
       </c>
-      <c r="C64" s="14">
+      <c r="D64" s="14">
         <v>4.7651926574889298</v>
       </c>
-      <c r="D64" s="5">
+      <c r="E64" s="5">
         <v>32.500979999999998</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <f t="shared" si="4"/>
         <v>8.7405513287444645</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <f t="shared" si="5"/>
         <v>3.9753586712555351</v>
       </c>
-      <c r="G64" s="4">
+      <c r="H64" s="4">
         <f t="shared" si="3"/>
         <v>0.45481783948594179</v>
       </c>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K64" s="5"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" t="s">
+        <v>247</v>
+      </c>
+      <c r="C65" s="5">
         <v>18.181619999999999</v>
       </c>
-      <c r="C65" s="14">
+      <c r="D65" s="14">
         <v>7.5752968302688197</v>
       </c>
-      <c r="D65" s="5">
+      <c r="E65" s="5">
         <v>10.473649999999999</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <f t="shared" si="4"/>
         <v>12.878458415134409</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <f t="shared" si="5"/>
         <v>5.3031615848655891</v>
       </c>
-      <c r="G65" s="4">
+      <c r="H65" s="4">
         <f t="shared" si="3"/>
         <v>0.41178543377780835</v>
       </c>
-      <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" t="s">
+        <v>248</v>
+      </c>
+      <c r="C66" s="5">
         <v>2.2850109999999999</v>
       </c>
-      <c r="C66" s="14">
+      <c r="D66" s="14">
         <v>6.8250689346512097</v>
       </c>
-      <c r="D66" s="5">
+      <c r="E66" s="5">
         <v>10.42136</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <f t="shared" si="4"/>
         <v>4.5550399673256052</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <f t="shared" si="5"/>
         <v>2.2700289673256036</v>
       </c>
-      <c r="G66" s="4">
-        <f t="shared" ref="G66:G97" si="6">F66/E66</f>
+      <c r="H66" s="4">
+        <f t="shared" ref="H66:H97" si="6">G66/F66</f>
         <v>0.49835544443277469</v>
       </c>
-      <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K66" s="5"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" t="s">
+        <v>249</v>
+      </c>
+      <c r="C67" s="5">
         <v>2.512394</v>
       </c>
-      <c r="C67" s="14">
+      <c r="D67" s="14">
         <v>11.3625378363528</v>
       </c>
-      <c r="D67" s="5">
+      <c r="E67" s="5">
         <v>20.987960000000001</v>
       </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E90" si="7">AVERAGE(B67:C67)</f>
+      <c r="F67">
+        <f t="shared" ref="F67:F90" si="7">AVERAGE(C67:D67)</f>
         <v>6.9374659181764002</v>
       </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F90" si="8">_xlfn.STDEV.P(B67:C67)</f>
+      <c r="G67">
+        <f t="shared" ref="G67:G90" si="8">_xlfn.STDEV.P(C67:D67)</f>
         <v>4.4250719181763989</v>
       </c>
-      <c r="G67" s="4">
+      <c r="H67" s="4">
         <f t="shared" si="6"/>
         <v>0.63785133799108951</v>
       </c>
-      <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" t="s">
+        <v>250</v>
+      </c>
+      <c r="C68" s="5">
         <v>5.2466369999999998</v>
       </c>
-      <c r="C68" s="14">
+      <c r="D68" s="14">
         <v>6.6917936578940598</v>
       </c>
-      <c r="D68" s="5">
+      <c r="E68" s="5">
         <v>12.877879999999999</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <f t="shared" si="7"/>
         <v>5.9692153289470298</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <f t="shared" si="8"/>
         <v>0.72257832894703244</v>
       </c>
-      <c r="G68" s="4">
+      <c r="H68" s="4">
         <f t="shared" si="6"/>
         <v>0.12105080636695599</v>
       </c>
-      <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K68" s="5"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" s="5">
         <v>3.5395460000000001</v>
       </c>
-      <c r="C69" s="14">
+      <c r="D69" s="14">
         <v>12.706530323474301</v>
       </c>
-      <c r="D69" s="5">
+      <c r="E69" s="5">
         <v>13.957610000000001</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <f t="shared" si="7"/>
         <v>8.123038161737151</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <f t="shared" si="8"/>
         <v>4.5834921617371487</v>
       </c>
-      <c r="G69" s="4">
+      <c r="H69" s="4">
         <f t="shared" si="6"/>
         <v>0.56425835635332611</v>
       </c>
-      <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K69" s="5"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" s="5">
         <v>12.43055</v>
       </c>
-      <c r="C70" s="14">
+      <c r="D70" s="14">
         <v>12.2883984596519</v>
       </c>
-      <c r="D70" s="5">
+      <c r="E70" s="5">
         <v>15.95393</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <f t="shared" si="7"/>
         <v>12.359474229825949</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <f t="shared" si="8"/>
         <v>7.1075770174050312E-2</v>
       </c>
-      <c r="G70" s="4">
+      <c r="H70" s="4">
         <f t="shared" si="6"/>
         <v>5.7507114665549357E-3</v>
       </c>
-      <c r="J70" s="5"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K70" s="5"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" t="s">
+        <v>253</v>
+      </c>
+      <c r="C71" s="5">
         <v>16.559249999999999</v>
       </c>
-      <c r="C71" s="14">
+      <c r="D71" s="14">
         <v>11.395635346500899</v>
       </c>
-      <c r="D71" s="5">
+      <c r="E71" s="5">
         <v>14.902950000000001</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <f t="shared" si="7"/>
         <v>13.977442673250449</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <f t="shared" si="8"/>
         <v>2.5818073267495487</v>
       </c>
-      <c r="G71" s="4">
+      <c r="H71" s="4">
         <f t="shared" si="6"/>
         <v>0.18471242466195359</v>
       </c>
-      <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K71" s="5"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" t="s">
+        <v>254</v>
+      </c>
+      <c r="C72" s="5">
         <v>23.679120000000001</v>
       </c>
-      <c r="C72" s="14">
+      <c r="D72" s="14">
         <v>17.539773573039799</v>
       </c>
-      <c r="D72" s="5">
+      <c r="E72" s="5">
         <v>32.916739999999997</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <f t="shared" si="7"/>
         <v>20.6094467865199</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <f t="shared" si="8"/>
         <v>3.0696732134801015</v>
       </c>
-      <c r="G72" s="4">
+      <c r="H72" s="4">
         <f t="shared" si="6"/>
         <v>0.14894495933233368</v>
       </c>
-      <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K72" s="5"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" t="s">
+        <v>255</v>
+      </c>
+      <c r="C73" s="5">
         <v>29.369589999999999</v>
       </c>
-      <c r="C73" s="14">
+      <c r="D73" s="14">
         <v>19.188772567785499</v>
       </c>
-      <c r="D73" s="5">
+      <c r="E73" s="5">
         <v>45.357889999999998</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <f t="shared" si="7"/>
         <v>24.279181283892747</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <f t="shared" si="8"/>
         <v>5.0904087161072651</v>
       </c>
-      <c r="G73" s="4">
+      <c r="H73" s="4">
         <f t="shared" si="6"/>
         <v>0.20966146496399099</v>
       </c>
-      <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K73" s="5"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" t="s">
+        <v>256</v>
+      </c>
+      <c r="C74" s="5">
         <v>19.615659999999998</v>
       </c>
-      <c r="C74" s="14">
+      <c r="D74" s="14">
         <v>12.4890034130825</v>
       </c>
-      <c r="D74" s="5">
+      <c r="E74" s="5">
         <v>48.225960000000001</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <f t="shared" si="7"/>
         <v>16.052331706541249</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <f t="shared" si="8"/>
         <v>3.5633282934587487</v>
       </c>
-      <c r="G74" s="4">
+      <c r="H74" s="4">
         <f t="shared" si="6"/>
         <v>0.22198197486828092</v>
       </c>
-      <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K74" s="5"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" t="s">
+        <v>257</v>
+      </c>
+      <c r="C75" s="5">
         <v>22.033429999999999</v>
       </c>
-      <c r="C75" s="14">
+      <c r="D75" s="14">
         <v>12.730751126601399</v>
       </c>
-      <c r="D75" s="5">
+      <c r="E75" s="5">
         <v>36.40934</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <f t="shared" si="7"/>
         <v>17.3820905633007</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <f t="shared" si="8"/>
         <v>4.6513394366992955</v>
       </c>
-      <c r="G75" s="4">
+      <c r="H75" s="4">
         <f t="shared" si="6"/>
         <v>0.26759378682100532</v>
       </c>
-      <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K75" s="5"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" t="s">
+        <v>258</v>
+      </c>
+      <c r="C76" s="5">
         <v>20.21415</v>
       </c>
-      <c r="C76" s="14">
+      <c r="D76" s="14">
         <v>11.5617172966071</v>
       </c>
-      <c r="D76" s="5">
+      <c r="E76" s="5">
         <v>32.784280000000003</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <f t="shared" si="7"/>
         <v>15.88793364830355</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <f t="shared" si="8"/>
         <v>4.3262163516964502</v>
       </c>
-      <c r="G76" s="4">
+      <c r="H76" s="4">
         <f t="shared" si="6"/>
         <v>0.27229572123486218</v>
       </c>
-      <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K76" s="5"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" t="s">
+        <v>259</v>
+      </c>
+      <c r="C77" s="5">
         <v>38.307490000000001</v>
       </c>
-      <c r="C77" s="14">
+      <c r="D77" s="14">
         <v>26.092047759046</v>
       </c>
-      <c r="D77" s="5">
+      <c r="E77" s="5">
         <v>11.96909</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <f t="shared" si="7"/>
         <v>32.199768879522999</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <f t="shared" si="8"/>
         <v>6.1077211204770219</v>
       </c>
-      <c r="G77" s="4">
+      <c r="H77" s="4">
         <f t="shared" si="6"/>
         <v>0.18968214161192765</v>
       </c>
-      <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K77" s="5"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" t="s">
+        <v>260</v>
+      </c>
+      <c r="C78" s="5">
         <v>2.8491559999999998</v>
       </c>
-      <c r="C78" s="14">
+      <c r="D78" s="14">
         <v>12.3028665794186</v>
       </c>
-      <c r="D78" s="5">
+      <c r="E78" s="5">
         <v>41.555430000000001</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <f t="shared" si="7"/>
         <v>7.5760112897092995</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <f t="shared" si="8"/>
         <v>4.7268552897093006</v>
       </c>
-      <c r="G78" s="4">
+      <c r="H78" s="4">
         <f t="shared" si="6"/>
         <v>0.62392400287601413</v>
       </c>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K78" s="5"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" t="s">
+        <v>261</v>
+      </c>
+      <c r="C79" s="5">
         <v>17.769400000000001</v>
       </c>
-      <c r="C79" s="14">
+      <c r="D79" s="14">
         <v>11.7345705352473</v>
       </c>
-      <c r="D79" s="5">
+      <c r="E79" s="5">
         <v>10.037559999999999</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <f t="shared" si="7"/>
         <v>14.751985267623651</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <f t="shared" si="8"/>
         <v>3.0174147323763538</v>
       </c>
-      <c r="G79" s="4">
+      <c r="H79" s="4">
         <f t="shared" si="6"/>
         <v>0.20454295999052469</v>
       </c>
-      <c r="J79" s="5"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K79" s="5"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" t="s">
+        <v>262</v>
+      </c>
+      <c r="C80" s="5">
         <v>21.084050000000001</v>
       </c>
-      <c r="C80" s="14">
+      <c r="D80" s="14">
         <v>12.069074065451399</v>
       </c>
-      <c r="D80" s="5">
+      <c r="E80" s="5">
         <v>28.825279999999999</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <f t="shared" si="7"/>
         <v>16.5765620327257</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <f t="shared" si="8"/>
         <v>4.5074879672743018</v>
       </c>
-      <c r="G80" s="4">
+      <c r="H80" s="4">
         <f t="shared" si="6"/>
         <v>0.27191934964412706</v>
       </c>
-      <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K80" s="5"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" t="s">
+        <v>263</v>
+      </c>
+      <c r="C81" s="5">
         <v>0.70825800000000005</v>
       </c>
-      <c r="C81" s="14">
+      <c r="D81" s="14">
         <v>13.9831766434003</v>
       </c>
-      <c r="D81" s="5">
+      <c r="E81" s="5">
         <v>32.90795</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <f t="shared" si="7"/>
         <v>7.3457173217001506</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <f t="shared" si="8"/>
         <v>6.637459321700149</v>
       </c>
-      <c r="G81" s="4">
+      <c r="H81" s="4">
         <f t="shared" si="6"/>
         <v>0.90358218687401426</v>
       </c>
-      <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" t="s">
+        <v>264</v>
+      </c>
+      <c r="C82" s="5">
         <v>20.770009999999999</v>
       </c>
-      <c r="C82" s="14">
+      <c r="D82" s="14">
         <v>15.1244360198307</v>
       </c>
-      <c r="D82" s="5">
+      <c r="E82" s="5">
         <v>32.293480000000002</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <f t="shared" si="7"/>
         <v>17.947223009915348</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <f t="shared" si="8"/>
         <v>2.8227869900846567</v>
       </c>
-      <c r="G82" s="4">
+      <c r="H82" s="4">
         <f t="shared" si="6"/>
         <v>0.15728266086208126</v>
       </c>
-      <c r="J82" s="5"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K82" s="5"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" t="s">
+        <v>265</v>
+      </c>
+      <c r="C83" s="5">
         <v>18.358529999999998</v>
       </c>
-      <c r="C83" s="14">
+      <c r="D83" s="14">
         <v>9.3599341180013198</v>
       </c>
-      <c r="D83" s="5">
+      <c r="E83" s="5">
         <v>35.41892</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <f t="shared" si="7"/>
         <v>13.859232059000659</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <f t="shared" si="8"/>
         <v>4.4992979409993366</v>
       </c>
-      <c r="G83" s="4">
+      <c r="H83" s="4">
         <f t="shared" si="6"/>
         <v>0.32464265854307123</v>
       </c>
-      <c r="J83" s="5"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K83" s="5"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" t="s">
+        <v>266</v>
+      </c>
+      <c r="C84" s="5">
         <v>46.042450000000002</v>
       </c>
-      <c r="C84" s="14">
+      <c r="D84" s="14">
         <v>27.224196199935299</v>
       </c>
-      <c r="D84" s="5">
+      <c r="E84" s="5">
         <v>38.03884</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <f t="shared" si="7"/>
         <v>36.633323099967654</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <f t="shared" si="8"/>
         <v>9.4091269000323283</v>
       </c>
-      <c r="G84" s="4">
+      <c r="H84" s="4">
         <f t="shared" si="6"/>
         <v>0.25684611997541212</v>
       </c>
-      <c r="J84" s="5"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K84" s="5"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" t="s">
+        <v>267</v>
+      </c>
+      <c r="C85" s="5">
         <v>35.040779999999998</v>
       </c>
-      <c r="C85" s="14">
+      <c r="D85" s="14">
         <v>20.457286705187599</v>
       </c>
-      <c r="D85" s="5">
+      <c r="E85" s="5">
         <v>61.108539999999998</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <f t="shared" si="7"/>
         <v>27.749033352593798</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <f t="shared" si="8"/>
         <v>7.2917466474061934</v>
       </c>
-      <c r="G85" s="4">
+      <c r="H85" s="4">
         <f t="shared" si="6"/>
         <v>0.26277479848589425</v>
       </c>
-      <c r="J85" s="5"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K85" s="5"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" t="s">
+        <v>268</v>
+      </c>
+      <c r="C86" s="5">
         <v>41.262779999999999</v>
       </c>
-      <c r="C86" s="14">
+      <c r="D86" s="14">
         <v>26.0038628260927</v>
       </c>
-      <c r="D86" s="5">
+      <c r="E86" s="5">
         <v>56.102730000000001</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <f t="shared" si="7"/>
         <v>33.633321413046346</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <f t="shared" si="8"/>
         <v>7.6294585869536586</v>
       </c>
-      <c r="G86" s="4">
+      <c r="H86" s="4">
         <f t="shared" si="6"/>
         <v>0.22684225840372091</v>
       </c>
-      <c r="J86" s="5"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K86" s="5"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" t="s">
+        <v>269</v>
+      </c>
+      <c r="C87" s="5">
         <v>23.49241</v>
       </c>
-      <c r="C87" s="14">
+      <c r="D87" s="14">
         <v>17.164391937633301</v>
       </c>
-      <c r="D87" s="5">
+      <c r="E87" s="5">
         <v>61.075339999999997</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <f t="shared" si="7"/>
         <v>20.328400968816652</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <f t="shared" si="8"/>
         <v>3.1640090311833453</v>
       </c>
-      <c r="G87" s="4">
+      <c r="H87" s="4">
         <f t="shared" si="6"/>
         <v>0.15564475710789402</v>
       </c>
-      <c r="J87" s="5"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K87" s="5"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" t="s">
+        <v>270</v>
+      </c>
+      <c r="C88" s="5">
         <v>31.044440000000002</v>
       </c>
-      <c r="C88" s="14">
+      <c r="D88" s="14">
         <v>18.5043678218635</v>
       </c>
-      <c r="D88" s="5">
+      <c r="E88" s="5">
         <v>43.165689999999998</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <f t="shared" si="7"/>
         <v>24.774403910931753</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <f t="shared" si="8"/>
         <v>6.2700360890682516</v>
       </c>
-      <c r="G88" s="4">
+      <c r="H88" s="4">
         <f t="shared" si="6"/>
         <v>0.25308524522366355</v>
       </c>
-      <c r="J88" s="5"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K88" s="5"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" t="s">
+        <v>271</v>
+      </c>
+      <c r="C89" s="5">
         <v>25.85005</v>
       </c>
-      <c r="C89" s="14">
+      <c r="D89" s="14">
         <v>17.0914214980466</v>
       </c>
-      <c r="D89" s="5">
+      <c r="E89" s="5">
         <v>51.641970000000001</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <f t="shared" si="7"/>
         <v>21.470735749023298</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <f t="shared" si="8"/>
         <v>4.3793142509767096</v>
       </c>
-      <c r="G89" s="4">
+      <c r="H89" s="4">
         <f t="shared" si="6"/>
         <v>0.20396665965095884</v>
       </c>
-      <c r="J89" s="5"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K89" s="5"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90" t="s">
+        <v>272</v>
+      </c>
+      <c r="C90" s="5">
         <v>24.439340000000001</v>
       </c>
-      <c r="C90" s="14">
+      <c r="D90" s="14">
         <v>16.090270679436198</v>
       </c>
-      <c r="D90" s="5">
+      <c r="E90" s="5">
         <v>38.236710000000002</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <f t="shared" si="7"/>
         <v>20.264805339718102</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <f t="shared" si="8"/>
         <v>4.1745346602818953</v>
       </c>
-      <c r="G90" s="4">
+      <c r="H90" s="4">
         <f t="shared" si="6"/>
         <v>0.20599924797204916</v>
       </c>
-      <c r="J90" s="5"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K90" s="5"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>124</v>
       </c>
-      <c r="B91" s="9">
+      <c r="B91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C91" s="9">
         <v>30.780531602136701</v>
       </c>
-      <c r="C91" s="9">
+      <c r="D91" s="9">
         <v>30.442682089978501</v>
       </c>
-      <c r="D91" s="10">
+      <c r="E91" s="10">
         <v>30.096817956472499</v>
       </c>
-      <c r="E91" s="8">
-        <f t="shared" ref="E91:E122" si="9">AVERAGE(B91:D91)</f>
+      <c r="F91" s="8">
+        <f t="shared" ref="F91:F122" si="9">AVERAGE(C91:E91)</f>
         <v>30.440010549529234</v>
       </c>
-      <c r="F91" s="8">
-        <f t="shared" ref="F91:F122" si="10">_xlfn.STDEV.P(B91:D91)</f>
+      <c r="G91" s="8">
+        <f t="shared" ref="G91:G122" si="10">_xlfn.STDEV.P(C91:E91)</f>
         <v>0.27913131935003588</v>
       </c>
-      <c r="G91" s="11">
+      <c r="H91" s="11">
         <f t="shared" si="6"/>
         <v>9.1698824774012026E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B92" t="s">
+        <v>274</v>
+      </c>
+      <c r="C92" s="9">
         <v>209.26870748299299</v>
       </c>
-      <c r="C92" s="9">
+      <c r="D92" s="9">
         <v>174.81481481481501</v>
       </c>
-      <c r="D92" s="10">
+      <c r="E92" s="10">
         <v>161.48148148148101</v>
       </c>
-      <c r="E92" s="12">
+      <c r="F92" s="12">
         <f t="shared" si="9"/>
         <v>181.85500125976304</v>
       </c>
-      <c r="F92" s="12">
+      <c r="G92" s="12">
         <f t="shared" si="10"/>
         <v>20.134181733470101</v>
       </c>
-      <c r="G92" s="13">
+      <c r="H92" s="13">
         <f t="shared" si="6"/>
         <v>0.11071557886225128</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>126</v>
       </c>
-      <c r="B93" s="9">
+      <c r="B93" t="s">
+        <v>275</v>
+      </c>
+      <c r="C93" s="9">
         <v>23.8595502635998</v>
       </c>
-      <c r="C93" s="9">
+      <c r="D93" s="9">
         <v>19.575993437325501</v>
       </c>
-      <c r="D93" s="10">
+      <c r="E93" s="10">
         <v>21.345062274719201</v>
       </c>
-      <c r="E93" s="8">
+      <c r="F93" s="8">
         <f t="shared" si="9"/>
         <v>21.593535325214834</v>
       </c>
-      <c r="F93" s="8">
+      <c r="G93" s="8">
         <f t="shared" si="10"/>
         <v>1.757558707146031</v>
       </c>
-      <c r="G93" s="11">
+      <c r="H93" s="11">
         <f t="shared" si="6"/>
         <v>8.1392818761535757E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>127</v>
       </c>
-      <c r="B94" s="9">
+      <c r="B94" t="s">
+        <v>276</v>
+      </c>
+      <c r="C94" s="9">
         <v>21.166861144558101</v>
       </c>
-      <c r="C94" s="9">
+      <c r="D94" s="9">
         <v>20.056633706237601</v>
       </c>
-      <c r="D94" s="10">
+      <c r="E94" s="10">
         <v>19.519235156703299</v>
       </c>
-      <c r="E94" s="8">
+      <c r="F94" s="8">
         <f t="shared" si="9"/>
         <v>20.247576669166335</v>
       </c>
-      <c r="F94" s="8">
+      <c r="G94" s="8">
         <f t="shared" si="10"/>
         <v>0.68605746128762457</v>
       </c>
-      <c r="G94" s="11">
+      <c r="H94" s="11">
         <f t="shared" si="6"/>
         <v>3.3883435657382895E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B95" s="9">
+      <c r="B95" t="s">
+        <v>277</v>
+      </c>
+      <c r="C95" s="9">
         <v>225.18115942028999</v>
       </c>
-      <c r="C95" s="9">
+      <c r="D95" s="9">
         <v>173.24074074074099</v>
       </c>
-      <c r="D95" s="10">
+      <c r="E95" s="10">
         <v>162.777777777778</v>
       </c>
-      <c r="E95" s="12">
+      <c r="F95" s="12">
         <f t="shared" si="9"/>
         <v>187.06655931293631</v>
       </c>
-      <c r="F95" s="12">
+      <c r="G95" s="12">
         <f t="shared" si="10"/>
         <v>27.287487419434701</v>
       </c>
-      <c r="G95" s="13">
+      <c r="H95" s="13">
         <f t="shared" si="6"/>
         <v>0.14587047262566333</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>129</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B96" t="s">
+        <v>278</v>
+      </c>
+      <c r="C96" s="9">
         <v>20.149038133154001</v>
       </c>
-      <c r="C96" s="9">
+      <c r="D96" s="9">
         <v>20.6030329668822</v>
       </c>
-      <c r="D96" s="10">
+      <c r="E96" s="10">
         <v>17.435941790015299</v>
       </c>
-      <c r="E96" s="8">
+      <c r="F96" s="8">
         <f t="shared" si="9"/>
         <v>19.396004296683834</v>
       </c>
-      <c r="F96" s="8">
+      <c r="G96" s="8">
         <f t="shared" si="10"/>
         <v>1.3983112671597304</v>
       </c>
-      <c r="G96" s="11">
+      <c r="H96" s="11">
         <f t="shared" si="6"/>
         <v>7.209274888636738E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>130</v>
       </c>
-      <c r="B97" s="9">
+      <c r="B97" t="s">
+        <v>279</v>
+      </c>
+      <c r="C97" s="9">
         <v>18.5718428079613</v>
       </c>
-      <c r="C97" s="9">
+      <c r="D97" s="9">
         <v>19.097491157916298</v>
       </c>
-      <c r="D97" s="10">
+      <c r="E97" s="10">
         <v>14.817036887393099</v>
       </c>
-      <c r="E97" s="8">
+      <c r="F97" s="8">
         <f t="shared" si="9"/>
         <v>17.495456951090233</v>
       </c>
-      <c r="F97" s="8">
+      <c r="G97" s="8">
         <f t="shared" si="10"/>
         <v>1.9060477565132941</v>
       </c>
-      <c r="G97" s="11">
+      <c r="H97" s="11">
         <f t="shared" si="6"/>
         <v>0.10894529716153074</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B98" s="9">
+      <c r="B98" t="s">
+        <v>280</v>
+      </c>
+      <c r="C98" s="9">
         <v>203.421900161031</v>
       </c>
-      <c r="C98" s="9">
+      <c r="D98" s="9">
         <v>164.83695652173901</v>
       </c>
-      <c r="D98" s="10">
+      <c r="E98" s="10">
         <v>167.40740740740699</v>
       </c>
-      <c r="E98" s="12">
+      <c r="F98" s="12">
         <f t="shared" si="9"/>
         <v>178.55542136339236</v>
       </c>
-      <c r="F98" s="12">
+      <c r="G98" s="12">
         <f t="shared" si="10"/>
         <v>17.614541914451781</v>
       </c>
-      <c r="G98" s="13">
-        <f t="shared" ref="G98:G129" si="11">F98/E98</f>
+      <c r="H98" s="13">
+        <f t="shared" ref="H98:H129" si="11">G98/F98</f>
         <v>9.8650277767836705E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>132</v>
       </c>
-      <c r="B99" s="9">
+      <c r="B99" t="s">
+        <v>281</v>
+      </c>
+      <c r="C99" s="9">
         <v>18.9136096838775</v>
       </c>
-      <c r="C99" s="9">
+      <c r="D99" s="9">
         <v>17.7557818893671</v>
       </c>
-      <c r="D99" s="10">
+      <c r="E99" s="10">
         <v>13.793785630534099</v>
       </c>
-      <c r="E99" s="8">
+      <c r="F99" s="8">
         <f t="shared" si="9"/>
         <v>16.821059067926232</v>
       </c>
-      <c r="F99" s="8">
+      <c r="G99" s="8">
         <f t="shared" si="10"/>
         <v>2.1921723850996457</v>
       </c>
-      <c r="G99" s="11">
+      <c r="H99" s="11">
         <f t="shared" si="11"/>
         <v>0.13032308942304341</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="9">
+      <c r="B100" t="s">
+        <v>282</v>
+      </c>
+      <c r="C100" s="9">
         <v>17.1505132580184</v>
       </c>
-      <c r="C100" s="9">
+      <c r="D100" s="9">
         <v>15.9461635698141</v>
       </c>
-      <c r="D100" s="10">
+      <c r="E100" s="10">
         <v>14.3003078998694</v>
       </c>
-      <c r="E100" s="8">
+      <c r="F100" s="8">
         <f t="shared" si="9"/>
         <v>15.798994909233967</v>
       </c>
-      <c r="F100" s="8">
+      <c r="G100" s="8">
         <f t="shared" si="10"/>
         <v>1.1682355946463394</v>
       </c>
-      <c r="G100" s="11">
+      <c r="H100" s="11">
         <f t="shared" si="11"/>
         <v>7.3943665489982921E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="9">
+      <c r="B101" t="s">
+        <v>283</v>
+      </c>
+      <c r="C101" s="9">
         <v>18.483008501351701</v>
       </c>
-      <c r="C101" s="9">
+      <c r="D101" s="9">
         <v>15.166940627092799</v>
       </c>
-      <c r="D101" s="10">
+      <c r="E101" s="10">
         <v>14.541353796046099</v>
       </c>
-      <c r="E101" s="8">
+      <c r="F101" s="8">
         <f t="shared" si="9"/>
         <v>16.063767641496867</v>
       </c>
-      <c r="F101" s="8">
+      <c r="G101" s="8">
         <f t="shared" si="10"/>
         <v>1.7296212445288115</v>
       </c>
-      <c r="G101" s="11">
+      <c r="H101" s="11">
         <f t="shared" si="11"/>
         <v>0.10767220263201221</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>135</v>
       </c>
-      <c r="B102" s="9">
+      <c r="B102" t="s">
+        <v>284</v>
+      </c>
+      <c r="C102" s="9">
         <v>22.985753808242499</v>
       </c>
-      <c r="C102" s="9">
+      <c r="D102" s="9">
         <v>17.301439364497099</v>
       </c>
-      <c r="D102" s="10">
+      <c r="E102" s="10">
         <v>18.759638963852801</v>
       </c>
-      <c r="E102" s="8">
+      <c r="F102" s="8">
         <f t="shared" si="9"/>
         <v>19.682277378864132</v>
       </c>
-      <c r="F102" s="8">
+      <c r="G102" s="8">
         <f t="shared" si="10"/>
         <v>2.4105744692201534</v>
       </c>
-      <c r="G102" s="11">
+      <c r="H102" s="11">
         <f t="shared" si="11"/>
         <v>0.12247436731121143</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B103" s="9">
+      <c r="B103" t="s">
+        <v>285</v>
+      </c>
+      <c r="C103" s="9">
         <v>227.536231884058</v>
       </c>
-      <c r="C103" s="9">
+      <c r="D103" s="9">
         <v>216.57407407407399</v>
       </c>
-      <c r="D103" s="10">
+      <c r="E103" s="10">
         <v>172.87037037037001</v>
       </c>
-      <c r="E103" s="12">
+      <c r="F103" s="12">
         <f t="shared" si="9"/>
         <v>205.66022544283399</v>
       </c>
-      <c r="F103" s="12">
+      <c r="G103" s="12">
         <f t="shared" si="10"/>
         <v>23.613882537152339</v>
       </c>
-      <c r="G103" s="13">
+      <c r="H103" s="13">
         <f t="shared" si="11"/>
         <v>0.11481988063713434</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>137</v>
       </c>
-      <c r="B104" s="9">
+      <c r="B104" t="s">
+        <v>286</v>
+      </c>
+      <c r="C104" s="9">
         <v>21.096825743160501</v>
       </c>
-      <c r="C104" s="9">
+      <c r="D104" s="9">
         <v>19.717793843532998</v>
       </c>
-      <c r="D104" s="10">
+      <c r="E104" s="10">
         <v>17.750195391975002</v>
       </c>
-      <c r="E104" s="8">
+      <c r="F104" s="8">
         <f t="shared" si="9"/>
         <v>19.521604992889497</v>
       </c>
-      <c r="F104" s="8">
+      <c r="G104" s="8">
         <f t="shared" si="10"/>
         <v>1.3732810408426013</v>
       </c>
-      <c r="G104" s="11">
+      <c r="H104" s="11">
         <f t="shared" si="11"/>
         <v>7.0346728219467705E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>138</v>
       </c>
-      <c r="B105" s="9">
+      <c r="B105" t="s">
+        <v>287</v>
+      </c>
+      <c r="C105" s="9">
         <v>17.381584075134501</v>
       </c>
-      <c r="C105" s="9">
+      <c r="D105" s="9">
         <v>13.8441727348063</v>
       </c>
-      <c r="D105" s="10">
+      <c r="E105" s="10">
         <v>16.2135213755028</v>
       </c>
-      <c r="E105" s="8">
+      <c r="F105" s="8">
         <f t="shared" si="9"/>
         <v>15.8130927284812</v>
       </c>
-      <c r="F105" s="8">
+      <c r="G105" s="8">
         <f t="shared" si="10"/>
         <v>1.4716378797533274</v>
       </c>
-      <c r="G105" s="11">
+      <c r="H105" s="11">
         <f t="shared" si="11"/>
         <v>9.3064519700358062E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>139</v>
       </c>
-      <c r="B106" s="9">
+      <c r="B106" t="s">
+        <v>288</v>
+      </c>
+      <c r="C106" s="9">
         <v>10.492617595942299</v>
       </c>
-      <c r="C106" s="9">
+      <c r="D106" s="9">
         <v>15.5397703389723</v>
       </c>
-      <c r="D106" s="10">
+      <c r="E106" s="10">
         <v>9.9751803415595202</v>
       </c>
-      <c r="E106" s="8">
+      <c r="F106" s="8">
         <f t="shared" si="9"/>
         <v>12.002522758824705</v>
       </c>
-      <c r="F106" s="8">
+      <c r="G106" s="8">
         <f t="shared" si="10"/>
         <v>2.5101162868813893</v>
       </c>
-      <c r="G106" s="11">
+      <c r="H106" s="11">
         <f t="shared" si="11"/>
         <v>0.20913239135796327</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>140</v>
       </c>
-      <c r="B107" s="9">
+      <c r="B107" t="s">
+        <v>289</v>
+      </c>
+      <c r="C107" s="9">
         <v>10.1434903215865</v>
       </c>
-      <c r="C107" s="9">
+      <c r="D107" s="9">
         <v>14.2192880841743</v>
       </c>
-      <c r="D107" s="10">
+      <c r="E107" s="10">
         <v>6.4394662980558799</v>
       </c>
-      <c r="E107" s="8">
+      <c r="F107" s="8">
         <f t="shared" si="9"/>
         <v>10.267414901272227</v>
       </c>
-      <c r="F107" s="8">
+      <c r="G107" s="8">
         <f t="shared" si="10"/>
         <v>3.1773075322803783</v>
       </c>
-      <c r="G107" s="11">
+      <c r="H107" s="11">
         <f t="shared" si="11"/>
         <v>0.30945545327935281</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>141</v>
       </c>
-      <c r="B108" s="9">
+      <c r="B108" t="s">
+        <v>290</v>
+      </c>
+      <c r="C108" s="9">
         <v>8.6677635202109293</v>
       </c>
-      <c r="C108" s="9">
+      <c r="D108" s="9">
         <v>8.7907101092964304</v>
       </c>
-      <c r="D108" s="10">
+      <c r="E108" s="10">
         <v>13.460942777743499</v>
       </c>
-      <c r="E108" s="8">
+      <c r="F108" s="8">
         <f t="shared" si="9"/>
         <v>10.306472135750285</v>
       </c>
-      <c r="F108" s="8">
+      <c r="G108" s="8">
         <f t="shared" si="10"/>
         <v>2.2311122397195744</v>
       </c>
-      <c r="G108" s="11">
+      <c r="H108" s="11">
         <f t="shared" si="11"/>
         <v>0.21647681285436815</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>142</v>
       </c>
-      <c r="B109" s="9">
+      <c r="B109" t="s">
+        <v>291</v>
+      </c>
+      <c r="C109" s="9">
         <v>14.356465420976001</v>
       </c>
-      <c r="C109" s="9">
+      <c r="D109" s="9">
         <v>9.0720628197766899</v>
       </c>
-      <c r="D109" s="10">
+      <c r="E109" s="10">
         <v>7.7126794951582003</v>
       </c>
-      <c r="E109" s="8">
+      <c r="F109" s="8">
         <f t="shared" si="9"/>
         <v>10.380402578636962</v>
       </c>
-      <c r="F109" s="8">
+      <c r="G109" s="8">
         <f t="shared" si="10"/>
         <v>2.8657503439162966</v>
       </c>
-      <c r="G109" s="11">
+      <c r="H109" s="11">
         <f t="shared" si="11"/>
         <v>0.27607314092172663</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="9">
+      <c r="B110" t="s">
+        <v>292</v>
+      </c>
+      <c r="C110" s="9">
         <v>9.6298471484311001</v>
       </c>
-      <c r="C110" s="9">
+      <c r="D110" s="9">
         <v>8.2835488503665502</v>
       </c>
-      <c r="D110" s="10">
+      <c r="E110" s="10">
         <v>6.5038017245112103</v>
       </c>
-      <c r="E110" s="8">
+      <c r="F110" s="8">
         <f t="shared" si="9"/>
         <v>8.1390659077696199</v>
       </c>
-      <c r="F110" s="8">
+      <c r="G110" s="8">
         <f t="shared" si="10"/>
         <v>1.2802855120710934</v>
       </c>
-      <c r="G110" s="11">
+      <c r="H110" s="11">
         <f t="shared" si="11"/>
         <v>0.15730128328963675</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>144</v>
       </c>
-      <c r="B111" s="9">
+      <c r="B111" t="s">
+        <v>293</v>
+      </c>
+      <c r="C111" s="9">
         <v>9.8054694343182298</v>
       </c>
-      <c r="C111" s="9">
+      <c r="D111" s="9">
         <v>5.1915489503738899</v>
       </c>
-      <c r="D111" s="10">
+      <c r="E111" s="10">
         <v>11.009068973732001</v>
       </c>
-      <c r="E111" s="8">
+      <c r="F111" s="8">
         <f t="shared" si="9"/>
         <v>8.668695786141372</v>
       </c>
-      <c r="F111" s="8">
+      <c r="G111" s="8">
         <f t="shared" si="10"/>
         <v>2.5073326532306717</v>
       </c>
-      <c r="G111" s="11">
+      <c r="H111" s="11">
         <f t="shared" si="11"/>
         <v>0.28923989433787028</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B112" s="9">
+      <c r="B112" t="s">
+        <v>294</v>
+      </c>
+      <c r="C112" s="9">
         <v>173.404255319149</v>
       </c>
-      <c r="C112" s="9">
+      <c r="D112" s="9">
         <v>151.347132284921</v>
       </c>
-      <c r="D112" s="10">
+      <c r="E112" s="10">
         <v>124.31390687634899</v>
       </c>
-      <c r="E112" s="12">
+      <c r="F112" s="12">
         <f t="shared" si="9"/>
         <v>149.68843149347302</v>
       </c>
-      <c r="F112" s="12">
+      <c r="G112" s="12">
         <f t="shared" si="10"/>
         <v>20.07534215226125</v>
       </c>
-      <c r="G112" s="13">
+      <c r="H112" s="13">
         <f t="shared" si="11"/>
         <v>0.13411418605943914</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B113" s="9">
+      <c r="B113" t="s">
+        <v>295</v>
+      </c>
+      <c r="C113" s="9">
         <v>181.10507246376801</v>
       </c>
-      <c r="C113" s="9">
+      <c r="D113" s="9">
         <v>148.333333333333</v>
       </c>
-      <c r="D113" s="10">
+      <c r="E113" s="10">
         <v>143.333333333333</v>
       </c>
-      <c r="E113" s="12">
+      <c r="F113" s="12">
         <f t="shared" si="9"/>
         <v>157.59057971014468</v>
       </c>
-      <c r="F113" s="12">
+      <c r="G113" s="12">
         <f t="shared" si="10"/>
         <v>16.752084986554976</v>
       </c>
-      <c r="G113" s="13">
+      <c r="H113" s="13">
         <f t="shared" si="11"/>
         <v>0.10630130949049732</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>147</v>
       </c>
-      <c r="B114" s="9">
+      <c r="B114" t="s">
+        <v>296</v>
+      </c>
+      <c r="C114" s="9">
         <v>32.554580912047001</v>
       </c>
-      <c r="C114" s="9">
+      <c r="D114" s="9">
         <v>35.053579736613301</v>
       </c>
-      <c r="D114" s="10">
+      <c r="E114" s="10">
         <v>34.510294968036099</v>
       </c>
-      <c r="E114" s="8">
+      <c r="F114" s="8">
         <f t="shared" si="9"/>
         <v>34.039485205565462</v>
       </c>
-      <c r="F114" s="8">
+      <c r="G114" s="8">
         <f t="shared" si="10"/>
         <v>1.073155830754688</v>
       </c>
-      <c r="G114" s="11">
+      <c r="H114" s="11">
         <f t="shared" si="11"/>
         <v>3.1526793788856325E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B115" s="9">
+      <c r="B115" t="s">
+        <v>297</v>
+      </c>
+      <c r="C115" s="9">
         <v>227.504025764895</v>
       </c>
-      <c r="C115" s="9">
+      <c r="D115" s="9">
         <v>201.799242424243</v>
       </c>
-      <c r="D115" s="10">
+      <c r="E115" s="10">
         <v>173.333333333333</v>
       </c>
-      <c r="E115" s="12">
+      <c r="F115" s="12">
         <f t="shared" si="9"/>
         <v>200.87886717415699</v>
       </c>
-      <c r="F115" s="12">
+      <c r="G115" s="12">
         <f t="shared" si="10"/>
         <v>22.124666439360507</v>
       </c>
-      <c r="G115" s="13">
+      <c r="H115" s="13">
         <f t="shared" si="11"/>
         <v>0.11013934293137451</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B116" s="9">
+      <c r="B116" t="s">
+        <v>298</v>
+      </c>
+      <c r="C116" s="9">
         <v>191.111111111111</v>
       </c>
-      <c r="C116" s="9">
+      <c r="D116" s="9">
         <v>159.444444444444</v>
       </c>
-      <c r="D116" s="10">
+      <c r="E116" s="10">
         <v>158.14814814814801</v>
       </c>
-      <c r="E116" s="12">
+      <c r="F116" s="12">
         <f t="shared" si="9"/>
         <v>169.56790123456767</v>
       </c>
-      <c r="F116" s="12">
+      <c r="G116" s="12">
         <f t="shared" si="10"/>
         <v>15.242539483531898</v>
       </c>
-      <c r="G116" s="13">
+      <c r="H116" s="13">
         <f t="shared" si="11"/>
         <v>8.9890476750352055E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B117" s="9">
+      <c r="B117" t="s">
+        <v>299</v>
+      </c>
+      <c r="C117" s="9">
         <v>190.03421900161001</v>
       </c>
-      <c r="C117" s="9">
+      <c r="D117" s="9">
         <v>159.35185185185199</v>
       </c>
-      <c r="D117" s="10">
+      <c r="E117" s="10">
         <v>143.888888888889</v>
       </c>
-      <c r="E117" s="12">
+      <c r="F117" s="12">
         <f t="shared" si="9"/>
         <v>164.42498658078367</v>
       </c>
-      <c r="F117" s="12">
+      <c r="G117" s="12">
         <f t="shared" si="10"/>
         <v>19.177250320565008</v>
       </c>
-      <c r="G117" s="13">
+      <c r="H117" s="13">
         <f t="shared" si="11"/>
         <v>0.11663221460044353</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B118" s="9">
+      <c r="B118" t="s">
+        <v>300</v>
+      </c>
+      <c r="C118" s="9">
         <v>192.96296296296299</v>
       </c>
-      <c r="C118" s="9">
+      <c r="D118" s="9">
         <v>151.944444444444</v>
       </c>
-      <c r="D118" s="10">
+      <c r="E118" s="10">
         <v>145.09259259259301</v>
       </c>
-      <c r="E118" s="12">
+      <c r="F118" s="12">
         <f t="shared" si="9"/>
         <v>163.33333333333334</v>
       </c>
-      <c r="F118" s="12">
+      <c r="G118" s="12">
         <f t="shared" si="10"/>
         <v>21.137221237139912</v>
       </c>
-      <c r="G118" s="13">
+      <c r="H118" s="13">
         <f t="shared" si="11"/>
         <v>0.12941155859473413</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="B119" s="9">
+      <c r="B119" t="s">
+        <v>301</v>
+      </c>
+      <c r="C119" s="9">
         <v>171.54255319148899</v>
       </c>
-      <c r="C119" s="9">
+      <c r="D119" s="9">
         <v>152.26449275362299</v>
       </c>
-      <c r="D119" s="10">
+      <c r="E119" s="10">
         <v>130.878045020043</v>
       </c>
-      <c r="E119" s="12">
+      <c r="F119" s="12">
         <f t="shared" si="9"/>
         <v>151.56169698838502</v>
       </c>
-      <c r="F119" s="12">
+      <c r="G119" s="12">
         <f t="shared" si="10"/>
         <v>16.608652315828699</v>
       </c>
-      <c r="G119" s="13">
+      <c r="H119" s="13">
         <f t="shared" si="11"/>
         <v>0.10958344123780502</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>153</v>
       </c>
-      <c r="B120" s="9">
+      <c r="B120" t="s">
+        <v>302</v>
+      </c>
+      <c r="C120" s="9">
         <v>15.305042027128501</v>
       </c>
-      <c r="C120" s="9">
+      <c r="D120" s="9">
         <v>15.1781787182302</v>
       </c>
-      <c r="D120" s="10">
+      <c r="E120" s="10">
         <v>14.144547979727999</v>
       </c>
-      <c r="E120" s="8">
+      <c r="F120" s="8">
         <f t="shared" si="9"/>
         <v>14.875922908362233</v>
       </c>
-      <c r="F120" s="8">
+      <c r="G120" s="8">
         <f t="shared" si="10"/>
         <v>0.51974707917229923</v>
       </c>
-      <c r="G120" s="11">
+      <c r="H120" s="11">
         <f t="shared" si="11"/>
         <v>3.4938812359677718E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="B121" s="9">
+      <c r="B121" t="s">
+        <v>303</v>
+      </c>
+      <c r="C121" s="9">
         <v>172.01086956521701</v>
       </c>
-      <c r="C121" s="9">
+      <c r="D121" s="9">
         <v>153.14814814814801</v>
       </c>
-      <c r="D121" s="10">
+      <c r="E121" s="10">
         <v>122.777777777778</v>
       </c>
-      <c r="E121" s="12">
+      <c r="F121" s="12">
         <f t="shared" si="9"/>
         <v>149.31226516371433</v>
       </c>
-      <c r="F121" s="12">
+      <c r="G121" s="12">
         <f t="shared" si="10"/>
         <v>20.281515894040112</v>
       </c>
-      <c r="G121" s="13">
+      <c r="H121" s="13">
         <f t="shared" si="11"/>
         <v>0.13583288601108773</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B122" s="9">
+      <c r="B122" t="s">
+        <v>304</v>
+      </c>
+      <c r="C122" s="9">
         <v>168.84057971014499</v>
       </c>
-      <c r="C122" s="9">
+      <c r="D122" s="9">
         <v>133.695652173913</v>
       </c>
-      <c r="D122" s="10">
+      <c r="E122" s="10">
         <v>120.38647342995201</v>
       </c>
-      <c r="E122" s="12">
+      <c r="F122" s="12">
         <f t="shared" si="9"/>
         <v>140.97423510466999</v>
       </c>
-      <c r="F122" s="12">
+      <c r="G122" s="12">
         <f t="shared" si="10"/>
         <v>20.43988634937406</v>
       </c>
-      <c r="G122" s="13">
+      <c r="H122" s="13">
         <f t="shared" si="11"/>
         <v>0.14499022700281322</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="B123" s="9">
+      <c r="B123" t="s">
+        <v>305</v>
+      </c>
+      <c r="C123" s="9">
         <v>178.62318840579701</v>
       </c>
-      <c r="C123" s="9">
+      <c r="D123" s="9">
         <v>138.58695652173901</v>
       </c>
-      <c r="D123" s="10">
+      <c r="E123" s="10">
         <v>112.21014492753601</v>
       </c>
-      <c r="E123" s="12">
-        <f t="shared" ref="E123:E154" si="12">AVERAGE(B123:D123)</f>
+      <c r="F123" s="12">
+        <f t="shared" ref="F123:F154" si="12">AVERAGE(C123:E123)</f>
         <v>143.14009661835735</v>
       </c>
-      <c r="F123" s="12">
-        <f t="shared" ref="F123:F154" si="13">_xlfn.STDEV.P(B123:D123)</f>
+      <c r="G123" s="12">
+        <f t="shared" ref="G123:G154" si="13">_xlfn.STDEV.P(C123:E123)</f>
         <v>27.303496718258462</v>
       </c>
-      <c r="G123" s="13">
+      <c r="H123" s="13">
         <f t="shared" si="11"/>
         <v>0.19074666961456319</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B124" s="9">
+      <c r="B124" t="s">
+        <v>306</v>
+      </c>
+      <c r="C124" s="9">
         <v>167.55319148936201</v>
       </c>
-      <c r="C124" s="9">
+      <c r="D124" s="9">
         <v>136.82932469935199</v>
       </c>
-      <c r="D124" s="10">
+      <c r="E124" s="10">
         <v>110.47833795868</v>
       </c>
-      <c r="E124" s="12">
+      <c r="F124" s="12">
         <f t="shared" si="12"/>
         <v>138.28695138246468</v>
       </c>
-      <c r="F124" s="12">
+      <c r="G124" s="12">
         <f t="shared" si="13"/>
         <v>23.323496493846122</v>
       </c>
-      <c r="G124" s="13">
+      <c r="H124" s="13">
         <f t="shared" si="11"/>
         <v>0.16866013937453561</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B125" s="9">
+      <c r="B125" t="s">
+        <v>307</v>
+      </c>
+      <c r="C125" s="9">
         <v>169.47463768116</v>
       </c>
-      <c r="C125" s="9">
+      <c r="D125" s="9">
         <v>139.32165861513701</v>
       </c>
-      <c r="D125" s="10">
+      <c r="E125" s="10">
         <v>118.792517006803</v>
       </c>
-      <c r="E125" s="12">
+      <c r="F125" s="12">
         <f t="shared" si="12"/>
         <v>142.52960443436666</v>
       </c>
-      <c r="F125" s="12">
+      <c r="G125" s="12">
         <f t="shared" si="13"/>
         <v>20.814858896100482</v>
       </c>
-      <c r="G125" s="13">
+      <c r="H125" s="13">
         <f t="shared" si="11"/>
         <v>0.14603884560477748</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B126" s="9">
+      <c r="B126" t="s">
+        <v>308</v>
+      </c>
+      <c r="C126" s="9">
         <v>194.23510466988699</v>
       </c>
-      <c r="C126" s="9">
+      <c r="D126" s="9">
         <v>154.166666666667</v>
       </c>
-      <c r="D126" s="10">
+      <c r="E126" s="10">
         <v>156.944444444444</v>
       </c>
-      <c r="E126" s="12">
+      <c r="F126" s="12">
         <f t="shared" si="12"/>
         <v>168.44873859366601</v>
       </c>
-      <c r="F126" s="12">
+      <c r="G126" s="12">
         <f t="shared" si="13"/>
         <v>18.268944850179224</v>
       </c>
-      <c r="G126" s="13">
+      <c r="H126" s="13">
         <f t="shared" si="11"/>
         <v>0.10845403178855369</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B127" s="9">
+      <c r="B127" t="s">
+        <v>309</v>
+      </c>
+      <c r="C127" s="9">
         <v>249.19283413848601</v>
       </c>
-      <c r="C127" s="9">
+      <c r="D127" s="9">
         <v>222.916666666667</v>
       </c>
-      <c r="D127" s="10">
+      <c r="E127" s="10">
         <v>196.111111111111</v>
       </c>
-      <c r="E127" s="12">
+      <c r="F127" s="12">
         <f t="shared" si="12"/>
         <v>222.74020397208801</v>
       </c>
-      <c r="F127" s="12">
+      <c r="G127" s="12">
         <f t="shared" si="13"/>
         <v>21.670881910998638</v>
       </c>
-      <c r="G127" s="13">
+      <c r="H127" s="13">
         <f t="shared" si="11"/>
         <v>9.729218849828411E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B128" s="9">
+      <c r="B128" t="s">
+        <v>310</v>
+      </c>
+      <c r="C128" s="9">
         <v>209.55515297906601</v>
       </c>
-      <c r="C128" s="9">
+      <c r="D128" s="9">
         <v>160.74074074074099</v>
       </c>
-      <c r="D128" s="10">
+      <c r="E128" s="10">
         <v>163.70370370370401</v>
       </c>
-      <c r="E128" s="12">
+      <c r="F128" s="12">
         <f t="shared" si="12"/>
         <v>177.99986580783698</v>
       </c>
-      <c r="F128" s="12">
+      <c r="G128" s="12">
         <f t="shared" si="13"/>
         <v>22.345721420800277</v>
       </c>
-      <c r="G128" s="13">
+      <c r="H128" s="13">
         <f t="shared" si="11"/>
         <v>0.12553785543256538</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="B129" s="9">
+      <c r="B129" t="s">
+        <v>311</v>
+      </c>
+      <c r="C129" s="9">
         <v>189.90740740740699</v>
       </c>
-      <c r="C129" s="9">
+      <c r="D129" s="9">
         <v>160.92592592592601</v>
       </c>
-      <c r="D129" s="10">
+      <c r="E129" s="10">
         <v>147.40740740740699</v>
       </c>
-      <c r="E129" s="12">
+      <c r="F129" s="12">
         <f t="shared" si="12"/>
         <v>166.08024691358</v>
       </c>
-      <c r="F129" s="12">
+      <c r="G129" s="12">
         <f t="shared" si="13"/>
         <v>17.729218231172808</v>
       </c>
-      <c r="G129" s="13">
+      <c r="H129" s="13">
         <f t="shared" si="11"/>
         <v>0.10675091445642071</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>163</v>
       </c>
-      <c r="B130" s="9">
+      <c r="B130" t="s">
+        <v>312</v>
+      </c>
+      <c r="C130" s="9">
         <v>18.044331488042999</v>
       </c>
-      <c r="C130" s="9">
+      <c r="D130" s="9">
         <v>17.026579118668899</v>
       </c>
-      <c r="D130" s="10">
+      <c r="E130" s="10">
         <v>18.735215130452001</v>
       </c>
-      <c r="E130" s="8">
+      <c r="F130" s="8">
         <f t="shared" si="12"/>
         <v>17.9353752457213</v>
       </c>
-      <c r="F130" s="8">
+      <c r="G130" s="8">
         <f t="shared" si="13"/>
         <v>0.70178954691852624</v>
       </c>
-      <c r="G130" s="11">
-        <f t="shared" ref="G130:G161" si="14">F130/E130</f>
+      <c r="H130" s="11">
+        <f t="shared" ref="H130:H161" si="14">G130/F130</f>
         <v>3.9128790856268622E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B131" s="9">
+      <c r="B131" t="s">
+        <v>313</v>
+      </c>
+      <c r="C131" s="9">
         <v>174.53703703703701</v>
       </c>
-      <c r="C131" s="9">
+      <c r="D131" s="9">
         <v>140.74074074074099</v>
       </c>
-      <c r="D131" s="10">
+      <c r="E131" s="10">
         <v>137.777777777778</v>
       </c>
-      <c r="E131" s="12">
+      <c r="F131" s="12">
         <f t="shared" si="12"/>
         <v>151.01851851851868</v>
       </c>
-      <c r="F131" s="12">
+      <c r="G131" s="12">
         <f t="shared" si="13"/>
         <v>16.674038150357973</v>
       </c>
-      <c r="G131" s="13">
+      <c r="H131" s="13">
         <f t="shared" si="14"/>
         <v>0.11041055304958057</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B132" s="9">
+      <c r="B132" t="s">
+        <v>314</v>
+      </c>
+      <c r="C132" s="9">
         <v>173.55072463768099</v>
       </c>
-      <c r="C132" s="9">
+      <c r="D132" s="9">
         <v>151.01851851851899</v>
       </c>
-      <c r="D132" s="10">
+      <c r="E132" s="10">
         <v>138.28703703703701</v>
       </c>
-      <c r="E132" s="12">
+      <c r="F132" s="12">
         <f t="shared" si="12"/>
         <v>154.28542673107899</v>
       </c>
-      <c r="F132" s="12">
+      <c r="G132" s="12">
         <f t="shared" si="13"/>
         <v>14.580499139853934</v>
       </c>
-      <c r="G132" s="13">
+      <c r="H132" s="13">
         <f t="shared" si="14"/>
         <v>9.4503411299291976E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>166</v>
       </c>
-      <c r="B133" s="9">
+      <c r="B133" t="s">
+        <v>315</v>
+      </c>
+      <c r="C133" s="9">
         <v>14.916494132623599</v>
       </c>
-      <c r="C133" s="9">
+      <c r="D133" s="9">
         <v>8.8918135448674906</v>
       </c>
-      <c r="D133" s="10">
+      <c r="E133" s="10">
         <v>12.4872525408</v>
       </c>
-      <c r="E133" s="8">
+      <c r="F133" s="8">
         <f t="shared" si="12"/>
         <v>12.098520072763696</v>
       </c>
-      <c r="F133" s="8">
+      <c r="G133" s="8">
         <f t="shared" si="13"/>
         <v>2.4748776057144819</v>
       </c>
-      <c r="G133" s="11">
+      <c r="H133" s="11">
         <f t="shared" si="14"/>
         <v>0.20456035869097328</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>167</v>
       </c>
-      <c r="B134" s="9">
+      <c r="B134" t="s">
+        <v>316</v>
+      </c>
+      <c r="C134" s="9">
         <v>24.083585851665202</v>
       </c>
-      <c r="C134" s="9">
+      <c r="D134" s="9">
         <v>25.385307198556099</v>
       </c>
-      <c r="D134" s="10">
+      <c r="E134" s="10">
         <v>25.3105258738766</v>
       </c>
-      <c r="E134" s="8">
+      <c r="F134" s="8">
         <f t="shared" si="12"/>
         <v>24.926472974699298</v>
       </c>
-      <c r="F134" s="8">
+      <c r="G134" s="8">
         <f t="shared" si="13"/>
         <v>0.5967925872320744</v>
       </c>
-      <c r="G134" s="11">
+      <c r="H134" s="11">
         <f t="shared" si="14"/>
         <v>2.3942119201454087E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>168</v>
       </c>
-      <c r="B135" s="9">
+      <c r="B135" t="s">
+        <v>317</v>
+      </c>
+      <c r="C135" s="9">
         <v>10.885418832772601</v>
       </c>
-      <c r="C135" s="9">
+      <c r="D135" s="9">
         <v>13.208940651492799</v>
       </c>
-      <c r="D135" s="10">
+      <c r="E135" s="10">
         <v>11.197136856498</v>
       </c>
-      <c r="E135" s="8">
+      <c r="F135" s="8">
         <f t="shared" si="12"/>
         <v>11.763832113587801</v>
       </c>
-      <c r="F135" s="8">
+      <c r="G135" s="8">
         <f t="shared" si="13"/>
         <v>1.0297397879475056</v>
       </c>
-      <c r="G135" s="11">
+      <c r="H135" s="11">
         <f t="shared" si="14"/>
         <v>8.7534383184379672E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>169</v>
       </c>
-      <c r="B136" s="9">
+      <c r="B136" t="s">
+        <v>318</v>
+      </c>
+      <c r="C136" s="9">
         <v>8.2726031809289804</v>
       </c>
-      <c r="C136" s="9">
+      <c r="D136" s="9">
         <v>0.834117077063385</v>
       </c>
-      <c r="D136" s="10">
+      <c r="E136" s="10">
         <v>9.6026487579800008</v>
       </c>
-      <c r="E136" s="8">
+      <c r="F136" s="8">
         <f t="shared" si="12"/>
         <v>6.2364563386574545</v>
       </c>
-      <c r="F136" s="8">
+      <c r="G136" s="8">
         <f t="shared" si="13"/>
         <v>3.8584286466797879</v>
       </c>
-      <c r="G136" s="11">
+      <c r="H136" s="11">
         <f t="shared" si="14"/>
         <v>0.61868927435005605</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>170</v>
       </c>
-      <c r="B137" s="9">
+      <c r="B137" t="s">
+        <v>319</v>
+      </c>
+      <c r="C137" s="9">
         <v>9.8626405043049807</v>
       </c>
-      <c r="C137" s="9">
+      <c r="D137" s="9">
         <v>1.9485769063165499</v>
       </c>
-      <c r="D137" s="10">
+      <c r="E137" s="10">
         <v>4.7606863315020496</v>
       </c>
-      <c r="E137" s="8">
+      <c r="F137" s="8">
         <f t="shared" si="12"/>
         <v>5.5239679140411937</v>
       </c>
-      <c r="F137" s="8">
+      <c r="G137" s="8">
         <f t="shared" si="13"/>
         <v>3.2756729322826676</v>
       </c>
-      <c r="G137" s="11">
+      <c r="H137" s="11">
         <f t="shared" si="14"/>
         <v>0.59299275145250963</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>171</v>
       </c>
-      <c r="B138" s="9">
+      <c r="B138" t="s">
+        <v>320</v>
+      </c>
+      <c r="C138" s="9">
         <v>42.834914811867598</v>
       </c>
-      <c r="C138" s="9">
+      <c r="D138" s="9">
         <v>41.799990356623297</v>
       </c>
-      <c r="D138" s="10">
+      <c r="E138" s="10">
         <v>42.584558382444698</v>
       </c>
-      <c r="E138" s="8">
+      <c r="F138" s="8">
         <f t="shared" si="12"/>
         <v>42.406487850311862</v>
       </c>
-      <c r="F138" s="8">
+      <c r="G138" s="8">
         <f t="shared" si="13"/>
         <v>0.44086958980801505</v>
       </c>
-      <c r="G138" s="11">
+      <c r="H138" s="11">
         <f t="shared" si="14"/>
         <v>1.0396276894333112E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>172</v>
       </c>
-      <c r="B139" s="9">
+      <c r="B139" t="s">
+        <v>321</v>
+      </c>
+      <c r="C139" s="9">
         <v>54.782242372550499</v>
       </c>
-      <c r="C139" s="9">
+      <c r="D139" s="9">
         <v>48.489184510446499</v>
       </c>
-      <c r="D139" s="10">
+      <c r="E139" s="10">
         <v>61.284186979425101</v>
       </c>
-      <c r="E139" s="8">
+      <c r="F139" s="8">
         <f t="shared" si="12"/>
         <v>54.851871287474033</v>
       </c>
-      <c r="F139" s="8">
+      <c r="G139" s="8">
         <f t="shared" si="13"/>
         <v>5.2237699148308083</v>
       </c>
-      <c r="G139" s="11">
+      <c r="H139" s="11">
         <f t="shared" si="14"/>
         <v>9.5234124054828881E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B140" s="9">
+      <c r="B140" t="s">
+        <v>322</v>
+      </c>
+      <c r="C140" s="9">
         <v>193.611111111111</v>
       </c>
-      <c r="C140" s="9">
+      <c r="D140" s="9">
         <v>154.166666666667</v>
       </c>
-      <c r="D140" s="10">
+      <c r="E140" s="10">
         <v>157.18397745571701</v>
       </c>
-      <c r="E140" s="12">
+      <c r="F140" s="12">
         <f t="shared" si="12"/>
         <v>168.32058507783168</v>
       </c>
-      <c r="F140" s="12">
+      <c r="G140" s="12">
         <f t="shared" si="13"/>
         <v>17.925476681330977</v>
       </c>
-      <c r="G140" s="13">
+      <c r="H140" s="13">
         <f t="shared" si="14"/>
         <v>0.10649604546610987</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>174</v>
       </c>
-      <c r="B141" s="9">
+      <c r="B141" t="s">
+        <v>323</v>
+      </c>
+      <c r="C141" s="9">
         <v>7.2862919305713403</v>
       </c>
-      <c r="C141" s="9">
+      <c r="D141" s="9">
         <v>4.8375931832245396</v>
       </c>
-      <c r="D141" s="10">
+      <c r="E141" s="10">
         <v>12.778585098080001</v>
       </c>
-      <c r="E141" s="8">
+      <c r="F141" s="8">
         <f t="shared" si="12"/>
         <v>8.3008234039586259</v>
       </c>
-      <c r="F141" s="8">
+      <c r="G141" s="8">
         <f t="shared" si="13"/>
         <v>3.320320640221361</v>
       </c>
-      <c r="G141" s="11">
+      <c r="H141" s="11">
         <f t="shared" si="14"/>
         <v>0.39999894933771446</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>175</v>
       </c>
-      <c r="B142" s="9">
+      <c r="B142" t="s">
+        <v>324</v>
+      </c>
+      <c r="C142" s="9">
         <v>9.8604800354795206</v>
       </c>
-      <c r="C142" s="9">
+      <c r="D142" s="9">
         <v>10.286195347809601</v>
       </c>
-      <c r="D142" s="10">
+      <c r="E142" s="10">
         <v>6.1302389063803604</v>
       </c>
-      <c r="E142" s="8">
+      <c r="F142" s="8">
         <f t="shared" si="12"/>
         <v>8.7589714298898276</v>
       </c>
-      <c r="F142" s="8">
+      <c r="G142" s="8">
         <f t="shared" si="13"/>
         <v>1.8669019599156651</v>
       </c>
-      <c r="G142" s="11">
+      <c r="H142" s="11">
         <f t="shared" si="14"/>
         <v>0.21314168848009901</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>176</v>
       </c>
-      <c r="B143" s="9">
+      <c r="B143" t="s">
+        <v>325</v>
+      </c>
+      <c r="C143" s="9">
         <v>6.6736887101062097</v>
       </c>
-      <c r="C143" s="9">
+      <c r="D143" s="9">
         <v>6.6778221364133703</v>
       </c>
-      <c r="D143" s="10">
+      <c r="E143" s="10">
         <v>3.9872387391550799</v>
       </c>
-      <c r="E143" s="8">
+      <c r="F143" s="8">
         <f t="shared" si="12"/>
         <v>5.7795831952248875</v>
       </c>
-      <c r="F143" s="8">
+      <c r="G143" s="8">
         <f t="shared" si="13"/>
         <v>1.2673800425040533</v>
       </c>
-      <c r="G143" s="11">
+      <c r="H143" s="11">
         <f t="shared" si="14"/>
         <v>0.21928571658094087</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>177</v>
       </c>
-      <c r="B144" s="9">
+      <c r="B144" t="s">
+        <v>326</v>
+      </c>
+      <c r="C144" s="9">
         <v>8.10189629380619</v>
       </c>
-      <c r="C144" s="9">
+      <c r="D144" s="9">
         <v>5.1947052801195701</v>
       </c>
-      <c r="D144" s="10">
+      <c r="E144" s="10">
         <v>6.08393613684449</v>
       </c>
-      <c r="E144" s="8">
+      <c r="F144" s="8">
         <f t="shared" si="12"/>
         <v>6.4601792369234161</v>
       </c>
-      <c r="F144" s="8">
+      <c r="G144" s="8">
         <f t="shared" si="13"/>
         <v>1.2163083628430251</v>
       </c>
-      <c r="G144" s="11">
+      <c r="H144" s="11">
         <f t="shared" si="14"/>
         <v>0.18827780441309824</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>178</v>
       </c>
-      <c r="B145" s="9">
+      <c r="B145" t="s">
+        <v>327</v>
+      </c>
+      <c r="C145" s="9">
         <v>7.8378434513845301</v>
       </c>
-      <c r="C145" s="9">
+      <c r="D145" s="9">
         <v>12.2247966927098</v>
       </c>
-      <c r="D145" s="10">
+      <c r="E145" s="10">
         <v>4.9768393001559801</v>
       </c>
-      <c r="E145" s="8">
+      <c r="F145" s="8">
         <f t="shared" si="12"/>
         <v>8.3464931480834377</v>
       </c>
-      <c r="F145" s="8">
+      <c r="G145" s="8">
         <f t="shared" si="13"/>
         <v>2.9807454298696037</v>
       </c>
-      <c r="G145" s="11">
+      <c r="H145" s="11">
         <f t="shared" si="14"/>
         <v>0.35712548695424939</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>179</v>
       </c>
-      <c r="B146" s="9">
+      <c r="B146" t="s">
+        <v>328</v>
+      </c>
+      <c r="C146" s="9">
         <v>8.7362660316005805</v>
       </c>
-      <c r="C146" s="9">
+      <c r="D146" s="9">
         <v>1.88665949583112</v>
       </c>
-      <c r="D146" s="10">
+      <c r="E146" s="10">
         <v>6.3531069281981196</v>
       </c>
-      <c r="E146" s="8">
+      <c r="F146" s="8">
         <f t="shared" si="12"/>
         <v>5.6586774852099397</v>
       </c>
-      <c r="F146" s="8">
+      <c r="G146" s="8">
         <f t="shared" si="13"/>
         <v>2.8391256414819663</v>
       </c>
-      <c r="G146" s="11">
+      <c r="H146" s="11">
         <f t="shared" si="14"/>
         <v>0.50172953820085642</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>180</v>
       </c>
-      <c r="B147" s="9">
+      <c r="B147" t="s">
+        <v>329</v>
+      </c>
+      <c r="C147" s="9">
         <v>7.4123421102995204</v>
       </c>
-      <c r="C147" s="9">
+      <c r="D147" s="9">
         <v>6.2807530913698004</v>
       </c>
-      <c r="D147" s="10">
+      <c r="E147" s="10">
         <v>5.5892327302852403</v>
       </c>
-      <c r="E147" s="8">
+      <c r="F147" s="8">
         <f t="shared" si="12"/>
         <v>6.427442643984854</v>
       </c>
-      <c r="F147" s="8">
+      <c r="G147" s="8">
         <f t="shared" si="13"/>
         <v>0.75147424950728858</v>
       </c>
-      <c r="G147" s="11">
+      <c r="H147" s="11">
         <f t="shared" si="14"/>
         <v>0.11691652358976062</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>181</v>
       </c>
-      <c r="B148" s="9">
+      <c r="B148" t="s">
+        <v>330</v>
+      </c>
+      <c r="C148" s="9">
         <v>32.930016127177701</v>
       </c>
-      <c r="C148" s="9">
+      <c r="D148" s="9">
         <v>34.424820758338001</v>
       </c>
-      <c r="D148" s="10">
+      <c r="E148" s="10">
         <v>30.885629667405102</v>
       </c>
-      <c r="E148" s="8">
+      <c r="F148" s="8">
         <f t="shared" si="12"/>
         <v>32.746822184306936</v>
       </c>
-      <c r="F148" s="8">
+      <c r="G148" s="8">
         <f t="shared" si="13"/>
         <v>1.4506638503487761</v>
       </c>
-      <c r="G148" s="11">
+      <c r="H148" s="11">
         <f t="shared" si="14"/>
         <v>4.429937788112976E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>182</v>
       </c>
-      <c r="B149" s="9">
+      <c r="B149" t="s">
+        <v>331</v>
+      </c>
+      <c r="C149" s="9">
         <v>23.943149496343601</v>
       </c>
-      <c r="C149" s="9">
+      <c r="D149" s="9">
         <v>27.1253594218736</v>
       </c>
-      <c r="D149" s="10">
+      <c r="E149" s="10">
         <v>24.981477248295</v>
       </c>
-      <c r="E149" s="8">
+      <c r="F149" s="8">
         <f t="shared" si="12"/>
         <v>25.349995388837403</v>
       </c>
-      <c r="F149" s="8">
+      <c r="G149" s="8">
         <f t="shared" si="13"/>
         <v>1.3250079792129639</v>
       </c>
-      <c r="G149" s="11">
+      <c r="H149" s="11">
         <f t="shared" si="14"/>
         <v>5.2268568845437222E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>183</v>
       </c>
-      <c r="B150" s="9">
+      <c r="B150" t="s">
+        <v>332</v>
+      </c>
+      <c r="C150" s="9">
         <v>20.224052323266399</v>
       </c>
-      <c r="C150" s="9">
+      <c r="D150" s="9">
         <v>16.720464833403899</v>
       </c>
-      <c r="D150" s="10">
+      <c r="E150" s="10">
         <v>17.479604211041199</v>
       </c>
-      <c r="E150" s="8">
+      <c r="F150" s="8">
         <f t="shared" si="12"/>
         <v>18.141373789237168</v>
       </c>
-      <c r="F150" s="8">
+      <c r="G150" s="8">
         <f t="shared" si="13"/>
         <v>1.5049331227111069</v>
       </c>
-      <c r="G150" s="11">
+      <c r="H150" s="11">
         <f t="shared" si="14"/>
         <v>8.2955852197034094E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>96</v>
       </c>
-      <c r="B151" s="9">
+      <c r="B151" t="s">
+        <v>333</v>
+      </c>
+      <c r="C151" s="9">
         <v>23.925119646690298</v>
       </c>
-      <c r="C151" s="9">
+      <c r="D151" s="9">
         <v>26.130371148719199</v>
       </c>
-      <c r="D151" s="10">
+      <c r="E151" s="10">
         <v>21.550748875055401</v>
       </c>
-      <c r="E151" s="8">
+      <c r="F151" s="8">
         <f t="shared" si="12"/>
         <v>23.868746556821634</v>
       </c>
-      <c r="F151" s="8">
+      <c r="G151" s="8">
         <f t="shared" si="13"/>
         <v>1.8700478579090605</v>
       </c>
-      <c r="G151" s="11">
+      <c r="H151" s="11">
         <f t="shared" si="14"/>
         <v>7.8347132869220779E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>97</v>
       </c>
-      <c r="B152" s="9">
+      <c r="B152" t="s">
+        <v>334</v>
+      </c>
+      <c r="C152" s="9">
         <v>18.5687819778795</v>
       </c>
-      <c r="C152" s="9">
+      <c r="D152" s="9">
         <v>16.7802787477398</v>
       </c>
-      <c r="D152" s="10">
+      <c r="E152" s="10">
         <v>16.6837770608205</v>
       </c>
-      <c r="E152" s="8">
+      <c r="F152" s="8">
         <f t="shared" si="12"/>
         <v>17.3442792621466</v>
       </c>
-      <c r="F152" s="8">
+      <c r="G152" s="8">
         <f t="shared" si="13"/>
         <v>0.8667499906826277</v>
       </c>
-      <c r="G152" s="11">
+      <c r="H152" s="11">
         <f t="shared" si="14"/>
         <v>4.9973249253100135E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>98</v>
       </c>
-      <c r="B153" s="9">
+      <c r="B153" t="s">
+        <v>335</v>
+      </c>
+      <c r="C153" s="9">
         <v>32.562747097654402</v>
       </c>
-      <c r="C153" s="9">
+      <c r="D153" s="9">
         <v>32.481046429710197</v>
       </c>
-      <c r="D153" s="10">
+      <c r="E153" s="10">
         <v>37.260497209255398</v>
       </c>
-      <c r="E153" s="8">
+      <c r="F153" s="8">
         <f t="shared" si="12"/>
         <v>34.101430245540001</v>
       </c>
-      <c r="F153" s="8">
+      <c r="G153" s="8">
         <f t="shared" si="13"/>
         <v>2.23404667374612</v>
       </c>
-      <c r="G153" s="11">
+      <c r="H153" s="11">
         <f t="shared" si="14"/>
         <v>6.5511817471007761E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B154" s="9">
+      <c r="B154" t="s">
+        <v>336</v>
+      </c>
+      <c r="C154" s="9">
         <v>174.45652173913001</v>
       </c>
-      <c r="C154" s="9">
+      <c r="D154" s="9">
         <v>149.27536231884099</v>
       </c>
-      <c r="D154" s="10">
+      <c r="E154" s="10">
         <v>137.952898550725</v>
       </c>
-      <c r="E154" s="12">
+      <c r="F154" s="12">
         <f t="shared" si="12"/>
         <v>153.89492753623199</v>
       </c>
-      <c r="F154" s="12">
+      <c r="G154" s="12">
         <f t="shared" si="13"/>
         <v>15.256341054756252</v>
       </c>
-      <c r="G154" s="13">
+      <c r="H154" s="13">
         <f t="shared" si="14"/>
         <v>9.9134788254566744E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>100</v>
       </c>
-      <c r="B155" s="9">
+      <c r="B155" t="s">
+        <v>337</v>
+      </c>
+      <c r="C155" s="9">
         <v>6.8681376098983398</v>
       </c>
-      <c r="C155" s="9">
+      <c r="D155" s="9">
         <v>13.894462646541699</v>
       </c>
-      <c r="D155" s="10">
+      <c r="E155" s="10">
         <v>8.5452790296236394</v>
       </c>
-      <c r="E155" s="8">
-        <f t="shared" ref="E155:E180" si="15">AVERAGE(B155:D155)</f>
+      <c r="F155" s="8">
+        <f t="shared" ref="F155:F178" si="15">AVERAGE(C155:E155)</f>
         <v>9.7692930953545591</v>
       </c>
-      <c r="F155" s="8">
-        <f t="shared" ref="F155:F180" si="16">_xlfn.STDEV.P(B155:D155)</f>
+      <c r="G155" s="8">
+        <f t="shared" ref="G155:G178" si="16">_xlfn.STDEV.P(C155:E155)</f>
         <v>2.9962163590068829</v>
       </c>
-      <c r="G155" s="11">
+      <c r="H155" s="11">
         <f t="shared" si="14"/>
         <v>0.30669735565940048</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>101</v>
       </c>
-      <c r="B156" s="9">
+      <c r="B156" t="s">
+        <v>338</v>
+      </c>
+      <c r="C156" s="9">
         <v>18.526831564783201</v>
       </c>
-      <c r="C156" s="9">
+      <c r="D156" s="9">
         <v>19.1986789166099</v>
       </c>
-      <c r="D156" s="10">
+      <c r="E156" s="10">
         <v>17.937976797804499</v>
       </c>
-      <c r="E156" s="8">
+      <c r="F156" s="8">
         <f t="shared" si="15"/>
         <v>18.554495759732532</v>
       </c>
-      <c r="F156" s="8">
+      <c r="G156" s="8">
         <f t="shared" si="16"/>
         <v>0.51505109057371057</v>
       </c>
-      <c r="G156" s="11">
+      <c r="H156" s="11">
         <f t="shared" si="14"/>
         <v>2.7758829840662573E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>102</v>
       </c>
-      <c r="B157" s="9">
+      <c r="B157" t="s">
+        <v>339</v>
+      </c>
+      <c r="C157" s="9">
         <v>9.0964314332673801</v>
       </c>
-      <c r="C157" s="9">
+      <c r="D157" s="9">
         <v>6.0049277888789501</v>
       </c>
-      <c r="D157" s="10">
+      <c r="E157" s="10">
         <v>11.302414542655701</v>
       </c>
-      <c r="E157" s="8">
+      <c r="F157" s="8">
         <f t="shared" si="15"/>
         <v>8.8012579216006781</v>
       </c>
-      <c r="F157" s="8">
+      <c r="G157" s="8">
         <f t="shared" si="16"/>
         <v>2.1727382152639021</v>
       </c>
-      <c r="G157" s="11">
+      <c r="H157" s="11">
         <f t="shared" si="14"/>
         <v>0.24686678138717105</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>103</v>
       </c>
-      <c r="B158" s="9">
+      <c r="B158" t="s">
+        <v>340</v>
+      </c>
+      <c r="C158" s="9">
         <v>29.597290326145799</v>
       </c>
-      <c r="C158" s="9">
+      <c r="D158" s="9">
         <v>33.581535977634502</v>
       </c>
-      <c r="D158" s="10">
+      <c r="E158" s="10">
         <v>29.481336926448201</v>
       </c>
-      <c r="E158" s="8">
+      <c r="F158" s="8">
         <f t="shared" si="15"/>
         <v>30.886721076742834</v>
       </c>
-      <c r="F158" s="8">
+      <c r="G158" s="8">
         <f t="shared" si="16"/>
         <v>1.9061097922690926</v>
       </c>
-      <c r="G158" s="11">
+      <c r="H158" s="11">
         <f t="shared" si="14"/>
         <v>6.1712921469814427E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>104</v>
       </c>
-      <c r="B159" s="9">
+      <c r="B159" t="s">
+        <v>341</v>
+      </c>
+      <c r="C159" s="9">
         <v>9.2867012513955505</v>
       </c>
-      <c r="C159" s="9">
+      <c r="D159" s="9">
         <v>13.9690834720088</v>
       </c>
-      <c r="D159" s="10">
+      <c r="E159" s="10">
         <v>12.3462986423805</v>
       </c>
-      <c r="E159" s="8">
+      <c r="F159" s="8">
         <f t="shared" si="15"/>
         <v>11.867361121928283</v>
       </c>
-      <c r="F159" s="8">
+      <c r="G159" s="8">
         <f t="shared" si="16"/>
         <v>1.9413417484395468</v>
       </c>
-      <c r="G159" s="11">
+      <c r="H159" s="11">
         <f t="shared" si="14"/>
         <v>0.16358664141873736</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>105</v>
       </c>
-      <c r="B160" s="9">
+      <c r="B160" t="s">
+        <v>342</v>
+      </c>
+      <c r="C160" s="9">
         <v>37.415545405113598</v>
       </c>
-      <c r="C160" s="9">
+      <c r="D160" s="9">
         <v>38.876886128225301</v>
       </c>
-      <c r="D160" s="10">
+      <c r="E160" s="10">
         <v>30.743758113195501</v>
       </c>
-      <c r="E160" s="8">
+      <c r="F160" s="8">
         <f t="shared" si="15"/>
         <v>35.678729882178132</v>
       </c>
-      <c r="F160" s="8">
+      <c r="G160" s="8">
         <f t="shared" si="16"/>
         <v>3.5401825704095962</v>
       </c>
-      <c r="G160" s="11">
+      <c r="H160" s="11">
         <f t="shared" si="14"/>
         <v>9.9223895640353249E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>106</v>
       </c>
-      <c r="B161" s="9">
+      <c r="B161" t="s">
+        <v>343</v>
+      </c>
+      <c r="C161" s="9">
         <v>18.5268502180949</v>
       </c>
-      <c r="C161" s="9">
+      <c r="D161" s="9">
         <v>18.426970612835301</v>
       </c>
-      <c r="D161" s="10">
+      <c r="E161" s="10">
         <v>15.6213419757535</v>
       </c>
-      <c r="E161" s="8">
+      <c r="F161" s="8">
         <f t="shared" si="15"/>
         <v>17.525054268894568</v>
       </c>
-      <c r="F161" s="8">
+      <c r="G161" s="8">
         <f t="shared" si="16"/>
         <v>1.3467453001412995</v>
       </c>
-      <c r="G161" s="11">
+      <c r="H161" s="11">
         <f t="shared" si="14"/>
         <v>7.6846854764475919E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>107</v>
       </c>
-      <c r="B162" s="9">
+      <c r="B162" t="s">
+        <v>344</v>
+      </c>
+      <c r="C162" s="9">
         <v>18.3384464652781</v>
       </c>
-      <c r="C162" s="9">
+      <c r="D162" s="9">
         <v>17.232166000588698</v>
       </c>
-      <c r="D162" s="10">
+      <c r="E162" s="10">
         <v>16.491394650730001</v>
       </c>
-      <c r="E162" s="8">
+      <c r="F162" s="8">
         <f t="shared" si="15"/>
         <v>17.354002372198934</v>
       </c>
-      <c r="F162" s="8">
+      <c r="G162" s="8">
         <f t="shared" si="16"/>
         <v>0.75896121002842498</v>
       </c>
-      <c r="G162" s="11">
-        <f t="shared" ref="G162:G180" si="17">F162/E162</f>
+      <c r="H162" s="11">
+        <f t="shared" ref="H162:H178" si="17">G162/F162</f>
         <v>4.3734073198254189E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>108</v>
       </c>
-      <c r="B163" s="9">
+      <c r="B163" t="s">
+        <v>345</v>
+      </c>
+      <c r="C163" s="9">
         <v>22.756522932806501</v>
       </c>
-      <c r="C163" s="9">
+      <c r="D163" s="9">
         <v>22.864821173959001</v>
       </c>
-      <c r="D163" s="10">
+      <c r="E163" s="10">
         <v>22.6831942884134</v>
       </c>
-      <c r="E163" s="8">
+      <c r="F163" s="8">
         <f t="shared" si="15"/>
         <v>22.768179465059635</v>
       </c>
-      <c r="F163" s="8">
+      <c r="G163" s="8">
         <f t="shared" si="16"/>
         <v>7.4605573725537652E-2</v>
       </c>
-      <c r="G163" s="11">
+      <c r="H163" s="11">
         <f t="shared" si="17"/>
         <v>3.2767474378014457E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>109</v>
       </c>
-      <c r="B164" s="9">
+      <c r="B164" t="s">
+        <v>346</v>
+      </c>
+      <c r="C164" s="9">
         <v>18.881915547895399</v>
       </c>
-      <c r="C164" s="9">
+      <c r="D164" s="9">
         <v>17.7616959911274</v>
       </c>
-      <c r="D164" s="10">
+      <c r="E164" s="10">
         <v>21.011195654297001</v>
       </c>
-      <c r="E164" s="8">
+      <c r="F164" s="8">
         <f t="shared" si="15"/>
         <v>19.218269064439934</v>
       </c>
-      <c r="F164" s="8">
+      <c r="G164" s="8">
         <f t="shared" si="16"/>
         <v>1.347754250918602</v>
       </c>
-      <c r="G164" s="11">
+      <c r="H164" s="11">
         <f t="shared" si="17"/>
         <v>7.0128805377815587E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B165" s="9">
+      <c r="B165" t="s">
+        <v>347</v>
+      </c>
+      <c r="C165" s="9">
         <v>180.107153869874</v>
       </c>
-      <c r="C165" s="9">
+      <c r="D165" s="9">
         <v>149.63768115942</v>
       </c>
-      <c r="D165" s="10">
+      <c r="E165" s="10">
         <v>144.655797101449</v>
       </c>
-      <c r="E165" s="12">
+      <c r="F165" s="12">
         <f t="shared" si="15"/>
         <v>158.133544043581</v>
       </c>
-      <c r="F165" s="12">
+      <c r="G165" s="12">
         <f t="shared" si="16"/>
         <v>15.670235879747452</v>
       </c>
-      <c r="G165" s="13">
+      <c r="H165" s="13">
         <f t="shared" si="17"/>
         <v>9.9094951514074672E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>111</v>
       </c>
-      <c r="B166" s="9">
+      <c r="B166" t="s">
+        <v>348</v>
+      </c>
+      <c r="C166" s="9">
         <v>15.0450845578124</v>
       </c>
-      <c r="C166" s="9">
+      <c r="D166" s="9">
         <v>15.0744444288284</v>
       </c>
-      <c r="D166" s="10">
+      <c r="E166" s="10">
         <v>14.386838444729699</v>
       </c>
-      <c r="E166" s="8">
+      <c r="F166" s="8">
         <f t="shared" si="15"/>
         <v>14.835455810456834</v>
       </c>
-      <c r="F166" s="8">
+      <c r="G166" s="8">
         <f t="shared" si="16"/>
         <v>0.31744674737713491</v>
       </c>
-      <c r="G166" s="11">
+      <c r="H166" s="11">
         <f t="shared" si="17"/>
         <v>2.1397842535676E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B167" s="9">
+      <c r="B167" t="s">
+        <v>349</v>
+      </c>
+      <c r="C167" s="9">
         <v>174.468085106383</v>
       </c>
-      <c r="C167" s="9">
+      <c r="D167" s="9">
         <v>160.904255319149</v>
       </c>
-      <c r="D167" s="10">
+      <c r="E167" s="10">
         <v>159.05797101449301</v>
       </c>
-      <c r="E167" s="12">
+      <c r="F167" s="12">
         <f t="shared" si="15"/>
         <v>164.81010381334167</v>
       </c>
-      <c r="F167" s="12">
+      <c r="G167" s="12">
         <f t="shared" si="16"/>
         <v>6.8706934839678295</v>
       </c>
-      <c r="G167" s="13">
+      <c r="H167" s="13">
         <f t="shared" si="17"/>
         <v>4.1688545331840479E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>113</v>
       </c>
-      <c r="B168" s="9">
+      <c r="B168" t="s">
+        <v>350</v>
+      </c>
+      <c r="C168" s="9">
         <v>19.4365957183667</v>
       </c>
-      <c r="C168" s="9">
+      <c r="D168" s="9">
         <v>21.322228691040898</v>
       </c>
-      <c r="D168" s="10">
+      <c r="E168" s="10">
         <v>22.465222655281099</v>
       </c>
-      <c r="E168" s="8">
+      <c r="F168" s="8">
         <f t="shared" si="15"/>
         <v>21.074682354896229</v>
       </c>
-      <c r="F168" s="8">
+      <c r="G168" s="8">
         <f t="shared" si="16"/>
         <v>1.2487606314942454</v>
       </c>
-      <c r="G168" s="11">
+      <c r="H168" s="11">
         <f t="shared" si="17"/>
         <v>5.9254066584027251E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B169" s="9">
+      <c r="B169" t="s">
+        <v>351</v>
+      </c>
+      <c r="C169" s="9">
         <v>176.81159420289899</v>
       </c>
-      <c r="C169" s="9">
+      <c r="D169" s="9">
         <v>146.85185185185199</v>
       </c>
-      <c r="D169" s="10">
+      <c r="E169" s="10">
         <v>133.15217391304401</v>
       </c>
-      <c r="E169" s="12">
+      <c r="F169" s="12">
         <f t="shared" si="15"/>
         <v>152.27187332259834</v>
       </c>
-      <c r="F169" s="12">
+      <c r="G169" s="12">
         <f t="shared" si="16"/>
         <v>18.231268370011271</v>
       </c>
-      <c r="G169" s="13">
+      <c r="H169" s="13">
         <f t="shared" si="17"/>
         <v>0.11972840401974361</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>115</v>
       </c>
-      <c r="B170" s="9">
+      <c r="B170" t="s">
+        <v>352</v>
+      </c>
+      <c r="C170" s="9">
         <v>31.482937917482101</v>
       </c>
-      <c r="C170" s="9">
+      <c r="D170" s="9">
         <v>33.145752814458703</v>
       </c>
-      <c r="D170" s="10">
+      <c r="E170" s="10">
         <v>30.0678983018156</v>
       </c>
-      <c r="E170" s="8">
+      <c r="F170" s="8">
         <f t="shared" si="15"/>
         <v>31.565529677918803</v>
       </c>
-      <c r="F170" s="8">
+      <c r="G170" s="8">
         <f t="shared" si="16"/>
         <v>1.2578853019832938</v>
       </c>
-      <c r="G170" s="11">
+      <c r="H170" s="11">
         <f t="shared" si="17"/>
         <v>3.9849966555867075E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>116</v>
       </c>
-      <c r="B171" s="9">
+      <c r="B171" t="s">
+        <v>353</v>
+      </c>
+      <c r="C171" s="9">
         <v>15.9205922152832</v>
       </c>
-      <c r="C171" s="9">
+      <c r="D171" s="9">
         <v>15.434283161258501</v>
       </c>
-      <c r="D171" s="10">
+      <c r="E171" s="10">
         <v>12.841600111170701</v>
       </c>
-      <c r="E171" s="8">
+      <c r="F171" s="8">
         <f t="shared" si="15"/>
         <v>14.732158495904132</v>
       </c>
-      <c r="F171" s="8">
+      <c r="G171" s="8">
         <f t="shared" si="16"/>
         <v>1.3514886554144694</v>
       </c>
-      <c r="G171" s="11">
+      <c r="H171" s="11">
         <f t="shared" si="17"/>
         <v>9.1737314378623702E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>117</v>
       </c>
-      <c r="B172" s="9">
+      <c r="B172" t="s">
+        <v>354</v>
+      </c>
+      <c r="C172" s="9">
         <v>30.420189403978</v>
       </c>
-      <c r="C172" s="9">
+      <c r="D172" s="9">
         <v>26.139986738572201</v>
       </c>
-      <c r="D172" s="10">
+      <c r="E172" s="10">
         <v>21.9406602177351</v>
       </c>
-      <c r="E172" s="8">
+      <c r="F172" s="8">
         <f t="shared" si="15"/>
         <v>26.166945453428436</v>
       </c>
-      <c r="F172" s="8">
+      <c r="G172" s="8">
         <f t="shared" si="16"/>
         <v>3.4618057796778205</v>
       </c>
-      <c r="G172" s="11">
+      <c r="H172" s="11">
         <f t="shared" si="17"/>
         <v>0.13229690052433113</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>118</v>
       </c>
-      <c r="B173" s="9">
+      <c r="B173" t="s">
+        <v>355</v>
+      </c>
+      <c r="C173" s="9">
         <v>17.480912902516799</v>
       </c>
-      <c r="C173" s="9">
+      <c r="D173" s="9">
         <v>17.151816086807202</v>
       </c>
-      <c r="D173" s="10">
+      <c r="E173" s="10">
         <v>15.3244907937877</v>
       </c>
-      <c r="E173" s="8">
+      <c r="F173" s="8">
         <f t="shared" si="15"/>
         <v>16.652406594370564</v>
       </c>
-      <c r="F173" s="8">
+      <c r="G173" s="8">
         <f t="shared" si="16"/>
         <v>0.94854149746010141</v>
       </c>
-      <c r="G173" s="11">
+      <c r="H173" s="11">
         <f t="shared" si="17"/>
         <v>5.696122611975863E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>119</v>
       </c>
-      <c r="B174" s="9">
+      <c r="B174" t="s">
+        <v>356</v>
+      </c>
+      <c r="C174" s="9">
         <v>46.329777351998601</v>
       </c>
-      <c r="C174" s="9">
+      <c r="D174" s="9">
         <v>43.329749347302098</v>
       </c>
-      <c r="D174" s="10">
+      <c r="E174" s="10">
         <v>48.6683443476077</v>
       </c>
-      <c r="E174" s="8">
+      <c r="F174" s="8">
         <f t="shared" si="15"/>
         <v>46.109290348969466</v>
       </c>
-      <c r="F174" s="8">
+      <c r="G174" s="8">
         <f t="shared" si="16"/>
         <v>2.1850415759889743</v>
       </c>
-      <c r="G174" s="11">
+      <c r="H174" s="11">
         <f t="shared" si="17"/>
         <v>4.7388315010964153E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>120</v>
       </c>
-      <c r="B175" s="9">
+      <c r="B175" t="s">
+        <v>357</v>
+      </c>
+      <c r="C175" s="9">
         <v>25.6212522181895</v>
       </c>
-      <c r="C175" s="9">
+      <c r="D175" s="9">
         <v>28.1265976688357</v>
       </c>
-      <c r="D175" s="10">
+      <c r="E175" s="10">
         <v>24.805073212836199</v>
       </c>
-      <c r="E175" s="8">
+      <c r="F175" s="8">
         <f t="shared" si="15"/>
         <v>26.184307699953802</v>
       </c>
-      <c r="F175" s="8">
+      <c r="G175" s="8">
         <f t="shared" si="16"/>
         <v>1.4132479812142704</v>
       </c>
-      <c r="G175" s="11">
+      <c r="H175" s="11">
         <f t="shared" si="17"/>
         <v>5.397308943236883E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>121</v>
       </c>
-      <c r="B176" s="9">
+      <c r="B176" t="s">
+        <v>358</v>
+      </c>
+      <c r="C176" s="9">
         <v>20.131529043088399</v>
       </c>
-      <c r="C176" s="9">
+      <c r="D176" s="9">
         <v>19.3266602237379</v>
       </c>
-      <c r="D176" s="10">
+      <c r="E176" s="10">
         <v>18.952508911837199</v>
       </c>
-      <c r="E176" s="8">
+      <c r="F176" s="8">
         <f t="shared" si="15"/>
         <v>19.470232726221166</v>
       </c>
-      <c r="F176" s="8">
+      <c r="G176" s="8">
         <f t="shared" si="16"/>
         <v>0.49192270061862337</v>
       </c>
-      <c r="G176" s="11">
+      <c r="H176" s="11">
         <f t="shared" si="17"/>
         <v>2.526537343111137E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>122</v>
       </c>
-      <c r="B177" s="9">
+      <c r="B177" t="s">
+        <v>359</v>
+      </c>
+      <c r="C177" s="9">
         <v>19.8671062814573</v>
       </c>
-      <c r="C177" s="9">
+      <c r="D177" s="9">
         <v>17.043014921515699</v>
       </c>
-      <c r="D177" s="10">
+      <c r="E177" s="10">
         <v>18.998272140959202</v>
       </c>
-      <c r="E177" s="8">
+      <c r="F177" s="8">
         <f t="shared" si="15"/>
         <v>18.636131114644069</v>
       </c>
-      <c r="F177" s="8">
+      <c r="G177" s="8">
         <f t="shared" si="16"/>
         <v>1.1810257108490159</v>
       </c>
-      <c r="G177" s="11">
+      <c r="H177" s="11">
         <f t="shared" si="17"/>
         <v>6.3372902003301465E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>123</v>
       </c>
-      <c r="B178" s="9">
+      <c r="B178" t="s">
+        <v>360</v>
+      </c>
+      <c r="C178" s="9">
         <v>21.0068734898088</v>
       </c>
-      <c r="C178" s="9">
+      <c r="D178" s="9">
         <v>20.209571379057699</v>
       </c>
-      <c r="D178" s="10">
+      <c r="E178" s="10">
         <v>20.3868681042213</v>
       </c>
-      <c r="E178" s="8">
+      <c r="F178" s="8">
         <f t="shared" si="15"/>
         <v>20.534437657695936</v>
       </c>
-      <c r="F178" s="8">
+      <c r="G178" s="8">
         <f t="shared" si="16"/>
         <v>0.34181402720053022</v>
       </c>
-      <c r="G178" s="11">
+      <c r="H178" s="11">
         <f t="shared" si="17"/>
         <v>1.6645891789124526E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="8"/>
-      <c r="B179" s="9"/>
       <c r="C179" s="9"/>
-      <c r="D179" s="10"/>
-      <c r="E179" s="8"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="10"/>
       <c r="F179" s="8"/>
-      <c r="G179" s="11"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G179" s="8"/>
+      <c r="H179" s="11"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="16"/>
-      <c r="B180" s="17"/>
       <c r="C180" s="17"/>
-      <c r="D180" s="18"/>
-      <c r="E180" s="16"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="18"/>
       <c r="F180" s="16"/>
-      <c r="G180" s="19"/>
+      <c r="G180" s="16"/>
+      <c r="H180" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/data/First_round_results/Results - First and Second Plate 3 reps.xlsx
+++ b/data/First_round_results/Results - First and Second Plate 3 reps.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\GitHub\SynbioML\data\First_round_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangmengyan/git/SynbioML/data/First_round_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB4D525-0E8A-4F98-921A-D0C872FEA5D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29500" yWindow="-6660" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GFPOD" sheetId="1" r:id="rId1"/>
@@ -19,8 +18,14 @@
     <sheet name="3h" sheetId="4" r:id="rId4"/>
     <sheet name="4h" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="367">
   <si>
     <t>RBS</t>
   </si>
@@ -1121,12 +1126,27 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>bps</t>
+  </si>
+  <si>
+    <t>uni random</t>
+  </si>
+  <si>
+    <t>bandit</t>
+  </si>
+  <si>
+    <t>prob random</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1153,7 +1173,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1209,7 +1228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1245,6 +1264,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1627,18 +1649,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DJ91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.54296875" customWidth="1"/>
-    <col min="2" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="2" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1681,7 +1703,7 @@
       <c r="AL1" s="2"/>
       <c r="AN1" s="2"/>
     </row>
-    <row r="2" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1723,7 +1745,7 @@
       <c r="AK2" s="5"/>
       <c r="AN2" s="4"/>
     </row>
-    <row r="3" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1834,7 +1856,7 @@
       <c r="DB3" s="6"/>
       <c r="DC3" s="6"/>
     </row>
-    <row r="4" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1947,7 +1969,7 @@
       <c r="DD4" s="6"/>
       <c r="DE4" s="6"/>
     </row>
-    <row r="5" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2064,7 +2086,7 @@
       <c r="DI5" s="6"/>
       <c r="DJ5" s="6"/>
     </row>
-    <row r="6" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -2106,7 +2128,7 @@
       <c r="AK6" s="5"/>
       <c r="AN6" s="4"/>
     </row>
-    <row r="7" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -2218,7 +2240,7 @@
       <c r="DC7" s="6"/>
       <c r="DD7" s="6"/>
     </row>
-    <row r="8" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -2260,7 +2282,7 @@
       <c r="AK8" s="5"/>
       <c r="AN8" s="4"/>
     </row>
-    <row r="9" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -2302,7 +2324,7 @@
       <c r="AK9" s="5"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -2344,7 +2366,7 @@
       <c r="AK10" s="5"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -2386,7 +2408,7 @@
       <c r="AK11" s="5"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -2428,7 +2450,7 @@
       <c r="AK12" s="5"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -2470,7 +2492,7 @@
       <c r="AK13" s="5"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -2512,7 +2534,7 @@
       <c r="AK14" s="5"/>
       <c r="AN14" s="4"/>
     </row>
-    <row r="15" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -2554,7 +2576,7 @@
       <c r="AK15" s="5"/>
       <c r="AN15" s="4"/>
     </row>
-    <row r="16" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -2596,7 +2618,7 @@
       <c r="AK16" s="5"/>
       <c r="AN16" s="4"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -2638,7 +2660,7 @@
       <c r="AK17" s="5"/>
       <c r="AN17" s="4"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -2680,7 +2702,7 @@
       <c r="AK18" s="5"/>
       <c r="AN18" s="4"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -2722,7 +2744,7 @@
       <c r="AK19" s="5"/>
       <c r="AN19" s="4"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -2764,7 +2786,7 @@
       <c r="AK20" s="5"/>
       <c r="AN20" s="4"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -2806,7 +2828,7 @@
       <c r="AK21" s="5"/>
       <c r="AN21" s="4"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -2848,7 +2870,7 @@
       <c r="AK22" s="5"/>
       <c r="AN22" s="4"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -2890,7 +2912,7 @@
       <c r="AK23" s="5"/>
       <c r="AN23" s="4"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -2932,7 +2954,7 @@
       <c r="AK24" s="5"/>
       <c r="AN24" s="4"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -2974,7 +2996,7 @@
       <c r="AK25" s="5"/>
       <c r="AN25" s="4"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -3016,7 +3038,7 @@
       <c r="AK26" s="5"/>
       <c r="AN26" s="4"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -3058,7 +3080,7 @@
       <c r="AK27" s="5"/>
       <c r="AN27" s="4"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -3100,7 +3122,7 @@
       <c r="AK28" s="5"/>
       <c r="AN28" s="4"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -3142,7 +3164,7 @@
       <c r="AK29" s="5"/>
       <c r="AN29" s="4"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -3184,7 +3206,7 @@
       <c r="AK30" s="5"/>
       <c r="AN30" s="4"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -3226,7 +3248,7 @@
       <c r="AK31" s="5"/>
       <c r="AN31" s="4"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -3268,7 +3290,7 @@
       <c r="AK32" s="5"/>
       <c r="AN32" s="4"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -3310,7 +3332,7 @@
       <c r="AK33" s="5"/>
       <c r="AN33" s="4"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -3352,7 +3374,7 @@
       <c r="AK34" s="5"/>
       <c r="AN34" s="4"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -3394,7 +3416,7 @@
       <c r="AK35" s="5"/>
       <c r="AN35" s="4"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -3436,7 +3458,7 @@
       <c r="AK36" s="5"/>
       <c r="AN36" s="4"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -3478,7 +3500,7 @@
       <c r="AK37" s="5"/>
       <c r="AN37" s="4"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
@@ -3520,7 +3542,7 @@
       <c r="AK38" s="5"/>
       <c r="AN38" s="4"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -3562,7 +3584,7 @@
       <c r="AK39" s="5"/>
       <c r="AN39" s="4"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -3604,7 +3626,7 @@
       <c r="AK40" s="5"/>
       <c r="AN40" s="4"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -3646,7 +3668,7 @@
       <c r="AK41" s="5"/>
       <c r="AN41" s="4"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -3688,7 +3710,7 @@
       <c r="AK42" s="5"/>
       <c r="AN42" s="4"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
@@ -3730,7 +3752,7 @@
       <c r="AK43" s="5"/>
       <c r="AN43" s="4"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
@@ -3772,7 +3794,7 @@
       <c r="AK44" s="5"/>
       <c r="AN44" s="4"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
@@ -3814,7 +3836,7 @@
       <c r="AK45" s="5"/>
       <c r="AN45" s="4"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>51</v>
       </c>
@@ -3856,7 +3878,7 @@
       <c r="AK46" s="5"/>
       <c r="AN46" s="4"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -3898,7 +3920,7 @@
       <c r="AK47" s="5"/>
       <c r="AN47" s="4"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>53</v>
       </c>
@@ -3940,7 +3962,7 @@
       <c r="AK48" s="5"/>
       <c r="AN48" s="4"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -3982,7 +4004,7 @@
       <c r="AK49" s="5"/>
       <c r="AN49" s="4"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
@@ -4024,7 +4046,7 @@
       <c r="AK50" s="5"/>
       <c r="AN50" s="4"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -4066,7 +4088,7 @@
       <c r="AK51" s="5"/>
       <c r="AN51" s="4"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
@@ -4108,7 +4130,7 @@
       <c r="AK52" s="5"/>
       <c r="AN52" s="4"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -4150,7 +4172,7 @@
       <c r="AK53" s="5"/>
       <c r="AN53" s="4"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -4192,7 +4214,7 @@
       <c r="AK54" s="5"/>
       <c r="AN54" s="4"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>60</v>
       </c>
@@ -4234,7 +4256,7 @@
       <c r="AK55" s="5"/>
       <c r="AN55" s="4"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>61</v>
       </c>
@@ -4276,7 +4298,7 @@
       <c r="AK56" s="5"/>
       <c r="AN56" s="4"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
@@ -4318,7 +4340,7 @@
       <c r="AK57" s="5"/>
       <c r="AN57" s="4"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
@@ -4360,7 +4382,7 @@
       <c r="AK58" s="5"/>
       <c r="AN58" s="4"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
@@ -4402,7 +4424,7 @@
       <c r="AK59" s="5"/>
       <c r="AN59" s="4"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -4444,7 +4466,7 @@
       <c r="AK60" s="5"/>
       <c r="AN60" s="4"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -4486,7 +4508,7 @@
       <c r="AK61" s="5"/>
       <c r="AN61" s="4"/>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
@@ -4528,7 +4550,7 @@
       <c r="AK62" s="5"/>
       <c r="AN62" s="4"/>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
@@ -4570,7 +4592,7 @@
       <c r="AK63" s="5"/>
       <c r="AN63" s="4"/>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>69</v>
       </c>
@@ -4612,7 +4634,7 @@
       <c r="AK64" s="5"/>
       <c r="AN64" s="4"/>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>70</v>
       </c>
@@ -4654,7 +4676,7 @@
       <c r="AK65" s="5"/>
       <c r="AN65" s="4"/>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>71</v>
       </c>
@@ -4696,7 +4718,7 @@
       <c r="AK66" s="5"/>
       <c r="AN66" s="4"/>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>72</v>
       </c>
@@ -4738,7 +4760,7 @@
       <c r="AK67" s="5"/>
       <c r="AN67" s="4"/>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>73</v>
       </c>
@@ -4780,7 +4802,7 @@
       <c r="AK68" s="5"/>
       <c r="AN68" s="4"/>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>74</v>
       </c>
@@ -4822,7 +4844,7 @@
       <c r="AK69" s="5"/>
       <c r="AN69" s="4"/>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -4864,7 +4886,7 @@
       <c r="AK70" s="5"/>
       <c r="AN70" s="4"/>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>76</v>
       </c>
@@ -4906,7 +4928,7 @@
       <c r="AK71" s="5"/>
       <c r="AN71" s="4"/>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
@@ -4948,7 +4970,7 @@
       <c r="AK72" s="5"/>
       <c r="AN72" s="4"/>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>78</v>
       </c>
@@ -4990,7 +5012,7 @@
       <c r="AK73" s="5"/>
       <c r="AN73" s="4"/>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>79</v>
       </c>
@@ -5032,7 +5054,7 @@
       <c r="AK74" s="5"/>
       <c r="AN74" s="4"/>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>80</v>
       </c>
@@ -5074,7 +5096,7 @@
       <c r="AK75" s="5"/>
       <c r="AN75" s="4"/>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>81</v>
       </c>
@@ -5116,7 +5138,7 @@
       <c r="AK76" s="5"/>
       <c r="AN76" s="4"/>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>82</v>
       </c>
@@ -5158,7 +5180,7 @@
       <c r="AK77" s="5"/>
       <c r="AN77" s="4"/>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>83</v>
       </c>
@@ -5200,7 +5222,7 @@
       <c r="AK78" s="5"/>
       <c r="AN78" s="4"/>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>84</v>
       </c>
@@ -5242,7 +5264,7 @@
       <c r="AK79" s="5"/>
       <c r="AN79" s="4"/>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>85</v>
       </c>
@@ -5284,7 +5306,7 @@
       <c r="AK80" s="5"/>
       <c r="AN80" s="4"/>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>86</v>
       </c>
@@ -5326,7 +5348,7 @@
       <c r="AK81" s="5"/>
       <c r="AN81" s="4"/>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
@@ -5368,7 +5390,7 @@
       <c r="AK82" s="5"/>
       <c r="AN82" s="4"/>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>88</v>
       </c>
@@ -5410,7 +5432,7 @@
       <c r="AK83" s="5"/>
       <c r="AN83" s="4"/>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>89</v>
       </c>
@@ -5452,7 +5474,7 @@
       <c r="AK84" s="5"/>
       <c r="AN84" s="4"/>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>90</v>
       </c>
@@ -5494,7 +5516,7 @@
       <c r="AK85" s="5"/>
       <c r="AN85" s="4"/>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>91</v>
       </c>
@@ -5536,7 +5558,7 @@
       <c r="AK86" s="5"/>
       <c r="AN86" s="4"/>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>92</v>
       </c>
@@ -5578,7 +5600,7 @@
       <c r="AK87" s="5"/>
       <c r="AN87" s="4"/>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>93</v>
       </c>
@@ -5620,7 +5642,7 @@
       <c r="AK88" s="5"/>
       <c r="AN88" s="4"/>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>94</v>
       </c>
@@ -5662,7 +5684,7 @@
       <c r="AK89" s="5"/>
       <c r="AN89" s="4"/>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>95</v>
       </c>
@@ -5704,7 +5726,7 @@
       <c r="AK90" s="5"/>
       <c r="AN90" s="4"/>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.2">
       <c r="G91" s="4">
         <f>AVERAGE(G2:G90)</f>
         <v>0.2576231703171642</v>
@@ -5725,19 +5747,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.54296875" customWidth="1"/>
-    <col min="2" max="7" width="8.54296875" customWidth="1"/>
-    <col min="8" max="1025" width="9.08984375" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="2" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="1025" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5760,7 +5782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -5786,7 +5808,7 @@
         <v>0.20339336865869734</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -5812,7 +5834,7 @@
         <v>0.24517150302680371</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -5838,7 +5860,7 @@
         <v>0.26620866604610816</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -5864,7 +5886,7 @@
         <v>0.25656899930008298</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -5890,7 +5912,7 @@
         <v>0.16647550611008347</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -5916,7 +5938,7 @@
         <v>0.26444556189134888</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -5942,7 +5964,7 @@
         <v>0.22255303389868961</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -5968,7 +5990,7 @@
         <v>1.0255878256390984</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -5994,7 +6016,7 @@
         <v>0.37168280620906402</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -6020,7 +6042,7 @@
         <v>0.19709916212121895</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -6046,7 +6068,7 @@
         <v>0.15021391280888613</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -6072,7 +6094,7 @@
         <v>0.11376917556567681</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -6098,7 +6120,7 @@
         <v>0.26182338396216925</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -6124,7 +6146,7 @@
         <v>0.24957625508621517</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -6150,7 +6172,7 @@
         <v>0.38900224976070757</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -6176,7 +6198,7 @@
         <v>0.19972904150508081</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -6202,7 +6224,7 @@
         <v>0.15057243912923374</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -6228,7 +6250,7 @@
         <v>0.2068968409223903</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -6254,7 +6276,7 @@
         <v>0.27415651823069365</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -6280,7 +6302,7 @@
         <v>0.24613627260559884</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -6306,7 +6328,7 @@
         <v>0.34519879848915452</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -6332,7 +6354,7 @@
         <v>0.12976383438977504</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -6358,7 +6380,7 @@
         <v>0.42925046221229579</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -6384,7 +6406,7 @@
         <v>4.6823871111844557E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -6410,7 +6432,7 @@
         <v>0.30413226672951815</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -6436,7 +6458,7 @@
         <v>0.45078191362311021</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -6462,7 +6484,7 @@
         <v>0.27862862396234317</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -6488,7 +6510,7 @@
         <v>0.37830518510896105</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -6514,7 +6536,7 @@
         <v>0.33735003793220886</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -6540,7 +6562,7 @@
         <v>0.29742817741229211</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -6566,7 +6588,7 @@
         <v>0.37483853012327034</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -6592,7 +6614,7 @@
         <v>0.16952957267066496</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -6618,7 +6640,7 @@
         <v>0.28403752691851214</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -6644,7 +6666,7 @@
         <v>0.23965385422546412</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -6670,7 +6692,7 @@
         <v>0.3067846209546442</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -6696,7 +6718,7 @@
         <v>0.11133066321463073</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
@@ -6722,7 +6744,7 @@
         <v>0.45647297622113658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -6748,7 +6770,7 @@
         <v>0.27837470318459268</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -6774,7 +6796,7 @@
         <v>0.3657223748584093</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -6800,7 +6822,7 @@
         <v>0.17208517483371893</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -6826,7 +6848,7 @@
         <v>0.21910237411540281</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
@@ -6852,7 +6874,7 @@
         <v>0.58167542513492898</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
@@ -6878,7 +6900,7 @@
         <v>0.30897137879176678</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
@@ -6904,7 +6926,7 @@
         <v>0.2915206787733054</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>51</v>
       </c>
@@ -6930,7 +6952,7 @@
         <v>0.2846621756216911</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -6956,7 +6978,7 @@
         <v>0.21910062705936997</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>53</v>
       </c>
@@ -6982,7 +7004,7 @@
         <v>0.13646373625930869</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -7008,7 +7030,7 @@
         <v>0.18811456627069545</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
@@ -7034,7 +7056,7 @@
         <v>0.33987344542046583</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -7060,7 +7082,7 @@
         <v>0.38150357099430182</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
@@ -7086,7 +7108,7 @@
         <v>0.13554110328301594</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -7112,7 +7134,7 @@
         <v>0.24400621033977099</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -7138,7 +7160,7 @@
         <v>0.16581303815726869</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>60</v>
       </c>
@@ -7164,7 +7186,7 @@
         <v>0.19885623113184611</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>61</v>
       </c>
@@ -7190,7 +7212,7 @@
         <v>0.16269314390926223</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
@@ -7216,7 +7238,7 @@
         <v>0.23815910806045631</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
@@ -7242,7 +7264,7 @@
         <v>0.25101098880264039</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
@@ -7268,7 +7290,7 @@
         <v>0.17714177405565257</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -7294,7 +7316,7 @@
         <v>0.43869295878812764</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -7320,7 +7342,7 @@
         <v>0.1187624780449069</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
@@ -7346,7 +7368,7 @@
         <v>0.38860877157246576</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
@@ -7372,7 +7394,7 @@
         <v>0.51192823659180886</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>69</v>
       </c>
@@ -7398,7 +7420,7 @@
         <v>0.43759632560072348</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>70</v>
       </c>
@@ -7424,7 +7446,7 @@
         <v>0.27786407310767086</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>71</v>
       </c>
@@ -7450,7 +7472,7 @@
         <v>0.42210431802253762</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>72</v>
       </c>
@@ -7476,7 +7498,7 @@
         <v>0.40839768606620525</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>73</v>
       </c>
@@ -7502,7 +7524,7 @@
         <v>0.26542569472319782</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>74</v>
       </c>
@@ -7528,7 +7550,7 @@
         <v>0.38277388948631341</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -7554,7 +7576,7 @@
         <v>0.31359389664556681</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>76</v>
       </c>
@@ -7580,7 +7602,7 @@
         <v>0.28505300905378639</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
@@ -7606,7 +7628,7 @@
         <v>0.29616179204269599</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>78</v>
       </c>
@@ -7632,7 +7654,7 @@
         <v>0.2647744937904522</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>79</v>
       </c>
@@ -7658,7 +7680,7 @@
         <v>0.4650526763794523</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>80</v>
       </c>
@@ -7684,7 +7706,7 @@
         <v>0.31630833426687893</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>81</v>
       </c>
@@ -7710,7 +7732,7 @@
         <v>0.30377743888260211</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>82</v>
       </c>
@@ -7736,7 +7758,7 @@
         <v>0.12589348701083719</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>83</v>
       </c>
@@ -7762,7 +7784,7 @@
         <v>0.52409656761852375</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>84</v>
       </c>
@@ -7788,7 +7810,7 @@
         <v>0.266583364590885</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>85</v>
       </c>
@@ -7814,7 +7836,7 @@
         <v>0.29034279108091848</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>86</v>
       </c>
@@ -7840,7 +7862,7 @@
         <v>0.70633555705830553</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
@@ -7866,7 +7888,7 @@
         <v>0.29608905476221875</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>88</v>
       </c>
@@ -7892,7 +7914,7 @@
         <v>0.30268840056199742</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>89</v>
       </c>
@@ -7918,7 +7940,7 @@
         <v>0.15841965823832474</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>90</v>
       </c>
@@ -7944,7 +7966,7 @@
         <v>0.32090009668381086</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>91</v>
       </c>
@@ -7970,7 +7992,7 @@
         <v>0.27103672223477465</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>92</v>
       </c>
@@ -7996,7 +8018,7 @@
         <v>0.34924862381259542</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>93</v>
       </c>
@@ -8022,7 +8044,7 @@
         <v>0.22806859392320275</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>94</v>
       </c>
@@ -8048,7 +8070,7 @@
         <v>0.38607996022940305</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>95</v>
       </c>
@@ -8074,7 +8096,7 @@
         <v>0.25566353598655323</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B91" s="6"/>
       <c r="G91" s="4">
         <f>AVERAGE(G2:G90)</f>
@@ -8088,19 +8110,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.54296875" customWidth="1"/>
-    <col min="2" max="1023" width="8.54296875" customWidth="1"/>
-    <col min="1024" max="1025" width="9.08984375" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="2" max="1023" width="8.5" customWidth="1"/>
+    <col min="1024" max="1025" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8123,7 +8145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -8149,7 +8171,7 @@
         <v>0.19721067788733071</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -8175,7 +8197,7 @@
         <v>0.23916733656837177</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -8201,7 +8223,7 @@
         <v>0.25057968244896911</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -8227,7 +8249,7 @@
         <v>0.23875793163631823</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -8253,7 +8275,7 @@
         <v>0.14772640602123369</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -8279,7 +8301,7 @@
         <v>0.26536888823697813</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -8305,7 +8327,7 @@
         <v>0.20143519121240569</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -8331,7 +8353,7 @@
         <v>0.99665228160056885</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -8357,7 +8379,7 @@
         <v>0.38953530207794684</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -8383,7 +8405,7 @@
         <v>0.15863150960473996</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -8409,7 +8431,7 @@
         <v>0.11127289474696672</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -8435,7 +8457,7 @@
         <v>0.11694259911300876</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -8461,7 +8483,7 @@
         <v>0.23655314467664826</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -8487,7 +8509,7 @@
         <v>0.25988888454747683</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -8513,7 +8535,7 @@
         <v>0.37665692638336995</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -8539,7 +8561,7 @@
         <v>0.19877165713017877</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -8565,7 +8587,7 @@
         <v>0.13285012635682522</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -8591,7 +8613,7 @@
         <v>0.19187080945269661</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -8617,7 +8639,7 @@
         <v>0.26317195765854784</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -8643,7 +8665,7 @@
         <v>0.21594282344245036</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -8669,7 +8691,7 @@
         <v>0.33888210968085181</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -8695,7 +8717,7 @@
         <v>0.11564748419889825</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -8721,7 +8743,7 @@
         <v>0.44977501499282541</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -8747,7 +8769,7 @@
         <v>4.2943557844902613E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -8773,7 +8795,7 @@
         <v>0.27626420385222838</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -8799,7 +8821,7 @@
         <v>0.47338787728414716</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -8825,7 +8847,7 @@
         <v>0.29006783344100789</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -8851,7 +8873,7 @@
         <v>0.37528676054860127</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -8877,7 +8899,7 @@
         <v>0.51089044659302019</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -8903,7 +8925,7 @@
         <v>0.10866691422525786</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -8929,7 +8951,7 @@
         <v>0.48361579443455865</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -8955,7 +8977,7 @@
         <v>0.15339528782019463</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -8981,7 +9003,7 @@
         <v>0.27154089536421888</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -9007,7 +9029,7 @@
         <v>0.22243838134924562</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -9033,7 +9055,7 @@
         <v>0.28876091153796551</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -9059,7 +9081,7 @@
         <v>0.10279569251357885</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
@@ -9085,7 +9107,7 @@
         <v>0.45715590153875058</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -9111,7 +9133,7 @@
         <v>0.27435655222214611</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -9137,7 +9159,7 @@
         <v>0.34466540505782389</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -9163,7 +9185,7 @@
         <v>0.15878184250599547</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -9189,7 +9211,7 @@
         <v>0.20090294199880529</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
@@ -9215,7 +9237,7 @@
         <v>0.76212754071097499</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
@@ -9241,7 +9263,7 @@
         <v>0.45829340304465976</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
@@ -9267,7 +9289,7 @@
         <v>0.48355491982843091</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>51</v>
       </c>
@@ -9293,7 +9315,7 @@
         <v>0.27717572588621153</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -9319,7 +9341,7 @@
         <v>0.20167512126611314</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>53</v>
       </c>
@@ -9345,7 +9367,7 @@
         <v>9.7169939932318358E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -9371,7 +9393,7 @@
         <v>0.14266551119766241</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
@@ -9397,7 +9419,7 @@
         <v>0.32461734011196108</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -9423,7 +9445,7 @@
         <v>0.39358316055215031</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
@@ -9449,7 +9471,7 @@
         <v>0.1038489521802133</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -9475,7 +9497,7 @@
         <v>0.22619306052336913</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -9501,7 +9523,7 @@
         <v>0.1295754130734782</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>60</v>
       </c>
@@ -9527,7 +9549,7 @@
         <v>0.18372206269145225</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>61</v>
       </c>
@@ -9553,7 +9575,7 @@
         <v>0.12698467294566407</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
@@ -9579,7 +9601,7 @@
         <v>0.20754982798710578</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
@@ -9605,7 +9627,7 @@
         <v>0.22417049698386238</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
@@ -9631,7 +9653,7 @@
         <v>0.14468484654618036</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -9657,7 +9679,7 @@
         <v>0.45128186334520048</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -9683,7 +9705,7 @@
         <v>0.16106573311570752</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
@@ -9709,7 +9731,7 @@
         <v>0.38662181542539126</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
@@ -9735,7 +9757,7 @@
         <v>0.55268099672722149</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>69</v>
       </c>
@@ -9761,7 +9783,7 @@
         <v>0.42842785046321663</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>70</v>
       </c>
@@ -9787,7 +9809,7 @@
         <v>0.17278990076901649</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>71</v>
       </c>
@@ -9813,7 +9835,7 @@
         <v>0.588842035259456</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>72</v>
       </c>
@@ -9839,7 +9861,7 @@
         <v>0.67886087335629908</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>73</v>
       </c>
@@ -9865,7 +9887,7 @@
         <v>0.36373923610149533</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>74</v>
       </c>
@@ -9891,7 +9913,7 @@
         <v>0.51199551744789074</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -9917,7 +9939,7 @@
         <v>0.33848486348231416</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>76</v>
       </c>
@@ -9943,7 +9965,7 @@
         <v>0.25278142244066065</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
@@ -9969,7 +9991,7 @@
         <v>0.26809555681365038</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>78</v>
       </c>
@@ -9995,7 +10017,7 @@
         <v>0.26937529018737233</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>79</v>
       </c>
@@ -10021,7 +10043,7 @@
         <v>0.45984970720634438</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>80</v>
       </c>
@@ -10047,7 +10069,7 @@
         <v>0.32218296573261246</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>81</v>
       </c>
@@ -10073,7 +10095,7 @@
         <v>0.31051375653124114</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>82</v>
       </c>
@@ -10099,7 +10121,7 @@
         <v>0.15019118779741158</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>83</v>
       </c>
@@ -10125,7 +10147,7 @@
         <v>0.69061824251187409</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>84</v>
       </c>
@@ -10151,7 +10173,7 @@
         <v>0.11830255829252428</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>85</v>
       </c>
@@ -10177,7 +10199,7 @@
         <v>0.29247272696331894</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>86</v>
       </c>
@@ -10203,7 +10225,7 @@
         <v>0.74729853076845154</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
@@ -10229,7 +10251,7 @@
         <v>0.29228507772301537</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>88</v>
       </c>
@@ -10255,7 +10277,7 @@
         <v>0.30428287345104738</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>89</v>
       </c>
@@ -10281,7 +10303,7 @@
         <v>0.14664631322427474</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>90</v>
       </c>
@@ -10307,7 +10329,7 @@
         <v>0.31841515471704668</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>91</v>
       </c>
@@ -10333,7 +10355,7 @@
         <v>0.23974555902133554</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>92</v>
       </c>
@@ -10359,7 +10381,7 @@
         <v>0.34804179722014622</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>93</v>
       </c>
@@ -10385,7 +10407,7 @@
         <v>0.20724311580910484</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>94</v>
       </c>
@@ -10411,7 +10433,7 @@
         <v>0.40464521849124901</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>95</v>
       </c>
@@ -10437,7 +10459,7 @@
         <v>0.25580047131888672</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B91" s="6"/>
       <c r="G91" s="4">
         <f>AVERAGE(G2:G90)</f>
@@ -10451,19 +10473,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.54296875" customWidth="1"/>
-    <col min="2" max="7" width="8.54296875" customWidth="1"/>
-    <col min="8" max="1025" width="9.08984375" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="2" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="1025" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10486,7 +10508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -10512,7 +10534,7 @@
         <v>0.17826021690219282</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -10538,7 +10560,7 @@
         <v>0.21700728451606116</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -10564,7 +10586,7 @@
         <v>0.24757230798582069</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -10590,7 +10612,7 @@
         <v>0.2180189601422978</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -10616,7 +10638,7 @@
         <v>0.12912023681321969</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -10642,7 +10664,7 @@
         <v>0.26300231326626411</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -10668,7 +10690,7 @@
         <v>0.18334661969394511</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -10694,7 +10716,7 @@
         <v>0.10061906787084386</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -10720,7 +10742,7 @@
         <v>0.39674482723962684</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -10746,7 +10768,7 @@
         <v>0.1238786721625305</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -10772,7 +10794,7 @@
         <v>0.10103688451512323</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -10798,7 +10820,7 @@
         <v>0.10579446837474804</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -10824,7 +10846,7 @@
         <v>0.21200217182658609</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -10850,7 +10872,7 @@
         <v>0.26190241721049184</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -10876,7 +10898,7 @@
         <v>0.37190336943774455</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -10902,7 +10924,7 @@
         <v>0.19052820991628311</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -10928,7 +10950,7 @@
         <v>0.125695597041829</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -10954,7 +10976,7 @@
         <v>0.17056541173133222</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -10980,7 +11002,7 @@
         <v>0.24663087797021949</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -11006,7 +11028,7 @@
         <v>0.18590392792706237</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -11032,7 +11054,7 @@
         <v>0.33968105215094457</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -11058,7 +11080,7 @@
         <v>9.300507426273058E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -11084,7 +11106,7 @@
         <v>0.45836075359592682</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -11110,7 +11132,7 @@
         <v>5.4296405650769909E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -11136,7 +11158,7 @@
         <v>0.25186080788552151</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -11162,7 +11184,7 @@
         <v>0.49516835451661284</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -11188,7 +11210,7 @@
         <v>0.31146643555514542</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -11214,7 +11236,7 @@
         <v>0.37339281546359787</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -11240,7 +11262,7 @@
         <v>0.5941802636509087</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -11266,7 +11288,7 @@
         <v>0.22334611225907358</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -11292,7 +11314,7 @@
         <v>0.45055941125882198</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -11318,7 +11340,7 @@
         <v>7.6739654953553407E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -11344,7 +11366,7 @@
         <v>0.26503119478593679</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -11370,7 +11392,7 @@
         <v>0.20586276093584363</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -11396,7 +11418,7 @@
         <v>0.28735119025206562</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -11422,7 +11444,7 @@
         <v>8.5375481442459461E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
@@ -11448,7 +11470,7 @@
         <v>0.46267098595038914</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -11474,7 +11496,7 @@
         <v>0.25974177109858571</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -11500,7 +11522,7 @@
         <v>0.32319503856650966</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -11526,7 +11548,7 @@
         <v>0.14331126084796436</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -11552,7 +11574,7 @@
         <v>0.17722909374597173</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
@@ -11578,7 +11600,7 @@
         <v>0.93917510679008376</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
@@ -11604,7 +11626,7 @@
         <v>0.53209850224377619</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
@@ -11630,7 +11652,7 @@
         <v>0.56528642157821873</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>51</v>
       </c>
@@ -11656,7 +11678,7 @@
         <v>0.27681960448395054</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -11682,7 +11704,7 @@
         <v>0.1789834633914732</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>53</v>
       </c>
@@ -11708,7 +11730,7 @@
         <v>6.6241237719905088E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -11734,7 +11756,7 @@
         <v>0.11428721590428624</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
@@ -11760,7 +11782,7 @@
         <v>0.32299148949142714</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -11786,7 +11808,7 @@
         <v>0.39535388337541422</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
@@ -11812,7 +11834,7 @@
         <v>8.7851705385539491E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -11838,7 +11860,7 @@
         <v>0.2070652854203103</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -11864,7 +11886,7 @@
         <v>0.1080886672262454</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>60</v>
       </c>
@@ -11890,7 +11912,7 @@
         <v>0.16756751560551297</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>61</v>
       </c>
@@ -11916,7 +11938,7 @@
         <v>0.10000770568659359</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
@@ -11942,7 +11964,7 @@
         <v>0.18541424016800218</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
@@ -11968,7 +11990,7 @@
         <v>0.20197043960565947</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
@@ -11994,7 +12016,7 @@
         <v>0.12425056053375048</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -12020,7 +12042,7 @@
         <v>0.48008869392594833</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -12046,7 +12068,7 @@
         <v>0.18139707433976485</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
@@ -12072,7 +12094,7 @@
         <v>0.39763528901318518</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
@@ -12098,7 +12120,7 @@
         <v>0.66126754220354278</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>69</v>
       </c>
@@ -12124,7 +12146,7 @@
         <v>0.41965500054938243</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>70</v>
       </c>
@@ -12150,7 +12172,7 @@
         <v>0.14664402974722188</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>71</v>
       </c>
@@ -12176,7 +12198,7 @@
         <v>0.58884183831875869</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>72</v>
       </c>
@@ -12202,7 +12224,7 @@
         <v>0.84505282833646145</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>73</v>
       </c>
@@ -12228,7 +12250,7 @@
         <v>0.36373921691883415</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>74</v>
       </c>
@@ -12254,7 +12276,7 @@
         <v>0.46063553780099908</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -12280,7 +12302,7 @@
         <v>0.34125846597849846</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>76</v>
       </c>
@@ -12306,7 +12328,7 @@
         <v>0.1069517353590721</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
@@ -12332,7 +12354,7 @@
         <v>0.26347911717955297</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>78</v>
       </c>
@@ -12358,7 +12380,7 @@
         <v>0.26104615654977886</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>79</v>
       </c>
@@ -12384,7 +12406,7 @@
         <v>0.46569552928518343</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>80</v>
       </c>
@@ -12410,7 +12432,7 @@
         <v>0.3231830486358046</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>81</v>
       </c>
@@ -12436,7 +12458,7 @@
         <v>0.31230515563665462</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>82</v>
       </c>
@@ -12462,7 +12484,7 @@
         <v>0.30325982357221376</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>83</v>
       </c>
@@ -12488,7 +12510,7 @@
         <v>0.77091416982898342</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>84</v>
       </c>
@@ -12514,7 +12536,7 @@
         <v>0.16681086467137435</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>85</v>
       </c>
@@ -12540,7 +12562,7 @@
         <v>0.28707617684205988</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>86</v>
       </c>
@@ -12566,7 +12588,7 @@
         <v>0.76122644259225247</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
@@ -12592,7 +12614,7 @@
         <v>0.2954634911148088</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>88</v>
       </c>
@@ -12618,7 +12640,7 @@
         <v>0.3067336756707138</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>89</v>
       </c>
@@ -12644,7 +12666,7 @@
         <v>0.13569681859868549</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>90</v>
       </c>
@@ -12670,7 +12692,7 @@
         <v>0.32164174357385528</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>91</v>
       </c>
@@ -12696,7 +12718,7 @@
         <v>0.22003080425170193</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>92</v>
       </c>
@@ -12722,7 +12744,7 @@
         <v>0.37688924054881245</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>93</v>
       </c>
@@ -12748,7 +12770,7 @@
         <v>0.1949696422488898</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>94</v>
       </c>
@@ -12774,7 +12796,7 @@
         <v>0.40450706824538868</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>95</v>
       </c>
@@ -12800,7 +12822,7 @@
         <v>0.24604115079376454</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B91" s="6"/>
       <c r="G91" s="4">
         <f>AVERAGE(G2:G90)</f>
@@ -12818,22 +12840,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L112" sqref="L112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.08984375" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="7" width="8.54296875" customWidth="1"/>
-    <col min="8" max="1025" width="9.08984375" customWidth="1"/>
+    <col min="3" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="1025" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12858,8 +12882,11 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I1" s="20" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -12887,9 +12914,12 @@
         <f t="shared" ref="H2:H33" si="0">G2/F2</f>
         <v>0.24664278300393191</v>
       </c>
+      <c r="I2" t="s">
+        <v>363</v>
+      </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -12917,9 +12947,12 @@
         <f t="shared" si="0"/>
         <v>0.1855904916894508</v>
       </c>
+      <c r="I3" t="s">
+        <v>363</v>
+      </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -12947,9 +12980,12 @@
         <f t="shared" si="0"/>
         <v>0.14714995525577579</v>
       </c>
+      <c r="I4" t="s">
+        <v>363</v>
+      </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -12977,9 +13013,12 @@
         <f t="shared" si="0"/>
         <v>0.16979820250604774</v>
       </c>
+      <c r="I5" t="s">
+        <v>363</v>
+      </c>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -13007,9 +13046,12 @@
         <f t="shared" si="0"/>
         <v>0.11716184678574661</v>
       </c>
+      <c r="I6" t="s">
+        <v>363</v>
+      </c>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -13037,9 +13079,12 @@
         <f t="shared" si="0"/>
         <v>0.16761643157722372</v>
       </c>
+      <c r="I7" t="s">
+        <v>363</v>
+      </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -13067,9 +13112,12 @@
         <f t="shared" si="0"/>
         <v>0.18838127696271095</v>
       </c>
+      <c r="I8" t="s">
+        <v>363</v>
+      </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -13097,9 +13145,12 @@
         <f t="shared" si="0"/>
         <v>0.17446534135362074</v>
       </c>
+      <c r="I9" t="s">
+        <v>363</v>
+      </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -13127,9 +13178,12 @@
         <f t="shared" si="0"/>
         <v>0.14192016156604192</v>
       </c>
+      <c r="I10" t="s">
+        <v>363</v>
+      </c>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -13157,9 +13211,12 @@
         <f t="shared" si="0"/>
         <v>0.29148153316722103</v>
       </c>
+      <c r="I11" t="s">
+        <v>363</v>
+      </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -13187,9 +13244,12 @@
         <f t="shared" si="0"/>
         <v>0.17199524188748833</v>
       </c>
+      <c r="I12" t="s">
+        <v>363</v>
+      </c>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -13217,9 +13277,12 @@
         <f t="shared" si="0"/>
         <v>0.26473772767467402</v>
       </c>
+      <c r="I13" t="s">
+        <v>363</v>
+      </c>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -13247,9 +13310,12 @@
         <f t="shared" si="0"/>
         <v>0.21930577059107983</v>
       </c>
+      <c r="I14" t="s">
+        <v>363</v>
+      </c>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -13277,9 +13343,12 @@
         <f t="shared" si="0"/>
         <v>0.17796227758343078</v>
       </c>
+      <c r="I15" t="s">
+        <v>363</v>
+      </c>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -13307,9 +13376,12 @@
         <f t="shared" si="0"/>
         <v>0.21178808946645042</v>
       </c>
+      <c r="I16" t="s">
+        <v>363</v>
+      </c>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -13337,9 +13409,12 @@
         <f t="shared" si="0"/>
         <v>0.17932806970916054</v>
       </c>
+      <c r="I17" t="s">
+        <v>363</v>
+      </c>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -13367,9 +13442,12 @@
         <f t="shared" si="0"/>
         <v>0.22960738870889344</v>
       </c>
+      <c r="I18" t="s">
+        <v>363</v>
+      </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -13397,9 +13475,12 @@
         <f t="shared" si="0"/>
         <v>0.18908132362733729</v>
       </c>
+      <c r="I19" t="s">
+        <v>363</v>
+      </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -13427,9 +13508,12 @@
         <f t="shared" si="0"/>
         <v>0.20196112542826744</v>
       </c>
+      <c r="I20" t="s">
+        <v>363</v>
+      </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -13457,9 +13541,12 @@
         <f t="shared" si="0"/>
         <v>3.8073916063432557E-2</v>
       </c>
+      <c r="I21" t="s">
+        <v>363</v>
+      </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -13487,9 +13574,12 @@
         <f t="shared" si="0"/>
         <v>0.1010530821894059</v>
       </c>
+      <c r="I22" t="s">
+        <v>363</v>
+      </c>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -13517,9 +13607,12 @@
         <f t="shared" si="0"/>
         <v>0.11755989491528153</v>
       </c>
+      <c r="I23" t="s">
+        <v>363</v>
+      </c>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -13547,9 +13640,12 @@
         <f t="shared" si="0"/>
         <v>4.3804833371160548E-2</v>
       </c>
+      <c r="I24" t="s">
+        <v>363</v>
+      </c>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -13577,9 +13673,12 @@
         <f t="shared" si="0"/>
         <v>0.22812775899303459</v>
       </c>
+      <c r="I25" t="s">
+        <v>363</v>
+      </c>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -13607,9 +13706,12 @@
         <f t="shared" si="0"/>
         <v>0.19373695968305146</v>
       </c>
+      <c r="I26" t="s">
+        <v>363</v>
+      </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -13637,9 +13739,12 @@
         <f t="shared" si="0"/>
         <v>0.18544297258129619</v>
       </c>
+      <c r="I27" t="s">
+        <v>363</v>
+      </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -13667,9 +13772,12 @@
         <f t="shared" si="0"/>
         <v>6.2400268518810746E-2</v>
       </c>
+      <c r="I28" t="s">
+        <v>363</v>
+      </c>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -13697,9 +13805,12 @@
         <f t="shared" si="0"/>
         <v>0.17298695857809882</v>
       </c>
+      <c r="I29" t="s">
+        <v>363</v>
+      </c>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -13727,9 +13838,12 @@
         <f t="shared" si="0"/>
         <v>0.43122903537653029</v>
       </c>
+      <c r="I30" t="s">
+        <v>363</v>
+      </c>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -13757,9 +13871,12 @@
         <f t="shared" si="0"/>
         <v>0.72314890190366821</v>
       </c>
+      <c r="I31" t="s">
+        <v>363</v>
+      </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -13787,9 +13904,12 @@
         <f t="shared" si="0"/>
         <v>0.13836185385720512</v>
       </c>
+      <c r="I32" t="s">
+        <v>363</v>
+      </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -13817,9 +13937,12 @@
         <f t="shared" si="0"/>
         <v>7.4669274524118548E-2</v>
       </c>
+      <c r="I33" t="s">
+        <v>363</v>
+      </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -13847,9 +13970,12 @@
         <f t="shared" ref="H34:H65" si="3">G34/F34</f>
         <v>7.7421468757185752E-2</v>
       </c>
+      <c r="I34" t="s">
+        <v>363</v>
+      </c>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -13877,9 +14003,12 @@
         <f t="shared" si="3"/>
         <v>0.18057708613838183</v>
       </c>
+      <c r="I35" t="s">
+        <v>363</v>
+      </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -13907,9 +14036,12 @@
         <f t="shared" si="3"/>
         <v>0.13181576083253441</v>
       </c>
+      <c r="I36" t="s">
+        <v>363</v>
+      </c>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -13937,9 +14069,12 @@
         <f t="shared" si="3"/>
         <v>0.16365004708787056</v>
       </c>
+      <c r="I37" t="s">
+        <v>363</v>
+      </c>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
@@ -13967,9 +14102,12 @@
         <f t="shared" si="3"/>
         <v>0.18854457461775936</v>
       </c>
+      <c r="I38" t="s">
+        <v>363</v>
+      </c>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -13997,9 +14135,12 @@
         <f t="shared" si="3"/>
         <v>0.12759975939753787</v>
       </c>
+      <c r="I39" t="s">
+        <v>363</v>
+      </c>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -14027,9 +14168,12 @@
         <f t="shared" si="3"/>
         <v>0.24402730796082525</v>
       </c>
+      <c r="I40" t="s">
+        <v>363</v>
+      </c>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -14057,9 +14201,12 @@
         <f t="shared" si="3"/>
         <v>0.13245205635787893</v>
       </c>
+      <c r="I41" t="s">
+        <v>363</v>
+      </c>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -14087,9 +14234,12 @@
         <f t="shared" si="3"/>
         <v>0.20643038743215159</v>
       </c>
+      <c r="I42" t="s">
+        <v>363</v>
+      </c>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
@@ -14117,9 +14267,12 @@
         <f t="shared" si="3"/>
         <v>0.2232549269891074</v>
       </c>
+      <c r="I43" t="s">
+        <v>363</v>
+      </c>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
@@ -14147,9 +14300,12 @@
         <f t="shared" si="3"/>
         <v>0.11283929904254364</v>
       </c>
+      <c r="I44" t="s">
+        <v>363</v>
+      </c>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
@@ -14177,9 +14333,12 @@
         <f t="shared" si="3"/>
         <v>8.6016266196680388E-2</v>
       </c>
+      <c r="I45" t="s">
+        <v>363</v>
+      </c>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>51</v>
       </c>
@@ -14207,9 +14366,12 @@
         <f t="shared" si="3"/>
         <v>0.11567744467233064</v>
       </c>
+      <c r="I46" t="s">
+        <v>363</v>
+      </c>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -14237,9 +14399,12 @@
         <f t="shared" si="3"/>
         <v>0.20108875145685326</v>
       </c>
+      <c r="I47" t="s">
+        <v>363</v>
+      </c>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>53</v>
       </c>
@@ -14267,9 +14432,12 @@
         <f t="shared" si="3"/>
         <v>0.15903393671021596</v>
       </c>
+      <c r="I48" t="s">
+        <v>363</v>
+      </c>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -14297,9 +14465,12 @@
         <f t="shared" si="3"/>
         <v>0.24642036894149014</v>
       </c>
+      <c r="I49" t="s">
+        <v>363</v>
+      </c>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
@@ -14327,9 +14498,12 @@
         <f t="shared" si="3"/>
         <v>0.250112336373573</v>
       </c>
+      <c r="I50" t="s">
+        <v>363</v>
+      </c>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -14357,9 +14531,12 @@
         <f t="shared" si="3"/>
         <v>0.15531187798221904</v>
       </c>
+      <c r="I51" t="s">
+        <v>363</v>
+      </c>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
@@ -14387,9 +14564,12 @@
         <f t="shared" si="3"/>
         <v>0.2406013107305025</v>
       </c>
+      <c r="I52" t="s">
+        <v>363</v>
+      </c>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -14417,9 +14597,12 @@
         <f t="shared" si="3"/>
         <v>0.20196691180330903</v>
       </c>
+      <c r="I53" t="s">
+        <v>363</v>
+      </c>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -14447,9 +14630,12 @@
         <f t="shared" si="3"/>
         <v>0.17392041228771352</v>
       </c>
+      <c r="I54" t="s">
+        <v>363</v>
+      </c>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>60</v>
       </c>
@@ -14477,9 +14663,12 @@
         <f t="shared" si="3"/>
         <v>0.21298522504828429</v>
       </c>
+      <c r="I55" t="s">
+        <v>363</v>
+      </c>
       <c r="K55" s="5"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>61</v>
       </c>
@@ -14507,9 +14696,12 @@
         <f t="shared" si="3"/>
         <v>0.16358079335641171</v>
       </c>
+      <c r="I56" t="s">
+        <v>363</v>
+      </c>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
@@ -14537,9 +14729,12 @@
         <f t="shared" si="3"/>
         <v>0.13187231040881589</v>
       </c>
+      <c r="I57" t="s">
+        <v>363</v>
+      </c>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
@@ -14567,9 +14762,12 @@
         <f t="shared" si="3"/>
         <v>0.17195370921289932</v>
       </c>
+      <c r="I58" t="s">
+        <v>363</v>
+      </c>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
@@ -14597,9 +14795,12 @@
         <f t="shared" si="3"/>
         <v>0.22933149455792282</v>
       </c>
+      <c r="I59" t="s">
+        <v>363</v>
+      </c>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -14627,9 +14828,12 @@
         <f t="shared" si="3"/>
         <v>0.28506989179075654</v>
       </c>
+      <c r="I60" t="s">
+        <v>363</v>
+      </c>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -14657,9 +14861,12 @@
         <f t="shared" si="3"/>
         <v>0.26213300088181241</v>
       </c>
+      <c r="I61" t="s">
+        <v>363</v>
+      </c>
       <c r="K61" s="5"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
@@ -14687,9 +14894,12 @@
         <f t="shared" si="3"/>
         <v>0.16920701179851458</v>
       </c>
+      <c r="I62" t="s">
+        <v>364</v>
+      </c>
       <c r="K62" s="5"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
@@ -14717,9 +14927,12 @@
         <f t="shared" si="3"/>
         <v>0.21361175289290527</v>
       </c>
+      <c r="I63" t="s">
+        <v>364</v>
+      </c>
       <c r="K63" s="5"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>69</v>
       </c>
@@ -14747,9 +14960,12 @@
         <f t="shared" si="3"/>
         <v>0.45481783948594179</v>
       </c>
+      <c r="I64" t="s">
+        <v>364</v>
+      </c>
       <c r="K64" s="5"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>70</v>
       </c>
@@ -14777,9 +14993,12 @@
         <f t="shared" si="3"/>
         <v>0.41178543377780835</v>
       </c>
+      <c r="I65" t="s">
+        <v>364</v>
+      </c>
       <c r="K65" s="5"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>71</v>
       </c>
@@ -14807,9 +15026,12 @@
         <f t="shared" ref="H66:H97" si="6">G66/F66</f>
         <v>0.49835544443277469</v>
       </c>
+      <c r="I66" t="s">
+        <v>364</v>
+      </c>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>72</v>
       </c>
@@ -14837,9 +15059,12 @@
         <f t="shared" si="6"/>
         <v>0.63785133799108951</v>
       </c>
+      <c r="I67" t="s">
+        <v>364</v>
+      </c>
       <c r="K67" s="5"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>73</v>
       </c>
@@ -14867,9 +15092,12 @@
         <f t="shared" si="6"/>
         <v>0.12105080636695599</v>
       </c>
+      <c r="I68" t="s">
+        <v>364</v>
+      </c>
       <c r="K68" s="5"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>74</v>
       </c>
@@ -14897,9 +15125,12 @@
         <f t="shared" si="6"/>
         <v>0.56425835635332611</v>
       </c>
+      <c r="I69" t="s">
+        <v>364</v>
+      </c>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -14927,9 +15158,12 @@
         <f t="shared" si="6"/>
         <v>5.7507114665549357E-3</v>
       </c>
+      <c r="I70" t="s">
+        <v>364</v>
+      </c>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>76</v>
       </c>
@@ -14957,9 +15191,12 @@
         <f t="shared" si="6"/>
         <v>0.18471242466195359</v>
       </c>
+      <c r="I71" t="s">
+        <v>364</v>
+      </c>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
@@ -14987,9 +15224,12 @@
         <f t="shared" si="6"/>
         <v>0.14894495933233368</v>
       </c>
+      <c r="I72" t="s">
+        <v>364</v>
+      </c>
       <c r="K72" s="5"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>78</v>
       </c>
@@ -15017,9 +15257,12 @@
         <f t="shared" si="6"/>
         <v>0.20966146496399099</v>
       </c>
+      <c r="I73" t="s">
+        <v>364</v>
+      </c>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>79</v>
       </c>
@@ -15047,9 +15290,12 @@
         <f t="shared" si="6"/>
         <v>0.22198197486828092</v>
       </c>
+      <c r="I74" t="s">
+        <v>364</v>
+      </c>
       <c r="K74" s="5"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>80</v>
       </c>
@@ -15077,9 +15323,12 @@
         <f t="shared" si="6"/>
         <v>0.26759378682100532</v>
       </c>
+      <c r="I75" t="s">
+        <v>364</v>
+      </c>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>81</v>
       </c>
@@ -15107,9 +15356,12 @@
         <f t="shared" si="6"/>
         <v>0.27229572123486218</v>
       </c>
+      <c r="I76" t="s">
+        <v>364</v>
+      </c>
       <c r="K76" s="5"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>82</v>
       </c>
@@ -15137,9 +15389,12 @@
         <f t="shared" si="6"/>
         <v>0.18968214161192765</v>
       </c>
+      <c r="I77" t="s">
+        <v>364</v>
+      </c>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>83</v>
       </c>
@@ -15167,9 +15422,12 @@
         <f t="shared" si="6"/>
         <v>0.62392400287601413</v>
       </c>
+      <c r="I78" t="s">
+        <v>364</v>
+      </c>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>84</v>
       </c>
@@ -15197,9 +15455,12 @@
         <f t="shared" si="6"/>
         <v>0.20454295999052469</v>
       </c>
+      <c r="I79" t="s">
+        <v>364</v>
+      </c>
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>85</v>
       </c>
@@ -15227,9 +15488,12 @@
         <f t="shared" si="6"/>
         <v>0.27191934964412706</v>
       </c>
+      <c r="I80" t="s">
+        <v>364</v>
+      </c>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>86</v>
       </c>
@@ -15257,9 +15521,12 @@
         <f t="shared" si="6"/>
         <v>0.90358218687401426</v>
       </c>
+      <c r="I81" t="s">
+        <v>364</v>
+      </c>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
@@ -15287,9 +15554,12 @@
         <f t="shared" si="6"/>
         <v>0.15728266086208126</v>
       </c>
+      <c r="I82" t="s">
+        <v>364</v>
+      </c>
       <c r="K82" s="5"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>88</v>
       </c>
@@ -15317,9 +15587,12 @@
         <f t="shared" si="6"/>
         <v>0.32464265854307123</v>
       </c>
+      <c r="I83" t="s">
+        <v>364</v>
+      </c>
       <c r="K83" s="5"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>89</v>
       </c>
@@ -15347,9 +15620,12 @@
         <f t="shared" si="6"/>
         <v>0.25684611997541212</v>
       </c>
+      <c r="I84" t="s">
+        <v>364</v>
+      </c>
       <c r="K84" s="5"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>90</v>
       </c>
@@ -15377,9 +15653,12 @@
         <f t="shared" si="6"/>
         <v>0.26277479848589425</v>
       </c>
+      <c r="I85" t="s">
+        <v>364</v>
+      </c>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>91</v>
       </c>
@@ -15407,9 +15686,12 @@
         <f t="shared" si="6"/>
         <v>0.22684225840372091</v>
       </c>
+      <c r="I86" t="s">
+        <v>364</v>
+      </c>
       <c r="K86" s="5"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>92</v>
       </c>
@@ -15437,9 +15719,12 @@
         <f t="shared" si="6"/>
         <v>0.15564475710789402</v>
       </c>
+      <c r="I87" t="s">
+        <v>364</v>
+      </c>
       <c r="K87" s="5"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>93</v>
       </c>
@@ -15467,9 +15752,12 @@
         <f t="shared" si="6"/>
         <v>0.25308524522366355</v>
       </c>
+      <c r="I88" t="s">
+        <v>364</v>
+      </c>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>94</v>
       </c>
@@ -15497,9 +15785,12 @@
         <f t="shared" si="6"/>
         <v>0.20396665965095884</v>
       </c>
+      <c r="I89" t="s">
+        <v>364</v>
+      </c>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>95</v>
       </c>
@@ -15527,9 +15818,12 @@
         <f t="shared" si="6"/>
         <v>0.20599924797204916</v>
       </c>
+      <c r="I90" t="s">
+        <v>364</v>
+      </c>
       <c r="K90" s="5"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>124</v>
       </c>
@@ -15557,8 +15851,11 @@
         <f t="shared" si="6"/>
         <v>9.1698824774012026E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I91" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
         <v>125</v>
       </c>
@@ -15586,8 +15883,11 @@
         <f t="shared" si="6"/>
         <v>0.11071557886225128</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I92" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>126</v>
       </c>
@@ -15615,8 +15915,11 @@
         <f t="shared" si="6"/>
         <v>8.1392818761535757E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I93" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>127</v>
       </c>
@@ -15644,8 +15947,11 @@
         <f t="shared" si="6"/>
         <v>3.3883435657382895E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I94" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
         <v>128</v>
       </c>
@@ -15673,8 +15979,11 @@
         <f t="shared" si="6"/>
         <v>0.14587047262566333</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I95" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>129</v>
       </c>
@@ -15702,8 +16011,11 @@
         <f t="shared" si="6"/>
         <v>7.209274888636738E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I96" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>130</v>
       </c>
@@ -15731,8 +16043,11 @@
         <f t="shared" si="6"/>
         <v>0.10894529716153074</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I97" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
         <v>131</v>
       </c>
@@ -15760,8 +16075,11 @@
         <f t="shared" ref="H98:H129" si="11">G98/F98</f>
         <v>9.8650277767836705E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I98" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>132</v>
       </c>
@@ -15789,8 +16107,11 @@
         <f t="shared" si="11"/>
         <v>0.13032308942304341</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I99" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>133</v>
       </c>
@@ -15818,8 +16139,11 @@
         <f t="shared" si="11"/>
         <v>7.3943665489982921E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I100" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>134</v>
       </c>
@@ -15844,11 +16168,14 @@
         <v>1.7296212445288115</v>
       </c>
       <c r="H101" s="11">
-        <f t="shared" si="11"/>
+        <f>G101/F101</f>
         <v>0.10767220263201221</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I101" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>135</v>
       </c>
@@ -15876,8 +16203,11 @@
         <f t="shared" si="11"/>
         <v>0.12247436731121143</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I102" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
         <v>136</v>
       </c>
@@ -15905,8 +16235,11 @@
         <f t="shared" si="11"/>
         <v>0.11481988063713434</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I103" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>137</v>
       </c>
@@ -15934,8 +16267,11 @@
         <f t="shared" si="11"/>
         <v>7.0346728219467705E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I104" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>138</v>
       </c>
@@ -15963,8 +16299,11 @@
         <f t="shared" si="11"/>
         <v>9.3064519700358062E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I105" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>139</v>
       </c>
@@ -15992,8 +16331,11 @@
         <f t="shared" si="11"/>
         <v>0.20913239135796327</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I106" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>140</v>
       </c>
@@ -16021,8 +16363,11 @@
         <f t="shared" si="11"/>
         <v>0.30945545327935281</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I107" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>141</v>
       </c>
@@ -16050,8 +16395,11 @@
         <f t="shared" si="11"/>
         <v>0.21647681285436815</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I108" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>142</v>
       </c>
@@ -16079,8 +16427,11 @@
         <f t="shared" si="11"/>
         <v>0.27607314092172663</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I109" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>143</v>
       </c>
@@ -16108,8 +16459,11 @@
         <f t="shared" si="11"/>
         <v>0.15730128328963675</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I110" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>144</v>
       </c>
@@ -16137,8 +16491,11 @@
         <f t="shared" si="11"/>
         <v>0.28923989433787028</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I111" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
         <v>145</v>
       </c>
@@ -16166,8 +16523,11 @@
         <f t="shared" si="11"/>
         <v>0.13411418605943914</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I112" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
         <v>146</v>
       </c>
@@ -16195,8 +16555,11 @@
         <f t="shared" si="11"/>
         <v>0.10630130949049732</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I113" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>147</v>
       </c>
@@ -16224,8 +16587,11 @@
         <f t="shared" si="11"/>
         <v>3.1526793788856325E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I114" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
         <v>148</v>
       </c>
@@ -16253,8 +16619,11 @@
         <f t="shared" si="11"/>
         <v>0.11013934293137451</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I115" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
         <v>149</v>
       </c>
@@ -16282,8 +16651,11 @@
         <f t="shared" si="11"/>
         <v>8.9890476750352055E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I116" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
         <v>150</v>
       </c>
@@ -16311,8 +16683,11 @@
         <f t="shared" si="11"/>
         <v>0.11663221460044353</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I117" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
         <v>151</v>
       </c>
@@ -16340,8 +16715,11 @@
         <f t="shared" si="11"/>
         <v>0.12941155859473413</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I118" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
         <v>152</v>
       </c>
@@ -16369,8 +16747,11 @@
         <f t="shared" si="11"/>
         <v>0.10958344123780502</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I119" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>153</v>
       </c>
@@ -16398,8 +16779,11 @@
         <f t="shared" si="11"/>
         <v>3.4938812359677718E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I120" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
         <v>154</v>
       </c>
@@ -16427,8 +16811,11 @@
         <f t="shared" si="11"/>
         <v>0.13583288601108773</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I121" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
         <v>155</v>
       </c>
@@ -16456,8 +16843,11 @@
         <f t="shared" si="11"/>
         <v>0.14499022700281322</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I122" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
         <v>156</v>
       </c>
@@ -16485,8 +16875,11 @@
         <f t="shared" si="11"/>
         <v>0.19074666961456319</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I123" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
         <v>157</v>
       </c>
@@ -16514,8 +16907,11 @@
         <f t="shared" si="11"/>
         <v>0.16866013937453561</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I124" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
         <v>158</v>
       </c>
@@ -16543,8 +16939,11 @@
         <f t="shared" si="11"/>
         <v>0.14603884560477748</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I125" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
         <v>159</v>
       </c>
@@ -16572,8 +16971,11 @@
         <f t="shared" si="11"/>
         <v>0.10845403178855369</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I126" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
         <v>160</v>
       </c>
@@ -16601,8 +17003,11 @@
         <f t="shared" si="11"/>
         <v>9.729218849828411E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I127" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
         <v>161</v>
       </c>
@@ -16630,8 +17035,11 @@
         <f t="shared" si="11"/>
         <v>0.12553785543256538</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I128" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
         <v>162</v>
       </c>
@@ -16659,8 +17067,11 @@
         <f t="shared" si="11"/>
         <v>0.10675091445642071</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I129" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>163</v>
       </c>
@@ -16688,8 +17099,11 @@
         <f t="shared" ref="H130:H161" si="14">G130/F130</f>
         <v>3.9128790856268622E-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I130" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
         <v>164</v>
       </c>
@@ -16717,8 +17131,11 @@
         <f t="shared" si="14"/>
         <v>0.11041055304958057</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I131" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
         <v>165</v>
       </c>
@@ -16746,8 +17163,11 @@
         <f t="shared" si="14"/>
         <v>9.4503411299291976E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I132" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>166</v>
       </c>
@@ -16775,8 +17195,11 @@
         <f t="shared" si="14"/>
         <v>0.20456035869097328</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I133" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>167</v>
       </c>
@@ -16804,8 +17227,11 @@
         <f t="shared" si="14"/>
         <v>2.3942119201454087E-2</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I134" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>168</v>
       </c>
@@ -16833,8 +17259,11 @@
         <f t="shared" si="14"/>
         <v>8.7534383184379672E-2</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I135" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>169</v>
       </c>
@@ -16862,8 +17291,11 @@
         <f t="shared" si="14"/>
         <v>0.61868927435005605</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I136" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>170</v>
       </c>
@@ -16891,8 +17323,11 @@
         <f t="shared" si="14"/>
         <v>0.59299275145250963</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I137" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>171</v>
       </c>
@@ -16920,8 +17355,11 @@
         <f t="shared" si="14"/>
         <v>1.0396276894333112E-2</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I138" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>172</v>
       </c>
@@ -16949,8 +17387,11 @@
         <f t="shared" si="14"/>
         <v>9.5234124054828881E-2</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I139" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
         <v>173</v>
       </c>
@@ -16978,8 +17419,11 @@
         <f t="shared" si="14"/>
         <v>0.10649604546610987</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I140" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>174</v>
       </c>
@@ -17007,8 +17451,11 @@
         <f t="shared" si="14"/>
         <v>0.39999894933771446</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I141" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>175</v>
       </c>
@@ -17036,8 +17483,11 @@
         <f t="shared" si="14"/>
         <v>0.21314168848009901</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I142" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>176</v>
       </c>
@@ -17065,8 +17515,11 @@
         <f t="shared" si="14"/>
         <v>0.21928571658094087</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I143" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>177</v>
       </c>
@@ -17094,8 +17547,11 @@
         <f t="shared" si="14"/>
         <v>0.18827780441309824</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I144" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>178</v>
       </c>
@@ -17123,8 +17579,11 @@
         <f t="shared" si="14"/>
         <v>0.35712548695424939</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I145" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>179</v>
       </c>
@@ -17152,8 +17611,11 @@
         <f t="shared" si="14"/>
         <v>0.50172953820085642</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I146" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>180</v>
       </c>
@@ -17181,8 +17643,11 @@
         <f t="shared" si="14"/>
         <v>0.11691652358976062</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I147" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>181</v>
       </c>
@@ -17210,8 +17675,11 @@
         <f t="shared" si="14"/>
         <v>4.429937788112976E-2</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I148" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>182</v>
       </c>
@@ -17239,8 +17707,11 @@
         <f t="shared" si="14"/>
         <v>5.2268568845437222E-2</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I149" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>183</v>
       </c>
@@ -17268,8 +17739,11 @@
         <f t="shared" si="14"/>
         <v>8.2955852197034094E-2</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I150" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>96</v>
       </c>
@@ -17297,8 +17771,11 @@
         <f t="shared" si="14"/>
         <v>7.8347132869220779E-2</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I151" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>97</v>
       </c>
@@ -17326,8 +17803,11 @@
         <f t="shared" si="14"/>
         <v>4.9973249253100135E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I152" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>98</v>
       </c>
@@ -17355,8 +17835,11 @@
         <f t="shared" si="14"/>
         <v>6.5511817471007761E-2</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I153" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="15" t="s">
         <v>99</v>
       </c>
@@ -17384,8 +17867,11 @@
         <f t="shared" si="14"/>
         <v>9.9134788254566744E-2</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I154" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>100</v>
       </c>
@@ -17413,8 +17899,11 @@
         <f t="shared" si="14"/>
         <v>0.30669735565940048</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I155" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>101</v>
       </c>
@@ -17442,8 +17931,11 @@
         <f t="shared" si="14"/>
         <v>2.7758829840662573E-2</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I156" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>102</v>
       </c>
@@ -17471,8 +17963,11 @@
         <f t="shared" si="14"/>
         <v>0.24686678138717105</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I157" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>103</v>
       </c>
@@ -17500,8 +17995,11 @@
         <f t="shared" si="14"/>
         <v>6.1712921469814427E-2</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I158" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>104</v>
       </c>
@@ -17529,8 +18027,11 @@
         <f t="shared" si="14"/>
         <v>0.16358664141873736</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I159" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>105</v>
       </c>
@@ -17558,8 +18059,11 @@
         <f t="shared" si="14"/>
         <v>9.9223895640353249E-2</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I160" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>106</v>
       </c>
@@ -17587,8 +18091,11 @@
         <f t="shared" si="14"/>
         <v>7.6846854764475919E-2</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I161" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>107</v>
       </c>
@@ -17616,8 +18123,11 @@
         <f t="shared" ref="H162:H178" si="17">G162/F162</f>
         <v>4.3734073198254189E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I162" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>108</v>
       </c>
@@ -17645,8 +18155,11 @@
         <f t="shared" si="17"/>
         <v>3.2767474378014457E-3</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I163" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>109</v>
       </c>
@@ -17674,8 +18187,11 @@
         <f t="shared" si="17"/>
         <v>7.0128805377815587E-2</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I164" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="15" t="s">
         <v>110</v>
       </c>
@@ -17703,8 +18219,11 @@
         <f t="shared" si="17"/>
         <v>9.9094951514074672E-2</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I165" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>111</v>
       </c>
@@ -17732,8 +18251,11 @@
         <f t="shared" si="17"/>
         <v>2.1397842535676E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I166" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="15" t="s">
         <v>112</v>
       </c>
@@ -17761,8 +18283,11 @@
         <f t="shared" si="17"/>
         <v>4.1688545331840479E-2</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I167" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>113</v>
       </c>
@@ -17790,8 +18315,11 @@
         <f t="shared" si="17"/>
         <v>5.9254066584027251E-2</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I168" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="15" t="s">
         <v>114</v>
       </c>
@@ -17819,8 +18347,11 @@
         <f t="shared" si="17"/>
         <v>0.11972840401974361</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I169" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>115</v>
       </c>
@@ -17848,8 +18379,11 @@
         <f t="shared" si="17"/>
         <v>3.9849966555867075E-2</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I170" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>116</v>
       </c>
@@ -17877,8 +18411,11 @@
         <f t="shared" si="17"/>
         <v>9.1737314378623702E-2</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I171" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>117</v>
       </c>
@@ -17906,8 +18443,11 @@
         <f t="shared" si="17"/>
         <v>0.13229690052433113</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I172" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>118</v>
       </c>
@@ -17935,8 +18475,11 @@
         <f t="shared" si="17"/>
         <v>5.696122611975863E-2</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I173" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>119</v>
       </c>
@@ -17964,8 +18507,11 @@
         <f t="shared" si="17"/>
         <v>4.7388315010964153E-2</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I174" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>120</v>
       </c>
@@ -17993,8 +18539,11 @@
         <f t="shared" si="17"/>
         <v>5.397308943236883E-2</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I175" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>121</v>
       </c>
@@ -18022,8 +18571,11 @@
         <f t="shared" si="17"/>
         <v>2.526537343111137E-2</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I176" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>122</v>
       </c>
@@ -18051,8 +18603,11 @@
         <f t="shared" si="17"/>
         <v>6.3372902003301465E-2</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I177" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>123</v>
       </c>
@@ -18080,8 +18635,11 @@
         <f t="shared" si="17"/>
         <v>1.6645891789124526E-2</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I178" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="8"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
@@ -18090,7 +18648,7 @@
       <c r="G179" s="8"/>
       <c r="H179" s="11"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="16"/>
       <c r="C180" s="17"/>
       <c r="D180" s="17"/>

--- a/data/First_round_results/Results - First and Second Plate 3 reps.xlsx
+++ b/data/First_round_results/Results - First and Second Plate 3 reps.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangmengyan/git/SynbioML/data/First_round_results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\GitHub\SynbioML\data\First_round_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5FFAFC-2A08-4392-A027-FCC6281441F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29500" yWindow="-6660" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GFPOD" sheetId="1" r:id="rId1"/>
@@ -18,19 +19,19 @@
     <sheet name="3h" sheetId="4" r:id="rId4"/>
     <sheet name="4h" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="463">
   <si>
     <t>RBS</t>
   </si>
@@ -1141,12 +1142,300 @@
   </si>
   <si>
     <t>prob random</t>
+  </si>
+  <si>
+    <t>01-Well-A1</t>
+  </si>
+  <si>
+    <t>01-Well-A2</t>
+  </si>
+  <si>
+    <t>01-Well-A3</t>
+  </si>
+  <si>
+    <t>01-Well-A4</t>
+  </si>
+  <si>
+    <t>01-Well-A5</t>
+  </si>
+  <si>
+    <t>01-Well-A6</t>
+  </si>
+  <si>
+    <t>01-Well-A7</t>
+  </si>
+  <si>
+    <t>01-Well-A9</t>
+  </si>
+  <si>
+    <t>01-Well-A10</t>
+  </si>
+  <si>
+    <t>01-Well-A11</t>
+  </si>
+  <si>
+    <t>01-Well-A12</t>
+  </si>
+  <si>
+    <t>01-Well-B1</t>
+  </si>
+  <si>
+    <t>01-Well-B2</t>
+  </si>
+  <si>
+    <t>01-Well-B3</t>
+  </si>
+  <si>
+    <t>01-Well-B4</t>
+  </si>
+  <si>
+    <t>01-Well-B5</t>
+  </si>
+  <si>
+    <t>01-Well-B6</t>
+  </si>
+  <si>
+    <t>01-Well-B7</t>
+  </si>
+  <si>
+    <t>01-Well-B8</t>
+  </si>
+  <si>
+    <t>01-Well-B9</t>
+  </si>
+  <si>
+    <t>01-Well-B10</t>
+  </si>
+  <si>
+    <t>01-Well-B11</t>
+  </si>
+  <si>
+    <t>01-Well-B12</t>
+  </si>
+  <si>
+    <t>01-Well-C1</t>
+  </si>
+  <si>
+    <t>01-Well-C2</t>
+  </si>
+  <si>
+    <t>01-Well-C3</t>
+  </si>
+  <si>
+    <t>01-Well-C4</t>
+  </si>
+  <si>
+    <t>01-Well-C5</t>
+  </si>
+  <si>
+    <t>01-Well-C6</t>
+  </si>
+  <si>
+    <t>01-Well-C7</t>
+  </si>
+  <si>
+    <t>01-Well-C8</t>
+  </si>
+  <si>
+    <t>01-Well-C9</t>
+  </si>
+  <si>
+    <t>01-Well-C10</t>
+  </si>
+  <si>
+    <t>01-Well-C11</t>
+  </si>
+  <si>
+    <t>01-Well-C12</t>
+  </si>
+  <si>
+    <t>01-Well-D1</t>
+  </si>
+  <si>
+    <t>01-Well-D2</t>
+  </si>
+  <si>
+    <t>01-Well-D3</t>
+  </si>
+  <si>
+    <t>01-Well-D4</t>
+  </si>
+  <si>
+    <t>01-Well-D5</t>
+  </si>
+  <si>
+    <t>01-Well-D6</t>
+  </si>
+  <si>
+    <t>01-Well-D7</t>
+  </si>
+  <si>
+    <t>01-Well-D8</t>
+  </si>
+  <si>
+    <t>01-Well-D9</t>
+  </si>
+  <si>
+    <t>01-Well-D10</t>
+  </si>
+  <si>
+    <t>01-Well-D11</t>
+  </si>
+  <si>
+    <t>01-Well-D12</t>
+  </si>
+  <si>
+    <t>01-Well-E1</t>
+  </si>
+  <si>
+    <t>01-Well-E2</t>
+  </si>
+  <si>
+    <t>01-Well-E3</t>
+  </si>
+  <si>
+    <t>01-Well-E4</t>
+  </si>
+  <si>
+    <t>01-Well-E5</t>
+  </si>
+  <si>
+    <t>01-Well-E6</t>
+  </si>
+  <si>
+    <t>01-Well-E7</t>
+  </si>
+  <si>
+    <t>01-Well-E8</t>
+  </si>
+  <si>
+    <t>01-Well-E9</t>
+  </si>
+  <si>
+    <t>01-Well-E10</t>
+  </si>
+  <si>
+    <t>01-Well-E11</t>
+  </si>
+  <si>
+    <t>01-Well-E12</t>
+  </si>
+  <si>
+    <t>01-Well-F1</t>
+  </si>
+  <si>
+    <t>01-Well-F2</t>
+  </si>
+  <si>
+    <t>01-Well-F3</t>
+  </si>
+  <si>
+    <t>01-Well-F4</t>
+  </si>
+  <si>
+    <t>01-Well-F5</t>
+  </si>
+  <si>
+    <t>01-Well-F6</t>
+  </si>
+  <si>
+    <t>01-Well-F7</t>
+  </si>
+  <si>
+    <t>01-Well-F8</t>
+  </si>
+  <si>
+    <t>01-Well-F9</t>
+  </si>
+  <si>
+    <t>01-Well-F10</t>
+  </si>
+  <si>
+    <t>01-Well-F11</t>
+  </si>
+  <si>
+    <t>01-Well-F12</t>
+  </si>
+  <si>
+    <t>01-Well-G1</t>
+  </si>
+  <si>
+    <t>01-Well-G2</t>
+  </si>
+  <si>
+    <t>01-Well-G3</t>
+  </si>
+  <si>
+    <t>01-Well-G4</t>
+  </si>
+  <si>
+    <t>01-Well-G5</t>
+  </si>
+  <si>
+    <t>01-Well-G6</t>
+  </si>
+  <si>
+    <t>01-Well-G7</t>
+  </si>
+  <si>
+    <t>01-Well-G8</t>
+  </si>
+  <si>
+    <t>01-Well-G9</t>
+  </si>
+  <si>
+    <t>01-Well-G10</t>
+  </si>
+  <si>
+    <t>01-Well-G11</t>
+  </si>
+  <si>
+    <t>01-Well-G12</t>
+  </si>
+  <si>
+    <t>01-Well-H1</t>
+  </si>
+  <si>
+    <t>01-Well-H2</t>
+  </si>
+  <si>
+    <t>01-Well-H3</t>
+  </si>
+  <si>
+    <t>01-Well-H4</t>
+  </si>
+  <si>
+    <t>01-Well-H5</t>
+  </si>
+  <si>
+    <t>01-Well-H6</t>
+  </si>
+  <si>
+    <t>01-Well-H7</t>
+  </si>
+  <si>
+    <t>01-Well-H8</t>
+  </si>
+  <si>
+    <t>01-Well-H9</t>
+  </si>
+  <si>
+    <t>01-Well-H10</t>
+  </si>
+  <si>
+    <t>01-Well-H11</t>
+  </si>
+  <si>
+    <t>01-Well-H12</t>
+  </si>
+  <si>
+    <t>Preliminary Flow Results</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1175,7 +1464,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1197,6 +1486,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,7 +1523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1267,6 +1562,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1649,18 +1947,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DJ91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="1025" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="39.453125" customWidth="1"/>
+    <col min="2" max="1025" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +2001,7 @@
       <c r="AL1" s="2"/>
       <c r="AN1" s="2"/>
     </row>
-    <row r="2" spans="1:114" ht="16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1745,7 +2043,7 @@
       <c r="AK2" s="5"/>
       <c r="AN2" s="4"/>
     </row>
-    <row r="3" spans="1:114" ht="16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1856,7 +2154,7 @@
       <c r="DB3" s="6"/>
       <c r="DC3" s="6"/>
     </row>
-    <row r="4" spans="1:114" ht="16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1969,7 +2267,7 @@
       <c r="DD4" s="6"/>
       <c r="DE4" s="6"/>
     </row>
-    <row r="5" spans="1:114" ht="16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2086,7 +2384,7 @@
       <c r="DI5" s="6"/>
       <c r="DJ5" s="6"/>
     </row>
-    <row r="6" spans="1:114" ht="16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -2128,7 +2426,7 @@
       <c r="AK6" s="5"/>
       <c r="AN6" s="4"/>
     </row>
-    <row r="7" spans="1:114" ht="16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -2240,7 +2538,7 @@
       <c r="DC7" s="6"/>
       <c r="DD7" s="6"/>
     </row>
-    <row r="8" spans="1:114" ht="16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -2282,7 +2580,7 @@
       <c r="AK8" s="5"/>
       <c r="AN8" s="4"/>
     </row>
-    <row r="9" spans="1:114" ht="16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -2324,7 +2622,7 @@
       <c r="AK9" s="5"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:114" ht="16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -2366,7 +2664,7 @@
       <c r="AK10" s="5"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:114" ht="16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -2408,7 +2706,7 @@
       <c r="AK11" s="5"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:114" ht="16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -2450,7 +2748,7 @@
       <c r="AK12" s="5"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:114" ht="16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -2492,7 +2790,7 @@
       <c r="AK13" s="5"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:114" ht="16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -2534,7 +2832,7 @@
       <c r="AK14" s="5"/>
       <c r="AN14" s="4"/>
     </row>
-    <row r="15" spans="1:114" ht="16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -2576,7 +2874,7 @@
       <c r="AK15" s="5"/>
       <c r="AN15" s="4"/>
     </row>
-    <row r="16" spans="1:114" ht="16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -2618,7 +2916,7 @@
       <c r="AK16" s="5"/>
       <c r="AN16" s="4"/>
     </row>
-    <row r="17" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -2660,7 +2958,7 @@
       <c r="AK17" s="5"/>
       <c r="AN17" s="4"/>
     </row>
-    <row r="18" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -2702,7 +3000,7 @@
       <c r="AK18" s="5"/>
       <c r="AN18" s="4"/>
     </row>
-    <row r="19" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -2744,7 +3042,7 @@
       <c r="AK19" s="5"/>
       <c r="AN19" s="4"/>
     </row>
-    <row r="20" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -2786,7 +3084,7 @@
       <c r="AK20" s="5"/>
       <c r="AN20" s="4"/>
     </row>
-    <row r="21" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -2828,7 +3126,7 @@
       <c r="AK21" s="5"/>
       <c r="AN21" s="4"/>
     </row>
-    <row r="22" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -2870,7 +3168,7 @@
       <c r="AK22" s="5"/>
       <c r="AN22" s="4"/>
     </row>
-    <row r="23" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -2912,7 +3210,7 @@
       <c r="AK23" s="5"/>
       <c r="AN23" s="4"/>
     </row>
-    <row r="24" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -2954,7 +3252,7 @@
       <c r="AK24" s="5"/>
       <c r="AN24" s="4"/>
     </row>
-    <row r="25" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -2996,7 +3294,7 @@
       <c r="AK25" s="5"/>
       <c r="AN25" s="4"/>
     </row>
-    <row r="26" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -3038,7 +3336,7 @@
       <c r="AK26" s="5"/>
       <c r="AN26" s="4"/>
     </row>
-    <row r="27" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -3080,7 +3378,7 @@
       <c r="AK27" s="5"/>
       <c r="AN27" s="4"/>
     </row>
-    <row r="28" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -3122,7 +3420,7 @@
       <c r="AK28" s="5"/>
       <c r="AN28" s="4"/>
     </row>
-    <row r="29" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -3164,7 +3462,7 @@
       <c r="AK29" s="5"/>
       <c r="AN29" s="4"/>
     </row>
-    <row r="30" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -3206,7 +3504,7 @@
       <c r="AK30" s="5"/>
       <c r="AN30" s="4"/>
     </row>
-    <row r="31" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -3248,7 +3546,7 @@
       <c r="AK31" s="5"/>
       <c r="AN31" s="4"/>
     </row>
-    <row r="32" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -3290,7 +3588,7 @@
       <c r="AK32" s="5"/>
       <c r="AN32" s="4"/>
     </row>
-    <row r="33" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -3332,7 +3630,7 @@
       <c r="AK33" s="5"/>
       <c r="AN33" s="4"/>
     </row>
-    <row r="34" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -3374,7 +3672,7 @@
       <c r="AK34" s="5"/>
       <c r="AN34" s="4"/>
     </row>
-    <row r="35" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -3416,7 +3714,7 @@
       <c r="AK35" s="5"/>
       <c r="AN35" s="4"/>
     </row>
-    <row r="36" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -3458,7 +3756,7 @@
       <c r="AK36" s="5"/>
       <c r="AN36" s="4"/>
     </row>
-    <row r="37" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -3500,7 +3798,7 @@
       <c r="AK37" s="5"/>
       <c r="AN37" s="4"/>
     </row>
-    <row r="38" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
@@ -3542,7 +3840,7 @@
       <c r="AK38" s="5"/>
       <c r="AN38" s="4"/>
     </row>
-    <row r="39" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -3584,7 +3882,7 @@
       <c r="AK39" s="5"/>
       <c r="AN39" s="4"/>
     </row>
-    <row r="40" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -3626,7 +3924,7 @@
       <c r="AK40" s="5"/>
       <c r="AN40" s="4"/>
     </row>
-    <row r="41" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -3668,7 +3966,7 @@
       <c r="AK41" s="5"/>
       <c r="AN41" s="4"/>
     </row>
-    <row r="42" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -3710,7 +4008,7 @@
       <c r="AK42" s="5"/>
       <c r="AN42" s="4"/>
     </row>
-    <row r="43" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
@@ -3752,7 +4050,7 @@
       <c r="AK43" s="5"/>
       <c r="AN43" s="4"/>
     </row>
-    <row r="44" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
@@ -3794,7 +4092,7 @@
       <c r="AK44" s="5"/>
       <c r="AN44" s="4"/>
     </row>
-    <row r="45" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
@@ -3836,7 +4134,7 @@
       <c r="AK45" s="5"/>
       <c r="AN45" s="4"/>
     </row>
-    <row r="46" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>51</v>
       </c>
@@ -3878,7 +4176,7 @@
       <c r="AK46" s="5"/>
       <c r="AN46" s="4"/>
     </row>
-    <row r="47" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -3920,7 +4218,7 @@
       <c r="AK47" s="5"/>
       <c r="AN47" s="4"/>
     </row>
-    <row r="48" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>53</v>
       </c>
@@ -3962,7 +4260,7 @@
       <c r="AK48" s="5"/>
       <c r="AN48" s="4"/>
     </row>
-    <row r="49" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -4004,7 +4302,7 @@
       <c r="AK49" s="5"/>
       <c r="AN49" s="4"/>
     </row>
-    <row r="50" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
@@ -4046,7 +4344,7 @@
       <c r="AK50" s="5"/>
       <c r="AN50" s="4"/>
     </row>
-    <row r="51" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -4088,7 +4386,7 @@
       <c r="AK51" s="5"/>
       <c r="AN51" s="4"/>
     </row>
-    <row r="52" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
@@ -4130,7 +4428,7 @@
       <c r="AK52" s="5"/>
       <c r="AN52" s="4"/>
     </row>
-    <row r="53" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -4172,7 +4470,7 @@
       <c r="AK53" s="5"/>
       <c r="AN53" s="4"/>
     </row>
-    <row r="54" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -4214,7 +4512,7 @@
       <c r="AK54" s="5"/>
       <c r="AN54" s="4"/>
     </row>
-    <row r="55" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>60</v>
       </c>
@@ -4256,7 +4554,7 @@
       <c r="AK55" s="5"/>
       <c r="AN55" s="4"/>
     </row>
-    <row r="56" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>61</v>
       </c>
@@ -4298,7 +4596,7 @@
       <c r="AK56" s="5"/>
       <c r="AN56" s="4"/>
     </row>
-    <row r="57" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
@@ -4340,7 +4638,7 @@
       <c r="AK57" s="5"/>
       <c r="AN57" s="4"/>
     </row>
-    <row r="58" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
@@ -4382,7 +4680,7 @@
       <c r="AK58" s="5"/>
       <c r="AN58" s="4"/>
     </row>
-    <row r="59" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
@@ -4424,7 +4722,7 @@
       <c r="AK59" s="5"/>
       <c r="AN59" s="4"/>
     </row>
-    <row r="60" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -4466,7 +4764,7 @@
       <c r="AK60" s="5"/>
       <c r="AN60" s="4"/>
     </row>
-    <row r="61" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -4508,7 +4806,7 @@
       <c r="AK61" s="5"/>
       <c r="AN61" s="4"/>
     </row>
-    <row r="62" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
@@ -4550,7 +4848,7 @@
       <c r="AK62" s="5"/>
       <c r="AN62" s="4"/>
     </row>
-    <row r="63" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
@@ -4592,7 +4890,7 @@
       <c r="AK63" s="5"/>
       <c r="AN63" s="4"/>
     </row>
-    <row r="64" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>69</v>
       </c>
@@ -4634,7 +4932,7 @@
       <c r="AK64" s="5"/>
       <c r="AN64" s="4"/>
     </row>
-    <row r="65" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>70</v>
       </c>
@@ -4676,7 +4974,7 @@
       <c r="AK65" s="5"/>
       <c r="AN65" s="4"/>
     </row>
-    <row r="66" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>71</v>
       </c>
@@ -4718,7 +5016,7 @@
       <c r="AK66" s="5"/>
       <c r="AN66" s="4"/>
     </row>
-    <row r="67" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>72</v>
       </c>
@@ -4760,7 +5058,7 @@
       <c r="AK67" s="5"/>
       <c r="AN67" s="4"/>
     </row>
-    <row r="68" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>73</v>
       </c>
@@ -4802,7 +5100,7 @@
       <c r="AK68" s="5"/>
       <c r="AN68" s="4"/>
     </row>
-    <row r="69" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>74</v>
       </c>
@@ -4844,7 +5142,7 @@
       <c r="AK69" s="5"/>
       <c r="AN69" s="4"/>
     </row>
-    <row r="70" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -4886,7 +5184,7 @@
       <c r="AK70" s="5"/>
       <c r="AN70" s="4"/>
     </row>
-    <row r="71" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>76</v>
       </c>
@@ -4928,7 +5226,7 @@
       <c r="AK71" s="5"/>
       <c r="AN71" s="4"/>
     </row>
-    <row r="72" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
@@ -4970,7 +5268,7 @@
       <c r="AK72" s="5"/>
       <c r="AN72" s="4"/>
     </row>
-    <row r="73" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>78</v>
       </c>
@@ -5012,7 +5310,7 @@
       <c r="AK73" s="5"/>
       <c r="AN73" s="4"/>
     </row>
-    <row r="74" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>79</v>
       </c>
@@ -5054,7 +5352,7 @@
       <c r="AK74" s="5"/>
       <c r="AN74" s="4"/>
     </row>
-    <row r="75" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>80</v>
       </c>
@@ -5096,7 +5394,7 @@
       <c r="AK75" s="5"/>
       <c r="AN75" s="4"/>
     </row>
-    <row r="76" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>81</v>
       </c>
@@ -5138,7 +5436,7 @@
       <c r="AK76" s="5"/>
       <c r="AN76" s="4"/>
     </row>
-    <row r="77" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>82</v>
       </c>
@@ -5180,7 +5478,7 @@
       <c r="AK77" s="5"/>
       <c r="AN77" s="4"/>
     </row>
-    <row r="78" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>83</v>
       </c>
@@ -5222,7 +5520,7 @@
       <c r="AK78" s="5"/>
       <c r="AN78" s="4"/>
     </row>
-    <row r="79" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>84</v>
       </c>
@@ -5264,7 +5562,7 @@
       <c r="AK79" s="5"/>
       <c r="AN79" s="4"/>
     </row>
-    <row r="80" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>85</v>
       </c>
@@ -5306,7 +5604,7 @@
       <c r="AK80" s="5"/>
       <c r="AN80" s="4"/>
     </row>
-    <row r="81" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>86</v>
       </c>
@@ -5348,7 +5646,7 @@
       <c r="AK81" s="5"/>
       <c r="AN81" s="4"/>
     </row>
-    <row r="82" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
@@ -5390,7 +5688,7 @@
       <c r="AK82" s="5"/>
       <c r="AN82" s="4"/>
     </row>
-    <row r="83" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>88</v>
       </c>
@@ -5432,7 +5730,7 @@
       <c r="AK83" s="5"/>
       <c r="AN83" s="4"/>
     </row>
-    <row r="84" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>89</v>
       </c>
@@ -5474,7 +5772,7 @@
       <c r="AK84" s="5"/>
       <c r="AN84" s="4"/>
     </row>
-    <row r="85" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>90</v>
       </c>
@@ -5516,7 +5814,7 @@
       <c r="AK85" s="5"/>
       <c r="AN85" s="4"/>
     </row>
-    <row r="86" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>91</v>
       </c>
@@ -5558,7 +5856,7 @@
       <c r="AK86" s="5"/>
       <c r="AN86" s="4"/>
     </row>
-    <row r="87" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>92</v>
       </c>
@@ -5600,7 +5898,7 @@
       <c r="AK87" s="5"/>
       <c r="AN87" s="4"/>
     </row>
-    <row r="88" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>93</v>
       </c>
@@ -5642,7 +5940,7 @@
       <c r="AK88" s="5"/>
       <c r="AN88" s="4"/>
     </row>
-    <row r="89" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>94</v>
       </c>
@@ -5684,7 +5982,7 @@
       <c r="AK89" s="5"/>
       <c r="AN89" s="4"/>
     </row>
-    <row r="90" spans="1:40" ht="16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>95</v>
       </c>
@@ -5726,7 +6024,7 @@
       <c r="AK90" s="5"/>
       <c r="AN90" s="4"/>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.35">
       <c r="G91" s="4">
         <f>AVERAGE(G2:G90)</f>
         <v>0.2576231703171642</v>
@@ -5747,19 +6045,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="1025" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="39.453125" customWidth="1"/>
+    <col min="2" max="7" width="8.453125" customWidth="1"/>
+    <col min="8" max="1025" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5782,7 +6080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -5808,7 +6106,7 @@
         <v>0.20339336865869734</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -5834,7 +6132,7 @@
         <v>0.24517150302680371</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -5860,7 +6158,7 @@
         <v>0.26620866604610816</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -5886,7 +6184,7 @@
         <v>0.25656899930008298</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -5912,7 +6210,7 @@
         <v>0.16647550611008347</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -5938,7 +6236,7 @@
         <v>0.26444556189134888</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -5964,7 +6262,7 @@
         <v>0.22255303389868961</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -5990,7 +6288,7 @@
         <v>1.0255878256390984</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -6016,7 +6314,7 @@
         <v>0.37168280620906402</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -6042,7 +6340,7 @@
         <v>0.19709916212121895</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -6068,7 +6366,7 @@
         <v>0.15021391280888613</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -6094,7 +6392,7 @@
         <v>0.11376917556567681</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -6120,7 +6418,7 @@
         <v>0.26182338396216925</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -6146,7 +6444,7 @@
         <v>0.24957625508621517</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -6172,7 +6470,7 @@
         <v>0.38900224976070757</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -6198,7 +6496,7 @@
         <v>0.19972904150508081</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -6224,7 +6522,7 @@
         <v>0.15057243912923374</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -6250,7 +6548,7 @@
         <v>0.2068968409223903</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -6276,7 +6574,7 @@
         <v>0.27415651823069365</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -6302,7 +6600,7 @@
         <v>0.24613627260559884</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -6328,7 +6626,7 @@
         <v>0.34519879848915452</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -6354,7 +6652,7 @@
         <v>0.12976383438977504</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -6380,7 +6678,7 @@
         <v>0.42925046221229579</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -6406,7 +6704,7 @@
         <v>4.6823871111844557E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -6432,7 +6730,7 @@
         <v>0.30413226672951815</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -6458,7 +6756,7 @@
         <v>0.45078191362311021</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -6484,7 +6782,7 @@
         <v>0.27862862396234317</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -6510,7 +6808,7 @@
         <v>0.37830518510896105</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -6536,7 +6834,7 @@
         <v>0.33735003793220886</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -6562,7 +6860,7 @@
         <v>0.29742817741229211</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -6588,7 +6886,7 @@
         <v>0.37483853012327034</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -6614,7 +6912,7 @@
         <v>0.16952957267066496</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -6640,7 +6938,7 @@
         <v>0.28403752691851214</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -6666,7 +6964,7 @@
         <v>0.23965385422546412</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -6692,7 +6990,7 @@
         <v>0.3067846209546442</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -6718,7 +7016,7 @@
         <v>0.11133066321463073</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
@@ -6744,7 +7042,7 @@
         <v>0.45647297622113658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -6770,7 +7068,7 @@
         <v>0.27837470318459268</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -6796,7 +7094,7 @@
         <v>0.3657223748584093</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -6822,7 +7120,7 @@
         <v>0.17208517483371893</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -6848,7 +7146,7 @@
         <v>0.21910237411540281</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
@@ -6874,7 +7172,7 @@
         <v>0.58167542513492898</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
@@ -6900,7 +7198,7 @@
         <v>0.30897137879176678</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
@@ -6926,7 +7224,7 @@
         <v>0.2915206787733054</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>51</v>
       </c>
@@ -6952,7 +7250,7 @@
         <v>0.2846621756216911</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -6978,7 +7276,7 @@
         <v>0.21910062705936997</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>53</v>
       </c>
@@ -7004,7 +7302,7 @@
         <v>0.13646373625930869</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -7030,7 +7328,7 @@
         <v>0.18811456627069545</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
@@ -7056,7 +7354,7 @@
         <v>0.33987344542046583</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -7082,7 +7380,7 @@
         <v>0.38150357099430182</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
@@ -7108,7 +7406,7 @@
         <v>0.13554110328301594</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -7134,7 +7432,7 @@
         <v>0.24400621033977099</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -7160,7 +7458,7 @@
         <v>0.16581303815726869</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>60</v>
       </c>
@@ -7186,7 +7484,7 @@
         <v>0.19885623113184611</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>61</v>
       </c>
@@ -7212,7 +7510,7 @@
         <v>0.16269314390926223</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
@@ -7238,7 +7536,7 @@
         <v>0.23815910806045631</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
@@ -7264,7 +7562,7 @@
         <v>0.25101098880264039</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
@@ -7290,7 +7588,7 @@
         <v>0.17714177405565257</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -7316,7 +7614,7 @@
         <v>0.43869295878812764</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -7342,7 +7640,7 @@
         <v>0.1187624780449069</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
@@ -7368,7 +7666,7 @@
         <v>0.38860877157246576</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
@@ -7394,7 +7692,7 @@
         <v>0.51192823659180886</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>69</v>
       </c>
@@ -7420,7 +7718,7 @@
         <v>0.43759632560072348</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>70</v>
       </c>
@@ -7446,7 +7744,7 @@
         <v>0.27786407310767086</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>71</v>
       </c>
@@ -7472,7 +7770,7 @@
         <v>0.42210431802253762</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>72</v>
       </c>
@@ -7498,7 +7796,7 @@
         <v>0.40839768606620525</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>73</v>
       </c>
@@ -7524,7 +7822,7 @@
         <v>0.26542569472319782</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>74</v>
       </c>
@@ -7550,7 +7848,7 @@
         <v>0.38277388948631341</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -7576,7 +7874,7 @@
         <v>0.31359389664556681</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>76</v>
       </c>
@@ -7602,7 +7900,7 @@
         <v>0.28505300905378639</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
@@ -7628,7 +7926,7 @@
         <v>0.29616179204269599</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>78</v>
       </c>
@@ -7654,7 +7952,7 @@
         <v>0.2647744937904522</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>79</v>
       </c>
@@ -7680,7 +7978,7 @@
         <v>0.4650526763794523</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>80</v>
       </c>
@@ -7706,7 +8004,7 @@
         <v>0.31630833426687893</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>81</v>
       </c>
@@ -7732,7 +8030,7 @@
         <v>0.30377743888260211</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>82</v>
       </c>
@@ -7758,7 +8056,7 @@
         <v>0.12589348701083719</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>83</v>
       </c>
@@ -7784,7 +8082,7 @@
         <v>0.52409656761852375</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>84</v>
       </c>
@@ -7810,7 +8108,7 @@
         <v>0.266583364590885</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>85</v>
       </c>
@@ -7836,7 +8134,7 @@
         <v>0.29034279108091848</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>86</v>
       </c>
@@ -7862,7 +8160,7 @@
         <v>0.70633555705830553</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
@@ -7888,7 +8186,7 @@
         <v>0.29608905476221875</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>88</v>
       </c>
@@ -7914,7 +8212,7 @@
         <v>0.30268840056199742</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>89</v>
       </c>
@@ -7940,7 +8238,7 @@
         <v>0.15841965823832474</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>90</v>
       </c>
@@ -7966,7 +8264,7 @@
         <v>0.32090009668381086</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>91</v>
       </c>
@@ -7992,7 +8290,7 @@
         <v>0.27103672223477465</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>92</v>
       </c>
@@ -8018,7 +8316,7 @@
         <v>0.34924862381259542</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>93</v>
       </c>
@@ -8044,7 +8342,7 @@
         <v>0.22806859392320275</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>94</v>
       </c>
@@ -8070,7 +8368,7 @@
         <v>0.38607996022940305</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>95</v>
       </c>
@@ -8096,7 +8394,7 @@
         <v>0.25566353598655323</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B91" s="6"/>
       <c r="G91" s="4">
         <f>AVERAGE(G2:G90)</f>
@@ -8110,19 +8408,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="1023" width="8.5" customWidth="1"/>
-    <col min="1024" max="1025" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="39.453125" customWidth="1"/>
+    <col min="2" max="1023" width="8.453125" customWidth="1"/>
+    <col min="1024" max="1025" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8145,7 +8443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -8171,7 +8469,7 @@
         <v>0.19721067788733071</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -8197,7 +8495,7 @@
         <v>0.23916733656837177</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -8223,7 +8521,7 @@
         <v>0.25057968244896911</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -8249,7 +8547,7 @@
         <v>0.23875793163631823</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -8275,7 +8573,7 @@
         <v>0.14772640602123369</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -8301,7 +8599,7 @@
         <v>0.26536888823697813</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -8327,7 +8625,7 @@
         <v>0.20143519121240569</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -8353,7 +8651,7 @@
         <v>0.99665228160056885</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -8379,7 +8677,7 @@
         <v>0.38953530207794684</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -8405,7 +8703,7 @@
         <v>0.15863150960473996</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -8431,7 +8729,7 @@
         <v>0.11127289474696672</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -8457,7 +8755,7 @@
         <v>0.11694259911300876</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -8483,7 +8781,7 @@
         <v>0.23655314467664826</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -8509,7 +8807,7 @@
         <v>0.25988888454747683</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -8535,7 +8833,7 @@
         <v>0.37665692638336995</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -8561,7 +8859,7 @@
         <v>0.19877165713017877</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -8587,7 +8885,7 @@
         <v>0.13285012635682522</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -8613,7 +8911,7 @@
         <v>0.19187080945269661</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -8639,7 +8937,7 @@
         <v>0.26317195765854784</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -8665,7 +8963,7 @@
         <v>0.21594282344245036</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -8691,7 +8989,7 @@
         <v>0.33888210968085181</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -8717,7 +9015,7 @@
         <v>0.11564748419889825</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -8743,7 +9041,7 @@
         <v>0.44977501499282541</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -8769,7 +9067,7 @@
         <v>4.2943557844902613E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -8795,7 +9093,7 @@
         <v>0.27626420385222838</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -8821,7 +9119,7 @@
         <v>0.47338787728414716</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -8847,7 +9145,7 @@
         <v>0.29006783344100789</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -8873,7 +9171,7 @@
         <v>0.37528676054860127</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -8899,7 +9197,7 @@
         <v>0.51089044659302019</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -8925,7 +9223,7 @@
         <v>0.10866691422525786</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -8951,7 +9249,7 @@
         <v>0.48361579443455865</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -8977,7 +9275,7 @@
         <v>0.15339528782019463</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -9003,7 +9301,7 @@
         <v>0.27154089536421888</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -9029,7 +9327,7 @@
         <v>0.22243838134924562</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -9055,7 +9353,7 @@
         <v>0.28876091153796551</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -9081,7 +9379,7 @@
         <v>0.10279569251357885</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
@@ -9107,7 +9405,7 @@
         <v>0.45715590153875058</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -9133,7 +9431,7 @@
         <v>0.27435655222214611</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -9159,7 +9457,7 @@
         <v>0.34466540505782389</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -9185,7 +9483,7 @@
         <v>0.15878184250599547</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -9211,7 +9509,7 @@
         <v>0.20090294199880529</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
@@ -9237,7 +9535,7 @@
         <v>0.76212754071097499</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
@@ -9263,7 +9561,7 @@
         <v>0.45829340304465976</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
@@ -9289,7 +9587,7 @@
         <v>0.48355491982843091</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>51</v>
       </c>
@@ -9315,7 +9613,7 @@
         <v>0.27717572588621153</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -9341,7 +9639,7 @@
         <v>0.20167512126611314</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>53</v>
       </c>
@@ -9367,7 +9665,7 @@
         <v>9.7169939932318358E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -9393,7 +9691,7 @@
         <v>0.14266551119766241</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
@@ -9419,7 +9717,7 @@
         <v>0.32461734011196108</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -9445,7 +9743,7 @@
         <v>0.39358316055215031</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
@@ -9471,7 +9769,7 @@
         <v>0.1038489521802133</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -9497,7 +9795,7 @@
         <v>0.22619306052336913</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -9523,7 +9821,7 @@
         <v>0.1295754130734782</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>60</v>
       </c>
@@ -9549,7 +9847,7 @@
         <v>0.18372206269145225</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>61</v>
       </c>
@@ -9575,7 +9873,7 @@
         <v>0.12698467294566407</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
@@ -9601,7 +9899,7 @@
         <v>0.20754982798710578</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
@@ -9627,7 +9925,7 @@
         <v>0.22417049698386238</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
@@ -9653,7 +9951,7 @@
         <v>0.14468484654618036</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -9679,7 +9977,7 @@
         <v>0.45128186334520048</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -9705,7 +10003,7 @@
         <v>0.16106573311570752</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
@@ -9731,7 +10029,7 @@
         <v>0.38662181542539126</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
@@ -9757,7 +10055,7 @@
         <v>0.55268099672722149</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>69</v>
       </c>
@@ -9783,7 +10081,7 @@
         <v>0.42842785046321663</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>70</v>
       </c>
@@ -9809,7 +10107,7 @@
         <v>0.17278990076901649</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>71</v>
       </c>
@@ -9835,7 +10133,7 @@
         <v>0.588842035259456</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>72</v>
       </c>
@@ -9861,7 +10159,7 @@
         <v>0.67886087335629908</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>73</v>
       </c>
@@ -9887,7 +10185,7 @@
         <v>0.36373923610149533</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>74</v>
       </c>
@@ -9913,7 +10211,7 @@
         <v>0.51199551744789074</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -9939,7 +10237,7 @@
         <v>0.33848486348231416</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>76</v>
       </c>
@@ -9965,7 +10263,7 @@
         <v>0.25278142244066065</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
@@ -9991,7 +10289,7 @@
         <v>0.26809555681365038</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>78</v>
       </c>
@@ -10017,7 +10315,7 @@
         <v>0.26937529018737233</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>79</v>
       </c>
@@ -10043,7 +10341,7 @@
         <v>0.45984970720634438</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>80</v>
       </c>
@@ -10069,7 +10367,7 @@
         <v>0.32218296573261246</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>81</v>
       </c>
@@ -10095,7 +10393,7 @@
         <v>0.31051375653124114</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>82</v>
       </c>
@@ -10121,7 +10419,7 @@
         <v>0.15019118779741158</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>83</v>
       </c>
@@ -10147,7 +10445,7 @@
         <v>0.69061824251187409</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>84</v>
       </c>
@@ -10173,7 +10471,7 @@
         <v>0.11830255829252428</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>85</v>
       </c>
@@ -10199,7 +10497,7 @@
         <v>0.29247272696331894</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>86</v>
       </c>
@@ -10225,7 +10523,7 @@
         <v>0.74729853076845154</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
@@ -10251,7 +10549,7 @@
         <v>0.29228507772301537</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>88</v>
       </c>
@@ -10277,7 +10575,7 @@
         <v>0.30428287345104738</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>89</v>
       </c>
@@ -10303,7 +10601,7 @@
         <v>0.14664631322427474</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>90</v>
       </c>
@@ -10329,7 +10627,7 @@
         <v>0.31841515471704668</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>91</v>
       </c>
@@ -10355,7 +10653,7 @@
         <v>0.23974555902133554</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>92</v>
       </c>
@@ -10381,7 +10679,7 @@
         <v>0.34804179722014622</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>93</v>
       </c>
@@ -10407,7 +10705,7 @@
         <v>0.20724311580910484</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>94</v>
       </c>
@@ -10433,7 +10731,7 @@
         <v>0.40464521849124901</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>95</v>
       </c>
@@ -10459,7 +10757,7 @@
         <v>0.25580047131888672</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B91" s="6"/>
       <c r="G91" s="4">
         <f>AVERAGE(G2:G90)</f>
@@ -10473,19 +10771,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="1025" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="39.453125" customWidth="1"/>
+    <col min="2" max="7" width="8.453125" customWidth="1"/>
+    <col min="8" max="1025" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10508,7 +10806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -10534,7 +10832,7 @@
         <v>0.17826021690219282</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -10560,7 +10858,7 @@
         <v>0.21700728451606116</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -10586,7 +10884,7 @@
         <v>0.24757230798582069</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -10612,7 +10910,7 @@
         <v>0.2180189601422978</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -10638,7 +10936,7 @@
         <v>0.12912023681321969</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -10664,7 +10962,7 @@
         <v>0.26300231326626411</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -10690,7 +10988,7 @@
         <v>0.18334661969394511</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -10716,7 +11014,7 @@
         <v>0.10061906787084386</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -10742,7 +11040,7 @@
         <v>0.39674482723962684</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -10768,7 +11066,7 @@
         <v>0.1238786721625305</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -10794,7 +11092,7 @@
         <v>0.10103688451512323</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -10820,7 +11118,7 @@
         <v>0.10579446837474804</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -10846,7 +11144,7 @@
         <v>0.21200217182658609</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -10872,7 +11170,7 @@
         <v>0.26190241721049184</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -10898,7 +11196,7 @@
         <v>0.37190336943774455</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -10924,7 +11222,7 @@
         <v>0.19052820991628311</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -10950,7 +11248,7 @@
         <v>0.125695597041829</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -10976,7 +11274,7 @@
         <v>0.17056541173133222</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -11002,7 +11300,7 @@
         <v>0.24663087797021949</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -11028,7 +11326,7 @@
         <v>0.18590392792706237</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -11054,7 +11352,7 @@
         <v>0.33968105215094457</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -11080,7 +11378,7 @@
         <v>9.300507426273058E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -11106,7 +11404,7 @@
         <v>0.45836075359592682</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -11132,7 +11430,7 @@
         <v>5.4296405650769909E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -11158,7 +11456,7 @@
         <v>0.25186080788552151</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -11184,7 +11482,7 @@
         <v>0.49516835451661284</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -11210,7 +11508,7 @@
         <v>0.31146643555514542</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -11236,7 +11534,7 @@
         <v>0.37339281546359787</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -11262,7 +11560,7 @@
         <v>0.5941802636509087</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -11288,7 +11586,7 @@
         <v>0.22334611225907358</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -11314,7 +11612,7 @@
         <v>0.45055941125882198</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -11340,7 +11638,7 @@
         <v>7.6739654953553407E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -11366,7 +11664,7 @@
         <v>0.26503119478593679</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -11392,7 +11690,7 @@
         <v>0.20586276093584363</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -11418,7 +11716,7 @@
         <v>0.28735119025206562</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -11444,7 +11742,7 @@
         <v>8.5375481442459461E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
@@ -11470,7 +11768,7 @@
         <v>0.46267098595038914</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -11496,7 +11794,7 @@
         <v>0.25974177109858571</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -11522,7 +11820,7 @@
         <v>0.32319503856650966</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -11548,7 +11846,7 @@
         <v>0.14331126084796436</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -11574,7 +11872,7 @@
         <v>0.17722909374597173</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
@@ -11600,7 +11898,7 @@
         <v>0.93917510679008376</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
@@ -11626,7 +11924,7 @@
         <v>0.53209850224377619</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
@@ -11652,7 +11950,7 @@
         <v>0.56528642157821873</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>51</v>
       </c>
@@ -11678,7 +11976,7 @@
         <v>0.27681960448395054</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -11704,7 +12002,7 @@
         <v>0.1789834633914732</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>53</v>
       </c>
@@ -11730,7 +12028,7 @@
         <v>6.6241237719905088E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -11756,7 +12054,7 @@
         <v>0.11428721590428624</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
@@ -11782,7 +12080,7 @@
         <v>0.32299148949142714</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -11808,7 +12106,7 @@
         <v>0.39535388337541422</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
@@ -11834,7 +12132,7 @@
         <v>8.7851705385539491E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -11860,7 +12158,7 @@
         <v>0.2070652854203103</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -11886,7 +12184,7 @@
         <v>0.1080886672262454</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>60</v>
       </c>
@@ -11912,7 +12210,7 @@
         <v>0.16756751560551297</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>61</v>
       </c>
@@ -11938,7 +12236,7 @@
         <v>0.10000770568659359</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
@@ -11964,7 +12262,7 @@
         <v>0.18541424016800218</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
@@ -11990,7 +12288,7 @@
         <v>0.20197043960565947</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
@@ -12016,7 +12314,7 @@
         <v>0.12425056053375048</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -12042,7 +12340,7 @@
         <v>0.48008869392594833</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -12068,7 +12366,7 @@
         <v>0.18139707433976485</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
@@ -12094,7 +12392,7 @@
         <v>0.39763528901318518</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
@@ -12120,7 +12418,7 @@
         <v>0.66126754220354278</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>69</v>
       </c>
@@ -12146,7 +12444,7 @@
         <v>0.41965500054938243</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>70</v>
       </c>
@@ -12172,7 +12470,7 @@
         <v>0.14664402974722188</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>71</v>
       </c>
@@ -12198,7 +12496,7 @@
         <v>0.58884183831875869</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>72</v>
       </c>
@@ -12224,7 +12522,7 @@
         <v>0.84505282833646145</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>73</v>
       </c>
@@ -12250,7 +12548,7 @@
         <v>0.36373921691883415</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>74</v>
       </c>
@@ -12276,7 +12574,7 @@
         <v>0.46063553780099908</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -12302,7 +12600,7 @@
         <v>0.34125846597849846</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>76</v>
       </c>
@@ -12328,7 +12626,7 @@
         <v>0.1069517353590721</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
@@ -12354,7 +12652,7 @@
         <v>0.26347911717955297</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>78</v>
       </c>
@@ -12380,7 +12678,7 @@
         <v>0.26104615654977886</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>79</v>
       </c>
@@ -12406,7 +12704,7 @@
         <v>0.46569552928518343</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>80</v>
       </c>
@@ -12432,7 +12730,7 @@
         <v>0.3231830486358046</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>81</v>
       </c>
@@ -12458,7 +12756,7 @@
         <v>0.31230515563665462</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>82</v>
       </c>
@@ -12484,7 +12782,7 @@
         <v>0.30325982357221376</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>83</v>
       </c>
@@ -12510,7 +12808,7 @@
         <v>0.77091416982898342</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>84</v>
       </c>
@@ -12536,7 +12834,7 @@
         <v>0.16681086467137435</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>85</v>
       </c>
@@ -12562,7 +12860,7 @@
         <v>0.28707617684205988</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>86</v>
       </c>
@@ -12588,7 +12886,7 @@
         <v>0.76122644259225247</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
@@ -12614,7 +12912,7 @@
         <v>0.2954634911148088</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>88</v>
       </c>
@@ -12640,7 +12938,7 @@
         <v>0.3067336756707138</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>89</v>
       </c>
@@ -12666,7 +12964,7 @@
         <v>0.13569681859868549</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>90</v>
       </c>
@@ -12692,7 +12990,7 @@
         <v>0.32164174357385528</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>91</v>
       </c>
@@ -12718,7 +13016,7 @@
         <v>0.22003080425170193</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>92</v>
       </c>
@@ -12744,7 +13042,7 @@
         <v>0.37688924054881245</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>93</v>
       </c>
@@ -12770,7 +13068,7 @@
         <v>0.1949696422488898</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>94</v>
       </c>
@@ -12796,7 +13094,7 @@
         <v>0.40450706824538868</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>95</v>
       </c>
@@ -12822,7 +13120,7 @@
         <v>0.24604115079376454</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B91" s="6"/>
       <c r="G91" s="4">
         <f>AVERAGE(G2:G90)</f>
@@ -12840,24 +13138,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K180"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="1025" width="9.1640625" customWidth="1"/>
+    <col min="3" max="7" width="8.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.1796875" customWidth="1"/>
+    <col min="13" max="13" width="15.36328125" customWidth="1"/>
+    <col min="14" max="1025" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12885,8 +13185,13 @@
       <c r="I1" s="20" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K1" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -12917,9 +13222,17 @@
       <c r="I2" t="s">
         <v>363</v>
       </c>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>4451.3999999999996</v>
+      </c>
+      <c r="L2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="M2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -12950,9 +13263,17 @@
       <c r="I3" t="s">
         <v>363</v>
       </c>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>3804.5</v>
+      </c>
+      <c r="L3">
+        <v>47.3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -12983,9 +13304,17 @@
       <c r="I4" t="s">
         <v>363</v>
       </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>1269</v>
+      </c>
+      <c r="L4">
+        <v>34.1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -13016,9 +13345,17 @@
       <c r="I5" t="s">
         <v>363</v>
       </c>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>4381.2</v>
+      </c>
+      <c r="L5">
+        <v>23.5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -13049,9 +13386,17 @@
       <c r="I6" t="s">
         <v>363</v>
       </c>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>4759.7</v>
+      </c>
+      <c r="L6">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="M6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -13082,9 +13427,17 @@
       <c r="I7" t="s">
         <v>363</v>
       </c>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>1440.1</v>
+      </c>
+      <c r="L7">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="M7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -13115,9 +13468,17 @@
       <c r="I8" t="s">
         <v>363</v>
       </c>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>3708.1</v>
+      </c>
+      <c r="L8">
+        <v>49.1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -13148,9 +13509,17 @@
       <c r="I9" t="s">
         <v>363</v>
       </c>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>4732.8</v>
+      </c>
+      <c r="L9">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="M9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -13181,9 +13550,17 @@
       <c r="I10" t="s">
         <v>363</v>
       </c>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>1232.7</v>
+      </c>
+      <c r="L10">
+        <v>20.7</v>
+      </c>
+      <c r="M10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -13214,9 +13591,17 @@
       <c r="I11" t="s">
         <v>363</v>
       </c>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>529.1</v>
+      </c>
+      <c r="L11">
+        <v>17.2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -13247,9 +13632,17 @@
       <c r="I12" t="s">
         <v>363</v>
       </c>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>29.2</v>
+      </c>
+      <c r="L12">
+        <v>63</v>
+      </c>
+      <c r="M12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -13280,9 +13673,17 @@
       <c r="I13" t="s">
         <v>363</v>
       </c>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>2837.7</v>
+      </c>
+      <c r="L13">
+        <v>10.1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -13313,9 +13714,14 @@
       <c r="I14" t="s">
         <v>363</v>
       </c>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>4250.1000000000004</v>
+      </c>
+      <c r="M14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -13346,9 +13752,17 @@
       <c r="I15" t="s">
         <v>363</v>
       </c>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>4103.3999999999996</v>
+      </c>
+      <c r="L15">
+        <v>13.7</v>
+      </c>
+      <c r="M15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -13379,9 +13793,17 @@
       <c r="I16" t="s">
         <v>363</v>
       </c>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>2132.6999999999998</v>
+      </c>
+      <c r="L16">
+        <v>44.5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -13412,9 +13834,17 @@
       <c r="I17" t="s">
         <v>363</v>
       </c>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>3313.1</v>
+      </c>
+      <c r="L17">
+        <v>24.8</v>
+      </c>
+      <c r="M17" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -13445,9 +13875,17 @@
       <c r="I18" t="s">
         <v>363</v>
       </c>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>2351.1999999999998</v>
+      </c>
+      <c r="L18">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="M18" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -13478,9 +13916,17 @@
       <c r="I19" t="s">
         <v>363</v>
       </c>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>3089.7</v>
+      </c>
+      <c r="L19">
+        <v>32.6</v>
+      </c>
+      <c r="M19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -13511,9 +13957,17 @@
       <c r="I20" t="s">
         <v>363</v>
       </c>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>2539.6999999999998</v>
+      </c>
+      <c r="L20">
+        <v>35.5</v>
+      </c>
+      <c r="M20" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -13544,9 +13998,17 @@
       <c r="I21" t="s">
         <v>363</v>
       </c>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>4188</v>
+      </c>
+      <c r="L21">
+        <v>23.8</v>
+      </c>
+      <c r="M21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -13577,9 +14039,17 @@
       <c r="I22" t="s">
         <v>363</v>
       </c>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>1410.8</v>
+      </c>
+      <c r="L22">
+        <v>61.9</v>
+      </c>
+      <c r="M22" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -13610,9 +14080,17 @@
       <c r="I23" t="s">
         <v>363</v>
       </c>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>51.7</v>
+      </c>
+      <c r="L23">
+        <v>43.5</v>
+      </c>
+      <c r="M23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -13643,9 +14121,17 @@
       <c r="I24" t="s">
         <v>363</v>
       </c>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="L24">
+        <v>19</v>
+      </c>
+      <c r="M24" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -13676,9 +14162,17 @@
       <c r="I25" t="s">
         <v>363</v>
       </c>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>1309.8</v>
+      </c>
+      <c r="L25">
+        <v>1220.4000000000001</v>
+      </c>
+      <c r="M25" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -13709,9 +14203,17 @@
       <c r="I26" t="s">
         <v>363</v>
       </c>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>3779.7</v>
+      </c>
+      <c r="L26">
+        <v>2957.7</v>
+      </c>
+      <c r="M26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -13742,9 +14244,17 @@
       <c r="I27" t="s">
         <v>363</v>
       </c>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>664.6</v>
+      </c>
+      <c r="L27">
+        <v>454.1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -13775,9 +14285,17 @@
       <c r="I28" t="s">
         <v>363</v>
       </c>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>568.4</v>
+      </c>
+      <c r="L28">
+        <v>454</v>
+      </c>
+      <c r="M28" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -13808,9 +14326,17 @@
       <c r="I29" t="s">
         <v>363</v>
       </c>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>579.70000000000005</v>
+      </c>
+      <c r="L29">
+        <v>425.2</v>
+      </c>
+      <c r="M29" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -13841,9 +14367,17 @@
       <c r="I30" t="s">
         <v>363</v>
       </c>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>424.2</v>
+      </c>
+      <c r="L30">
+        <v>331.1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -13874,9 +14408,17 @@
       <c r="I31" t="s">
         <v>363</v>
       </c>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>480.8</v>
+      </c>
+      <c r="L31">
+        <v>341.6</v>
+      </c>
+      <c r="M31" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -13907,9 +14449,17 @@
       <c r="I32" t="s">
         <v>363</v>
       </c>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>388.5</v>
+      </c>
+      <c r="L32">
+        <v>295.60000000000002</v>
+      </c>
+      <c r="M32" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -13940,9 +14490,17 @@
       <c r="I33" t="s">
         <v>363</v>
       </c>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>940.1</v>
+      </c>
+      <c r="L33">
+        <v>1060</v>
+      </c>
+      <c r="M33" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -13973,9 +14531,17 @@
       <c r="I34" t="s">
         <v>363</v>
       </c>
-      <c r="K34" s="5"/>
-    </row>
-    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>1510.1</v>
+      </c>
+      <c r="L34">
+        <v>1564.1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -14006,9 +14572,17 @@
       <c r="I35" t="s">
         <v>363</v>
       </c>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>55.6</v>
+      </c>
+      <c r="L35">
+        <v>1795.2</v>
+      </c>
+      <c r="M35" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -14039,9 +14613,17 @@
       <c r="I36" t="s">
         <v>363</v>
       </c>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>37.5</v>
+      </c>
+      <c r="L36">
+        <v>416.2</v>
+      </c>
+      <c r="M36" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -14072,9 +14654,17 @@
       <c r="I37" t="s">
         <v>363</v>
       </c>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>1006.5</v>
+      </c>
+      <c r="L37">
+        <v>807.7</v>
+      </c>
+      <c r="M37" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
@@ -14105,9 +14695,17 @@
       <c r="I38" t="s">
         <v>363</v>
       </c>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>1013.4</v>
+      </c>
+      <c r="L38">
+        <v>611.6</v>
+      </c>
+      <c r="M38" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -14138,9 +14736,17 @@
       <c r="I39" t="s">
         <v>363</v>
       </c>
-      <c r="K39" s="5"/>
-    </row>
-    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>1132.2</v>
+      </c>
+      <c r="L39">
+        <v>781.9</v>
+      </c>
+      <c r="M39" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -14171,9 +14777,17 @@
       <c r="I40" t="s">
         <v>363</v>
       </c>
-      <c r="K40" s="5"/>
-    </row>
-    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>2202.1</v>
+      </c>
+      <c r="L40">
+        <v>1909.9</v>
+      </c>
+      <c r="M40" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -14204,9 +14818,17 @@
       <c r="I41" t="s">
         <v>363</v>
       </c>
-      <c r="K41" s="5"/>
-    </row>
-    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>3021.3</v>
+      </c>
+      <c r="L41">
+        <v>2477.6</v>
+      </c>
+      <c r="M41" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -14237,9 +14859,17 @@
       <c r="I42" t="s">
         <v>363</v>
       </c>
-      <c r="K42" s="5"/>
-    </row>
-    <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>4670</v>
+      </c>
+      <c r="L42">
+        <v>3796.5</v>
+      </c>
+      <c r="M42" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
@@ -14270,9 +14900,17 @@
       <c r="I43" t="s">
         <v>363</v>
       </c>
-      <c r="K43" s="5"/>
-    </row>
-    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>377.2</v>
+      </c>
+      <c r="L43">
+        <v>331.1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
@@ -14303,9 +14941,17 @@
       <c r="I44" t="s">
         <v>363</v>
       </c>
-      <c r="K44" s="5"/>
-    </row>
-    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>351.5</v>
+      </c>
+      <c r="L44">
+        <v>319.3</v>
+      </c>
+      <c r="M44" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
@@ -14336,9 +14982,17 @@
       <c r="I45" t="s">
         <v>363</v>
       </c>
-      <c r="K45" s="5"/>
-    </row>
-    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>4359</v>
+      </c>
+      <c r="L45">
+        <v>3996.5</v>
+      </c>
+      <c r="M45" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>51</v>
       </c>
@@ -14369,9 +15023,17 @@
       <c r="I46" t="s">
         <v>363</v>
       </c>
-      <c r="K46" s="5"/>
-    </row>
-    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>2306.9</v>
+      </c>
+      <c r="L46">
+        <v>2653.5</v>
+      </c>
+      <c r="M46" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -14402,9 +15064,17 @@
       <c r="I47" t="s">
         <v>363</v>
       </c>
-      <c r="K47" s="5"/>
-    </row>
-    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>42.5</v>
+      </c>
+      <c r="L47">
+        <v>3093.1</v>
+      </c>
+      <c r="M47" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>53</v>
       </c>
@@ -14435,9 +15105,17 @@
       <c r="I48" t="s">
         <v>363</v>
       </c>
-      <c r="K48" s="5"/>
-    </row>
-    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>12.2</v>
+      </c>
+      <c r="L48">
+        <v>4431.6000000000004</v>
+      </c>
+      <c r="M48" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -14468,9 +15146,17 @@
       <c r="I49" t="s">
         <v>363</v>
       </c>
-      <c r="K49" s="5"/>
-    </row>
-    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>4502.8999999999996</v>
+      </c>
+      <c r="L49">
+        <v>3529</v>
+      </c>
+      <c r="M49" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
@@ -14501,9 +15187,17 @@
       <c r="I50" t="s">
         <v>363</v>
       </c>
-      <c r="K50" s="5"/>
-    </row>
-    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>3976.6</v>
+      </c>
+      <c r="L50">
+        <v>3120.4</v>
+      </c>
+      <c r="M50" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -14534,9 +15228,17 @@
       <c r="I51" t="s">
         <v>363</v>
       </c>
-      <c r="K51" s="5"/>
-    </row>
-    <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>2195.1999999999998</v>
+      </c>
+      <c r="L51">
+        <v>1872.5</v>
+      </c>
+      <c r="M51" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
@@ -14567,9 +15269,17 @@
       <c r="I52" t="s">
         <v>363</v>
       </c>
-      <c r="K52" s="5"/>
-    </row>
-    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>3090.6</v>
+      </c>
+      <c r="L52">
+        <v>3361.9</v>
+      </c>
+      <c r="M52" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -14600,9 +15310,17 @@
       <c r="I53" t="s">
         <v>363</v>
       </c>
-      <c r="K53" s="5"/>
-    </row>
-    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <v>3243.6</v>
+      </c>
+      <c r="L53">
+        <v>3251.9</v>
+      </c>
+      <c r="M53" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -14633,9 +15351,17 @@
       <c r="I54" t="s">
         <v>363</v>
       </c>
-      <c r="K54" s="5"/>
-    </row>
-    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>3051.6</v>
+      </c>
+      <c r="L54">
+        <v>3099.2</v>
+      </c>
+      <c r="M54" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>60</v>
       </c>
@@ -14666,9 +15392,17 @@
       <c r="I55" t="s">
         <v>363</v>
       </c>
-      <c r="K55" s="5"/>
-    </row>
-    <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>3604</v>
+      </c>
+      <c r="L55">
+        <v>3316</v>
+      </c>
+      <c r="M55" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>61</v>
       </c>
@@ -14699,9 +15433,17 @@
       <c r="I56" t="s">
         <v>363</v>
       </c>
-      <c r="K56" s="5"/>
-    </row>
-    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <v>3888.4</v>
+      </c>
+      <c r="L56">
+        <v>3431.9</v>
+      </c>
+      <c r="M56" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
@@ -14732,9 +15474,17 @@
       <c r="I57" t="s">
         <v>363</v>
       </c>
-      <c r="K57" s="5"/>
-    </row>
-    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <v>4137.6000000000004</v>
+      </c>
+      <c r="L57">
+        <v>4277.1000000000004</v>
+      </c>
+      <c r="M57" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
@@ -14765,9 +15515,17 @@
       <c r="I58" t="s">
         <v>363</v>
       </c>
-      <c r="K58" s="5"/>
-    </row>
-    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <v>3491.1</v>
+      </c>
+      <c r="L58">
+        <v>4160.3999999999996</v>
+      </c>
+      <c r="M58" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
@@ -14798,9 +15556,17 @@
       <c r="I59" t="s">
         <v>363</v>
       </c>
-      <c r="K59" s="5"/>
-    </row>
-    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <v>21</v>
+      </c>
+      <c r="L59">
+        <v>4323.2</v>
+      </c>
+      <c r="M59" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -14831,9 +15597,17 @@
       <c r="I60" t="s">
         <v>363</v>
       </c>
-      <c r="K60" s="5"/>
-    </row>
-    <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <v>27.2</v>
+      </c>
+      <c r="L60">
+        <v>280.3</v>
+      </c>
+      <c r="M60" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -14864,9 +15638,17 @@
       <c r="I61" t="s">
         <v>363</v>
       </c>
-      <c r="K61" s="5"/>
-    </row>
-    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <v>4656.8999999999996</v>
+      </c>
+      <c r="L61">
+        <v>4013.2</v>
+      </c>
+      <c r="M61" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
@@ -14897,9 +15679,17 @@
       <c r="I62" t="s">
         <v>364</v>
       </c>
-      <c r="K62" s="5"/>
-    </row>
-    <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <v>3478.8</v>
+      </c>
+      <c r="L62">
+        <v>3063.7</v>
+      </c>
+      <c r="M62" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
@@ -14930,9 +15720,17 @@
       <c r="I63" t="s">
         <v>364</v>
       </c>
-      <c r="K63" s="5"/>
-    </row>
-    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <v>492.6</v>
+      </c>
+      <c r="L63">
+        <v>354.8</v>
+      </c>
+      <c r="M63" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>69</v>
       </c>
@@ -14963,9 +15761,17 @@
       <c r="I64" t="s">
         <v>364</v>
       </c>
-      <c r="K64" s="5"/>
-    </row>
-    <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <v>346</v>
+      </c>
+      <c r="L64">
+        <v>252.3</v>
+      </c>
+      <c r="M64" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>70</v>
       </c>
@@ -14996,9 +15802,17 @@
       <c r="I65" t="s">
         <v>364</v>
       </c>
-      <c r="K65" s="5"/>
-    </row>
-    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <v>251.3</v>
+      </c>
+      <c r="L65">
+        <v>248.2</v>
+      </c>
+      <c r="M65" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>71</v>
       </c>
@@ -15029,9 +15843,17 @@
       <c r="I66" t="s">
         <v>364</v>
       </c>
-      <c r="K66" s="5"/>
-    </row>
-    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <v>276.89999999999998</v>
+      </c>
+      <c r="L66">
+        <v>315</v>
+      </c>
+      <c r="M66" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>72</v>
       </c>
@@ -15062,9 +15884,17 @@
       <c r="I67" t="s">
         <v>364</v>
       </c>
-      <c r="K67" s="5"/>
-    </row>
-    <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <v>360.6</v>
+      </c>
+      <c r="L67">
+        <v>234.7</v>
+      </c>
+      <c r="M67" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>73</v>
       </c>
@@ -15095,9 +15925,17 @@
       <c r="I68" t="s">
         <v>364</v>
       </c>
-      <c r="K68" s="5"/>
-    </row>
-    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <v>318</v>
+      </c>
+      <c r="L68">
+        <v>302.7</v>
+      </c>
+      <c r="M68" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>74</v>
       </c>
@@ -15128,9 +15966,17 @@
       <c r="I69" t="s">
         <v>364</v>
       </c>
-      <c r="K69" s="5"/>
-    </row>
-    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <v>348</v>
+      </c>
+      <c r="L69">
+        <v>249.4</v>
+      </c>
+      <c r="M69" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -15161,9 +16007,17 @@
       <c r="I70" t="s">
         <v>364</v>
       </c>
-      <c r="K70" s="5"/>
-    </row>
-    <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <v>233.4</v>
+      </c>
+      <c r="L70">
+        <v>250</v>
+      </c>
+      <c r="M70" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>76</v>
       </c>
@@ -15194,9 +16048,17 @@
       <c r="I71" t="s">
         <v>364</v>
       </c>
-      <c r="K71" s="5"/>
-    </row>
-    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <v>26.6</v>
+      </c>
+      <c r="L71">
+        <v>241.9</v>
+      </c>
+      <c r="M71" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
@@ -15227,9 +16089,17 @@
       <c r="I72" t="s">
         <v>364</v>
       </c>
-      <c r="K72" s="5"/>
-    </row>
-    <row r="73" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <v>20.9</v>
+      </c>
+      <c r="L72">
+        <v>167.4</v>
+      </c>
+      <c r="M72" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>78</v>
       </c>
@@ -15260,9 +16130,17 @@
       <c r="I73" t="s">
         <v>364</v>
       </c>
-      <c r="K73" s="5"/>
-    </row>
-    <row r="74" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <v>440.5</v>
+      </c>
+      <c r="L73">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="M73" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>79</v>
       </c>
@@ -15293,9 +16171,17 @@
       <c r="I74" t="s">
         <v>364</v>
       </c>
-      <c r="K74" s="5"/>
-    </row>
-    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <v>341.5</v>
+      </c>
+      <c r="L74">
+        <v>46.1</v>
+      </c>
+      <c r="M74" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>80</v>
       </c>
@@ -15326,9 +16212,17 @@
       <c r="I75" t="s">
         <v>364</v>
       </c>
-      <c r="K75" s="5"/>
-    </row>
-    <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <v>320.89999999999998</v>
+      </c>
+      <c r="L75">
+        <v>43.9</v>
+      </c>
+      <c r="M75" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>81</v>
       </c>
@@ -15359,9 +16253,17 @@
       <c r="I76" t="s">
         <v>364</v>
       </c>
-      <c r="K76" s="5"/>
-    </row>
-    <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <v>378.1</v>
+      </c>
+      <c r="L76">
+        <v>51.1</v>
+      </c>
+      <c r="M76" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>82</v>
       </c>
@@ -15392,9 +16294,17 @@
       <c r="I77" t="s">
         <v>364</v>
       </c>
-      <c r="K77" s="5"/>
-    </row>
-    <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <v>3130.8</v>
+      </c>
+      <c r="L77">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="M77" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>83</v>
       </c>
@@ -15425,9 +16335,17 @@
       <c r="I78" t="s">
         <v>364</v>
       </c>
-      <c r="K78" s="5"/>
-    </row>
-    <row r="79" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <v>274.10000000000002</v>
+      </c>
+      <c r="L78">
+        <v>48.7</v>
+      </c>
+      <c r="M78" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>84</v>
       </c>
@@ -15458,9 +16376,17 @@
       <c r="I79" t="s">
         <v>364</v>
       </c>
-      <c r="K79" s="5"/>
-    </row>
-    <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <v>283.10000000000002</v>
+      </c>
+      <c r="L79">
+        <v>28.9</v>
+      </c>
+      <c r="M79" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>85</v>
       </c>
@@ -15491,9 +16417,17 @@
       <c r="I80" t="s">
         <v>364</v>
       </c>
-      <c r="K80" s="5"/>
-    </row>
-    <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <v>269.5</v>
+      </c>
+      <c r="L80">
+        <v>47.4</v>
+      </c>
+      <c r="M80" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>86</v>
       </c>
@@ -15524,9 +16458,17 @@
       <c r="I81" t="s">
         <v>364</v>
       </c>
-      <c r="K81" s="5"/>
-    </row>
-    <row r="82" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <v>312.8</v>
+      </c>
+      <c r="L81">
+        <v>242.4</v>
+      </c>
+      <c r="M81" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
@@ -15557,9 +16499,17 @@
       <c r="I82" t="s">
         <v>364</v>
       </c>
-      <c r="K82" s="5"/>
-    </row>
-    <row r="83" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <v>120.1</v>
+      </c>
+      <c r="L82">
+        <v>236.7</v>
+      </c>
+      <c r="M82" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>88</v>
       </c>
@@ -15590,9 +16540,17 @@
       <c r="I83" t="s">
         <v>364</v>
       </c>
-      <c r="K83" s="5"/>
-    </row>
-    <row r="84" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <v>227.6</v>
+      </c>
+      <c r="L83">
+        <v>218.3</v>
+      </c>
+      <c r="M83" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>89</v>
       </c>
@@ -15623,9 +16581,17 @@
       <c r="I84" t="s">
         <v>364</v>
       </c>
-      <c r="K84" s="5"/>
-    </row>
-    <row r="85" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <v>35.1</v>
+      </c>
+      <c r="L84">
+        <v>1637.2</v>
+      </c>
+      <c r="M84" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>90</v>
       </c>
@@ -15656,9 +16622,17 @@
       <c r="I85" t="s">
         <v>364</v>
       </c>
-      <c r="K85" s="5"/>
-    </row>
-    <row r="86" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <v>308.60000000000002</v>
+      </c>
+      <c r="L85">
+        <v>232.2</v>
+      </c>
+      <c r="M85" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>91</v>
       </c>
@@ -15689,9 +16663,17 @@
       <c r="I86" t="s">
         <v>364</v>
       </c>
-      <c r="K86" s="5"/>
-    </row>
-    <row r="87" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <v>1636.1</v>
+      </c>
+      <c r="L86">
+        <v>1475.3</v>
+      </c>
+      <c r="M86" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>92</v>
       </c>
@@ -15722,9 +16704,17 @@
       <c r="I87" t="s">
         <v>364</v>
       </c>
-      <c r="K87" s="5"/>
-    </row>
-    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <v>287.5</v>
+      </c>
+      <c r="L87">
+        <v>322.39999999999998</v>
+      </c>
+      <c r="M87" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>93</v>
       </c>
@@ -15755,9 +16745,17 @@
       <c r="I88" t="s">
         <v>364</v>
       </c>
-      <c r="K88" s="5"/>
-    </row>
-    <row r="89" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <v>566.1</v>
+      </c>
+      <c r="L88">
+        <v>656.9</v>
+      </c>
+      <c r="M88" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>94</v>
       </c>
@@ -15788,9 +16786,17 @@
       <c r="I89" t="s">
         <v>364</v>
       </c>
-      <c r="K89" s="5"/>
-    </row>
-    <row r="90" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <v>302.7</v>
+      </c>
+      <c r="L89">
+        <v>277.5</v>
+      </c>
+      <c r="M89" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>95</v>
       </c>
@@ -15821,9 +16827,17 @@
       <c r="I90" t="s">
         <v>364</v>
       </c>
-      <c r="K90" s="5"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K90">
+        <v>278.39999999999998</v>
+      </c>
+      <c r="L90">
+        <v>253.3</v>
+      </c>
+      <c r="M90" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>124</v>
       </c>
@@ -15854,8 +16868,14 @@
       <c r="I91" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L91">
+        <v>1237.0999999999999</v>
+      </c>
+      <c r="M91" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="15" t="s">
         <v>125</v>
       </c>
@@ -15886,8 +16906,14 @@
       <c r="I92" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L92">
+        <v>855.6</v>
+      </c>
+      <c r="M92" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>126</v>
       </c>
@@ -15918,8 +16944,14 @@
       <c r="I93" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L93">
+        <v>160.4</v>
+      </c>
+      <c r="M93" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>127</v>
       </c>
@@ -15950,8 +16982,14 @@
       <c r="I94" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L94">
+        <v>1178.2</v>
+      </c>
+      <c r="M94" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="15" t="s">
         <v>128</v>
       </c>
@@ -15982,8 +17020,14 @@
       <c r="I95" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L95">
+        <v>233.1</v>
+      </c>
+      <c r="M95" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>129</v>
       </c>
@@ -16014,8 +17058,14 @@
       <c r="I96" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L96">
+        <v>1613.3</v>
+      </c>
+      <c r="M96" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>130</v>
       </c>
@@ -16047,7 +17097,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="15" t="s">
         <v>131</v>
       </c>
@@ -16079,7 +17129,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>132</v>
       </c>
@@ -16111,7 +17161,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>133</v>
       </c>
@@ -16143,7 +17193,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>134</v>
       </c>
@@ -16175,7 +17225,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>135</v>
       </c>
@@ -16207,7 +17257,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="15" t="s">
         <v>136</v>
       </c>
@@ -16239,7 +17289,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>137</v>
       </c>
@@ -16271,7 +17321,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>138</v>
       </c>
@@ -16303,7 +17353,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>139</v>
       </c>
@@ -16335,7 +17385,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>140</v>
       </c>
@@ -16367,7 +17417,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>141</v>
       </c>
@@ -16399,7 +17449,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>142</v>
       </c>
@@ -16431,7 +17481,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>143</v>
       </c>
@@ -16463,7 +17513,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>144</v>
       </c>
@@ -16495,7 +17545,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="15" t="s">
         <v>145</v>
       </c>
@@ -16527,7 +17577,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="15" t="s">
         <v>146</v>
       </c>
@@ -16559,7 +17609,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>147</v>
       </c>
@@ -16591,7 +17641,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="15" t="s">
         <v>148</v>
       </c>
@@ -16623,7 +17673,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="15" t="s">
         <v>149</v>
       </c>
@@ -16655,7 +17705,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="15" t="s">
         <v>150</v>
       </c>
@@ -16687,7 +17737,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="15" t="s">
         <v>151</v>
       </c>
@@ -16719,7 +17769,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="15" t="s">
         <v>152</v>
       </c>
@@ -16751,7 +17801,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>153</v>
       </c>
@@ -16783,7 +17833,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="15" t="s">
         <v>154</v>
       </c>
@@ -16815,7 +17865,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="15" t="s">
         <v>155</v>
       </c>
@@ -16847,7 +17897,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="15" t="s">
         <v>156</v>
       </c>
@@ -16879,7 +17929,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="15" t="s">
         <v>157</v>
       </c>
@@ -16911,7 +17961,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="15" t="s">
         <v>158</v>
       </c>
@@ -16943,7 +17993,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="15" t="s">
         <v>159</v>
       </c>
@@ -16975,7 +18025,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="15" t="s">
         <v>160</v>
       </c>
@@ -17007,7 +18057,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="15" t="s">
         <v>161</v>
       </c>
@@ -17039,7 +18089,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="15" t="s">
         <v>162</v>
       </c>
@@ -17071,7 +18121,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>163</v>
       </c>
@@ -17103,7 +18153,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="15" t="s">
         <v>164</v>
       </c>
@@ -17135,7 +18185,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="15" t="s">
         <v>165</v>
       </c>
@@ -17167,7 +18217,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>166</v>
       </c>
@@ -17199,7 +18249,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>167</v>
       </c>
@@ -17231,7 +18281,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>168</v>
       </c>
@@ -17263,7 +18313,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>169</v>
       </c>
@@ -17295,7 +18345,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>170</v>
       </c>
@@ -17327,7 +18377,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>171</v>
       </c>
@@ -17359,7 +18409,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>172</v>
       </c>
@@ -17391,7 +18441,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="15" t="s">
         <v>173</v>
       </c>
@@ -17423,7 +18473,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>174</v>
       </c>
@@ -17455,7 +18505,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>175</v>
       </c>
@@ -17487,7 +18537,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>176</v>
       </c>
@@ -17519,7 +18569,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>177</v>
       </c>
@@ -17551,7 +18601,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>178</v>
       </c>
@@ -17583,7 +18633,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>179</v>
       </c>
@@ -17615,7 +18665,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>180</v>
       </c>
@@ -17647,7 +18697,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>181</v>
       </c>
@@ -17679,7 +18729,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>182</v>
       </c>
@@ -17711,7 +18761,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>183</v>
       </c>
@@ -17743,7 +18793,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>96</v>
       </c>
@@ -17775,7 +18825,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>97</v>
       </c>
@@ -17807,7 +18857,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>98</v>
       </c>
@@ -17839,7 +18889,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="15" t="s">
         <v>99</v>
       </c>
@@ -17871,7 +18921,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>100</v>
       </c>
@@ -17903,7 +18953,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>101</v>
       </c>
@@ -17935,7 +18985,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>102</v>
       </c>
@@ -17967,7 +19017,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>103</v>
       </c>
@@ -17999,7 +19049,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>104</v>
       </c>
@@ -18031,7 +19081,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>105</v>
       </c>
@@ -18063,7 +19113,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>106</v>
       </c>
@@ -18095,7 +19145,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>107</v>
       </c>
@@ -18127,7 +19177,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>108</v>
       </c>
@@ -18159,7 +19209,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>109</v>
       </c>
@@ -18191,7 +19241,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="15" t="s">
         <v>110</v>
       </c>
@@ -18223,7 +19273,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>111</v>
       </c>
@@ -18255,7 +19305,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="15" t="s">
         <v>112</v>
       </c>
@@ -18287,7 +19337,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>113</v>
       </c>
@@ -18319,7 +19369,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="15" t="s">
         <v>114</v>
       </c>
@@ -18351,7 +19401,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>115</v>
       </c>
@@ -18383,7 +19433,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>116</v>
       </c>
@@ -18415,7 +19465,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>117</v>
       </c>
@@ -18447,7 +19497,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>118</v>
       </c>
@@ -18479,7 +19529,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>119</v>
       </c>
@@ -18511,7 +19561,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>120</v>
       </c>
@@ -18543,7 +19593,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>121</v>
       </c>
@@ -18575,7 +19625,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>122</v>
       </c>
@@ -18607,7 +19657,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>123</v>
       </c>
@@ -18639,7 +19689,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="8"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
@@ -18648,7 +19698,7 @@
       <c r="G179" s="8"/>
       <c r="H179" s="11"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="16"/>
       <c r="C180" s="17"/>
       <c r="D180" s="17"/>
@@ -18658,6 +19708,9 @@
       <c r="H180" s="19"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K1:M1"/>
+  </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>

--- a/data/First_round_results/Results - First and Second Plate 3 reps.xlsx
+++ b/data/First_round_results/Results - First and Second Plate 3 reps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\GitHub\SynbioML\data\First_round_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5FFAFC-2A08-4392-A027-FCC6281441F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9EA5C2-FDD3-44AF-97EA-42E707F8BF35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="458">
   <si>
     <t>RBS</t>
   </si>
@@ -1411,25 +1411,10 @@
     <t>01-Well-H6</t>
   </si>
   <si>
-    <t>01-Well-H7</t>
-  </si>
-  <si>
-    <t>01-Well-H8</t>
-  </si>
-  <si>
-    <t>01-Well-H9</t>
-  </si>
-  <si>
-    <t>01-Well-H10</t>
-  </si>
-  <si>
-    <t>01-Well-H11</t>
-  </si>
-  <si>
-    <t>01-Well-H12</t>
-  </si>
-  <si>
     <t>Preliminary Flow Results</t>
+  </si>
+  <si>
+    <t>Rep4</t>
   </si>
 </sst>
 </file>
@@ -1462,6 +1447,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1523,7 +1509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1542,9 +1528,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -13139,25 +13122,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M180"/>
+  <dimension ref="A1:N180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.1796875" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="7" width="8.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.1796875" customWidth="1"/>
-    <col min="13" max="13" width="15.36328125" customWidth="1"/>
-    <col min="14" max="1025" width="9.1796875" customWidth="1"/>
+    <col min="3" max="8" width="8.453125" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.1796875" customWidth="1"/>
+    <col min="14" max="14" width="15.36328125" customWidth="1"/>
+    <col min="15" max="1026" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13174,24 +13157,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="K1" s="21" t="s">
-        <v>462</v>
-      </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L1" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -13201,38 +13187,41 @@
       <c r="C2" s="5">
         <v>80.919700000000006</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>52.402430874231797</v>
       </c>
       <c r="E2" s="5">
         <v>98.720439999999996</v>
       </c>
-      <c r="F2">
-        <f>AVERAGE(C2:E2)</f>
-        <v>77.347523624743928</v>
+      <c r="F2" s="13">
+        <v>61.622165036105699</v>
       </c>
       <c r="G2">
-        <f>_xlfn.STDEV.P(C2:E2)</f>
-        <v>19.077208485269214</v>
-      </c>
-      <c r="H2" s="4">
-        <f t="shared" ref="H2:H33" si="0">G2/F2</f>
-        <v>0.24664278300393191</v>
-      </c>
-      <c r="I2" t="s">
+        <f>AVERAGE(C2:F2)</f>
+        <v>73.416183977584367</v>
+      </c>
+      <c r="H2">
+        <f>_xlfn.STDEV.P(C2:F2)</f>
+        <v>17.869560905540101</v>
+      </c>
+      <c r="I2" s="4">
+        <f t="shared" ref="I2:I33" si="0">H2/G2</f>
+        <v>0.24340084076007118</v>
+      </c>
+      <c r="J2" t="s">
         <v>363</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>4451.3999999999996</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>20.100000000000001</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -13242,38 +13231,41 @@
       <c r="C3" s="5">
         <v>58.336880000000001</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>40.072951065481497</v>
       </c>
       <c r="E3" s="5">
         <v>81.136200000000002</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F34" si="1">AVERAGE(C3:D3)</f>
-        <v>49.204915532740749</v>
+      <c r="F3" s="13">
+        <v>42.042854027511197</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G34" si="2">_xlfn.STDEV.P(C3:D3)</f>
-        <v>9.1319644672592499</v>
-      </c>
-      <c r="H3" s="4">
+        <f t="shared" ref="G3:G66" si="1">AVERAGE(C3:F3)</f>
+        <v>55.397221273248171</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="2">_xlfn.STDEV.P(C3:F3)</f>
+        <v>16.464423777197684</v>
+      </c>
+      <c r="I3" s="4">
         <f t="shared" si="0"/>
-        <v>0.1855904916894508</v>
-      </c>
-      <c r="I3" t="s">
+        <v>0.29720667208173684</v>
+      </c>
+      <c r="J3" t="s">
         <v>363</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>3804.5</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>47.3</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -13283,38 +13275,41 @@
       <c r="C4" s="5">
         <v>38.780700000000003</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>28.831559098860701</v>
       </c>
       <c r="E4" s="5">
         <v>58.763330000000003</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="13">
+        <v>24.487869963654301</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="1"/>
-        <v>33.806129549430352</v>
-      </c>
-      <c r="G4">
+        <v>37.715864765628751</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="2"/>
-        <v>4.9745704505696358</v>
-      </c>
-      <c r="H4" s="4">
+        <v>13.210227103744803</v>
+      </c>
+      <c r="I4" s="4">
         <f t="shared" si="0"/>
-        <v>0.14714995525577579</v>
-      </c>
-      <c r="I4" t="s">
+        <v>0.350256508390696</v>
+      </c>
+      <c r="J4" t="s">
         <v>363</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1269</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>34.1</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -13324,38 +13319,41 @@
       <c r="C5" s="5">
         <v>60.720820000000003</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>43.093359009539199</v>
       </c>
       <c r="E5" s="5">
         <v>74.605289999999997</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="13">
+        <v>38.6419582348774</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="1"/>
-        <v>51.907089504769601</v>
-      </c>
-      <c r="G5">
+        <v>54.265356811104148</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="2"/>
-        <v>8.8137304952304145</v>
-      </c>
-      <c r="H5" s="4">
+        <v>14.355225573478041</v>
+      </c>
+      <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>0.16979820250604774</v>
-      </c>
-      <c r="I5" t="s">
+        <v>0.26453756903226661</v>
+      </c>
+      <c r="J5" t="s">
         <v>363</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>4381.2</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>23.5</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -13365,38 +13363,41 @@
       <c r="C6" s="5">
         <v>58.099539999999998</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>45.913213688575503</v>
       </c>
       <c r="E6" s="5">
         <v>70.531620000000004</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="13">
+        <v>44.352931357439502</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="1"/>
-        <v>52.00637684428775</v>
-      </c>
-      <c r="G6">
+        <v>54.724326261503748</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="2"/>
-        <v>6.0931631557122419</v>
-      </c>
-      <c r="H6" s="4">
+        <v>10.564849030446464</v>
+      </c>
+      <c r="I6" s="4">
         <f t="shared" si="0"/>
-        <v>0.11716184678574661</v>
-      </c>
-      <c r="I6" t="s">
+        <v>0.19305580812382497</v>
+      </c>
+      <c r="J6" t="s">
         <v>363</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>4759.7</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>64.900000000000006</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -13406,38 +13407,41 @@
       <c r="C7" s="5">
         <v>30.82338</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>21.973718715652002</v>
       </c>
       <c r="E7" s="5">
         <v>47.703389999999999</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="13">
+        <v>21.2056788752271</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="1"/>
-        <v>26.398549357825999</v>
-      </c>
-      <c r="G7">
+        <v>30.426541897719773</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="2"/>
-        <v>4.4248306421740047</v>
-      </c>
-      <c r="H7" s="4">
+        <v>10.666788357509031</v>
+      </c>
+      <c r="I7" s="4">
         <f t="shared" si="0"/>
-        <v>0.16761643157722372</v>
-      </c>
-      <c r="I7" t="s">
+        <v>0.35057511278691916</v>
+      </c>
+      <c r="J7" t="s">
         <v>363</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1440.1</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>36.200000000000003</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -13447,38 +13451,41 @@
       <c r="C8" s="5">
         <v>51.836950000000002</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>35.402643899503197</v>
       </c>
       <c r="E8" s="5">
         <v>58.743639999999999</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="13">
+        <v>29.738674110669599</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
-        <v>43.619796949751603</v>
-      </c>
-      <c r="G8">
+        <v>43.930477002543199</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="2"/>
-        <v>8.2171530502483705</v>
-      </c>
-      <c r="H8" s="4">
+        <v>11.790603462120091</v>
+      </c>
+      <c r="I8" s="4">
         <f t="shared" si="0"/>
-        <v>0.18838127696271095</v>
-      </c>
-      <c r="I8" t="s">
+        <v>0.26839233868181117</v>
+      </c>
+      <c r="J8" t="s">
         <v>363</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>3708.1</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>49.1</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -13488,38 +13495,39 @@
       <c r="C9" s="5">
         <v>57.188220000000001</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>40.1977444663301</v>
       </c>
-      <c r="E9" s="5">
-        <v>365.5</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>48.692982233165054</v>
+      <c r="E9" s="5"/>
+      <c r="F9" s="13">
+        <v>45.233411378176697</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
-        <v>8.495237766834931</v>
-      </c>
-      <c r="H9" s="4">
+        <f>AVERAGE(C9:F9)</f>
+        <v>47.539791948168933</v>
+      </c>
+      <c r="H9">
+        <f>_xlfn.STDEV.P(C9:F9)</f>
+        <v>7.1254758070502131</v>
+      </c>
+      <c r="I9" s="4">
         <f t="shared" si="0"/>
-        <v>0.17446534135362074</v>
-      </c>
-      <c r="I9" t="s">
+        <v>0.14988445500179901</v>
+      </c>
+      <c r="J9" t="s">
         <v>363</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>4732.8</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>37.299999999999997</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -13529,38 +13537,41 @@
       <c r="C10" s="5">
         <v>36.167740000000002</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>27.1777393378885</v>
       </c>
       <c r="E10" s="5">
         <v>69.797920000000005</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="13">
+        <v>24.135048945303499</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
-        <v>31.672739668944253</v>
-      </c>
-      <c r="G10">
+        <v>39.319612070798009</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="2"/>
-        <v>4.4950003310557536</v>
-      </c>
-      <c r="H10" s="4">
+        <v>18.144266191776882</v>
+      </c>
+      <c r="I10" s="4">
         <f t="shared" si="0"/>
-        <v>0.14192016156604192</v>
-      </c>
-      <c r="I10" t="s">
+        <v>0.46145588006073723</v>
+      </c>
+      <c r="J10" t="s">
         <v>363</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1232.7</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>20.7</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -13570,38 +13581,41 @@
       <c r="C11" s="5">
         <v>56.372480000000003</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>30.926453127990602</v>
       </c>
       <c r="E11" s="5">
         <v>51.613819999999997</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="13">
+        <v>38.223958764392201</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="1"/>
-        <v>43.649466563995304</v>
-      </c>
-      <c r="G11">
+        <v>44.284177973095701</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="2"/>
-        <v>12.723013436004702</v>
-      </c>
-      <c r="H11" s="4">
+        <v>10.185845178865824</v>
+      </c>
+      <c r="I11" s="4">
         <f t="shared" si="0"/>
-        <v>0.29148153316722103</v>
-      </c>
-      <c r="I11" t="s">
+        <v>0.23001093494507466</v>
+      </c>
+      <c r="J11" t="s">
         <v>363</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>529.1</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>17.2</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -13611,38 +13625,41 @@
       <c r="C12" s="5">
         <v>63.550339999999998</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>44.897779461052998</v>
       </c>
       <c r="E12" s="5">
         <v>69.601749999999996</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="13">
+        <v>42.063148527607297</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="1"/>
-        <v>54.224059730526498</v>
-      </c>
-      <c r="G12">
+        <v>55.028254497165072</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="2"/>
-        <v>9.3262802694735196</v>
-      </c>
-      <c r="H12" s="4">
+        <v>11.786997176422119</v>
+      </c>
+      <c r="I12" s="4">
         <f t="shared" si="0"/>
-        <v>0.17199524188748833</v>
-      </c>
-      <c r="I12" t="s">
+        <v>0.21419900166067157</v>
+      </c>
+      <c r="J12" t="s">
         <v>363</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>29.2</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>63</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -13652,38 +13669,41 @@
       <c r="C13" s="5">
         <v>65.107550000000003</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>37.850634254858399</v>
       </c>
       <c r="E13" s="5">
         <v>76.232690000000005</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="13">
+        <v>37.078370379348499</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="1"/>
-        <v>51.479092127429197</v>
-      </c>
-      <c r="G13">
+        <v>54.067311158551718</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="2"/>
-        <v>13.628457872570806</v>
-      </c>
-      <c r="H13" s="4">
+        <v>17.064551059573802</v>
+      </c>
+      <c r="I13" s="4">
         <f t="shared" si="0"/>
-        <v>0.26473772767467402</v>
-      </c>
-      <c r="I13" t="s">
+        <v>0.31561678755453954</v>
+      </c>
+      <c r="J13" t="s">
         <v>363</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>2837.7</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>10.1</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -13693,35 +13713,38 @@
       <c r="C14" s="5">
         <v>58.078800000000001</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>37.186557387499697</v>
       </c>
       <c r="E14" s="5">
         <v>76.092160000000007</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="13">
+        <v>40.679528476473799</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="1"/>
-        <v>47.632678693749853</v>
-      </c>
-      <c r="G14">
+        <v>53.009261465993376</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="2"/>
-        <v>10.446121306250122</v>
-      </c>
-      <c r="H14" s="4">
+        <v>15.499199218245529</v>
+      </c>
+      <c r="I14" s="4">
         <f t="shared" si="0"/>
-        <v>0.21930577059107983</v>
-      </c>
-      <c r="I14" t="s">
+        <v>0.29238662810249888</v>
+      </c>
+      <c r="J14" t="s">
         <v>363</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>4250.1000000000004</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -13731,38 +13754,41 @@
       <c r="C15" s="5">
         <v>52.617710000000002</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>36.7191236173622</v>
       </c>
       <c r="E15" s="5">
         <v>76.854759999999999</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="13">
+        <v>37.733533951420597</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="1"/>
-        <v>44.668416808681101</v>
-      </c>
-      <c r="G15">
+        <v>50.981281892195696</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="2"/>
-        <v>7.9492931913188913</v>
-      </c>
-      <c r="H15" s="4">
+        <v>16.209771362559025</v>
+      </c>
+      <c r="I15" s="4">
         <f t="shared" si="0"/>
-        <v>0.17796227758343078</v>
-      </c>
-      <c r="I15" t="s">
+        <v>0.31795535068804232</v>
+      </c>
+      <c r="J15" t="s">
         <v>363</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>4103.3999999999996</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>13.7</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -13772,38 +13798,41 @@
       <c r="C16" s="5">
         <v>36.815010000000001</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>23.946455342029601</v>
       </c>
       <c r="E16" s="5">
         <v>63.98509</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="13">
+        <v>24.695211021941201</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="1"/>
-        <v>30.380732671014801</v>
-      </c>
-      <c r="G16">
+        <v>37.3604415909927</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="2"/>
-        <v>6.4342773289851962</v>
-      </c>
-      <c r="H16" s="4">
+        <v>16.198090095581602</v>
+      </c>
+      <c r="I16" s="4">
         <f t="shared" si="0"/>
-        <v>0.21178808946645042</v>
-      </c>
-      <c r="I16" t="s">
+        <v>0.43356259738340003</v>
+      </c>
+      <c r="J16" t="s">
         <v>363</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2132.6999999999998</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>44.5</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -13813,38 +13842,41 @@
       <c r="C17" s="5">
         <v>42.687649999999998</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>29.705522173926799</v>
       </c>
       <c r="E17" s="5">
         <v>51.966189999999997</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="13">
+        <v>27.230803229479399</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="1"/>
-        <v>36.1965860869634</v>
-      </c>
-      <c r="G17">
+        <v>37.897541350851547</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="2"/>
-        <v>6.4910639130366032</v>
-      </c>
-      <c r="H17" s="4">
+        <v>10.021982039857061</v>
+      </c>
+      <c r="I17" s="4">
         <f t="shared" si="0"/>
-        <v>0.17932806970916054</v>
-      </c>
-      <c r="I17" t="s">
+        <v>0.26444939915955445</v>
+      </c>
+      <c r="J17" t="s">
         <v>363</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>3313.1</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>24.8</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -13854,38 +13886,41 @@
       <c r="C18" s="5">
         <v>40.084040000000002</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>25.1140718006925</v>
       </c>
       <c r="E18" s="5">
         <v>42.432659999999998</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="13">
+        <v>24.960836048252801</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="1"/>
-        <v>32.599055900346251</v>
-      </c>
-      <c r="G18">
+        <v>33.147901962236325</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="2"/>
-        <v>7.4849840996537482</v>
-      </c>
-      <c r="H18" s="4">
+        <v>8.153024255501311</v>
+      </c>
+      <c r="I18" s="4">
         <f t="shared" si="0"/>
-        <v>0.22960738870889344</v>
-      </c>
-      <c r="I18" t="s">
+        <v>0.24595898300862679</v>
+      </c>
+      <c r="J18" t="s">
         <v>363</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>2351.1999999999998</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>37.299999999999997</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -13895,38 +13930,41 @@
       <c r="C19" s="5">
         <v>41.378250000000001</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>28.2187559874023</v>
       </c>
       <c r="E19" s="5">
         <v>45.713760000000001</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="13">
+        <v>27.337416486270001</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="1"/>
-        <v>34.798502993701149</v>
-      </c>
-      <c r="G19">
+        <v>35.662045618418077</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="2"/>
-        <v>6.5797470062988728</v>
-      </c>
-      <c r="H19" s="4">
+        <v>8.0376297075056957</v>
+      </c>
+      <c r="I19" s="4">
         <f t="shared" si="0"/>
-        <v>0.18908132362733729</v>
-      </c>
-      <c r="I19" t="s">
+        <v>0.22538330508316576</v>
+      </c>
+      <c r="J19" t="s">
         <v>363</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>3089.7</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>32.6</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -13936,38 +13974,41 @@
       <c r="C20" s="5">
         <v>33.055370000000003</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>21.947024504601199</v>
       </c>
       <c r="E20" s="5">
         <v>50.399459999999998</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="13">
+        <v>22.5475906493885</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="1"/>
-        <v>27.501197252300599</v>
-      </c>
-      <c r="G20">
+        <v>31.987361288497425</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="2"/>
-        <v>5.5541727476994049</v>
-      </c>
-      <c r="H20" s="4">
+        <v>11.511555650986132</v>
+      </c>
+      <c r="I20" s="4">
         <f t="shared" si="0"/>
-        <v>0.20196112542826744</v>
-      </c>
-      <c r="I20" t="s">
+        <v>0.35987825151197012</v>
+      </c>
+      <c r="J20" t="s">
         <v>363</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2539.6999999999998</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>35.5</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -13977,38 +14018,41 @@
       <c r="C21" s="5">
         <v>41.566409999999998</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>38.517309197236898</v>
       </c>
       <c r="E21" s="5">
         <v>50.849089999999997</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="13">
+        <v>31.2219056419998</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="1"/>
-        <v>40.041859598618444</v>
-      </c>
-      <c r="G21">
+        <v>40.538678709809169</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="2"/>
-        <v>1.5245504013815498</v>
-      </c>
-      <c r="H21" s="4">
+        <v>7.0400463010044936</v>
+      </c>
+      <c r="I21" s="4">
         <f t="shared" si="0"/>
-        <v>3.8073916063432557E-2</v>
-      </c>
-      <c r="I21" t="s">
+        <v>0.17366245090028082</v>
+      </c>
+      <c r="J21" t="s">
         <v>363</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>4188</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>23.8</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -14018,38 +14062,41 @@
       <c r="C22" s="5">
         <v>28.702819999999999</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>23.434212199983399</v>
       </c>
       <c r="E22" s="5">
         <v>53.352260000000001</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="13">
+        <v>23.378552343325801</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="1"/>
-        <v>26.068516099991697</v>
-      </c>
-      <c r="G22">
+        <v>32.216961135827297</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="2"/>
-        <v>2.6343039000083119</v>
-      </c>
-      <c r="H22" s="4">
+        <v>12.39258038963081</v>
+      </c>
+      <c r="I22" s="4">
         <f t="shared" si="0"/>
-        <v>0.1010530821894059</v>
-      </c>
-      <c r="I22" t="s">
+        <v>0.38466012785574233</v>
+      </c>
+      <c r="J22" t="s">
         <v>363</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>1410.8</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>61.9</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -14059,38 +14106,41 @@
       <c r="C23" s="5">
         <v>38.140860000000004</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>30.1165285722543</v>
       </c>
       <c r="E23" s="5">
         <v>41.817480000000003</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="13">
+        <v>27.8051960760375</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="1"/>
-        <v>34.12869428612715</v>
-      </c>
-      <c r="G23">
+        <v>34.470016162072952</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="2"/>
-        <v>4.0121657138728768</v>
-      </c>
-      <c r="H23" s="4">
+        <v>5.7191127001052164</v>
+      </c>
+      <c r="I23" s="4">
         <f t="shared" si="0"/>
-        <v>0.11755989491528153</v>
-      </c>
-      <c r="I23" t="s">
+        <v>0.16591557930274209</v>
+      </c>
+      <c r="J23" t="s">
         <v>363</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>51.7</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>43.5</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -14100,38 +14150,41 @@
       <c r="C24" s="5">
         <v>17.194130000000001</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>15.7509751581518</v>
       </c>
       <c r="E24" s="5">
         <v>50.857239999999997</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="13">
+        <v>14.425654783023299</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="1"/>
-        <v>16.472552579075902</v>
-      </c>
-      <c r="G24">
+        <v>24.556999985293778</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="2"/>
-        <v>0.72157742092410082</v>
-      </c>
-      <c r="H24" s="4">
+        <v>15.215984260928566</v>
+      </c>
+      <c r="I24" s="4">
         <f t="shared" si="0"/>
-        <v>4.3804833371160548E-2</v>
-      </c>
-      <c r="I24" t="s">
+        <v>0.61961901983307488</v>
+      </c>
+      <c r="J24" t="s">
         <v>363</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>19.600000000000001</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>19</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -14141,38 +14194,41 @@
       <c r="C25" s="5">
         <v>48.385629999999999</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <v>30.410129880343899</v>
       </c>
       <c r="E25" s="5">
         <v>33.564770000000003</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="13">
+        <v>28.175155765084401</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="1"/>
-        <v>39.397879940171947</v>
-      </c>
-      <c r="G25">
+        <v>35.133921411357079</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="2"/>
-        <v>8.9877500598280573</v>
-      </c>
-      <c r="H25" s="4">
+        <v>7.8868346378362091</v>
+      </c>
+      <c r="I25" s="4">
         <f t="shared" si="0"/>
-        <v>0.22812775899303459</v>
-      </c>
-      <c r="I25" t="s">
+        <v>0.22447920189423493</v>
+      </c>
+      <c r="J25" t="s">
         <v>363</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>1309.8</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1220.4000000000001</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -14182,38 +14238,41 @@
       <c r="C26" s="5">
         <v>48.905099999999997</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <v>33.031041129423997</v>
       </c>
       <c r="E26" s="5">
         <v>69.513630000000006</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="13">
+        <v>32.524704415513099</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="1"/>
-        <v>40.968070564711994</v>
-      </c>
-      <c r="G26">
+        <v>45.993618886234273</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="2"/>
-        <v>7.9370294352880153</v>
-      </c>
-      <c r="H26" s="4">
+        <v>15.092280511808298</v>
+      </c>
+      <c r="I26" s="4">
         <f t="shared" si="0"/>
-        <v>0.19373695968305146</v>
-      </c>
-      <c r="I26" t="s">
+        <v>0.32813857394303375</v>
+      </c>
+      <c r="J26" t="s">
         <v>363</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>3779.7</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>2957.7</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -14223,38 +14282,41 @@
       <c r="C27" s="5">
         <v>25.205770000000001</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <v>17.319717236411801</v>
       </c>
       <c r="E27" s="5">
         <v>63.579430000000002</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="13">
+        <v>14.5349979149782</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="1"/>
-        <v>21.262743618205903</v>
-      </c>
-      <c r="G27">
+        <v>30.159978787847503</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="2"/>
-        <v>3.943026381794088</v>
-      </c>
-      <c r="H27" s="4">
+        <v>19.687662685180761</v>
+      </c>
+      <c r="I27" s="4">
         <f t="shared" si="0"/>
-        <v>0.18544297258129619</v>
-      </c>
-      <c r="I27" t="s">
+        <v>0.65277442082000403</v>
+      </c>
+      <c r="J27" t="s">
         <v>363</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>664.6</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>454.1</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -14264,38 +14326,41 @@
       <c r="C28" s="5">
         <v>16.40183</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="13">
         <v>14.475101201960801</v>
       </c>
       <c r="E28" s="5">
         <v>36.599069999999998</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="13">
+        <v>13.5156308111582</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="1"/>
-        <v>15.4384656009804</v>
-      </c>
-      <c r="G28">
+        <v>20.24790800327975</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="2"/>
-        <v>0.96336439901959992</v>
-      </c>
-      <c r="H28" s="4">
+        <v>9.4973900257809607</v>
+      </c>
+      <c r="I28" s="4">
         <f t="shared" si="0"/>
-        <v>6.2400268518810746E-2</v>
-      </c>
-      <c r="I28" t="s">
+        <v>0.46905537225092964</v>
+      </c>
+      <c r="J28" t="s">
         <v>363</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>568.4</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>454</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -14305,38 +14370,41 @@
       <c r="C29" s="5">
         <v>19.432220000000001</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <v>13.7006632906307</v>
       </c>
       <c r="E29" s="5">
         <v>32.797179999999997</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="13">
+        <v>14.661262128155199</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="1"/>
-        <v>16.566441645315351</v>
-      </c>
-      <c r="G29">
+        <v>20.147831354696475</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="2"/>
-        <v>2.8657783546846578</v>
-      </c>
-      <c r="H29" s="4">
+        <v>7.6188342068414894</v>
+      </c>
+      <c r="I29" s="4">
         <f t="shared" si="0"/>
-        <v>0.17298695857809882</v>
-      </c>
-      <c r="I29" t="s">
+        <v>0.37814661403077177</v>
+      </c>
+      <c r="J29" t="s">
         <v>363</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>579.70000000000005</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>425.2</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -14346,38 +14414,41 @@
       <c r="C30" s="5">
         <v>4.0942990000000004</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <v>10.30270525886</v>
       </c>
       <c r="E30" s="5">
         <v>27.163430000000002</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="13">
+        <v>6.79700512139644</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="1"/>
-        <v>7.1985021294300005</v>
-      </c>
-      <c r="G30">
+        <v>12.089359845064109</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="2"/>
-        <v>3.1042031294299983</v>
-      </c>
-      <c r="H30" s="4">
+        <v>8.9770504911654871</v>
+      </c>
+      <c r="I30" s="4">
         <f t="shared" si="0"/>
-        <v>0.43122903537653029</v>
-      </c>
-      <c r="I30" t="s">
+        <v>0.74255796884321146</v>
+      </c>
+      <c r="J30" t="s">
         <v>363</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>424.2</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>331.1</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -14387,38 +14458,41 @@
       <c r="C31" s="5">
         <v>13.735950000000001</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <v>2.20689740549706</v>
       </c>
       <c r="E31" s="5">
         <v>7.1227999999999998</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="13">
+        <v>10.8485346306729</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="1"/>
-        <v>7.9714237027485302</v>
-      </c>
-      <c r="G31">
+        <v>8.4785455090424904</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="2"/>
-        <v>5.7645262972514724</v>
-      </c>
-      <c r="H31" s="4">
+        <v>4.3136054014646659</v>
+      </c>
+      <c r="I31" s="4">
         <f t="shared" si="0"/>
-        <v>0.72314890190366821</v>
-      </c>
-      <c r="I31" t="s">
+        <v>0.50876714607053108</v>
+      </c>
+      <c r="J31" t="s">
         <v>363</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>480.8</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>341.6</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -14428,38 +14502,41 @@
       <c r="C32" s="5">
         <v>3.855629</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="13">
         <v>5.09390281276871</v>
       </c>
       <c r="E32" s="5">
         <v>12.219049999999999</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="13">
+        <v>10.3236643085159</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="1"/>
-        <v>4.4747659063843548</v>
-      </c>
-      <c r="G32">
+        <v>7.8730615303211522</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="2"/>
-        <v>0.61913690638435614</v>
-      </c>
-      <c r="H32" s="4">
+        <v>3.4912947837481312</v>
+      </c>
+      <c r="I32" s="4">
         <f t="shared" si="0"/>
-        <v>0.13836185385720512</v>
-      </c>
-      <c r="I32" t="s">
+        <v>0.44344817709124607</v>
+      </c>
+      <c r="J32" t="s">
         <v>363</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>388.5</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>295.60000000000002</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -14469,38 +14546,41 @@
       <c r="C33" s="5">
         <v>22.466930000000001</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="13">
         <v>19.344873003205301</v>
       </c>
       <c r="E33" s="5">
         <v>15.769450000000001</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="13">
+        <v>17.428368852076702</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="1"/>
-        <v>20.905901501602649</v>
-      </c>
-      <c r="G33">
+        <v>18.752405463820502</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="2"/>
-        <v>1.5610284983973504</v>
-      </c>
-      <c r="H33" s="4">
+        <v>2.4899702088317643</v>
+      </c>
+      <c r="I33" s="4">
         <f t="shared" si="0"/>
-        <v>7.4669274524118548E-2</v>
-      </c>
-      <c r="I33" t="s">
+        <v>0.13278137642851889</v>
+      </c>
+      <c r="J33" t="s">
         <v>363</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>940.1</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>1060</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -14510,38 +14590,41 @@
       <c r="C34" s="5">
         <v>22.96256</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="13">
         <v>19.662467746082498</v>
       </c>
       <c r="E34" s="5">
         <v>34.856940000000002</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="13">
+        <v>16.994633851288899</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="1"/>
-        <v>21.312513873041247</v>
-      </c>
-      <c r="G34">
+        <v>23.619150399342846</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="2"/>
-        <v>1.6500461269587507</v>
-      </c>
-      <c r="H34" s="4">
-        <f t="shared" ref="H34:H65" si="3">G34/F34</f>
-        <v>7.7421468757185752E-2</v>
-      </c>
-      <c r="I34" t="s">
+        <v>6.8238292617708316</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" ref="I34:I65" si="3">H34/G34</f>
+        <v>0.28891086878216798</v>
+      </c>
+      <c r="J34" t="s">
         <v>363</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>1510.1</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>1564.1</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -14551,38 +14634,41 @@
       <c r="C35" s="5">
         <v>29.076550000000001</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="13">
         <v>20.181648115818401</v>
       </c>
       <c r="E35" s="5">
         <v>35.253309999999999</v>
       </c>
-      <c r="F35">
-        <f t="shared" ref="F35:F66" si="4">AVERAGE(C35:D35)</f>
-        <v>24.629099057909201</v>
+      <c r="F35" s="13">
+        <v>22.444411618568498</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:G66" si="5">_xlfn.STDEV.P(C35:D35)</f>
-        <v>4.4474509420908088</v>
-      </c>
-      <c r="H35" s="4">
+        <f t="shared" si="1"/>
+        <v>26.738979933596724</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>5.9033881770534107</v>
+      </c>
+      <c r="I35" s="4">
         <f t="shared" si="3"/>
-        <v>0.18057708613838183</v>
-      </c>
-      <c r="I35" t="s">
+        <v>0.2207783614675585</v>
+      </c>
+      <c r="J35" t="s">
         <v>363</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>55.6</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>1795.2</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -14592,38 +14678,41 @@
       <c r="C36" s="5">
         <v>25.283290000000001</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="13">
         <v>19.394105164390101</v>
       </c>
       <c r="E36" s="5">
         <v>38.101759999999999</v>
       </c>
-      <c r="F36">
-        <f t="shared" si="4"/>
-        <v>22.338697582195053</v>
+      <c r="F36" s="13">
+        <v>16.6507809513895</v>
       </c>
       <c r="G36">
-        <f t="shared" si="5"/>
-        <v>2.9445924178049379</v>
-      </c>
-      <c r="H36" s="4">
+        <f t="shared" si="1"/>
+        <v>24.857484028944903</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>8.2581874637125168</v>
+      </c>
+      <c r="I36" s="4">
         <f t="shared" si="3"/>
-        <v>0.13181576083253441</v>
-      </c>
-      <c r="I36" t="s">
+        <v>0.33222137260940815</v>
+      </c>
+      <c r="J36" t="s">
         <v>363</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>37.5</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>416.2</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -14633,38 +14722,41 @@
       <c r="C37" s="5">
         <v>46.826149999999998</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="13">
         <v>33.655348913159102</v>
       </c>
       <c r="E37" s="5">
         <v>43.13908</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="4"/>
-        <v>40.24074945657955</v>
+      <c r="F37" s="13">
+        <v>30.3848119444955</v>
       </c>
       <c r="G37">
-        <f t="shared" si="5"/>
-        <v>6.5854005434204455</v>
-      </c>
-      <c r="H37" s="4">
+        <f t="shared" si="1"/>
+        <v>38.501347714413654</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>6.7114221878263933</v>
+      </c>
+      <c r="I37" s="4">
         <f t="shared" si="3"/>
-        <v>0.16365004708787056</v>
-      </c>
-      <c r="I37" t="s">
+        <v>0.17431655217912942</v>
+      </c>
+      <c r="J37" t="s">
         <v>363</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>1006.5</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>807.7</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
@@ -14674,38 +14766,41 @@
       <c r="C38" s="5">
         <v>31.864070000000002</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="13">
         <v>21.754566911867801</v>
       </c>
       <c r="E38" s="5">
         <v>67.089179999999999</v>
       </c>
-      <c r="F38">
-        <f t="shared" si="4"/>
-        <v>26.809318455933902</v>
+      <c r="F38" s="13">
+        <v>21.5449384547329</v>
       </c>
       <c r="G38">
-        <f t="shared" si="5"/>
-        <v>5.0547515440661028</v>
-      </c>
-      <c r="H38" s="4">
+        <f t="shared" si="1"/>
+        <v>35.563188841650174</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>18.673249464347226</v>
+      </c>
+      <c r="I38" s="4">
         <f t="shared" si="3"/>
-        <v>0.18854457461775936</v>
-      </c>
-      <c r="I38" t="s">
+        <v>0.52507241539819027</v>
+      </c>
+      <c r="J38" t="s">
         <v>363</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>1013.4</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>611.6</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -14715,38 +14810,41 @@
       <c r="C39" s="5">
         <v>29.32302</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="13">
         <v>22.6866044356542</v>
       </c>
       <c r="E39" s="5">
         <v>46.645310000000002</v>
       </c>
-      <c r="F39">
-        <f t="shared" si="4"/>
-        <v>26.004812217827102</v>
+      <c r="F39" s="13">
+        <v>19.241786954268701</v>
       </c>
       <c r="G39">
-        <f t="shared" si="5"/>
-        <v>3.318207782172891</v>
-      </c>
-      <c r="H39" s="4">
+        <f t="shared" si="1"/>
+        <v>29.474180347480729</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>10.5551362415003</v>
+      </c>
+      <c r="I39" s="4">
         <f t="shared" si="3"/>
-        <v>0.12759975939753787</v>
-      </c>
-      <c r="I39" t="s">
+        <v>0.35811466568577494</v>
+      </c>
+      <c r="J39" t="s">
         <v>363</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>1132.2</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>781.9</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -14756,38 +14854,41 @@
       <c r="C40" s="5">
         <v>28.972580000000001</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="13">
         <v>17.606108127820999</v>
       </c>
       <c r="E40" s="5">
         <v>45.231839999999998</v>
       </c>
-      <c r="F40">
-        <f t="shared" si="4"/>
-        <v>23.289344063910498</v>
+      <c r="F40" s="13">
+        <v>18.237190689990499</v>
       </c>
       <c r="G40">
-        <f t="shared" si="5"/>
-        <v>5.6832359360895044</v>
-      </c>
-      <c r="H40" s="4">
+        <f t="shared" si="1"/>
+        <v>27.511929704452871</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>11.183411879459863</v>
+      </c>
+      <c r="I40" s="4">
         <f t="shared" si="3"/>
-        <v>0.24402730796082525</v>
-      </c>
-      <c r="I40" t="s">
+        <v>0.40649318312447569</v>
+      </c>
+      <c r="J40" t="s">
         <v>363</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>2202.1</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>1909.9</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -14797,38 +14898,41 @@
       <c r="C41" s="5">
         <v>32.670119999999997</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="13">
         <v>25.027898766589701</v>
       </c>
       <c r="E41" s="5">
         <v>40.613889999999998</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="4"/>
-        <v>28.849009383294849</v>
+      <c r="F41" s="13">
+        <v>32.393341833579598</v>
       </c>
       <c r="G41">
-        <f t="shared" si="5"/>
-        <v>3.8211106167051478</v>
-      </c>
-      <c r="H41" s="4">
+        <f t="shared" si="1"/>
+        <v>32.67631265004232</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>5.5132449598906064</v>
+      </c>
+      <c r="I41" s="4">
         <f t="shared" si="3"/>
-        <v>0.13245205635787893</v>
-      </c>
-      <c r="I41" t="s">
+        <v>0.1687229834937776</v>
+      </c>
+      <c r="J41" t="s">
         <v>363</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>3021.3</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>2477.6</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -14838,38 +14942,41 @@
       <c r="C42" s="5">
         <v>38.546660000000003</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="13">
         <v>25.355344461352001</v>
       </c>
       <c r="E42" s="5">
         <v>44.109699999999997</v>
       </c>
-      <c r="F42">
-        <f t="shared" si="4"/>
-        <v>31.951002230676004</v>
+      <c r="F42" s="13">
+        <v>29.061844556404701</v>
       </c>
       <c r="G42">
-        <f t="shared" si="5"/>
-        <v>6.5956577693239868</v>
-      </c>
-      <c r="H42" s="4">
+        <f t="shared" si="1"/>
+        <v>34.268387254439176</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>7.4448887321974935</v>
+      </c>
+      <c r="I42" s="4">
         <f t="shared" si="3"/>
-        <v>0.20643038743215159</v>
-      </c>
-      <c r="I42" t="s">
+        <v>0.21725238123755217</v>
+      </c>
+      <c r="J42" t="s">
         <v>363</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>4670</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>3796.5</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
@@ -14879,38 +14986,41 @@
       <c r="C43" s="5">
         <v>3.5672220000000001</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="13">
         <v>5.61783014631719</v>
       </c>
       <c r="E43" s="5">
         <v>43.193710000000003</v>
       </c>
-      <c r="F43">
-        <f t="shared" si="4"/>
-        <v>4.5925260731585951</v>
+      <c r="F43" s="13">
+        <v>6.8739392896310401</v>
       </c>
       <c r="G43">
-        <f t="shared" si="5"/>
-        <v>1.0253040731585943</v>
-      </c>
-      <c r="H43" s="4">
+        <f t="shared" si="1"/>
+        <v>14.813175358987058</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>16.42796439312691</v>
+      </c>
+      <c r="I43" s="4">
         <f t="shared" si="3"/>
-        <v>0.2232549269891074</v>
-      </c>
-      <c r="I43" t="s">
+        <v>1.1090103232430966</v>
+      </c>
+      <c r="J43" t="s">
         <v>363</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>377.2</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>331.1</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
@@ -14920,38 +15030,41 @@
       <c r="C44" s="5">
         <v>4.3186530000000003</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="13">
         <v>5.4172448938971298</v>
       </c>
       <c r="E44" s="5">
         <v>14.297129999999999</v>
       </c>
-      <c r="F44">
-        <f t="shared" si="4"/>
-        <v>4.8679489469485651</v>
+      <c r="F44" s="13">
+        <v>5.9296706764169604</v>
       </c>
       <c r="G44">
-        <f t="shared" si="5"/>
-        <v>0.54929594694856454</v>
-      </c>
-      <c r="H44" s="4">
+        <f t="shared" si="1"/>
+        <v>7.4906746425785222</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>3.972574736195885</v>
+      </c>
+      <c r="I44" s="4">
         <f t="shared" si="3"/>
-        <v>0.11283929904254364</v>
-      </c>
-      <c r="I44" t="s">
+        <v>0.53033604124453093</v>
+      </c>
+      <c r="J44" t="s">
         <v>363</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>351.5</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>319.3</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
@@ -14961,38 +15074,41 @@
       <c r="C45" s="5">
         <v>43.978830000000002</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="13">
         <v>37.012277350569498</v>
       </c>
       <c r="E45" s="5">
         <v>4.8521130000000001</v>
       </c>
-      <c r="F45">
-        <f t="shared" si="4"/>
-        <v>40.495553675284754</v>
+      <c r="F45" s="13">
+        <v>30.556163307764798</v>
       </c>
       <c r="G45">
-        <f t="shared" si="5"/>
-        <v>3.4832763247152521</v>
-      </c>
-      <c r="H45" s="4">
+        <f t="shared" si="1"/>
+        <v>29.099845914583575</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>14.782287969813023</v>
+      </c>
+      <c r="I45" s="4">
         <f t="shared" si="3"/>
-        <v>8.6016266196680388E-2</v>
-      </c>
-      <c r="I45" t="s">
+        <v>0.50798509425800031</v>
+      </c>
+      <c r="J45" t="s">
         <v>363</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>4359</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>3996.5</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>51</v>
       </c>
@@ -15002,38 +15118,41 @@
       <c r="C46" s="5">
         <v>35.732439999999997</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="13">
         <v>28.322704559267201</v>
       </c>
       <c r="E46" s="5">
         <v>54.23715</v>
       </c>
-      <c r="F46">
-        <f t="shared" si="4"/>
-        <v>32.027572279633603</v>
+      <c r="F46" s="13">
+        <v>27.187744604819201</v>
       </c>
       <c r="G46">
-        <f t="shared" si="5"/>
-        <v>3.7048677203663867</v>
-      </c>
-      <c r="H46" s="4">
+        <f t="shared" si="1"/>
+        <v>36.370009791021602</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>10.824905426012752</v>
+      </c>
+      <c r="I46" s="4">
         <f t="shared" si="3"/>
-        <v>0.11567744467233064</v>
-      </c>
-      <c r="I46" t="s">
+        <v>0.29763273334848034</v>
+      </c>
+      <c r="J46" t="s">
         <v>363</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>2306.9</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>2653.5</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -15043,38 +15162,41 @@
       <c r="C47" s="5">
         <v>38.970750000000002</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="13">
         <v>25.921623611409899</v>
       </c>
       <c r="E47" s="5">
         <v>47.02431</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="4"/>
-        <v>32.446186805704954</v>
+      <c r="F47" s="13">
+        <v>29.904370910053199</v>
       </c>
       <c r="G47">
-        <f t="shared" si="5"/>
-        <v>6.5245631942950348</v>
-      </c>
-      <c r="H47" s="4">
+        <f t="shared" si="1"/>
+        <v>35.455263630365778</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>8.1838893614418726</v>
+      </c>
+      <c r="I47" s="4">
         <f t="shared" si="3"/>
-        <v>0.20108875145685326</v>
-      </c>
-      <c r="I47" t="s">
+        <v>0.2308229730502625</v>
+      </c>
+      <c r="J47" t="s">
         <v>363</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>42.5</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>3093.1</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>53</v>
       </c>
@@ -15084,38 +15206,41 @@
       <c r="C48" s="5">
         <v>50.103450000000002</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="13">
         <v>36.353811367536601</v>
       </c>
       <c r="E48" s="5">
         <v>47.758560000000003</v>
       </c>
-      <c r="F48">
-        <f t="shared" si="4"/>
-        <v>43.228630683768301</v>
+      <c r="F48" s="13">
+        <v>35.0955900540214</v>
       </c>
       <c r="G48">
-        <f t="shared" si="5"/>
-        <v>6.8748193162317071</v>
-      </c>
-      <c r="H48" s="4">
+        <f t="shared" si="1"/>
+        <v>42.327852855389494</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>6.6698442255505803</v>
+      </c>
+      <c r="I48" s="4">
         <f t="shared" si="3"/>
-        <v>0.15903393671021596</v>
-      </c>
-      <c r="I48" t="s">
+        <v>0.15757577518372343</v>
+      </c>
+      <c r="J48" t="s">
         <v>363</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>12.2</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>4431.6000000000004</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -15125,38 +15250,41 @@
       <c r="C49" s="5">
         <v>71.746030000000005</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="13">
         <v>43.377297230169702</v>
       </c>
       <c r="E49" s="5">
         <v>67.810839999999999</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="4"/>
-        <v>57.561663615084854</v>
+      <c r="F49" s="13">
+        <v>49.202630107681699</v>
       </c>
       <c r="G49">
-        <f t="shared" si="5"/>
-        <v>14.184366384915158</v>
-      </c>
-      <c r="H49" s="4">
+        <f t="shared" si="1"/>
+        <v>58.034199334462848</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>12.004357513062324</v>
+      </c>
+      <c r="I49" s="4">
         <f t="shared" si="3"/>
-        <v>0.24642036894149014</v>
-      </c>
-      <c r="I49" t="s">
+        <v>0.20684971362969581</v>
+      </c>
+      <c r="J49" t="s">
         <v>363</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>4502.8999999999996</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>3529</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
@@ -15166,38 +15294,41 @@
       <c r="C50" s="5">
         <v>51.001429999999999</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="13">
         <v>30.5935251349106</v>
       </c>
       <c r="E50" s="5">
         <v>82.437029999999993</v>
       </c>
-      <c r="F50">
-        <f t="shared" si="4"/>
-        <v>40.797477567455303</v>
+      <c r="F50" s="13">
+        <v>37.128847358084798</v>
       </c>
       <c r="G50">
-        <f t="shared" si="5"/>
-        <v>10.203952432544678</v>
-      </c>
-      <c r="H50" s="4">
+        <f t="shared" si="1"/>
+        <v>50.290208123248846</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>19.969381132545315</v>
+      </c>
+      <c r="I50" s="4">
         <f t="shared" si="3"/>
-        <v>0.250112336373573</v>
-      </c>
-      <c r="I50" t="s">
+        <v>0.39708288905079309</v>
+      </c>
+      <c r="J50" t="s">
         <v>363</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>3976.6</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>3120.4</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -15207,38 +15338,41 @@
       <c r="C51" s="5">
         <v>33.1676</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="13">
         <v>24.249969458262701</v>
       </c>
       <c r="E51" s="5">
         <v>67.169340000000005</v>
       </c>
-      <c r="F51">
-        <f t="shared" si="4"/>
-        <v>28.708784729131352</v>
+      <c r="F51" s="13">
+        <v>21.9914684361867</v>
       </c>
       <c r="G51">
-        <f t="shared" si="5"/>
-        <v>4.4588152708686417</v>
-      </c>
-      <c r="H51" s="4">
+        <f t="shared" si="1"/>
+        <v>36.644594473612351</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>18.112084446303154</v>
+      </c>
+      <c r="I51" s="4">
         <f t="shared" si="3"/>
-        <v>0.15531187798221904</v>
-      </c>
-      <c r="I51" t="s">
+        <v>0.49426347068312093</v>
+      </c>
+      <c r="J51" t="s">
         <v>363</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>2195.1999999999998</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>1872.5</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
@@ -15248,38 +15382,41 @@
       <c r="C52" s="5">
         <v>47.305230000000002</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D52" s="13">
         <v>28.956546593070499</v>
       </c>
       <c r="E52" s="5">
         <v>42.539079999999998</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="4"/>
-        <v>38.130888296535247</v>
+      <c r="F52" s="13">
+        <v>29.070902787807199</v>
       </c>
       <c r="G52">
-        <f t="shared" si="5"/>
-        <v>9.1743417034647585</v>
-      </c>
-      <c r="H52" s="4">
+        <f t="shared" si="1"/>
+        <v>36.967939845219419</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>8.1308484565734744</v>
+      </c>
+      <c r="I52" s="4">
         <f t="shared" si="3"/>
-        <v>0.2406013107305025</v>
-      </c>
-      <c r="I52" t="s">
+        <v>0.21994323975359234</v>
+      </c>
+      <c r="J52" t="s">
         <v>363</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>3090.6</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>3361.9</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -15289,38 +15426,41 @@
       <c r="C53" s="5">
         <v>39.719589999999997</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="13">
         <v>26.3713973806905</v>
       </c>
       <c r="E53" s="5">
         <v>53.893030000000003</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="4"/>
-        <v>33.045493690345246</v>
+      <c r="F53" s="13">
+        <v>30.518555679877402</v>
       </c>
       <c r="G53">
-        <f t="shared" si="5"/>
-        <v>6.6740963096547636</v>
-      </c>
-      <c r="H53" s="4">
+        <f t="shared" si="1"/>
+        <v>37.625643265141974</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>10.561501177415224</v>
+      </c>
+      <c r="I53" s="4">
         <f t="shared" si="3"/>
-        <v>0.20196691180330903</v>
-      </c>
-      <c r="I53" t="s">
+        <v>0.28069955118082607</v>
+      </c>
+      <c r="J53" t="s">
         <v>363</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>3243.6</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>3251.9</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -15330,38 +15470,41 @@
       <c r="C54" s="5">
         <v>38.251809999999999</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="13">
         <v>26.917531293683801</v>
       </c>
       <c r="E54" s="5">
         <v>42.681800000000003</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="4"/>
-        <v>32.5846706468419</v>
+      <c r="F54" s="13">
+        <v>30.036947523879402</v>
       </c>
       <c r="G54">
-        <f t="shared" si="5"/>
-        <v>5.6671393531580998</v>
-      </c>
-      <c r="H54" s="4">
+        <f t="shared" si="1"/>
+        <v>34.472022204390804</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>6.2933986758901002</v>
+      </c>
+      <c r="I54" s="4">
         <f t="shared" si="3"/>
-        <v>0.17392041228771352</v>
-      </c>
-      <c r="I54" t="s">
+        <v>0.18256540444814667</v>
+      </c>
+      <c r="J54" t="s">
         <v>363</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>3051.6</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>3099.2</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>60</v>
       </c>
@@ -15371,38 +15514,41 @@
       <c r="C55" s="5">
         <v>40.386330000000001</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="13">
         <v>26.203648453187501</v>
       </c>
       <c r="E55" s="5">
         <v>44.78689</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="4"/>
-        <v>33.294989226593749</v>
+      <c r="F55" s="13">
+        <v>32.299823095563902</v>
       </c>
       <c r="G55">
-        <f t="shared" si="5"/>
-        <v>7.0913407734062703</v>
-      </c>
-      <c r="H55" s="4">
+        <f t="shared" si="1"/>
+        <v>35.919172887187848</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>7.1777957515729796</v>
+      </c>
+      <c r="I55" s="4">
         <f t="shared" si="3"/>
-        <v>0.21298522504828429</v>
-      </c>
-      <c r="I55" t="s">
+        <v>0.1998318773685698</v>
+      </c>
+      <c r="J55" t="s">
         <v>363</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>3604</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>3316</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>61</v>
       </c>
@@ -15412,38 +15558,41 @@
       <c r="C56" s="5">
         <v>39.551009999999998</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D56" s="13">
         <v>28.430534944400399</v>
       </c>
       <c r="E56" s="5">
         <v>43.091169999999998</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="4"/>
-        <v>33.990772472200199</v>
+      <c r="F56" s="13">
+        <v>29.940182531718001</v>
       </c>
       <c r="G56">
-        <f t="shared" si="5"/>
-        <v>5.5602375277997886</v>
-      </c>
-      <c r="H56" s="4">
+        <f t="shared" si="1"/>
+        <v>35.253224369029596</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>6.2185580642500042</v>
+      </c>
+      <c r="I56" s="4">
         <f t="shared" si="3"/>
-        <v>0.16358079335641171</v>
-      </c>
-      <c r="I56" t="s">
+        <v>0.17639685945189984</v>
+      </c>
+      <c r="J56" t="s">
         <v>363</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>3888.4</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>3431.9</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
@@ -15453,38 +15602,41 @@
       <c r="C57" s="5">
         <v>42.609099999999998</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="13">
         <v>32.680488071308503</v>
       </c>
       <c r="E57" s="5">
         <v>52.602699999999999</v>
       </c>
-      <c r="F57">
-        <f t="shared" si="4"/>
-        <v>37.64479403565425</v>
+      <c r="F57" s="13">
+        <v>34.439062400366403</v>
       </c>
       <c r="G57">
-        <f t="shared" si="5"/>
-        <v>4.9643059643457388</v>
-      </c>
-      <c r="H57" s="4">
+        <f t="shared" si="1"/>
+        <v>40.582837617918727</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>7.886316206027856</v>
+      </c>
+      <c r="I57" s="4">
         <f t="shared" si="3"/>
-        <v>0.13187231040881589</v>
-      </c>
-      <c r="I57" t="s">
+        <v>0.1943263869391374</v>
+      </c>
+      <c r="J57" t="s">
         <v>363</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>4137.6000000000004</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>4277.1000000000004</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
@@ -15494,38 +15646,41 @@
       <c r="C58" s="5">
         <v>44.16422</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D58" s="13">
         <v>31.204319990647399</v>
       </c>
       <c r="E58" s="5">
         <v>54.207979999999999</v>
       </c>
-      <c r="F58">
-        <f t="shared" si="4"/>
-        <v>37.684269995323703</v>
+      <c r="F58" s="13">
+        <v>31.9382486522844</v>
       </c>
       <c r="G58">
-        <f t="shared" si="5"/>
-        <v>6.4799500046762786</v>
-      </c>
-      <c r="H58" s="4">
+        <f t="shared" si="1"/>
+        <v>40.378692160732953</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>9.499863347671317</v>
+      </c>
+      <c r="I58" s="4">
         <f t="shared" si="3"/>
-        <v>0.17195370921289932</v>
-      </c>
-      <c r="I58" t="s">
+        <v>0.23526921847433296</v>
+      </c>
+      <c r="J58" t="s">
         <v>363</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>3491.1</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>4160.3999999999996</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
@@ -15535,38 +15690,41 @@
       <c r="C59" s="5">
         <v>46.538730000000001</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="13">
         <v>29.175152229521299</v>
       </c>
       <c r="E59" s="5">
         <v>54.336779999999997</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="4"/>
-        <v>37.856941114760652</v>
+      <c r="F59" s="13">
+        <v>34.4090433315586</v>
       </c>
       <c r="G59">
-        <f t="shared" si="5"/>
-        <v>8.681788885239337</v>
-      </c>
-      <c r="H59" s="4">
+        <f t="shared" si="1"/>
+        <v>41.114926390269972</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>9.8964909574157396</v>
+      </c>
+      <c r="I59" s="4">
         <f t="shared" si="3"/>
-        <v>0.22933149455792282</v>
-      </c>
-      <c r="I59" t="s">
+        <v>0.24070311748771092</v>
+      </c>
+      <c r="J59" t="s">
         <v>363</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>21</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>4323.2</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -15576,38 +15734,41 @@
       <c r="C60" s="5">
         <v>23.192260000000001</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="13">
         <v>12.902679501977399</v>
       </c>
       <c r="E60" s="5">
         <v>55.675849999999997</v>
       </c>
-      <c r="F60">
-        <f t="shared" si="4"/>
-        <v>18.0474697509887</v>
+      <c r="F60" s="13">
+        <v>15.4151223879278</v>
       </c>
       <c r="G60">
-        <f t="shared" si="5"/>
-        <v>5.1447902490113009</v>
-      </c>
-      <c r="H60" s="4">
+        <f t="shared" si="1"/>
+        <v>26.796477972476296</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>17.099571681609532</v>
+      </c>
+      <c r="I60" s="4">
         <f t="shared" si="3"/>
-        <v>0.28506989179075654</v>
-      </c>
-      <c r="I60" t="s">
+        <v>0.63812758151176308</v>
+      </c>
+      <c r="J60" t="s">
         <v>363</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>27.2</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>280.3</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -15617,38 +15778,41 @@
       <c r="C61" s="5">
         <v>73.865489999999994</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D61" s="13">
         <v>43.183172777048902</v>
       </c>
       <c r="E61" s="5">
         <v>40.655140000000003</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="4"/>
-        <v>58.524331388524445</v>
+      <c r="F61" s="13">
+        <v>47.433873848541502</v>
       </c>
       <c r="G61">
-        <f t="shared" si="5"/>
-        <v>15.341158611475558</v>
-      </c>
-      <c r="H61" s="4">
+        <f t="shared" si="1"/>
+        <v>51.284419156397604</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>13.260309459955868</v>
+      </c>
+      <c r="I61" s="4">
         <f t="shared" si="3"/>
-        <v>0.26213300088181241</v>
-      </c>
-      <c r="I61" t="s">
+        <v>0.25856409564700467</v>
+      </c>
+      <c r="J61" t="s">
         <v>363</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>4656.8999999999996</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>4013.2</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
@@ -15658,38 +15822,41 @@
       <c r="C62" s="5">
         <v>47.506039999999999</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D62" s="13">
         <v>33.7559427295161</v>
       </c>
       <c r="E62" s="5">
         <v>89.856620000000007</v>
       </c>
-      <c r="F62">
-        <f t="shared" si="4"/>
-        <v>40.630991364758046</v>
+      <c r="F62" s="13">
+        <v>30.995325654898501</v>
       </c>
       <c r="G62">
-        <f t="shared" si="5"/>
-        <v>6.8750486352419582</v>
-      </c>
-      <c r="H62" s="4">
+        <f t="shared" si="1"/>
+        <v>50.528482096103652</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>23.551538509047081</v>
+      </c>
+      <c r="I62" s="4">
         <f t="shared" si="3"/>
-        <v>0.16920701179851458</v>
-      </c>
-      <c r="I62" t="s">
+        <v>0.46610421552447912</v>
+      </c>
+      <c r="J62" t="s">
         <v>364</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>3478.8</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>3063.7</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
@@ -15699,38 +15866,41 @@
       <c r="C63" s="5">
         <v>12.620520000000001</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D63" s="13">
         <v>8.1777624324439309</v>
       </c>
       <c r="E63" s="5">
         <v>66.764380000000003</v>
       </c>
-      <c r="F63">
-        <f t="shared" si="4"/>
-        <v>10.399141216221967</v>
+      <c r="F63" s="13">
+        <v>13.8595181761621</v>
       </c>
       <c r="G63">
-        <f t="shared" si="5"/>
-        <v>2.2213787837780332</v>
-      </c>
-      <c r="H63" s="4">
+        <f t="shared" si="1"/>
+        <v>25.35554515215151</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>24.000558975159738</v>
+      </c>
+      <c r="I63" s="4">
         <f t="shared" si="3"/>
-        <v>0.21361175289290527</v>
-      </c>
-      <c r="I63" t="s">
+        <v>0.94656055829756836</v>
+      </c>
+      <c r="J63" t="s">
         <v>364</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>492.6</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>354.8</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>69</v>
       </c>
@@ -15740,38 +15910,41 @@
       <c r="C64" s="5">
         <v>12.715909999999999</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D64" s="13">
         <v>4.7651926574889298</v>
       </c>
       <c r="E64" s="5">
         <v>32.500979999999998</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="4"/>
-        <v>8.7405513287444645</v>
+      <c r="F64" s="13">
+        <v>10.779172408873301</v>
       </c>
       <c r="G64">
-        <f t="shared" si="5"/>
-        <v>3.9753586712555351</v>
-      </c>
-      <c r="H64" s="4">
+        <f t="shared" si="1"/>
+        <v>15.190313766590558</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>10.415411149611657</v>
+      </c>
+      <c r="I64" s="4">
         <f t="shared" si="3"/>
-        <v>0.45481783948594179</v>
-      </c>
-      <c r="I64" t="s">
+        <v>0.68566135694439834</v>
+      </c>
+      <c r="J64" t="s">
         <v>364</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>346</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>252.3</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>70</v>
       </c>
@@ -15781,38 +15954,41 @@
       <c r="C65" s="5">
         <v>18.181619999999999</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D65" s="13">
         <v>7.5752968302688197</v>
       </c>
       <c r="E65" s="5">
         <v>10.473649999999999</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="4"/>
-        <v>12.878458415134409</v>
+      <c r="F65" s="13">
+        <v>7.6740038206439003</v>
       </c>
       <c r="G65">
-        <f t="shared" si="5"/>
-        <v>5.3031615848655891</v>
-      </c>
-      <c r="H65" s="4">
+        <f t="shared" si="1"/>
+        <v>10.976142662728179</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>4.3197591322489064</v>
+      </c>
+      <c r="I65" s="4">
         <f t="shared" si="3"/>
-        <v>0.41178543377780835</v>
-      </c>
-      <c r="I65" t="s">
+        <v>0.39355894552259829</v>
+      </c>
+      <c r="J65" t="s">
         <v>364</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>251.3</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>248.2</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>71</v>
       </c>
@@ -15822,38 +15998,41 @@
       <c r="C66" s="5">
         <v>2.2850109999999999</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D66" s="13">
         <v>6.8250689346512097</v>
       </c>
       <c r="E66" s="5">
         <v>10.42136</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="4"/>
-        <v>4.5550399673256052</v>
+      <c r="F66" s="13">
+        <v>8.5410948849661601</v>
       </c>
       <c r="G66">
-        <f t="shared" si="5"/>
-        <v>2.2700289673256036</v>
-      </c>
-      <c r="H66" s="4">
-        <f t="shared" ref="H66:H97" si="6">G66/F66</f>
-        <v>0.49835544443277469</v>
-      </c>
-      <c r="I66" t="s">
+        <f t="shared" si="1"/>
+        <v>7.0181337049043426</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="2"/>
+        <v>3.0141783505957171</v>
+      </c>
+      <c r="I66" s="4">
+        <f t="shared" ref="I66:I97" si="4">H66/G66</f>
+        <v>0.42948431553667593</v>
+      </c>
+      <c r="J66" t="s">
         <v>364</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>276.89999999999998</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>315</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>72</v>
       </c>
@@ -15863,38 +16042,41 @@
       <c r="C67" s="5">
         <v>2.512394</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D67" s="13">
         <v>11.3625378363528</v>
       </c>
       <c r="E67" s="5">
         <v>20.987960000000001</v>
       </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F90" si="7">AVERAGE(C67:D67)</f>
-        <v>6.9374659181764002</v>
+      <c r="F67" s="13">
+        <v>5.8294724703378398</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G90" si="8">_xlfn.STDEV.P(C67:D67)</f>
-        <v>4.4250719181763989</v>
-      </c>
-      <c r="H67" s="4">
-        <f t="shared" si="6"/>
-        <v>0.63785133799108951</v>
-      </c>
-      <c r="I67" t="s">
+        <f t="shared" ref="G67:G130" si="5">AVERAGE(C67:F67)</f>
+        <v>10.173091076672661</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="6">_xlfn.STDEV.P(C67:F67)</f>
+        <v>6.9987405245641181</v>
+      </c>
+      <c r="I67" s="4">
+        <f t="shared" si="4"/>
+        <v>0.68796597531821313</v>
+      </c>
+      <c r="J67" t="s">
         <v>364</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>360.6</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>234.7</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>73</v>
       </c>
@@ -15904,38 +16086,41 @@
       <c r="C68" s="5">
         <v>5.2466369999999998</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D68" s="13">
         <v>6.6917936578940598</v>
       </c>
       <c r="E68" s="5">
         <v>12.877879999999999</v>
       </c>
-      <c r="F68">
-        <f t="shared" si="7"/>
-        <v>5.9692153289470298</v>
+      <c r="F68" s="13">
+        <v>11.1002631547703</v>
       </c>
       <c r="G68">
-        <f t="shared" si="8"/>
-        <v>0.72257832894703244</v>
-      </c>
-      <c r="H68" s="4">
+        <f t="shared" si="5"/>
+        <v>8.9791434531660883</v>
+      </c>
+      <c r="H68">
         <f t="shared" si="6"/>
-        <v>0.12105080636695599</v>
-      </c>
-      <c r="I68" t="s">
+        <v>3.1170045299537792</v>
+      </c>
+      <c r="I68" s="4">
+        <f t="shared" si="4"/>
+        <v>0.34713829289081116</v>
+      </c>
+      <c r="J68" t="s">
         <v>364</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>318</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>302.7</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>74</v>
       </c>
@@ -15945,38 +16130,41 @@
       <c r="C69" s="5">
         <v>3.5395460000000001</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D69" s="13">
         <v>12.706530323474301</v>
       </c>
       <c r="E69" s="5">
         <v>13.957610000000001</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="7"/>
-        <v>8.123038161737151</v>
+      <c r="F69" s="13">
+        <v>11.217656928992801</v>
       </c>
       <c r="G69">
-        <f t="shared" si="8"/>
-        <v>4.5834921617371487</v>
-      </c>
-      <c r="H69" s="4">
+        <f t="shared" si="5"/>
+        <v>10.355335813116776</v>
+      </c>
+      <c r="H69">
         <f t="shared" si="6"/>
-        <v>0.56425835635332611</v>
-      </c>
-      <c r="I69" t="s">
+        <v>4.0528719269948743</v>
+      </c>
+      <c r="I69" s="4">
+        <f t="shared" si="4"/>
+        <v>0.39138005759902345</v>
+      </c>
+      <c r="J69" t="s">
         <v>364</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>348</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>249.4</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -15986,38 +16174,41 @@
       <c r="C70" s="5">
         <v>12.43055</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D70" s="13">
         <v>12.2883984596519</v>
       </c>
       <c r="E70" s="5">
         <v>15.95393</v>
       </c>
-      <c r="F70">
-        <f t="shared" si="7"/>
-        <v>12.359474229825949</v>
+      <c r="F70" s="13">
+        <v>7.36080243131667</v>
       </c>
       <c r="G70">
-        <f t="shared" si="8"/>
-        <v>7.1075770174050312E-2</v>
-      </c>
-      <c r="H70" s="4">
+        <f t="shared" si="5"/>
+        <v>12.008420222742142</v>
+      </c>
+      <c r="H70">
         <f t="shared" si="6"/>
-        <v>5.7507114665549357E-3</v>
-      </c>
-      <c r="I70" t="s">
+        <v>3.0587570964201638</v>
+      </c>
+      <c r="I70" s="4">
+        <f t="shared" si="4"/>
+        <v>0.2547176930590202</v>
+      </c>
+      <c r="J70" t="s">
         <v>364</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>233.4</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>250</v>
       </c>
-      <c r="M70" t="s">
+      <c r="N70" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>76</v>
       </c>
@@ -16027,38 +16218,41 @@
       <c r="C71" s="5">
         <v>16.559249999999999</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D71" s="13">
         <v>11.395635346500899</v>
       </c>
       <c r="E71" s="5">
         <v>14.902950000000001</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="7"/>
-        <v>13.977442673250449</v>
+      <c r="F71" s="13">
+        <v>7.0600708378732797</v>
       </c>
       <c r="G71">
-        <f t="shared" si="8"/>
-        <v>2.5818073267495487</v>
-      </c>
-      <c r="H71" s="4">
+        <f t="shared" si="5"/>
+        <v>12.479476546093544</v>
+      </c>
+      <c r="H71">
         <f t="shared" si="6"/>
-        <v>0.18471242466195359</v>
-      </c>
-      <c r="I71" t="s">
+        <v>3.642198683254867</v>
+      </c>
+      <c r="I71" s="4">
+        <f t="shared" si="4"/>
+        <v>0.29185508461049886</v>
+      </c>
+      <c r="J71" t="s">
         <v>364</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>26.6</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>241.9</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
@@ -16068,38 +16262,41 @@
       <c r="C72" s="5">
         <v>23.679120000000001</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D72" s="13">
         <v>17.539773573039799</v>
       </c>
       <c r="E72" s="5">
         <v>32.916739999999997</v>
       </c>
-      <c r="F72">
-        <f t="shared" si="7"/>
-        <v>20.6094467865199</v>
+      <c r="F72" s="13">
+        <v>18.9132505173209</v>
       </c>
       <c r="G72">
-        <f t="shared" si="8"/>
-        <v>3.0696732134801015</v>
-      </c>
-      <c r="H72" s="4">
+        <f t="shared" si="5"/>
+        <v>23.262221022590175</v>
+      </c>
+      <c r="H72">
         <f t="shared" si="6"/>
-        <v>0.14894495933233368</v>
-      </c>
-      <c r="I72" t="s">
+        <v>6.0217001484443609</v>
+      </c>
+      <c r="I72" s="4">
+        <f t="shared" si="4"/>
+        <v>0.25886178893221878</v>
+      </c>
+      <c r="J72" t="s">
         <v>364</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>20.9</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>167.4</v>
       </c>
-      <c r="M72" t="s">
+      <c r="N72" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>78</v>
       </c>
@@ -16109,38 +16306,41 @@
       <c r="C73" s="5">
         <v>29.369589999999999</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D73" s="13">
         <v>19.188772567785499</v>
       </c>
       <c r="E73" s="5">
         <v>45.357889999999998</v>
       </c>
-      <c r="F73">
-        <f t="shared" si="7"/>
-        <v>24.279181283892747</v>
+      <c r="F73" s="13">
+        <v>17.079993115501001</v>
       </c>
       <c r="G73">
-        <f t="shared" si="8"/>
-        <v>5.0904087161072651</v>
-      </c>
-      <c r="H73" s="4">
+        <f t="shared" si="5"/>
+        <v>27.749061420821622</v>
+      </c>
+      <c r="H73">
         <f t="shared" si="6"/>
-        <v>0.20966146496399099</v>
-      </c>
-      <c r="I73" t="s">
+        <v>11.178154147239997</v>
+      </c>
+      <c r="I73" s="4">
+        <f t="shared" si="4"/>
+        <v>0.40282999045338608</v>
+      </c>
+      <c r="J73" t="s">
         <v>364</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>440.5</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>68.400000000000006</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>79</v>
       </c>
@@ -16150,38 +16350,41 @@
       <c r="C74" s="5">
         <v>19.615659999999998</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D74" s="13">
         <v>12.4890034130825</v>
       </c>
       <c r="E74" s="5">
         <v>48.225960000000001</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="7"/>
-        <v>16.052331706541249</v>
+      <c r="F74" s="13">
+        <v>13.186679705605799</v>
       </c>
       <c r="G74">
-        <f t="shared" si="8"/>
-        <v>3.5633282934587487</v>
-      </c>
-      <c r="H74" s="4">
+        <f t="shared" si="5"/>
+        <v>23.379325779672072</v>
+      </c>
+      <c r="H74">
         <f t="shared" si="6"/>
-        <v>0.22198197486828092</v>
-      </c>
-      <c r="I74" t="s">
+        <v>14.611721043560079</v>
+      </c>
+      <c r="I74" s="4">
+        <f t="shared" si="4"/>
+        <v>0.62498470577217091</v>
+      </c>
+      <c r="J74" t="s">
         <v>364</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>341.5</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>46.1</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>80</v>
       </c>
@@ -16191,38 +16394,41 @@
       <c r="C75" s="5">
         <v>22.033429999999999</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D75" s="13">
         <v>12.730751126601399</v>
       </c>
       <c r="E75" s="5">
         <v>36.40934</v>
       </c>
-      <c r="F75">
-        <f t="shared" si="7"/>
-        <v>17.3820905633007</v>
+      <c r="F75" s="13">
+        <v>12.0135743576053</v>
       </c>
       <c r="G75">
-        <f t="shared" si="8"/>
-        <v>4.6513394366992955</v>
-      </c>
-      <c r="H75" s="4">
+        <f t="shared" si="5"/>
+        <v>20.796773871051677</v>
+      </c>
+      <c r="H75">
         <f t="shared" si="6"/>
-        <v>0.26759378682100532</v>
-      </c>
-      <c r="I75" t="s">
+        <v>9.8423429136441332</v>
+      </c>
+      <c r="I75" s="4">
+        <f t="shared" si="4"/>
+        <v>0.47326296735592738</v>
+      </c>
+      <c r="J75" t="s">
         <v>364</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>320.89999999999998</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>43.9</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>81</v>
       </c>
@@ -16232,38 +16438,41 @@
       <c r="C76" s="5">
         <v>20.21415</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D76" s="13">
         <v>11.5617172966071</v>
       </c>
       <c r="E76" s="5">
         <v>32.784280000000003</v>
       </c>
-      <c r="F76">
-        <f t="shared" si="7"/>
-        <v>15.88793364830355</v>
+      <c r="F76" s="13">
+        <v>10.235302573096201</v>
       </c>
       <c r="G76">
-        <f t="shared" si="8"/>
-        <v>4.3262163516964502</v>
-      </c>
-      <c r="H76" s="4">
+        <f t="shared" si="5"/>
+        <v>18.698862467425826</v>
+      </c>
+      <c r="H76">
         <f t="shared" si="6"/>
-        <v>0.27229572123486218</v>
-      </c>
-      <c r="I76" t="s">
+        <v>8.9897965862355385</v>
+      </c>
+      <c r="I76" s="4">
+        <f t="shared" si="4"/>
+        <v>0.48076703071623356</v>
+      </c>
+      <c r="J76" t="s">
         <v>364</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>378.1</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>51.1</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>82</v>
       </c>
@@ -16273,38 +16482,41 @@
       <c r="C77" s="5">
         <v>38.307490000000001</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D77" s="13">
         <v>26.092047759046</v>
       </c>
       <c r="E77" s="5">
         <v>11.96909</v>
       </c>
-      <c r="F77">
-        <f t="shared" si="7"/>
-        <v>32.199768879522999</v>
+      <c r="F77" s="13">
+        <v>26.00441221881</v>
       </c>
       <c r="G77">
-        <f t="shared" si="8"/>
-        <v>6.1077211204770219</v>
-      </c>
-      <c r="H77" s="4">
+        <f t="shared" si="5"/>
+        <v>25.593259994463999</v>
+      </c>
+      <c r="H77">
         <f t="shared" si="6"/>
-        <v>0.18968214161192765</v>
-      </c>
-      <c r="I77" t="s">
+        <v>9.3231900127773706</v>
+      </c>
+      <c r="I77" s="4">
+        <f t="shared" si="4"/>
+        <v>0.36428301884144659</v>
+      </c>
+      <c r="J77" t="s">
         <v>364</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>3130.8</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>74.400000000000006</v>
       </c>
-      <c r="M77" t="s">
+      <c r="N77" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>83</v>
       </c>
@@ -16314,38 +16526,41 @@
       <c r="C78" s="5">
         <v>2.8491559999999998</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D78" s="13">
         <v>12.3028665794186</v>
       </c>
       <c r="E78" s="5">
         <v>41.555430000000001</v>
       </c>
-      <c r="F78">
-        <f t="shared" si="7"/>
-        <v>7.5760112897092995</v>
+      <c r="F78" s="13">
+        <v>10.292231992779699</v>
       </c>
       <c r="G78">
-        <f t="shared" si="8"/>
-        <v>4.7268552897093006</v>
-      </c>
-      <c r="H78" s="4">
+        <f t="shared" si="5"/>
+        <v>16.749921143049576</v>
+      </c>
+      <c r="H78">
         <f t="shared" si="6"/>
-        <v>0.62392400287601413</v>
-      </c>
-      <c r="I78" t="s">
+        <v>14.748072625498327</v>
+      </c>
+      <c r="I78" s="4">
+        <f t="shared" si="4"/>
+        <v>0.88048609301173208</v>
+      </c>
+      <c r="J78" t="s">
         <v>364</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>274.10000000000002</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>48.7</v>
       </c>
-      <c r="M78" t="s">
+      <c r="N78" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>84</v>
       </c>
@@ -16355,38 +16570,41 @@
       <c r="C79" s="5">
         <v>17.769400000000001</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D79" s="13">
         <v>11.7345705352473</v>
       </c>
       <c r="E79" s="5">
         <v>10.037559999999999</v>
       </c>
-      <c r="F79">
-        <f t="shared" si="7"/>
-        <v>14.751985267623651</v>
+      <c r="F79" s="13">
+        <v>12.4970127608154</v>
       </c>
       <c r="G79">
-        <f t="shared" si="8"/>
-        <v>3.0174147323763538</v>
-      </c>
-      <c r="H79" s="4">
+        <f t="shared" si="5"/>
+        <v>13.009635824015676</v>
+      </c>
+      <c r="H79">
         <f t="shared" si="6"/>
-        <v>0.20454295999052469</v>
-      </c>
-      <c r="I79" t="s">
+        <v>2.8886486291269868</v>
+      </c>
+      <c r="I79" s="4">
+        <f t="shared" si="4"/>
+        <v>0.22203916144943628</v>
+      </c>
+      <c r="J79" t="s">
         <v>364</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>283.10000000000002</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>28.9</v>
       </c>
-      <c r="M79" t="s">
+      <c r="N79" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>85</v>
       </c>
@@ -16396,38 +16614,41 @@
       <c r="C80" s="5">
         <v>21.084050000000001</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D80" s="13">
         <v>12.069074065451399</v>
       </c>
       <c r="E80" s="5">
         <v>28.825279999999999</v>
       </c>
-      <c r="F80">
-        <f t="shared" si="7"/>
-        <v>16.5765620327257</v>
+      <c r="F80" s="13">
+        <v>11.913828026547099</v>
       </c>
       <c r="G80">
-        <f t="shared" si="8"/>
-        <v>4.5074879672743018</v>
-      </c>
-      <c r="H80" s="4">
+        <f t="shared" si="5"/>
+        <v>18.473058022999624</v>
+      </c>
+      <c r="H80">
         <f t="shared" si="6"/>
-        <v>0.27191934964412706</v>
-      </c>
-      <c r="I80" t="s">
+        <v>7.035984075450064</v>
+      </c>
+      <c r="I80" s="4">
+        <f t="shared" si="4"/>
+        <v>0.38087814517174201</v>
+      </c>
+      <c r="J80" t="s">
         <v>364</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>269.5</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>47.4</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>86</v>
       </c>
@@ -16437,38 +16658,41 @@
       <c r="C81" s="5">
         <v>0.70825800000000005</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D81" s="13">
         <v>13.9831766434003</v>
       </c>
       <c r="E81" s="5">
         <v>32.90795</v>
       </c>
-      <c r="F81">
-        <f t="shared" si="7"/>
-        <v>7.3457173217001506</v>
+      <c r="F81" s="13">
+        <v>11.0447091184299</v>
       </c>
       <c r="G81">
-        <f t="shared" si="8"/>
-        <v>6.637459321700149</v>
-      </c>
-      <c r="H81" s="4">
+        <f t="shared" si="5"/>
+        <v>14.66102344045755</v>
+      </c>
+      <c r="H81">
         <f t="shared" si="6"/>
-        <v>0.90358218687401426</v>
-      </c>
-      <c r="I81" t="s">
+        <v>11.631500310167917</v>
+      </c>
+      <c r="I81" s="4">
+        <f t="shared" si="4"/>
+        <v>0.79336209763299548</v>
+      </c>
+      <c r="J81" t="s">
         <v>364</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>312.8</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>242.4</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
@@ -16478,38 +16702,41 @@
       <c r="C82" s="5">
         <v>20.770009999999999</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D82" s="13">
         <v>15.1244360198307</v>
       </c>
       <c r="E82" s="5">
         <v>32.293480000000002</v>
       </c>
-      <c r="F82">
-        <f t="shared" si="7"/>
-        <v>17.947223009915348</v>
+      <c r="F82" s="13">
+        <v>12.242910450783601</v>
       </c>
       <c r="G82">
-        <f t="shared" si="8"/>
-        <v>2.8227869900846567</v>
-      </c>
-      <c r="H82" s="4">
+        <f t="shared" si="5"/>
+        <v>20.107709117653574</v>
+      </c>
+      <c r="H82">
         <f t="shared" si="6"/>
-        <v>0.15728266086208126</v>
-      </c>
-      <c r="I82" t="s">
+        <v>7.6749547766368638</v>
+      </c>
+      <c r="I82" s="4">
+        <f t="shared" si="4"/>
+        <v>0.38169215258334094</v>
+      </c>
+      <c r="J82" t="s">
         <v>364</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>120.1</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>236.7</v>
       </c>
-      <c r="M82" t="s">
+      <c r="N82" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>88</v>
       </c>
@@ -16519,38 +16746,41 @@
       <c r="C83" s="5">
         <v>18.358529999999998</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D83" s="13">
         <v>9.3599341180013198</v>
       </c>
       <c r="E83" s="5">
         <v>35.41892</v>
       </c>
-      <c r="F83">
-        <f t="shared" si="7"/>
-        <v>13.859232059000659</v>
+      <c r="F83" s="13">
+        <v>13.056672402141301</v>
       </c>
       <c r="G83">
-        <f t="shared" si="8"/>
-        <v>4.4992979409993366</v>
-      </c>
-      <c r="H83" s="4">
+        <f t="shared" si="5"/>
+        <v>19.048514130035656</v>
+      </c>
+      <c r="H83">
         <f t="shared" si="6"/>
-        <v>0.32464265854307123</v>
-      </c>
-      <c r="I83" t="s">
+        <v>9.9779383690819508</v>
+      </c>
+      <c r="I83" s="4">
+        <f t="shared" si="4"/>
+        <v>0.52381714925201217</v>
+      </c>
+      <c r="J83" t="s">
         <v>364</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>227.6</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>218.3</v>
       </c>
-      <c r="M83" t="s">
+      <c r="N83" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>89</v>
       </c>
@@ -16560,38 +16790,41 @@
       <c r="C84" s="5">
         <v>46.042450000000002</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D84" s="13">
         <v>27.224196199935299</v>
       </c>
       <c r="E84" s="5">
         <v>38.03884</v>
       </c>
-      <c r="F84">
-        <f t="shared" si="7"/>
-        <v>36.633323099967654</v>
+      <c r="F84" s="13">
+        <v>27.561543832645899</v>
       </c>
       <c r="G84">
-        <f t="shared" si="8"/>
-        <v>9.4091269000323283</v>
-      </c>
-      <c r="H84" s="4">
+        <f t="shared" si="5"/>
+        <v>34.716757508145299</v>
+      </c>
+      <c r="H84">
         <f t="shared" si="6"/>
-        <v>0.25684611997541212</v>
-      </c>
-      <c r="I84" t="s">
+        <v>7.852437522866401</v>
+      </c>
+      <c r="I84" s="4">
+        <f t="shared" si="4"/>
+        <v>0.2261857986312244</v>
+      </c>
+      <c r="J84" t="s">
         <v>364</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>35.1</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>1637.2</v>
       </c>
-      <c r="M84" t="s">
+      <c r="N84" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>90</v>
       </c>
@@ -16601,38 +16834,41 @@
       <c r="C85" s="5">
         <v>35.040779999999998</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D85" s="13">
         <v>20.457286705187599</v>
       </c>
       <c r="E85" s="5">
         <v>61.108539999999998</v>
       </c>
-      <c r="F85">
-        <f t="shared" si="7"/>
-        <v>27.749033352593798</v>
+      <c r="F85" s="13">
+        <v>19.024864485335701</v>
       </c>
       <c r="G85">
-        <f t="shared" si="8"/>
-        <v>7.2917466474061934</v>
-      </c>
-      <c r="H85" s="4">
+        <f t="shared" si="5"/>
+        <v>33.907867797630828</v>
+      </c>
+      <c r="H85">
         <f t="shared" si="6"/>
-        <v>0.26277479848589425</v>
-      </c>
-      <c r="I85" t="s">
+        <v>16.908444470420651</v>
+      </c>
+      <c r="I85" s="4">
+        <f t="shared" si="4"/>
+        <v>0.49865844031638162</v>
+      </c>
+      <c r="J85" t="s">
         <v>364</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>308.60000000000002</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>232.2</v>
       </c>
-      <c r="M85" t="s">
+      <c r="N85" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>91</v>
       </c>
@@ -16642,38 +16878,41 @@
       <c r="C86" s="5">
         <v>41.262779999999999</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D86" s="13">
         <v>26.0038628260927</v>
       </c>
       <c r="E86" s="5">
         <v>56.102730000000001</v>
       </c>
-      <c r="F86">
-        <f t="shared" si="7"/>
-        <v>33.633321413046346</v>
+      <c r="F86" s="13">
+        <v>23.686498489203601</v>
       </c>
       <c r="G86">
-        <f t="shared" si="8"/>
-        <v>7.6294585869536586</v>
-      </c>
-      <c r="H86" s="4">
+        <f t="shared" si="5"/>
+        <v>36.763967828824079</v>
+      </c>
+      <c r="H86">
         <f t="shared" si="6"/>
-        <v>0.22684225840372091</v>
-      </c>
-      <c r="I86" t="s">
+        <v>13.048247940464483</v>
+      </c>
+      <c r="I86" s="4">
+        <f t="shared" si="4"/>
+        <v>0.35491946900884447</v>
+      </c>
+      <c r="J86" t="s">
         <v>364</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>1636.1</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>1475.3</v>
       </c>
-      <c r="M86" t="s">
+      <c r="N86" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>92</v>
       </c>
@@ -16683,38 +16922,41 @@
       <c r="C87" s="5">
         <v>23.49241</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D87" s="13">
         <v>17.164391937633301</v>
       </c>
       <c r="E87" s="5">
         <v>61.075339999999997</v>
       </c>
-      <c r="F87">
-        <f t="shared" si="7"/>
-        <v>20.328400968816652</v>
+      <c r="F87" s="13">
+        <v>15.9000428778351</v>
       </c>
       <c r="G87">
-        <f t="shared" si="8"/>
-        <v>3.1640090311833453</v>
-      </c>
-      <c r="H87" s="4">
+        <f t="shared" si="5"/>
+        <v>29.408046203867102</v>
+      </c>
+      <c r="H87">
         <f t="shared" si="6"/>
-        <v>0.15564475710789402</v>
-      </c>
-      <c r="I87" t="s">
+        <v>18.508008210733109</v>
+      </c>
+      <c r="I87" s="4">
+        <f t="shared" si="4"/>
+        <v>0.62935184753277973</v>
+      </c>
+      <c r="J87" t="s">
         <v>364</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>287.5</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>322.39999999999998</v>
       </c>
-      <c r="M87" t="s">
+      <c r="N87" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>93</v>
       </c>
@@ -16724,38 +16966,41 @@
       <c r="C88" s="5">
         <v>31.044440000000002</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D88" s="13">
         <v>18.5043678218635</v>
       </c>
       <c r="E88" s="5">
         <v>43.165689999999998</v>
       </c>
-      <c r="F88">
-        <f t="shared" si="7"/>
-        <v>24.774403910931753</v>
+      <c r="F88" s="13">
+        <v>18.803817231104201</v>
       </c>
       <c r="G88">
-        <f t="shared" si="8"/>
-        <v>6.2700360890682516</v>
-      </c>
-      <c r="H88" s="4">
+        <f t="shared" si="5"/>
+        <v>27.879578763241927</v>
+      </c>
+      <c r="H88">
         <f t="shared" si="6"/>
-        <v>0.25308524522366355</v>
-      </c>
-      <c r="I88" t="s">
+        <v>10.172826192534297</v>
+      </c>
+      <c r="I88" s="4">
+        <f t="shared" si="4"/>
+        <v>0.36488450126609329</v>
+      </c>
+      <c r="J88" t="s">
         <v>364</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>566.1</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>656.9</v>
       </c>
-      <c r="M88" t="s">
+      <c r="N88" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>94</v>
       </c>
@@ -16765,38 +17010,41 @@
       <c r="C89" s="5">
         <v>25.85005</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D89" s="13">
         <v>17.0914214980466</v>
       </c>
       <c r="E89" s="5">
         <v>51.641970000000001</v>
       </c>
-      <c r="F89">
-        <f t="shared" si="7"/>
-        <v>21.470735749023298</v>
+      <c r="F89" s="13">
+        <v>15.5264757173783</v>
       </c>
       <c r="G89">
-        <f t="shared" si="8"/>
-        <v>4.3793142509767096</v>
-      </c>
-      <c r="H89" s="4">
+        <f t="shared" si="5"/>
+        <v>27.527479303856225</v>
+      </c>
+      <c r="H89">
         <f t="shared" si="6"/>
-        <v>0.20396665965095884</v>
-      </c>
-      <c r="I89" t="s">
+        <v>14.467703862506111</v>
+      </c>
+      <c r="I89" s="4">
+        <f t="shared" si="4"/>
+        <v>0.52557314466782223</v>
+      </c>
+      <c r="J89" t="s">
         <v>364</v>
       </c>
-      <c r="K89">
+      <c r="L89">
         <v>302.7</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>277.5</v>
       </c>
-      <c r="M89" t="s">
+      <c r="N89" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>95</v>
       </c>
@@ -16806,38 +17054,41 @@
       <c r="C90" s="5">
         <v>24.439340000000001</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D90" s="13">
         <v>16.090270679436198</v>
       </c>
       <c r="E90" s="5">
         <v>38.236710000000002</v>
       </c>
-      <c r="F90">
-        <f t="shared" si="7"/>
-        <v>20.264805339718102</v>
+      <c r="F90" s="13">
+        <v>14.299060820765201</v>
       </c>
       <c r="G90">
-        <f t="shared" si="8"/>
-        <v>4.1745346602818953</v>
-      </c>
-      <c r="H90" s="4">
+        <f t="shared" si="5"/>
+        <v>23.266345375050353</v>
+      </c>
+      <c r="H90">
         <f t="shared" si="6"/>
-        <v>0.20599924797204916</v>
-      </c>
-      <c r="I90" t="s">
+        <v>9.4524596495919955</v>
+      </c>
+      <c r="I90" s="4">
+        <f t="shared" si="4"/>
+        <v>0.4062717842970015</v>
+      </c>
+      <c r="J90" t="s">
         <v>364</v>
       </c>
-      <c r="K90">
+      <c r="L90">
         <v>278.39999999999998</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>253.3</v>
       </c>
-      <c r="M90" t="s">
+      <c r="N90" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>124</v>
       </c>
@@ -16853,30 +17104,25 @@
       <c r="E91" s="10">
         <v>30.096817956472499</v>
       </c>
-      <c r="F91" s="8">
-        <f t="shared" ref="F91:F122" si="9">AVERAGE(C91:E91)</f>
+      <c r="F91" s="13"/>
+      <c r="G91">
+        <f t="shared" si="5"/>
         <v>30.440010549529234</v>
       </c>
-      <c r="G91" s="8">
-        <f t="shared" ref="G91:G122" si="10">_xlfn.STDEV.P(C91:E91)</f>
+      <c r="H91">
+        <f t="shared" si="6"/>
         <v>0.27913131935003588</v>
       </c>
-      <c r="H91" s="11">
-        <f t="shared" si="6"/>
+      <c r="I91" s="11">
+        <f t="shared" si="4"/>
         <v>9.1698824774012026E-3</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>365</v>
       </c>
-      <c r="L91">
-        <v>1237.0999999999999</v>
-      </c>
-      <c r="M91" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A92" s="15" t="s">
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A92" s="14" t="s">
         <v>125</v>
       </c>
       <c r="B92" t="s">
@@ -16891,29 +17137,24 @@
       <c r="E92" s="10">
         <v>161.48148148148101</v>
       </c>
-      <c r="F92" s="12">
-        <f t="shared" si="9"/>
+      <c r="F92" s="13"/>
+      <c r="G92">
+        <f t="shared" si="5"/>
         <v>181.85500125976304</v>
       </c>
-      <c r="G92" s="12">
-        <f t="shared" si="10"/>
+      <c r="H92">
+        <f t="shared" si="6"/>
         <v>20.134181733470101</v>
       </c>
-      <c r="H92" s="13">
-        <f t="shared" si="6"/>
+      <c r="I92" s="12">
+        <f t="shared" si="4"/>
         <v>0.11071557886225128</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>365</v>
       </c>
-      <c r="L92">
-        <v>855.6</v>
-      </c>
-      <c r="M92" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>126</v>
       </c>
@@ -16929,29 +17170,24 @@
       <c r="E93" s="10">
         <v>21.345062274719201</v>
       </c>
-      <c r="F93" s="8">
-        <f t="shared" si="9"/>
+      <c r="F93" s="13"/>
+      <c r="G93">
+        <f t="shared" si="5"/>
         <v>21.593535325214834</v>
       </c>
-      <c r="G93" s="8">
-        <f t="shared" si="10"/>
+      <c r="H93">
+        <f t="shared" si="6"/>
         <v>1.757558707146031</v>
       </c>
-      <c r="H93" s="11">
-        <f t="shared" si="6"/>
+      <c r="I93" s="11">
+        <f t="shared" si="4"/>
         <v>8.1392818761535757E-2</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>365</v>
       </c>
-      <c r="L93">
-        <v>160.4</v>
-      </c>
-      <c r="M93" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>127</v>
       </c>
@@ -16967,30 +17203,25 @@
       <c r="E94" s="10">
         <v>19.519235156703299</v>
       </c>
-      <c r="F94" s="8">
-        <f t="shared" si="9"/>
+      <c r="F94" s="13"/>
+      <c r="G94">
+        <f t="shared" si="5"/>
         <v>20.247576669166335</v>
       </c>
-      <c r="G94" s="8">
-        <f t="shared" si="10"/>
+      <c r="H94">
+        <f t="shared" si="6"/>
         <v>0.68605746128762457</v>
       </c>
-      <c r="H94" s="11">
-        <f t="shared" si="6"/>
+      <c r="I94" s="11">
+        <f t="shared" si="4"/>
         <v>3.3883435657382895E-2</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>365</v>
       </c>
-      <c r="L94">
-        <v>1178.2</v>
-      </c>
-      <c r="M94" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A95" s="15" t="s">
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A95" s="14" t="s">
         <v>128</v>
       </c>
       <c r="B95" t="s">
@@ -17005,29 +17236,24 @@
       <c r="E95" s="10">
         <v>162.777777777778</v>
       </c>
-      <c r="F95" s="12">
-        <f t="shared" si="9"/>
+      <c r="F95" s="13"/>
+      <c r="G95">
+        <f t="shared" si="5"/>
         <v>187.06655931293631</v>
       </c>
-      <c r="G95" s="12">
-        <f t="shared" si="10"/>
+      <c r="H95">
+        <f t="shared" si="6"/>
         <v>27.287487419434701</v>
       </c>
-      <c r="H95" s="13">
-        <f t="shared" si="6"/>
+      <c r="I95" s="12">
+        <f t="shared" si="4"/>
         <v>0.14587047262566333</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>365</v>
       </c>
-      <c r="L95">
-        <v>233.1</v>
-      </c>
-      <c r="M95" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>129</v>
       </c>
@@ -17043,29 +17269,24 @@
       <c r="E96" s="10">
         <v>17.435941790015299</v>
       </c>
-      <c r="F96" s="8">
-        <f t="shared" si="9"/>
+      <c r="F96" s="13"/>
+      <c r="G96">
+        <f t="shared" si="5"/>
         <v>19.396004296683834</v>
       </c>
-      <c r="G96" s="8">
-        <f t="shared" si="10"/>
+      <c r="H96">
+        <f t="shared" si="6"/>
         <v>1.3983112671597304</v>
       </c>
-      <c r="H96" s="11">
-        <f t="shared" si="6"/>
+      <c r="I96" s="11">
+        <f t="shared" si="4"/>
         <v>7.209274888636738E-2</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>365</v>
       </c>
-      <c r="L96">
-        <v>1613.3</v>
-      </c>
-      <c r="M96" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>130</v>
       </c>
@@ -17081,24 +17302,24 @@
       <c r="E97" s="10">
         <v>14.817036887393099</v>
       </c>
-      <c r="F97" s="8">
-        <f t="shared" si="9"/>
+      <c r="G97">
+        <f t="shared" si="5"/>
         <v>17.495456951090233</v>
       </c>
-      <c r="G97" s="8">
-        <f t="shared" si="10"/>
+      <c r="H97">
+        <f t="shared" si="6"/>
         <v>1.9060477565132941</v>
       </c>
-      <c r="H97" s="11">
-        <f t="shared" si="6"/>
+      <c r="I97" s="11">
+        <f t="shared" si="4"/>
         <v>0.10894529716153074</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A98" s="15" t="s">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A98" s="14" t="s">
         <v>131</v>
       </c>
       <c r="B98" t="s">
@@ -17113,23 +17334,24 @@
       <c r="E98" s="10">
         <v>167.40740740740699</v>
       </c>
-      <c r="F98" s="12">
-        <f t="shared" si="9"/>
+      <c r="F98" s="10"/>
+      <c r="G98">
+        <f t="shared" si="5"/>
         <v>178.55542136339236</v>
       </c>
-      <c r="G98" s="12">
-        <f t="shared" si="10"/>
+      <c r="H98">
+        <f t="shared" si="6"/>
         <v>17.614541914451781</v>
       </c>
-      <c r="H98" s="13">
-        <f t="shared" ref="H98:H129" si="11">G98/F98</f>
+      <c r="I98" s="12">
+        <f t="shared" ref="I98:I129" si="7">H98/G98</f>
         <v>9.8650277767836705E-2</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>132</v>
       </c>
@@ -17145,23 +17367,24 @@
       <c r="E99" s="10">
         <v>13.793785630534099</v>
       </c>
-      <c r="F99" s="8">
-        <f t="shared" si="9"/>
+      <c r="F99" s="10"/>
+      <c r="G99">
+        <f t="shared" si="5"/>
         <v>16.821059067926232</v>
       </c>
-      <c r="G99" s="8">
-        <f t="shared" si="10"/>
+      <c r="H99">
+        <f t="shared" si="6"/>
         <v>2.1921723850996457</v>
       </c>
-      <c r="H99" s="11">
-        <f t="shared" si="11"/>
+      <c r="I99" s="11">
+        <f t="shared" si="7"/>
         <v>0.13032308942304341</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>133</v>
       </c>
@@ -17177,23 +17400,24 @@
       <c r="E100" s="10">
         <v>14.3003078998694</v>
       </c>
-      <c r="F100" s="8">
-        <f t="shared" si="9"/>
+      <c r="F100" s="10"/>
+      <c r="G100">
+        <f t="shared" si="5"/>
         <v>15.798994909233967</v>
       </c>
-      <c r="G100" s="8">
-        <f t="shared" si="10"/>
+      <c r="H100">
+        <f t="shared" si="6"/>
         <v>1.1682355946463394</v>
       </c>
-      <c r="H100" s="11">
-        <f t="shared" si="11"/>
+      <c r="I100" s="11">
+        <f t="shared" si="7"/>
         <v>7.3943665489982921E-2</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>134</v>
       </c>
@@ -17209,23 +17433,24 @@
       <c r="E101" s="10">
         <v>14.541353796046099</v>
       </c>
-      <c r="F101" s="8">
-        <f t="shared" si="9"/>
+      <c r="F101" s="10"/>
+      <c r="G101">
+        <f t="shared" si="5"/>
         <v>16.063767641496867</v>
       </c>
-      <c r="G101" s="8">
-        <f t="shared" si="10"/>
+      <c r="H101">
+        <f t="shared" si="6"/>
         <v>1.7296212445288115</v>
       </c>
-      <c r="H101" s="11">
-        <f>G101/F101</f>
+      <c r="I101" s="11">
+        <f>H101/G101</f>
         <v>0.10767220263201221</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>135</v>
       </c>
@@ -17241,24 +17466,25 @@
       <c r="E102" s="10">
         <v>18.759638963852801</v>
       </c>
-      <c r="F102" s="8">
-        <f t="shared" si="9"/>
+      <c r="F102" s="10"/>
+      <c r="G102">
+        <f t="shared" si="5"/>
         <v>19.682277378864132</v>
       </c>
-      <c r="G102" s="8">
-        <f t="shared" si="10"/>
+      <c r="H102">
+        <f t="shared" si="6"/>
         <v>2.4105744692201534</v>
       </c>
-      <c r="H102" s="11">
-        <f t="shared" si="11"/>
+      <c r="I102" s="11">
+        <f t="shared" si="7"/>
         <v>0.12247436731121143</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A103" s="15" t="s">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A103" s="14" t="s">
         <v>136</v>
       </c>
       <c r="B103" t="s">
@@ -17273,23 +17499,24 @@
       <c r="E103" s="10">
         <v>172.87037037037001</v>
       </c>
-      <c r="F103" s="12">
-        <f t="shared" si="9"/>
+      <c r="F103" s="10"/>
+      <c r="G103">
+        <f t="shared" si="5"/>
         <v>205.66022544283399</v>
       </c>
-      <c r="G103" s="12">
-        <f t="shared" si="10"/>
+      <c r="H103">
+        <f t="shared" si="6"/>
         <v>23.613882537152339</v>
       </c>
-      <c r="H103" s="13">
-        <f t="shared" si="11"/>
+      <c r="I103" s="12">
+        <f t="shared" si="7"/>
         <v>0.11481988063713434</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>137</v>
       </c>
@@ -17305,23 +17532,24 @@
       <c r="E104" s="10">
         <v>17.750195391975002</v>
       </c>
-      <c r="F104" s="8">
-        <f t="shared" si="9"/>
+      <c r="F104" s="10"/>
+      <c r="G104">
+        <f t="shared" si="5"/>
         <v>19.521604992889497</v>
       </c>
-      <c r="G104" s="8">
-        <f t="shared" si="10"/>
+      <c r="H104">
+        <f t="shared" si="6"/>
         <v>1.3732810408426013</v>
       </c>
-      <c r="H104" s="11">
-        <f t="shared" si="11"/>
+      <c r="I104" s="11">
+        <f t="shared" si="7"/>
         <v>7.0346728219467705E-2</v>
       </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>138</v>
       </c>
@@ -17337,23 +17565,24 @@
       <c r="E105" s="10">
         <v>16.2135213755028</v>
       </c>
-      <c r="F105" s="8">
-        <f t="shared" si="9"/>
+      <c r="F105" s="10"/>
+      <c r="G105">
+        <f t="shared" si="5"/>
         <v>15.8130927284812</v>
       </c>
-      <c r="G105" s="8">
-        <f t="shared" si="10"/>
+      <c r="H105">
+        <f t="shared" si="6"/>
         <v>1.4716378797533274</v>
       </c>
-      <c r="H105" s="11">
-        <f t="shared" si="11"/>
+      <c r="I105" s="11">
+        <f t="shared" si="7"/>
         <v>9.3064519700358062E-2</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>139</v>
       </c>
@@ -17369,23 +17598,24 @@
       <c r="E106" s="10">
         <v>9.9751803415595202</v>
       </c>
-      <c r="F106" s="8">
-        <f t="shared" si="9"/>
+      <c r="F106" s="10"/>
+      <c r="G106">
+        <f t="shared" si="5"/>
         <v>12.002522758824705</v>
       </c>
-      <c r="G106" s="8">
-        <f t="shared" si="10"/>
+      <c r="H106">
+        <f t="shared" si="6"/>
         <v>2.5101162868813893</v>
       </c>
-      <c r="H106" s="11">
-        <f t="shared" si="11"/>
+      <c r="I106" s="11">
+        <f t="shared" si="7"/>
         <v>0.20913239135796327</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>140</v>
       </c>
@@ -17401,23 +17631,24 @@
       <c r="E107" s="10">
         <v>6.4394662980558799</v>
       </c>
-      <c r="F107" s="8">
-        <f t="shared" si="9"/>
+      <c r="F107" s="10"/>
+      <c r="G107">
+        <f t="shared" si="5"/>
         <v>10.267414901272227</v>
       </c>
-      <c r="G107" s="8">
-        <f t="shared" si="10"/>
+      <c r="H107">
+        <f t="shared" si="6"/>
         <v>3.1773075322803783</v>
       </c>
-      <c r="H107" s="11">
-        <f t="shared" si="11"/>
+      <c r="I107" s="11">
+        <f t="shared" si="7"/>
         <v>0.30945545327935281</v>
       </c>
-      <c r="I107" t="s">
+      <c r="J107" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>141</v>
       </c>
@@ -17433,23 +17664,24 @@
       <c r="E108" s="10">
         <v>13.460942777743499</v>
       </c>
-      <c r="F108" s="8">
-        <f t="shared" si="9"/>
+      <c r="F108" s="10"/>
+      <c r="G108">
+        <f t="shared" si="5"/>
         <v>10.306472135750285</v>
       </c>
-      <c r="G108" s="8">
-        <f t="shared" si="10"/>
+      <c r="H108">
+        <f t="shared" si="6"/>
         <v>2.2311122397195744</v>
       </c>
-      <c r="H108" s="11">
-        <f t="shared" si="11"/>
+      <c r="I108" s="11">
+        <f t="shared" si="7"/>
         <v>0.21647681285436815</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J108" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>142</v>
       </c>
@@ -17465,23 +17697,24 @@
       <c r="E109" s="10">
         <v>7.7126794951582003</v>
       </c>
-      <c r="F109" s="8">
-        <f t="shared" si="9"/>
+      <c r="F109" s="10"/>
+      <c r="G109">
+        <f t="shared" si="5"/>
         <v>10.380402578636962</v>
       </c>
-      <c r="G109" s="8">
-        <f t="shared" si="10"/>
+      <c r="H109">
+        <f t="shared" si="6"/>
         <v>2.8657503439162966</v>
       </c>
-      <c r="H109" s="11">
-        <f t="shared" si="11"/>
+      <c r="I109" s="11">
+        <f t="shared" si="7"/>
         <v>0.27607314092172663</v>
       </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>143</v>
       </c>
@@ -17497,23 +17730,24 @@
       <c r="E110" s="10">
         <v>6.5038017245112103</v>
       </c>
-      <c r="F110" s="8">
-        <f t="shared" si="9"/>
+      <c r="F110" s="10"/>
+      <c r="G110">
+        <f t="shared" si="5"/>
         <v>8.1390659077696199</v>
       </c>
-      <c r="G110" s="8">
-        <f t="shared" si="10"/>
+      <c r="H110">
+        <f t="shared" si="6"/>
         <v>1.2802855120710934</v>
       </c>
-      <c r="H110" s="11">
-        <f t="shared" si="11"/>
+      <c r="I110" s="11">
+        <f t="shared" si="7"/>
         <v>0.15730128328963675</v>
       </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>144</v>
       </c>
@@ -17529,24 +17763,25 @@
       <c r="E111" s="10">
         <v>11.009068973732001</v>
       </c>
-      <c r="F111" s="8">
-        <f t="shared" si="9"/>
+      <c r="F111" s="10"/>
+      <c r="G111">
+        <f t="shared" si="5"/>
         <v>8.668695786141372</v>
       </c>
-      <c r="G111" s="8">
-        <f t="shared" si="10"/>
+      <c r="H111">
+        <f t="shared" si="6"/>
         <v>2.5073326532306717</v>
       </c>
-      <c r="H111" s="11">
-        <f t="shared" si="11"/>
+      <c r="I111" s="11">
+        <f t="shared" si="7"/>
         <v>0.28923989433787028</v>
       </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A112" s="15" t="s">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A112" s="14" t="s">
         <v>145</v>
       </c>
       <c r="B112" t="s">
@@ -17561,24 +17796,25 @@
       <c r="E112" s="10">
         <v>124.31390687634899</v>
       </c>
-      <c r="F112" s="12">
-        <f t="shared" si="9"/>
+      <c r="F112" s="10"/>
+      <c r="G112">
+        <f t="shared" si="5"/>
         <v>149.68843149347302</v>
       </c>
-      <c r="G112" s="12">
-        <f t="shared" si="10"/>
+      <c r="H112">
+        <f t="shared" si="6"/>
         <v>20.07534215226125</v>
       </c>
-      <c r="H112" s="13">
-        <f t="shared" si="11"/>
+      <c r="I112" s="12">
+        <f t="shared" si="7"/>
         <v>0.13411418605943914</v>
       </c>
-      <c r="I112" t="s">
+      <c r="J112" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113" s="15" t="s">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A113" s="14" t="s">
         <v>146</v>
       </c>
       <c r="B113" t="s">
@@ -17593,23 +17829,24 @@
       <c r="E113" s="10">
         <v>143.333333333333</v>
       </c>
-      <c r="F113" s="12">
-        <f t="shared" si="9"/>
+      <c r="F113" s="10"/>
+      <c r="G113">
+        <f t="shared" si="5"/>
         <v>157.59057971014468</v>
       </c>
-      <c r="G113" s="12">
-        <f t="shared" si="10"/>
+      <c r="H113">
+        <f t="shared" si="6"/>
         <v>16.752084986554976</v>
       </c>
-      <c r="H113" s="13">
-        <f t="shared" si="11"/>
+      <c r="I113" s="12">
+        <f t="shared" si="7"/>
         <v>0.10630130949049732</v>
       </c>
-      <c r="I113" t="s">
+      <c r="J113" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>147</v>
       </c>
@@ -17625,24 +17862,25 @@
       <c r="E114" s="10">
         <v>34.510294968036099</v>
       </c>
-      <c r="F114" s="8">
-        <f t="shared" si="9"/>
+      <c r="F114" s="10"/>
+      <c r="G114">
+        <f t="shared" si="5"/>
         <v>34.039485205565462</v>
       </c>
-      <c r="G114" s="8">
-        <f t="shared" si="10"/>
+      <c r="H114">
+        <f t="shared" si="6"/>
         <v>1.073155830754688</v>
       </c>
-      <c r="H114" s="11">
-        <f t="shared" si="11"/>
+      <c r="I114" s="11">
+        <f t="shared" si="7"/>
         <v>3.1526793788856325E-2</v>
       </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115" s="15" t="s">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A115" s="14" t="s">
         <v>148</v>
       </c>
       <c r="B115" t="s">
@@ -17657,24 +17895,25 @@
       <c r="E115" s="10">
         <v>173.333333333333</v>
       </c>
-      <c r="F115" s="12">
-        <f t="shared" si="9"/>
+      <c r="F115" s="10"/>
+      <c r="G115">
+        <f t="shared" si="5"/>
         <v>200.87886717415699</v>
       </c>
-      <c r="G115" s="12">
-        <f t="shared" si="10"/>
+      <c r="H115">
+        <f t="shared" si="6"/>
         <v>22.124666439360507</v>
       </c>
-      <c r="H115" s="13">
-        <f t="shared" si="11"/>
+      <c r="I115" s="12">
+        <f t="shared" si="7"/>
         <v>0.11013934293137451</v>
       </c>
-      <c r="I115" t="s">
+      <c r="J115" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" s="15" t="s">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A116" s="14" t="s">
         <v>149</v>
       </c>
       <c r="B116" t="s">
@@ -17689,24 +17928,25 @@
       <c r="E116" s="10">
         <v>158.14814814814801</v>
       </c>
-      <c r="F116" s="12">
-        <f t="shared" si="9"/>
+      <c r="F116" s="10"/>
+      <c r="G116">
+        <f t="shared" si="5"/>
         <v>169.56790123456767</v>
       </c>
-      <c r="G116" s="12">
-        <f t="shared" si="10"/>
+      <c r="H116">
+        <f t="shared" si="6"/>
         <v>15.242539483531898</v>
       </c>
-      <c r="H116" s="13">
-        <f t="shared" si="11"/>
+      <c r="I116" s="12">
+        <f t="shared" si="7"/>
         <v>8.9890476750352055E-2</v>
       </c>
-      <c r="I116" t="s">
+      <c r="J116" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" s="15" t="s">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A117" s="14" t="s">
         <v>150</v>
       </c>
       <c r="B117" t="s">
@@ -17721,24 +17961,25 @@
       <c r="E117" s="10">
         <v>143.888888888889</v>
       </c>
-      <c r="F117" s="12">
-        <f t="shared" si="9"/>
+      <c r="F117" s="10"/>
+      <c r="G117">
+        <f t="shared" si="5"/>
         <v>164.42498658078367</v>
       </c>
-      <c r="G117" s="12">
-        <f t="shared" si="10"/>
+      <c r="H117">
+        <f t="shared" si="6"/>
         <v>19.177250320565008</v>
       </c>
-      <c r="H117" s="13">
-        <f t="shared" si="11"/>
+      <c r="I117" s="12">
+        <f t="shared" si="7"/>
         <v>0.11663221460044353</v>
       </c>
-      <c r="I117" t="s">
+      <c r="J117" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118" s="15" t="s">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A118" s="14" t="s">
         <v>151</v>
       </c>
       <c r="B118" t="s">
@@ -17753,24 +17994,25 @@
       <c r="E118" s="10">
         <v>145.09259259259301</v>
       </c>
-      <c r="F118" s="12">
-        <f t="shared" si="9"/>
+      <c r="F118" s="10"/>
+      <c r="G118">
+        <f t="shared" si="5"/>
         <v>163.33333333333334</v>
       </c>
-      <c r="G118" s="12">
-        <f t="shared" si="10"/>
+      <c r="H118">
+        <f t="shared" si="6"/>
         <v>21.137221237139912</v>
       </c>
-      <c r="H118" s="13">
-        <f t="shared" si="11"/>
+      <c r="I118" s="12">
+        <f t="shared" si="7"/>
         <v>0.12941155859473413</v>
       </c>
-      <c r="I118" t="s">
+      <c r="J118" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119" s="15" t="s">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A119" s="14" t="s">
         <v>152</v>
       </c>
       <c r="B119" t="s">
@@ -17785,23 +18027,24 @@
       <c r="E119" s="10">
         <v>130.878045020043</v>
       </c>
-      <c r="F119" s="12">
-        <f t="shared" si="9"/>
+      <c r="F119" s="10"/>
+      <c r="G119">
+        <f t="shared" si="5"/>
         <v>151.56169698838502</v>
       </c>
-      <c r="G119" s="12">
-        <f t="shared" si="10"/>
+      <c r="H119">
+        <f t="shared" si="6"/>
         <v>16.608652315828699</v>
       </c>
-      <c r="H119" s="13">
-        <f t="shared" si="11"/>
+      <c r="I119" s="12">
+        <f t="shared" si="7"/>
         <v>0.10958344123780502</v>
       </c>
-      <c r="I119" t="s">
+      <c r="J119" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>153</v>
       </c>
@@ -17817,24 +18060,25 @@
       <c r="E120" s="10">
         <v>14.144547979727999</v>
       </c>
-      <c r="F120" s="8">
-        <f t="shared" si="9"/>
+      <c r="F120" s="10"/>
+      <c r="G120">
+        <f t="shared" si="5"/>
         <v>14.875922908362233</v>
       </c>
-      <c r="G120" s="8">
-        <f t="shared" si="10"/>
+      <c r="H120">
+        <f t="shared" si="6"/>
         <v>0.51974707917229923</v>
       </c>
-      <c r="H120" s="11">
-        <f t="shared" si="11"/>
+      <c r="I120" s="11">
+        <f t="shared" si="7"/>
         <v>3.4938812359677718E-2</v>
       </c>
-      <c r="I120" t="s">
+      <c r="J120" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A121" s="15" t="s">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A121" s="14" t="s">
         <v>154</v>
       </c>
       <c r="B121" t="s">
@@ -17849,24 +18093,25 @@
       <c r="E121" s="10">
         <v>122.777777777778</v>
       </c>
-      <c r="F121" s="12">
-        <f t="shared" si="9"/>
+      <c r="F121" s="10"/>
+      <c r="G121">
+        <f t="shared" si="5"/>
         <v>149.31226516371433</v>
       </c>
-      <c r="G121" s="12">
-        <f t="shared" si="10"/>
+      <c r="H121">
+        <f t="shared" si="6"/>
         <v>20.281515894040112</v>
       </c>
-      <c r="H121" s="13">
-        <f t="shared" si="11"/>
+      <c r="I121" s="12">
+        <f t="shared" si="7"/>
         <v>0.13583288601108773</v>
       </c>
-      <c r="I121" t="s">
+      <c r="J121" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A122" s="15" t="s">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A122" s="14" t="s">
         <v>155</v>
       </c>
       <c r="B122" t="s">
@@ -17881,24 +18126,25 @@
       <c r="E122" s="10">
         <v>120.38647342995201</v>
       </c>
-      <c r="F122" s="12">
-        <f t="shared" si="9"/>
+      <c r="F122" s="10"/>
+      <c r="G122">
+        <f t="shared" si="5"/>
         <v>140.97423510466999</v>
       </c>
-      <c r="G122" s="12">
-        <f t="shared" si="10"/>
+      <c r="H122">
+        <f t="shared" si="6"/>
         <v>20.43988634937406</v>
       </c>
-      <c r="H122" s="13">
-        <f t="shared" si="11"/>
+      <c r="I122" s="12">
+        <f t="shared" si="7"/>
         <v>0.14499022700281322</v>
       </c>
-      <c r="I122" t="s">
+      <c r="J122" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A123" s="15" t="s">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A123" s="14" t="s">
         <v>156</v>
       </c>
       <c r="B123" t="s">
@@ -17913,24 +18159,25 @@
       <c r="E123" s="10">
         <v>112.21014492753601</v>
       </c>
-      <c r="F123" s="12">
-        <f t="shared" ref="F123:F154" si="12">AVERAGE(C123:E123)</f>
+      <c r="F123" s="10"/>
+      <c r="G123">
+        <f t="shared" si="5"/>
         <v>143.14009661835735</v>
       </c>
-      <c r="G123" s="12">
-        <f t="shared" ref="G123:G154" si="13">_xlfn.STDEV.P(C123:E123)</f>
+      <c r="H123">
+        <f t="shared" si="6"/>
         <v>27.303496718258462</v>
       </c>
-      <c r="H123" s="13">
-        <f t="shared" si="11"/>
+      <c r="I123" s="12">
+        <f t="shared" si="7"/>
         <v>0.19074666961456319</v>
       </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A124" s="15" t="s">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A124" s="14" t="s">
         <v>157</v>
       </c>
       <c r="B124" t="s">
@@ -17945,24 +18192,25 @@
       <c r="E124" s="10">
         <v>110.47833795868</v>
       </c>
-      <c r="F124" s="12">
-        <f t="shared" si="12"/>
+      <c r="F124" s="10"/>
+      <c r="G124">
+        <f t="shared" si="5"/>
         <v>138.28695138246468</v>
       </c>
-      <c r="G124" s="12">
-        <f t="shared" si="13"/>
+      <c r="H124">
+        <f t="shared" si="6"/>
         <v>23.323496493846122</v>
       </c>
-      <c r="H124" s="13">
-        <f t="shared" si="11"/>
+      <c r="I124" s="12">
+        <f t="shared" si="7"/>
         <v>0.16866013937453561</v>
       </c>
-      <c r="I124" t="s">
+      <c r="J124" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A125" s="15" t="s">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A125" s="14" t="s">
         <v>158</v>
       </c>
       <c r="B125" t="s">
@@ -17977,24 +18225,25 @@
       <c r="E125" s="10">
         <v>118.792517006803</v>
       </c>
-      <c r="F125" s="12">
-        <f t="shared" si="12"/>
+      <c r="F125" s="10"/>
+      <c r="G125">
+        <f t="shared" si="5"/>
         <v>142.52960443436666</v>
       </c>
-      <c r="G125" s="12">
-        <f t="shared" si="13"/>
+      <c r="H125">
+        <f t="shared" si="6"/>
         <v>20.814858896100482</v>
       </c>
-      <c r="H125" s="13">
-        <f t="shared" si="11"/>
+      <c r="I125" s="12">
+        <f t="shared" si="7"/>
         <v>0.14603884560477748</v>
       </c>
-      <c r="I125" t="s">
+      <c r="J125" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A126" s="15" t="s">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A126" s="14" t="s">
         <v>159</v>
       </c>
       <c r="B126" t="s">
@@ -18009,24 +18258,25 @@
       <c r="E126" s="10">
         <v>156.944444444444</v>
       </c>
-      <c r="F126" s="12">
-        <f t="shared" si="12"/>
+      <c r="F126" s="10"/>
+      <c r="G126">
+        <f t="shared" si="5"/>
         <v>168.44873859366601</v>
       </c>
-      <c r="G126" s="12">
-        <f t="shared" si="13"/>
+      <c r="H126">
+        <f t="shared" si="6"/>
         <v>18.268944850179224</v>
       </c>
-      <c r="H126" s="13">
-        <f t="shared" si="11"/>
+      <c r="I126" s="12">
+        <f t="shared" si="7"/>
         <v>0.10845403178855369</v>
       </c>
-      <c r="I126" t="s">
+      <c r="J126" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A127" s="15" t="s">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A127" s="14" t="s">
         <v>160</v>
       </c>
       <c r="B127" t="s">
@@ -18041,24 +18291,25 @@
       <c r="E127" s="10">
         <v>196.111111111111</v>
       </c>
-      <c r="F127" s="12">
-        <f t="shared" si="12"/>
+      <c r="F127" s="10"/>
+      <c r="G127">
+        <f t="shared" si="5"/>
         <v>222.74020397208801</v>
       </c>
-      <c r="G127" s="12">
-        <f t="shared" si="13"/>
+      <c r="H127">
+        <f t="shared" si="6"/>
         <v>21.670881910998638</v>
       </c>
-      <c r="H127" s="13">
-        <f t="shared" si="11"/>
+      <c r="I127" s="12">
+        <f t="shared" si="7"/>
         <v>9.729218849828411E-2</v>
       </c>
-      <c r="I127" t="s">
+      <c r="J127" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A128" s="15" t="s">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A128" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B128" t="s">
@@ -18073,24 +18324,25 @@
       <c r="E128" s="10">
         <v>163.70370370370401</v>
       </c>
-      <c r="F128" s="12">
-        <f t="shared" si="12"/>
+      <c r="F128" s="10"/>
+      <c r="G128">
+        <f t="shared" si="5"/>
         <v>177.99986580783698</v>
       </c>
-      <c r="G128" s="12">
-        <f t="shared" si="13"/>
+      <c r="H128">
+        <f t="shared" si="6"/>
         <v>22.345721420800277</v>
       </c>
-      <c r="H128" s="13">
-        <f t="shared" si="11"/>
+      <c r="I128" s="12">
+        <f t="shared" si="7"/>
         <v>0.12553785543256538</v>
       </c>
-      <c r="I128" t="s">
+      <c r="J128" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A129" s="15" t="s">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A129" s="14" t="s">
         <v>162</v>
       </c>
       <c r="B129" t="s">
@@ -18105,23 +18357,24 @@
       <c r="E129" s="10">
         <v>147.40740740740699</v>
       </c>
-      <c r="F129" s="12">
-        <f t="shared" si="12"/>
+      <c r="F129" s="10"/>
+      <c r="G129">
+        <f t="shared" si="5"/>
         <v>166.08024691358</v>
       </c>
-      <c r="G129" s="12">
-        <f t="shared" si="13"/>
+      <c r="H129">
+        <f t="shared" si="6"/>
         <v>17.729218231172808</v>
       </c>
-      <c r="H129" s="13">
-        <f t="shared" si="11"/>
+      <c r="I129" s="12">
+        <f t="shared" si="7"/>
         <v>0.10675091445642071</v>
       </c>
-      <c r="I129" t="s">
+      <c r="J129" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>163</v>
       </c>
@@ -18137,24 +18390,25 @@
       <c r="E130" s="10">
         <v>18.735215130452001</v>
       </c>
-      <c r="F130" s="8">
-        <f t="shared" si="12"/>
+      <c r="F130" s="10"/>
+      <c r="G130">
+        <f t="shared" si="5"/>
         <v>17.9353752457213</v>
       </c>
-      <c r="G130" s="8">
-        <f t="shared" si="13"/>
+      <c r="H130">
+        <f t="shared" si="6"/>
         <v>0.70178954691852624</v>
       </c>
-      <c r="H130" s="11">
-        <f t="shared" ref="H130:H161" si="14">G130/F130</f>
+      <c r="I130" s="11">
+        <f t="shared" ref="I130:I161" si="8">H130/G130</f>
         <v>3.9128790856268622E-2</v>
       </c>
-      <c r="I130" t="s">
+      <c r="J130" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A131" s="15" t="s">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A131" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B131" t="s">
@@ -18169,24 +18423,25 @@
       <c r="E131" s="10">
         <v>137.777777777778</v>
       </c>
-      <c r="F131" s="12">
-        <f t="shared" si="12"/>
+      <c r="F131" s="10"/>
+      <c r="G131">
+        <f t="shared" ref="G131:G178" si="9">AVERAGE(C131:F131)</f>
         <v>151.01851851851868</v>
       </c>
-      <c r="G131" s="12">
-        <f t="shared" si="13"/>
+      <c r="H131">
+        <f t="shared" ref="H131:H178" si="10">_xlfn.STDEV.P(C131:F131)</f>
         <v>16.674038150357973</v>
       </c>
-      <c r="H131" s="13">
-        <f t="shared" si="14"/>
+      <c r="I131" s="12">
+        <f t="shared" si="8"/>
         <v>0.11041055304958057</v>
       </c>
-      <c r="I131" t="s">
+      <c r="J131" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A132" s="15" t="s">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A132" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B132" t="s">
@@ -18201,23 +18456,24 @@
       <c r="E132" s="10">
         <v>138.28703703703701</v>
       </c>
-      <c r="F132" s="12">
-        <f t="shared" si="12"/>
+      <c r="F132" s="10"/>
+      <c r="G132">
+        <f t="shared" si="9"/>
         <v>154.28542673107899</v>
       </c>
-      <c r="G132" s="12">
-        <f t="shared" si="13"/>
+      <c r="H132">
+        <f t="shared" si="10"/>
         <v>14.580499139853934</v>
       </c>
-      <c r="H132" s="13">
-        <f t="shared" si="14"/>
+      <c r="I132" s="12">
+        <f t="shared" si="8"/>
         <v>9.4503411299291976E-2</v>
       </c>
-      <c r="I132" t="s">
+      <c r="J132" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>166</v>
       </c>
@@ -18233,23 +18489,24 @@
       <c r="E133" s="10">
         <v>12.4872525408</v>
       </c>
-      <c r="F133" s="8">
-        <f t="shared" si="12"/>
+      <c r="F133" s="10"/>
+      <c r="G133">
+        <f t="shared" si="9"/>
         <v>12.098520072763696</v>
       </c>
-      <c r="G133" s="8">
-        <f t="shared" si="13"/>
+      <c r="H133">
+        <f t="shared" si="10"/>
         <v>2.4748776057144819</v>
       </c>
-      <c r="H133" s="11">
-        <f t="shared" si="14"/>
+      <c r="I133" s="11">
+        <f t="shared" si="8"/>
         <v>0.20456035869097328</v>
       </c>
-      <c r="I133" t="s">
+      <c r="J133" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>167</v>
       </c>
@@ -18265,23 +18522,24 @@
       <c r="E134" s="10">
         <v>25.3105258738766</v>
       </c>
-      <c r="F134" s="8">
-        <f t="shared" si="12"/>
+      <c r="F134" s="10"/>
+      <c r="G134">
+        <f t="shared" si="9"/>
         <v>24.926472974699298</v>
       </c>
-      <c r="G134" s="8">
-        <f t="shared" si="13"/>
+      <c r="H134">
+        <f t="shared" si="10"/>
         <v>0.5967925872320744</v>
       </c>
-      <c r="H134" s="11">
-        <f t="shared" si="14"/>
+      <c r="I134" s="11">
+        <f t="shared" si="8"/>
         <v>2.3942119201454087E-2</v>
       </c>
-      <c r="I134" t="s">
+      <c r="J134" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>168</v>
       </c>
@@ -18297,23 +18555,24 @@
       <c r="E135" s="10">
         <v>11.197136856498</v>
       </c>
-      <c r="F135" s="8">
-        <f t="shared" si="12"/>
+      <c r="F135" s="10"/>
+      <c r="G135">
+        <f t="shared" si="9"/>
         <v>11.763832113587801</v>
       </c>
-      <c r="G135" s="8">
-        <f t="shared" si="13"/>
+      <c r="H135">
+        <f t="shared" si="10"/>
         <v>1.0297397879475056</v>
       </c>
-      <c r="H135" s="11">
-        <f t="shared" si="14"/>
+      <c r="I135" s="11">
+        <f t="shared" si="8"/>
         <v>8.7534383184379672E-2</v>
       </c>
-      <c r="I135" t="s">
+      <c r="J135" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>169</v>
       </c>
@@ -18329,23 +18588,24 @@
       <c r="E136" s="10">
         <v>9.6026487579800008</v>
       </c>
-      <c r="F136" s="8">
-        <f t="shared" si="12"/>
+      <c r="F136" s="10"/>
+      <c r="G136">
+        <f t="shared" si="9"/>
         <v>6.2364563386574545</v>
       </c>
-      <c r="G136" s="8">
-        <f t="shared" si="13"/>
+      <c r="H136">
+        <f t="shared" si="10"/>
         <v>3.8584286466797879</v>
       </c>
-      <c r="H136" s="11">
-        <f t="shared" si="14"/>
+      <c r="I136" s="11">
+        <f t="shared" si="8"/>
         <v>0.61868927435005605</v>
       </c>
-      <c r="I136" t="s">
+      <c r="J136" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>170</v>
       </c>
@@ -18361,23 +18621,24 @@
       <c r="E137" s="10">
         <v>4.7606863315020496</v>
       </c>
-      <c r="F137" s="8">
-        <f t="shared" si="12"/>
+      <c r="F137" s="10"/>
+      <c r="G137">
+        <f t="shared" si="9"/>
         <v>5.5239679140411937</v>
       </c>
-      <c r="G137" s="8">
-        <f t="shared" si="13"/>
+      <c r="H137">
+        <f t="shared" si="10"/>
         <v>3.2756729322826676</v>
       </c>
-      <c r="H137" s="11">
-        <f t="shared" si="14"/>
+      <c r="I137" s="11">
+        <f t="shared" si="8"/>
         <v>0.59299275145250963</v>
       </c>
-      <c r="I137" t="s">
+      <c r="J137" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>171</v>
       </c>
@@ -18393,23 +18654,24 @@
       <c r="E138" s="10">
         <v>42.584558382444698</v>
       </c>
-      <c r="F138" s="8">
-        <f t="shared" si="12"/>
+      <c r="F138" s="10"/>
+      <c r="G138">
+        <f t="shared" si="9"/>
         <v>42.406487850311862</v>
       </c>
-      <c r="G138" s="8">
-        <f t="shared" si="13"/>
+      <c r="H138">
+        <f t="shared" si="10"/>
         <v>0.44086958980801505</v>
       </c>
-      <c r="H138" s="11">
-        <f t="shared" si="14"/>
+      <c r="I138" s="11">
+        <f t="shared" si="8"/>
         <v>1.0396276894333112E-2</v>
       </c>
-      <c r="I138" t="s">
+      <c r="J138" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>172</v>
       </c>
@@ -18425,24 +18687,25 @@
       <c r="E139" s="10">
         <v>61.284186979425101</v>
       </c>
-      <c r="F139" s="8">
-        <f t="shared" si="12"/>
+      <c r="F139" s="10"/>
+      <c r="G139">
+        <f t="shared" si="9"/>
         <v>54.851871287474033</v>
       </c>
-      <c r="G139" s="8">
-        <f t="shared" si="13"/>
+      <c r="H139">
+        <f t="shared" si="10"/>
         <v>5.2237699148308083</v>
       </c>
-      <c r="H139" s="11">
-        <f t="shared" si="14"/>
+      <c r="I139" s="11">
+        <f t="shared" si="8"/>
         <v>9.5234124054828881E-2</v>
       </c>
-      <c r="I139" t="s">
+      <c r="J139" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A140" s="15" t="s">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A140" s="14" t="s">
         <v>173</v>
       </c>
       <c r="B140" t="s">
@@ -18457,23 +18720,24 @@
       <c r="E140" s="10">
         <v>157.18397745571701</v>
       </c>
-      <c r="F140" s="12">
-        <f t="shared" si="12"/>
+      <c r="F140" s="10"/>
+      <c r="G140">
+        <f t="shared" si="9"/>
         <v>168.32058507783168</v>
       </c>
-      <c r="G140" s="12">
-        <f t="shared" si="13"/>
+      <c r="H140">
+        <f t="shared" si="10"/>
         <v>17.925476681330977</v>
       </c>
-      <c r="H140" s="13">
-        <f t="shared" si="14"/>
+      <c r="I140" s="12">
+        <f t="shared" si="8"/>
         <v>0.10649604546610987</v>
       </c>
-      <c r="I140" t="s">
+      <c r="J140" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>174</v>
       </c>
@@ -18489,23 +18753,24 @@
       <c r="E141" s="10">
         <v>12.778585098080001</v>
       </c>
-      <c r="F141" s="8">
-        <f t="shared" si="12"/>
+      <c r="F141" s="10"/>
+      <c r="G141">
+        <f t="shared" si="9"/>
         <v>8.3008234039586259</v>
       </c>
-      <c r="G141" s="8">
-        <f t="shared" si="13"/>
+      <c r="H141">
+        <f t="shared" si="10"/>
         <v>3.320320640221361</v>
       </c>
-      <c r="H141" s="11">
-        <f t="shared" si="14"/>
+      <c r="I141" s="11">
+        <f t="shared" si="8"/>
         <v>0.39999894933771446</v>
       </c>
-      <c r="I141" t="s">
+      <c r="J141" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>175</v>
       </c>
@@ -18521,23 +18786,24 @@
       <c r="E142" s="10">
         <v>6.1302389063803604</v>
       </c>
-      <c r="F142" s="8">
-        <f t="shared" si="12"/>
+      <c r="F142" s="10"/>
+      <c r="G142">
+        <f t="shared" si="9"/>
         <v>8.7589714298898276</v>
       </c>
-      <c r="G142" s="8">
-        <f t="shared" si="13"/>
+      <c r="H142">
+        <f t="shared" si="10"/>
         <v>1.8669019599156651</v>
       </c>
-      <c r="H142" s="11">
-        <f t="shared" si="14"/>
+      <c r="I142" s="11">
+        <f t="shared" si="8"/>
         <v>0.21314168848009901</v>
       </c>
-      <c r="I142" t="s">
+      <c r="J142" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>176</v>
       </c>
@@ -18553,23 +18819,24 @@
       <c r="E143" s="10">
         <v>3.9872387391550799</v>
       </c>
-      <c r="F143" s="8">
-        <f t="shared" si="12"/>
+      <c r="F143" s="10"/>
+      <c r="G143">
+        <f t="shared" si="9"/>
         <v>5.7795831952248875</v>
       </c>
-      <c r="G143" s="8">
-        <f t="shared" si="13"/>
+      <c r="H143">
+        <f t="shared" si="10"/>
         <v>1.2673800425040533</v>
       </c>
-      <c r="H143" s="11">
-        <f t="shared" si="14"/>
+      <c r="I143" s="11">
+        <f t="shared" si="8"/>
         <v>0.21928571658094087</v>
       </c>
-      <c r="I143" t="s">
+      <c r="J143" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>177</v>
       </c>
@@ -18585,23 +18852,24 @@
       <c r="E144" s="10">
         <v>6.08393613684449</v>
       </c>
-      <c r="F144" s="8">
-        <f t="shared" si="12"/>
+      <c r="F144" s="10"/>
+      <c r="G144">
+        <f t="shared" si="9"/>
         <v>6.4601792369234161</v>
       </c>
-      <c r="G144" s="8">
-        <f t="shared" si="13"/>
+      <c r="H144">
+        <f t="shared" si="10"/>
         <v>1.2163083628430251</v>
       </c>
-      <c r="H144" s="11">
-        <f t="shared" si="14"/>
+      <c r="I144" s="11">
+        <f t="shared" si="8"/>
         <v>0.18827780441309824</v>
       </c>
-      <c r="I144" t="s">
+      <c r="J144" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>178</v>
       </c>
@@ -18617,23 +18885,24 @@
       <c r="E145" s="10">
         <v>4.9768393001559801</v>
       </c>
-      <c r="F145" s="8">
-        <f t="shared" si="12"/>
+      <c r="F145" s="10"/>
+      <c r="G145">
+        <f t="shared" si="9"/>
         <v>8.3464931480834377</v>
       </c>
-      <c r="G145" s="8">
-        <f t="shared" si="13"/>
+      <c r="H145">
+        <f t="shared" si="10"/>
         <v>2.9807454298696037</v>
       </c>
-      <c r="H145" s="11">
-        <f t="shared" si="14"/>
+      <c r="I145" s="11">
+        <f t="shared" si="8"/>
         <v>0.35712548695424939</v>
       </c>
-      <c r="I145" t="s">
+      <c r="J145" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>179</v>
       </c>
@@ -18649,23 +18918,24 @@
       <c r="E146" s="10">
         <v>6.3531069281981196</v>
       </c>
-      <c r="F146" s="8">
-        <f t="shared" si="12"/>
+      <c r="F146" s="10"/>
+      <c r="G146">
+        <f t="shared" si="9"/>
         <v>5.6586774852099397</v>
       </c>
-      <c r="G146" s="8">
-        <f t="shared" si="13"/>
+      <c r="H146">
+        <f t="shared" si="10"/>
         <v>2.8391256414819663</v>
       </c>
-      <c r="H146" s="11">
-        <f t="shared" si="14"/>
+      <c r="I146" s="11">
+        <f t="shared" si="8"/>
         <v>0.50172953820085642</v>
       </c>
-      <c r="I146" t="s">
+      <c r="J146" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>180</v>
       </c>
@@ -18681,23 +18951,24 @@
       <c r="E147" s="10">
         <v>5.5892327302852403</v>
       </c>
-      <c r="F147" s="8">
-        <f t="shared" si="12"/>
+      <c r="F147" s="10"/>
+      <c r="G147">
+        <f t="shared" si="9"/>
         <v>6.427442643984854</v>
       </c>
-      <c r="G147" s="8">
-        <f t="shared" si="13"/>
+      <c r="H147">
+        <f t="shared" si="10"/>
         <v>0.75147424950728858</v>
       </c>
-      <c r="H147" s="11">
-        <f t="shared" si="14"/>
+      <c r="I147" s="11">
+        <f t="shared" si="8"/>
         <v>0.11691652358976062</v>
       </c>
-      <c r="I147" t="s">
+      <c r="J147" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>181</v>
       </c>
@@ -18713,23 +18984,24 @@
       <c r="E148" s="10">
         <v>30.885629667405102</v>
       </c>
-      <c r="F148" s="8">
-        <f t="shared" si="12"/>
+      <c r="F148" s="10"/>
+      <c r="G148">
+        <f t="shared" si="9"/>
         <v>32.746822184306936</v>
       </c>
-      <c r="G148" s="8">
-        <f t="shared" si="13"/>
+      <c r="H148">
+        <f t="shared" si="10"/>
         <v>1.4506638503487761</v>
       </c>
-      <c r="H148" s="11">
-        <f t="shared" si="14"/>
+      <c r="I148" s="11">
+        <f t="shared" si="8"/>
         <v>4.429937788112976E-2</v>
       </c>
-      <c r="I148" t="s">
+      <c r="J148" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>182</v>
       </c>
@@ -18745,23 +19017,24 @@
       <c r="E149" s="10">
         <v>24.981477248295</v>
       </c>
-      <c r="F149" s="8">
-        <f t="shared" si="12"/>
+      <c r="F149" s="10"/>
+      <c r="G149">
+        <f t="shared" si="9"/>
         <v>25.349995388837403</v>
       </c>
-      <c r="G149" s="8">
-        <f t="shared" si="13"/>
+      <c r="H149">
+        <f t="shared" si="10"/>
         <v>1.3250079792129639</v>
       </c>
-      <c r="H149" s="11">
-        <f t="shared" si="14"/>
+      <c r="I149" s="11">
+        <f t="shared" si="8"/>
         <v>5.2268568845437222E-2</v>
       </c>
-      <c r="I149" t="s">
+      <c r="J149" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>183</v>
       </c>
@@ -18777,23 +19050,24 @@
       <c r="E150" s="10">
         <v>17.479604211041199</v>
       </c>
-      <c r="F150" s="8">
-        <f t="shared" si="12"/>
+      <c r="F150" s="10"/>
+      <c r="G150">
+        <f t="shared" si="9"/>
         <v>18.141373789237168</v>
       </c>
-      <c r="G150" s="8">
-        <f t="shared" si="13"/>
+      <c r="H150">
+        <f t="shared" si="10"/>
         <v>1.5049331227111069</v>
       </c>
-      <c r="H150" s="11">
-        <f t="shared" si="14"/>
+      <c r="I150" s="11">
+        <f t="shared" si="8"/>
         <v>8.2955852197034094E-2</v>
       </c>
-      <c r="I150" t="s">
+      <c r="J150" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>96</v>
       </c>
@@ -18809,23 +19083,24 @@
       <c r="E151" s="10">
         <v>21.550748875055401</v>
       </c>
-      <c r="F151" s="8">
-        <f t="shared" si="12"/>
+      <c r="F151" s="10"/>
+      <c r="G151">
+        <f t="shared" si="9"/>
         <v>23.868746556821634</v>
       </c>
-      <c r="G151" s="8">
-        <f t="shared" si="13"/>
+      <c r="H151">
+        <f t="shared" si="10"/>
         <v>1.8700478579090605</v>
       </c>
-      <c r="H151" s="11">
-        <f t="shared" si="14"/>
+      <c r="I151" s="11">
+        <f t="shared" si="8"/>
         <v>7.8347132869220779E-2</v>
       </c>
-      <c r="I151" t="s">
+      <c r="J151" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>97</v>
       </c>
@@ -18841,23 +19116,24 @@
       <c r="E152" s="10">
         <v>16.6837770608205</v>
       </c>
-      <c r="F152" s="8">
-        <f t="shared" si="12"/>
+      <c r="F152" s="10"/>
+      <c r="G152">
+        <f t="shared" si="9"/>
         <v>17.3442792621466</v>
       </c>
-      <c r="G152" s="8">
-        <f t="shared" si="13"/>
+      <c r="H152">
+        <f t="shared" si="10"/>
         <v>0.8667499906826277</v>
       </c>
-      <c r="H152" s="11">
-        <f t="shared" si="14"/>
+      <c r="I152" s="11">
+        <f t="shared" si="8"/>
         <v>4.9973249253100135E-2</v>
       </c>
-      <c r="I152" t="s">
+      <c r="J152" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>98</v>
       </c>
@@ -18873,24 +19149,25 @@
       <c r="E153" s="10">
         <v>37.260497209255398</v>
       </c>
-      <c r="F153" s="8">
-        <f t="shared" si="12"/>
+      <c r="F153" s="10"/>
+      <c r="G153">
+        <f t="shared" si="9"/>
         <v>34.101430245540001</v>
       </c>
-      <c r="G153" s="8">
-        <f t="shared" si="13"/>
+      <c r="H153">
+        <f t="shared" si="10"/>
         <v>2.23404667374612</v>
       </c>
-      <c r="H153" s="11">
-        <f t="shared" si="14"/>
+      <c r="I153" s="11">
+        <f t="shared" si="8"/>
         <v>6.5511817471007761E-2</v>
       </c>
-      <c r="I153" t="s">
+      <c r="J153" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A154" s="15" t="s">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A154" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B154" t="s">
@@ -18905,23 +19182,24 @@
       <c r="E154" s="10">
         <v>137.952898550725</v>
       </c>
-      <c r="F154" s="12">
-        <f t="shared" si="12"/>
+      <c r="F154" s="10"/>
+      <c r="G154">
+        <f t="shared" si="9"/>
         <v>153.89492753623199</v>
       </c>
-      <c r="G154" s="12">
-        <f t="shared" si="13"/>
+      <c r="H154">
+        <f t="shared" si="10"/>
         <v>15.256341054756252</v>
       </c>
-      <c r="H154" s="13">
-        <f t="shared" si="14"/>
+      <c r="I154" s="12">
+        <f t="shared" si="8"/>
         <v>9.9134788254566744E-2</v>
       </c>
-      <c r="I154" t="s">
+      <c r="J154" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>100</v>
       </c>
@@ -18937,23 +19215,24 @@
       <c r="E155" s="10">
         <v>8.5452790296236394</v>
       </c>
-      <c r="F155" s="8">
-        <f t="shared" ref="F155:F178" si="15">AVERAGE(C155:E155)</f>
+      <c r="F155" s="10"/>
+      <c r="G155">
+        <f t="shared" si="9"/>
         <v>9.7692930953545591</v>
       </c>
-      <c r="G155" s="8">
-        <f t="shared" ref="G155:G178" si="16">_xlfn.STDEV.P(C155:E155)</f>
+      <c r="H155">
+        <f t="shared" si="10"/>
         <v>2.9962163590068829</v>
       </c>
-      <c r="H155" s="11">
-        <f t="shared" si="14"/>
+      <c r="I155" s="11">
+        <f t="shared" si="8"/>
         <v>0.30669735565940048</v>
       </c>
-      <c r="I155" t="s">
+      <c r="J155" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>101</v>
       </c>
@@ -18969,23 +19248,24 @@
       <c r="E156" s="10">
         <v>17.937976797804499</v>
       </c>
-      <c r="F156" s="8">
-        <f t="shared" si="15"/>
+      <c r="F156" s="10"/>
+      <c r="G156">
+        <f t="shared" si="9"/>
         <v>18.554495759732532</v>
       </c>
-      <c r="G156" s="8">
-        <f t="shared" si="16"/>
+      <c r="H156">
+        <f t="shared" si="10"/>
         <v>0.51505109057371057</v>
       </c>
-      <c r="H156" s="11">
-        <f t="shared" si="14"/>
+      <c r="I156" s="11">
+        <f t="shared" si="8"/>
         <v>2.7758829840662573E-2</v>
       </c>
-      <c r="I156" t="s">
+      <c r="J156" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>102</v>
       </c>
@@ -19001,23 +19281,24 @@
       <c r="E157" s="10">
         <v>11.302414542655701</v>
       </c>
-      <c r="F157" s="8">
-        <f t="shared" si="15"/>
+      <c r="F157" s="10"/>
+      <c r="G157">
+        <f t="shared" si="9"/>
         <v>8.8012579216006781</v>
       </c>
-      <c r="G157" s="8">
-        <f t="shared" si="16"/>
+      <c r="H157">
+        <f t="shared" si="10"/>
         <v>2.1727382152639021</v>
       </c>
-      <c r="H157" s="11">
-        <f t="shared" si="14"/>
+      <c r="I157" s="11">
+        <f t="shared" si="8"/>
         <v>0.24686678138717105</v>
       </c>
-      <c r="I157" t="s">
+      <c r="J157" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>103</v>
       </c>
@@ -19033,23 +19314,24 @@
       <c r="E158" s="10">
         <v>29.481336926448201</v>
       </c>
-      <c r="F158" s="8">
-        <f t="shared" si="15"/>
+      <c r="F158" s="10"/>
+      <c r="G158">
+        <f t="shared" si="9"/>
         <v>30.886721076742834</v>
       </c>
-      <c r="G158" s="8">
-        <f t="shared" si="16"/>
+      <c r="H158">
+        <f t="shared" si="10"/>
         <v>1.9061097922690926</v>
       </c>
-      <c r="H158" s="11">
-        <f t="shared" si="14"/>
+      <c r="I158" s="11">
+        <f t="shared" si="8"/>
         <v>6.1712921469814427E-2</v>
       </c>
-      <c r="I158" t="s">
+      <c r="J158" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>104</v>
       </c>
@@ -19065,23 +19347,24 @@
       <c r="E159" s="10">
         <v>12.3462986423805</v>
       </c>
-      <c r="F159" s="8">
-        <f t="shared" si="15"/>
+      <c r="F159" s="10"/>
+      <c r="G159">
+        <f t="shared" si="9"/>
         <v>11.867361121928283</v>
       </c>
-      <c r="G159" s="8">
-        <f t="shared" si="16"/>
+      <c r="H159">
+        <f t="shared" si="10"/>
         <v>1.9413417484395468</v>
       </c>
-      <c r="H159" s="11">
-        <f t="shared" si="14"/>
+      <c r="I159" s="11">
+        <f t="shared" si="8"/>
         <v>0.16358664141873736</v>
       </c>
-      <c r="I159" t="s">
+      <c r="J159" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>105</v>
       </c>
@@ -19097,23 +19380,24 @@
       <c r="E160" s="10">
         <v>30.743758113195501</v>
       </c>
-      <c r="F160" s="8">
-        <f t="shared" si="15"/>
+      <c r="F160" s="10"/>
+      <c r="G160">
+        <f t="shared" si="9"/>
         <v>35.678729882178132</v>
       </c>
-      <c r="G160" s="8">
-        <f t="shared" si="16"/>
+      <c r="H160">
+        <f t="shared" si="10"/>
         <v>3.5401825704095962</v>
       </c>
-      <c r="H160" s="11">
-        <f t="shared" si="14"/>
+      <c r="I160" s="11">
+        <f t="shared" si="8"/>
         <v>9.9223895640353249E-2</v>
       </c>
-      <c r="I160" t="s">
+      <c r="J160" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>106</v>
       </c>
@@ -19129,23 +19413,24 @@
       <c r="E161" s="10">
         <v>15.6213419757535</v>
       </c>
-      <c r="F161" s="8">
-        <f t="shared" si="15"/>
+      <c r="F161" s="10"/>
+      <c r="G161">
+        <f t="shared" si="9"/>
         <v>17.525054268894568</v>
       </c>
-      <c r="G161" s="8">
-        <f t="shared" si="16"/>
+      <c r="H161">
+        <f t="shared" si="10"/>
         <v>1.3467453001412995</v>
       </c>
-      <c r="H161" s="11">
-        <f t="shared" si="14"/>
+      <c r="I161" s="11">
+        <f t="shared" si="8"/>
         <v>7.6846854764475919E-2</v>
       </c>
-      <c r="I161" t="s">
+      <c r="J161" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>107</v>
       </c>
@@ -19161,23 +19446,24 @@
       <c r="E162" s="10">
         <v>16.491394650730001</v>
       </c>
-      <c r="F162" s="8">
-        <f t="shared" si="15"/>
+      <c r="F162" s="10"/>
+      <c r="G162">
+        <f t="shared" si="9"/>
         <v>17.354002372198934</v>
       </c>
-      <c r="G162" s="8">
-        <f t="shared" si="16"/>
+      <c r="H162">
+        <f t="shared" si="10"/>
         <v>0.75896121002842498</v>
       </c>
-      <c r="H162" s="11">
-        <f t="shared" ref="H162:H178" si="17">G162/F162</f>
+      <c r="I162" s="11">
+        <f t="shared" ref="I162:I178" si="11">H162/G162</f>
         <v>4.3734073198254189E-2</v>
       </c>
-      <c r="I162" t="s">
+      <c r="J162" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>108</v>
       </c>
@@ -19193,23 +19479,24 @@
       <c r="E163" s="10">
         <v>22.6831942884134</v>
       </c>
-      <c r="F163" s="8">
-        <f t="shared" si="15"/>
+      <c r="F163" s="10"/>
+      <c r="G163">
+        <f t="shared" si="9"/>
         <v>22.768179465059635</v>
       </c>
-      <c r="G163" s="8">
-        <f t="shared" si="16"/>
+      <c r="H163">
+        <f t="shared" si="10"/>
         <v>7.4605573725537652E-2</v>
       </c>
-      <c r="H163" s="11">
-        <f t="shared" si="17"/>
+      <c r="I163" s="11">
+        <f t="shared" si="11"/>
         <v>3.2767474378014457E-3</v>
       </c>
-      <c r="I163" t="s">
+      <c r="J163" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>109</v>
       </c>
@@ -19225,24 +19512,25 @@
       <c r="E164" s="10">
         <v>21.011195654297001</v>
       </c>
-      <c r="F164" s="8">
-        <f t="shared" si="15"/>
+      <c r="F164" s="10"/>
+      <c r="G164">
+        <f t="shared" si="9"/>
         <v>19.218269064439934</v>
       </c>
-      <c r="G164" s="8">
-        <f t="shared" si="16"/>
+      <c r="H164">
+        <f t="shared" si="10"/>
         <v>1.347754250918602</v>
       </c>
-      <c r="H164" s="11">
-        <f t="shared" si="17"/>
+      <c r="I164" s="11">
+        <f t="shared" si="11"/>
         <v>7.0128805377815587E-2</v>
       </c>
-      <c r="I164" t="s">
+      <c r="J164" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A165" s="15" t="s">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A165" s="14" t="s">
         <v>110</v>
       </c>
       <c r="B165" t="s">
@@ -19257,23 +19545,24 @@
       <c r="E165" s="10">
         <v>144.655797101449</v>
       </c>
-      <c r="F165" s="12">
-        <f t="shared" si="15"/>
+      <c r="F165" s="10"/>
+      <c r="G165">
+        <f t="shared" si="9"/>
         <v>158.133544043581</v>
       </c>
-      <c r="G165" s="12">
-        <f t="shared" si="16"/>
+      <c r="H165">
+        <f t="shared" si="10"/>
         <v>15.670235879747452</v>
       </c>
-      <c r="H165" s="13">
-        <f t="shared" si="17"/>
+      <c r="I165" s="12">
+        <f t="shared" si="11"/>
         <v>9.9094951514074672E-2</v>
       </c>
-      <c r="I165" t="s">
+      <c r="J165" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>111</v>
       </c>
@@ -19289,24 +19578,25 @@
       <c r="E166" s="10">
         <v>14.386838444729699</v>
       </c>
-      <c r="F166" s="8">
-        <f t="shared" si="15"/>
+      <c r="F166" s="10"/>
+      <c r="G166">
+        <f t="shared" si="9"/>
         <v>14.835455810456834</v>
       </c>
-      <c r="G166" s="8">
-        <f t="shared" si="16"/>
+      <c r="H166">
+        <f t="shared" si="10"/>
         <v>0.31744674737713491</v>
       </c>
-      <c r="H166" s="11">
-        <f t="shared" si="17"/>
+      <c r="I166" s="11">
+        <f t="shared" si="11"/>
         <v>2.1397842535676E-2</v>
       </c>
-      <c r="I166" t="s">
+      <c r="J166" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A167" s="15" t="s">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A167" s="14" t="s">
         <v>112</v>
       </c>
       <c r="B167" t="s">
@@ -19321,23 +19611,24 @@
       <c r="E167" s="10">
         <v>159.05797101449301</v>
       </c>
-      <c r="F167" s="12">
-        <f t="shared" si="15"/>
+      <c r="F167" s="10"/>
+      <c r="G167">
+        <f t="shared" si="9"/>
         <v>164.81010381334167</v>
       </c>
-      <c r="G167" s="12">
-        <f t="shared" si="16"/>
+      <c r="H167">
+        <f t="shared" si="10"/>
         <v>6.8706934839678295</v>
       </c>
-      <c r="H167" s="13">
-        <f t="shared" si="17"/>
+      <c r="I167" s="12">
+        <f t="shared" si="11"/>
         <v>4.1688545331840479E-2</v>
       </c>
-      <c r="I167" t="s">
+      <c r="J167" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>113</v>
       </c>
@@ -19353,24 +19644,25 @@
       <c r="E168" s="10">
         <v>22.465222655281099</v>
       </c>
-      <c r="F168" s="8">
-        <f t="shared" si="15"/>
+      <c r="F168" s="10"/>
+      <c r="G168">
+        <f t="shared" si="9"/>
         <v>21.074682354896229</v>
       </c>
-      <c r="G168" s="8">
-        <f t="shared" si="16"/>
+      <c r="H168">
+        <f t="shared" si="10"/>
         <v>1.2487606314942454</v>
       </c>
-      <c r="H168" s="11">
-        <f t="shared" si="17"/>
+      <c r="I168" s="11">
+        <f t="shared" si="11"/>
         <v>5.9254066584027251E-2</v>
       </c>
-      <c r="I168" t="s">
+      <c r="J168" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A169" s="15" t="s">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A169" s="14" t="s">
         <v>114</v>
       </c>
       <c r="B169" t="s">
@@ -19385,23 +19677,24 @@
       <c r="E169" s="10">
         <v>133.15217391304401</v>
       </c>
-      <c r="F169" s="12">
-        <f t="shared" si="15"/>
+      <c r="F169" s="10"/>
+      <c r="G169">
+        <f t="shared" si="9"/>
         <v>152.27187332259834</v>
       </c>
-      <c r="G169" s="12">
-        <f t="shared" si="16"/>
+      <c r="H169">
+        <f t="shared" si="10"/>
         <v>18.231268370011271</v>
       </c>
-      <c r="H169" s="13">
-        <f t="shared" si="17"/>
+      <c r="I169" s="12">
+        <f t="shared" si="11"/>
         <v>0.11972840401974361</v>
       </c>
-      <c r="I169" t="s">
+      <c r="J169" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>115</v>
       </c>
@@ -19417,23 +19710,24 @@
       <c r="E170" s="10">
         <v>30.0678983018156</v>
       </c>
-      <c r="F170" s="8">
-        <f t="shared" si="15"/>
+      <c r="F170" s="10"/>
+      <c r="G170">
+        <f t="shared" si="9"/>
         <v>31.565529677918803</v>
       </c>
-      <c r="G170" s="8">
-        <f t="shared" si="16"/>
+      <c r="H170">
+        <f t="shared" si="10"/>
         <v>1.2578853019832938</v>
       </c>
-      <c r="H170" s="11">
-        <f t="shared" si="17"/>
+      <c r="I170" s="11">
+        <f t="shared" si="11"/>
         <v>3.9849966555867075E-2</v>
       </c>
-      <c r="I170" t="s">
+      <c r="J170" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>116</v>
       </c>
@@ -19449,23 +19743,24 @@
       <c r="E171" s="10">
         <v>12.841600111170701</v>
       </c>
-      <c r="F171" s="8">
-        <f t="shared" si="15"/>
+      <c r="F171" s="10"/>
+      <c r="G171">
+        <f t="shared" si="9"/>
         <v>14.732158495904132</v>
       </c>
-      <c r="G171" s="8">
-        <f t="shared" si="16"/>
+      <c r="H171">
+        <f t="shared" si="10"/>
         <v>1.3514886554144694</v>
       </c>
-      <c r="H171" s="11">
-        <f t="shared" si="17"/>
+      <c r="I171" s="11">
+        <f t="shared" si="11"/>
         <v>9.1737314378623702E-2</v>
       </c>
-      <c r="I171" t="s">
+      <c r="J171" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>117</v>
       </c>
@@ -19481,23 +19776,24 @@
       <c r="E172" s="10">
         <v>21.9406602177351</v>
       </c>
-      <c r="F172" s="8">
-        <f t="shared" si="15"/>
+      <c r="F172" s="10"/>
+      <c r="G172">
+        <f t="shared" si="9"/>
         <v>26.166945453428436</v>
       </c>
-      <c r="G172" s="8">
-        <f t="shared" si="16"/>
+      <c r="H172">
+        <f t="shared" si="10"/>
         <v>3.4618057796778205</v>
       </c>
-      <c r="H172" s="11">
-        <f t="shared" si="17"/>
+      <c r="I172" s="11">
+        <f t="shared" si="11"/>
         <v>0.13229690052433113</v>
       </c>
-      <c r="I172" t="s">
+      <c r="J172" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>118</v>
       </c>
@@ -19513,23 +19809,24 @@
       <c r="E173" s="10">
         <v>15.3244907937877</v>
       </c>
-      <c r="F173" s="8">
-        <f t="shared" si="15"/>
+      <c r="F173" s="10"/>
+      <c r="G173">
+        <f t="shared" si="9"/>
         <v>16.652406594370564</v>
       </c>
-      <c r="G173" s="8">
-        <f t="shared" si="16"/>
+      <c r="H173">
+        <f t="shared" si="10"/>
         <v>0.94854149746010141</v>
       </c>
-      <c r="H173" s="11">
-        <f t="shared" si="17"/>
+      <c r="I173" s="11">
+        <f t="shared" si="11"/>
         <v>5.696122611975863E-2</v>
       </c>
-      <c r="I173" t="s">
+      <c r="J173" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>119</v>
       </c>
@@ -19545,23 +19842,24 @@
       <c r="E174" s="10">
         <v>48.6683443476077</v>
       </c>
-      <c r="F174" s="8">
-        <f t="shared" si="15"/>
+      <c r="F174" s="10"/>
+      <c r="G174">
+        <f t="shared" si="9"/>
         <v>46.109290348969466</v>
       </c>
-      <c r="G174" s="8">
-        <f t="shared" si="16"/>
+      <c r="H174">
+        <f t="shared" si="10"/>
         <v>2.1850415759889743</v>
       </c>
-      <c r="H174" s="11">
-        <f t="shared" si="17"/>
+      <c r="I174" s="11">
+        <f t="shared" si="11"/>
         <v>4.7388315010964153E-2</v>
       </c>
-      <c r="I174" t="s">
+      <c r="J174" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>120</v>
       </c>
@@ -19577,23 +19875,24 @@
       <c r="E175" s="10">
         <v>24.805073212836199</v>
       </c>
-      <c r="F175" s="8">
-        <f t="shared" si="15"/>
+      <c r="F175" s="10"/>
+      <c r="G175">
+        <f t="shared" si="9"/>
         <v>26.184307699953802</v>
       </c>
-      <c r="G175" s="8">
-        <f t="shared" si="16"/>
+      <c r="H175">
+        <f t="shared" si="10"/>
         <v>1.4132479812142704</v>
       </c>
-      <c r="H175" s="11">
-        <f t="shared" si="17"/>
+      <c r="I175" s="11">
+        <f t="shared" si="11"/>
         <v>5.397308943236883E-2</v>
       </c>
-      <c r="I175" t="s">
+      <c r="J175" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>121</v>
       </c>
@@ -19609,23 +19908,24 @@
       <c r="E176" s="10">
         <v>18.952508911837199</v>
       </c>
-      <c r="F176" s="8">
-        <f t="shared" si="15"/>
+      <c r="F176" s="10"/>
+      <c r="G176">
+        <f t="shared" si="9"/>
         <v>19.470232726221166</v>
       </c>
-      <c r="G176" s="8">
-        <f t="shared" si="16"/>
+      <c r="H176">
+        <f t="shared" si="10"/>
         <v>0.49192270061862337</v>
       </c>
-      <c r="H176" s="11">
-        <f t="shared" si="17"/>
+      <c r="I176" s="11">
+        <f t="shared" si="11"/>
         <v>2.526537343111137E-2</v>
       </c>
-      <c r="I176" t="s">
+      <c r="J176" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>122</v>
       </c>
@@ -19641,23 +19941,24 @@
       <c r="E177" s="10">
         <v>18.998272140959202</v>
       </c>
-      <c r="F177" s="8">
-        <f t="shared" si="15"/>
+      <c r="F177" s="10"/>
+      <c r="G177">
+        <f t="shared" si="9"/>
         <v>18.636131114644069</v>
       </c>
-      <c r="G177" s="8">
-        <f t="shared" si="16"/>
+      <c r="H177">
+        <f t="shared" si="10"/>
         <v>1.1810257108490159</v>
       </c>
-      <c r="H177" s="11">
-        <f t="shared" si="17"/>
+      <c r="I177" s="11">
+        <f t="shared" si="11"/>
         <v>6.3372902003301465E-2</v>
       </c>
-      <c r="I177" t="s">
+      <c r="J177" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>123</v>
       </c>
@@ -19673,43 +19974,46 @@
       <c r="E178" s="10">
         <v>20.3868681042213</v>
       </c>
-      <c r="F178" s="8">
-        <f t="shared" si="15"/>
+      <c r="F178" s="10"/>
+      <c r="G178">
+        <f t="shared" si="9"/>
         <v>20.534437657695936</v>
       </c>
-      <c r="G178" s="8">
-        <f t="shared" si="16"/>
+      <c r="H178">
+        <f t="shared" si="10"/>
         <v>0.34181402720053022</v>
       </c>
-      <c r="H178" s="11">
-        <f t="shared" si="17"/>
+      <c r="I178" s="11">
+        <f t="shared" si="11"/>
         <v>1.6645891789124526E-2</v>
       </c>
-      <c r="I178" t="s">
+      <c r="J178" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" s="8"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
       <c r="E179" s="10"/>
-      <c r="F179" s="8"/>
+      <c r="F179" s="10"/>
       <c r="G179" s="8"/>
-      <c r="H179" s="11"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A180" s="16"/>
-      <c r="C180" s="17"/>
-      <c r="D180" s="17"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="16"/>
-      <c r="G180" s="16"/>
-      <c r="H180" s="19"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="11"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A180" s="15"/>
+      <c r="C180" s="16"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="17"/>
+      <c r="G180" s="15"/>
+      <c r="H180" s="15"/>
+      <c r="I180" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/First_round_results/Results - First and Second Plate 3 reps.xlsx
+++ b/data/First_round_results/Results - First and Second Plate 3 reps.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\GitHub\SynbioML\data\First_round_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangmengyan/git/SynbioML/data/First_round_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9EA5C2-FDD3-44AF-97EA-42E707F8BF35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GFPOD" sheetId="1" r:id="rId1"/>
@@ -19,19 +18,19 @@
     <sheet name="3h" sheetId="4" r:id="rId4"/>
     <sheet name="4h" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -1420,7 +1419,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1930,18 +1929,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DJ91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.453125" customWidth="1"/>
-    <col min="2" max="1025" width="8.453125" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="2" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1984,7 +1983,7 @@
       <c r="AL1" s="2"/>
       <c r="AN1" s="2"/>
     </row>
-    <row r="2" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2026,7 +2025,7 @@
       <c r="AK2" s="5"/>
       <c r="AN2" s="4"/>
     </row>
-    <row r="3" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -2137,7 +2136,7 @@
       <c r="DB3" s="6"/>
       <c r="DC3" s="6"/>
     </row>
-    <row r="4" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -2250,7 +2249,7 @@
       <c r="DD4" s="6"/>
       <c r="DE4" s="6"/>
     </row>
-    <row r="5" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2367,7 +2366,7 @@
       <c r="DI5" s="6"/>
       <c r="DJ5" s="6"/>
     </row>
-    <row r="6" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -2409,7 +2408,7 @@
       <c r="AK6" s="5"/>
       <c r="AN6" s="4"/>
     </row>
-    <row r="7" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -2521,7 +2520,7 @@
       <c r="DC7" s="6"/>
       <c r="DD7" s="6"/>
     </row>
-    <row r="8" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -2563,7 +2562,7 @@
       <c r="AK8" s="5"/>
       <c r="AN8" s="4"/>
     </row>
-    <row r="9" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -2605,7 +2604,7 @@
       <c r="AK9" s="5"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -2647,7 +2646,7 @@
       <c r="AK10" s="5"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -2689,7 +2688,7 @@
       <c r="AK11" s="5"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -2731,7 +2730,7 @@
       <c r="AK12" s="5"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -2773,7 +2772,7 @@
       <c r="AK13" s="5"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -2815,7 +2814,7 @@
       <c r="AK14" s="5"/>
       <c r="AN14" s="4"/>
     </row>
-    <row r="15" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -2857,7 +2856,7 @@
       <c r="AK15" s="5"/>
       <c r="AN15" s="4"/>
     </row>
-    <row r="16" spans="1:114" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:114" ht="16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -2899,7 +2898,7 @@
       <c r="AK16" s="5"/>
       <c r="AN16" s="4"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -2941,7 +2940,7 @@
       <c r="AK17" s="5"/>
       <c r="AN17" s="4"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -2983,7 +2982,7 @@
       <c r="AK18" s="5"/>
       <c r="AN18" s="4"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -3025,7 +3024,7 @@
       <c r="AK19" s="5"/>
       <c r="AN19" s="4"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -3067,7 +3066,7 @@
       <c r="AK20" s="5"/>
       <c r="AN20" s="4"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -3109,7 +3108,7 @@
       <c r="AK21" s="5"/>
       <c r="AN21" s="4"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -3151,7 +3150,7 @@
       <c r="AK22" s="5"/>
       <c r="AN22" s="4"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -3193,7 +3192,7 @@
       <c r="AK23" s="5"/>
       <c r="AN23" s="4"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -3235,7 +3234,7 @@
       <c r="AK24" s="5"/>
       <c r="AN24" s="4"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -3277,7 +3276,7 @@
       <c r="AK25" s="5"/>
       <c r="AN25" s="4"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -3319,7 +3318,7 @@
       <c r="AK26" s="5"/>
       <c r="AN26" s="4"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -3361,7 +3360,7 @@
       <c r="AK27" s="5"/>
       <c r="AN27" s="4"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -3403,7 +3402,7 @@
       <c r="AK28" s="5"/>
       <c r="AN28" s="4"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -3445,7 +3444,7 @@
       <c r="AK29" s="5"/>
       <c r="AN29" s="4"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -3487,7 +3486,7 @@
       <c r="AK30" s="5"/>
       <c r="AN30" s="4"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -3529,7 +3528,7 @@
       <c r="AK31" s="5"/>
       <c r="AN31" s="4"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -3571,7 +3570,7 @@
       <c r="AK32" s="5"/>
       <c r="AN32" s="4"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -3613,7 +3612,7 @@
       <c r="AK33" s="5"/>
       <c r="AN33" s="4"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -3655,7 +3654,7 @@
       <c r="AK34" s="5"/>
       <c r="AN34" s="4"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -3697,7 +3696,7 @@
       <c r="AK35" s="5"/>
       <c r="AN35" s="4"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -3739,7 +3738,7 @@
       <c r="AK36" s="5"/>
       <c r="AN36" s="4"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -3781,7 +3780,7 @@
       <c r="AK37" s="5"/>
       <c r="AN37" s="4"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
@@ -3823,7 +3822,7 @@
       <c r="AK38" s="5"/>
       <c r="AN38" s="4"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -3865,7 +3864,7 @@
       <c r="AK39" s="5"/>
       <c r="AN39" s="4"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -3907,7 +3906,7 @@
       <c r="AK40" s="5"/>
       <c r="AN40" s="4"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -3949,7 +3948,7 @@
       <c r="AK41" s="5"/>
       <c r="AN41" s="4"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -3991,7 +3990,7 @@
       <c r="AK42" s="5"/>
       <c r="AN42" s="4"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
@@ -4033,7 +4032,7 @@
       <c r="AK43" s="5"/>
       <c r="AN43" s="4"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
@@ -4075,7 +4074,7 @@
       <c r="AK44" s="5"/>
       <c r="AN44" s="4"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
@@ -4117,7 +4116,7 @@
       <c r="AK45" s="5"/>
       <c r="AN45" s="4"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>51</v>
       </c>
@@ -4159,7 +4158,7 @@
       <c r="AK46" s="5"/>
       <c r="AN46" s="4"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -4201,7 +4200,7 @@
       <c r="AK47" s="5"/>
       <c r="AN47" s="4"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>53</v>
       </c>
@@ -4243,7 +4242,7 @@
       <c r="AK48" s="5"/>
       <c r="AN48" s="4"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -4285,7 +4284,7 @@
       <c r="AK49" s="5"/>
       <c r="AN49" s="4"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
@@ -4327,7 +4326,7 @@
       <c r="AK50" s="5"/>
       <c r="AN50" s="4"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -4369,7 +4368,7 @@
       <c r="AK51" s="5"/>
       <c r="AN51" s="4"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
@@ -4411,7 +4410,7 @@
       <c r="AK52" s="5"/>
       <c r="AN52" s="4"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -4453,7 +4452,7 @@
       <c r="AK53" s="5"/>
       <c r="AN53" s="4"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -4495,7 +4494,7 @@
       <c r="AK54" s="5"/>
       <c r="AN54" s="4"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>60</v>
       </c>
@@ -4537,7 +4536,7 @@
       <c r="AK55" s="5"/>
       <c r="AN55" s="4"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>61</v>
       </c>
@@ -4579,7 +4578,7 @@
       <c r="AK56" s="5"/>
       <c r="AN56" s="4"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
@@ -4621,7 +4620,7 @@
       <c r="AK57" s="5"/>
       <c r="AN57" s="4"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
@@ -4663,7 +4662,7 @@
       <c r="AK58" s="5"/>
       <c r="AN58" s="4"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
@@ -4705,7 +4704,7 @@
       <c r="AK59" s="5"/>
       <c r="AN59" s="4"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -4747,7 +4746,7 @@
       <c r="AK60" s="5"/>
       <c r="AN60" s="4"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -4789,7 +4788,7 @@
       <c r="AK61" s="5"/>
       <c r="AN61" s="4"/>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
@@ -4831,7 +4830,7 @@
       <c r="AK62" s="5"/>
       <c r="AN62" s="4"/>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
@@ -4873,7 +4872,7 @@
       <c r="AK63" s="5"/>
       <c r="AN63" s="4"/>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>69</v>
       </c>
@@ -4915,7 +4914,7 @@
       <c r="AK64" s="5"/>
       <c r="AN64" s="4"/>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>70</v>
       </c>
@@ -4957,7 +4956,7 @@
       <c r="AK65" s="5"/>
       <c r="AN65" s="4"/>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>71</v>
       </c>
@@ -4999,7 +4998,7 @@
       <c r="AK66" s="5"/>
       <c r="AN66" s="4"/>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>72</v>
       </c>
@@ -5041,7 +5040,7 @@
       <c r="AK67" s="5"/>
       <c r="AN67" s="4"/>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>73</v>
       </c>
@@ -5083,7 +5082,7 @@
       <c r="AK68" s="5"/>
       <c r="AN68" s="4"/>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>74</v>
       </c>
@@ -5125,7 +5124,7 @@
       <c r="AK69" s="5"/>
       <c r="AN69" s="4"/>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -5167,7 +5166,7 @@
       <c r="AK70" s="5"/>
       <c r="AN70" s="4"/>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>76</v>
       </c>
@@ -5209,7 +5208,7 @@
       <c r="AK71" s="5"/>
       <c r="AN71" s="4"/>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
@@ -5251,7 +5250,7 @@
       <c r="AK72" s="5"/>
       <c r="AN72" s="4"/>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>78</v>
       </c>
@@ -5293,7 +5292,7 @@
       <c r="AK73" s="5"/>
       <c r="AN73" s="4"/>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>79</v>
       </c>
@@ -5335,7 +5334,7 @@
       <c r="AK74" s="5"/>
       <c r="AN74" s="4"/>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>80</v>
       </c>
@@ -5377,7 +5376,7 @@
       <c r="AK75" s="5"/>
       <c r="AN75" s="4"/>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>81</v>
       </c>
@@ -5419,7 +5418,7 @@
       <c r="AK76" s="5"/>
       <c r="AN76" s="4"/>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>82</v>
       </c>
@@ -5461,7 +5460,7 @@
       <c r="AK77" s="5"/>
       <c r="AN77" s="4"/>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>83</v>
       </c>
@@ -5503,7 +5502,7 @@
       <c r="AK78" s="5"/>
       <c r="AN78" s="4"/>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>84</v>
       </c>
@@ -5545,7 +5544,7 @@
       <c r="AK79" s="5"/>
       <c r="AN79" s="4"/>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>85</v>
       </c>
@@ -5587,7 +5586,7 @@
       <c r="AK80" s="5"/>
       <c r="AN80" s="4"/>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>86</v>
       </c>
@@ -5629,7 +5628,7 @@
       <c r="AK81" s="5"/>
       <c r="AN81" s="4"/>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
@@ -5671,7 +5670,7 @@
       <c r="AK82" s="5"/>
       <c r="AN82" s="4"/>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>88</v>
       </c>
@@ -5713,7 +5712,7 @@
       <c r="AK83" s="5"/>
       <c r="AN83" s="4"/>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>89</v>
       </c>
@@ -5755,7 +5754,7 @@
       <c r="AK84" s="5"/>
       <c r="AN84" s="4"/>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>90</v>
       </c>
@@ -5797,7 +5796,7 @@
       <c r="AK85" s="5"/>
       <c r="AN85" s="4"/>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>91</v>
       </c>
@@ -5839,7 +5838,7 @@
       <c r="AK86" s="5"/>
       <c r="AN86" s="4"/>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>92</v>
       </c>
@@ -5881,7 +5880,7 @@
       <c r="AK87" s="5"/>
       <c r="AN87" s="4"/>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>93</v>
       </c>
@@ -5923,7 +5922,7 @@
       <c r="AK88" s="5"/>
       <c r="AN88" s="4"/>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>94</v>
       </c>
@@ -5965,7 +5964,7 @@
       <c r="AK89" s="5"/>
       <c r="AN89" s="4"/>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:40" ht="16" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>95</v>
       </c>
@@ -6007,7 +6006,7 @@
       <c r="AK90" s="5"/>
       <c r="AN90" s="4"/>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.2">
       <c r="G91" s="4">
         <f>AVERAGE(G2:G90)</f>
         <v>0.2576231703171642</v>
@@ -6028,19 +6027,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.453125" customWidth="1"/>
-    <col min="2" max="7" width="8.453125" customWidth="1"/>
-    <col min="8" max="1025" width="9.1796875" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="2" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="1025" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6063,7 +6062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -6089,7 +6088,7 @@
         <v>0.20339336865869734</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -6115,7 +6114,7 @@
         <v>0.24517150302680371</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -6141,7 +6140,7 @@
         <v>0.26620866604610816</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -6167,7 +6166,7 @@
         <v>0.25656899930008298</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -6193,7 +6192,7 @@
         <v>0.16647550611008347</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -6219,7 +6218,7 @@
         <v>0.26444556189134888</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -6245,7 +6244,7 @@
         <v>0.22255303389868961</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -6271,7 +6270,7 @@
         <v>1.0255878256390984</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -6297,7 +6296,7 @@
         <v>0.37168280620906402</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -6323,7 +6322,7 @@
         <v>0.19709916212121895</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -6349,7 +6348,7 @@
         <v>0.15021391280888613</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -6375,7 +6374,7 @@
         <v>0.11376917556567681</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -6401,7 +6400,7 @@
         <v>0.26182338396216925</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -6427,7 +6426,7 @@
         <v>0.24957625508621517</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -6453,7 +6452,7 @@
         <v>0.38900224976070757</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -6479,7 +6478,7 @@
         <v>0.19972904150508081</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -6505,7 +6504,7 @@
         <v>0.15057243912923374</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -6531,7 +6530,7 @@
         <v>0.2068968409223903</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -6557,7 +6556,7 @@
         <v>0.27415651823069365</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -6583,7 +6582,7 @@
         <v>0.24613627260559884</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -6609,7 +6608,7 @@
         <v>0.34519879848915452</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -6635,7 +6634,7 @@
         <v>0.12976383438977504</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -6661,7 +6660,7 @@
         <v>0.42925046221229579</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -6687,7 +6686,7 @@
         <v>4.6823871111844557E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -6713,7 +6712,7 @@
         <v>0.30413226672951815</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -6739,7 +6738,7 @@
         <v>0.45078191362311021</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -6765,7 +6764,7 @@
         <v>0.27862862396234317</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -6791,7 +6790,7 @@
         <v>0.37830518510896105</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -6817,7 +6816,7 @@
         <v>0.33735003793220886</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -6843,7 +6842,7 @@
         <v>0.29742817741229211</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -6869,7 +6868,7 @@
         <v>0.37483853012327034</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -6895,7 +6894,7 @@
         <v>0.16952957267066496</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -6921,7 +6920,7 @@
         <v>0.28403752691851214</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -6947,7 +6946,7 @@
         <v>0.23965385422546412</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -6973,7 +6972,7 @@
         <v>0.3067846209546442</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -6999,7 +6998,7 @@
         <v>0.11133066321463073</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
@@ -7025,7 +7024,7 @@
         <v>0.45647297622113658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -7051,7 +7050,7 @@
         <v>0.27837470318459268</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -7077,7 +7076,7 @@
         <v>0.3657223748584093</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -7103,7 +7102,7 @@
         <v>0.17208517483371893</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -7129,7 +7128,7 @@
         <v>0.21910237411540281</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
@@ -7155,7 +7154,7 @@
         <v>0.58167542513492898</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
@@ -7181,7 +7180,7 @@
         <v>0.30897137879176678</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
@@ -7207,7 +7206,7 @@
         <v>0.2915206787733054</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>51</v>
       </c>
@@ -7233,7 +7232,7 @@
         <v>0.2846621756216911</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -7259,7 +7258,7 @@
         <v>0.21910062705936997</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>53</v>
       </c>
@@ -7285,7 +7284,7 @@
         <v>0.13646373625930869</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -7311,7 +7310,7 @@
         <v>0.18811456627069545</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
@@ -7337,7 +7336,7 @@
         <v>0.33987344542046583</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -7363,7 +7362,7 @@
         <v>0.38150357099430182</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
@@ -7389,7 +7388,7 @@
         <v>0.13554110328301594</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -7415,7 +7414,7 @@
         <v>0.24400621033977099</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -7441,7 +7440,7 @@
         <v>0.16581303815726869</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>60</v>
       </c>
@@ -7467,7 +7466,7 @@
         <v>0.19885623113184611</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>61</v>
       </c>
@@ -7493,7 +7492,7 @@
         <v>0.16269314390926223</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
@@ -7519,7 +7518,7 @@
         <v>0.23815910806045631</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
@@ -7545,7 +7544,7 @@
         <v>0.25101098880264039</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
@@ -7571,7 +7570,7 @@
         <v>0.17714177405565257</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -7597,7 +7596,7 @@
         <v>0.43869295878812764</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -7623,7 +7622,7 @@
         <v>0.1187624780449069</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
@@ -7649,7 +7648,7 @@
         <v>0.38860877157246576</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
@@ -7675,7 +7674,7 @@
         <v>0.51192823659180886</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>69</v>
       </c>
@@ -7701,7 +7700,7 @@
         <v>0.43759632560072348</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>70</v>
       </c>
@@ -7727,7 +7726,7 @@
         <v>0.27786407310767086</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>71</v>
       </c>
@@ -7753,7 +7752,7 @@
         <v>0.42210431802253762</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>72</v>
       </c>
@@ -7779,7 +7778,7 @@
         <v>0.40839768606620525</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>73</v>
       </c>
@@ -7805,7 +7804,7 @@
         <v>0.26542569472319782</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>74</v>
       </c>
@@ -7831,7 +7830,7 @@
         <v>0.38277388948631341</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -7857,7 +7856,7 @@
         <v>0.31359389664556681</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>76</v>
       </c>
@@ -7883,7 +7882,7 @@
         <v>0.28505300905378639</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
@@ -7909,7 +7908,7 @@
         <v>0.29616179204269599</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>78</v>
       </c>
@@ -7935,7 +7934,7 @@
         <v>0.2647744937904522</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>79</v>
       </c>
@@ -7961,7 +7960,7 @@
         <v>0.4650526763794523</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>80</v>
       </c>
@@ -7987,7 +7986,7 @@
         <v>0.31630833426687893</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>81</v>
       </c>
@@ -8013,7 +8012,7 @@
         <v>0.30377743888260211</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>82</v>
       </c>
@@ -8039,7 +8038,7 @@
         <v>0.12589348701083719</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>83</v>
       </c>
@@ -8065,7 +8064,7 @@
         <v>0.52409656761852375</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>84</v>
       </c>
@@ -8091,7 +8090,7 @@
         <v>0.266583364590885</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>85</v>
       </c>
@@ -8117,7 +8116,7 @@
         <v>0.29034279108091848</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>86</v>
       </c>
@@ -8143,7 +8142,7 @@
         <v>0.70633555705830553</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
@@ -8169,7 +8168,7 @@
         <v>0.29608905476221875</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>88</v>
       </c>
@@ -8195,7 +8194,7 @@
         <v>0.30268840056199742</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>89</v>
       </c>
@@ -8221,7 +8220,7 @@
         <v>0.15841965823832474</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>90</v>
       </c>
@@ -8247,7 +8246,7 @@
         <v>0.32090009668381086</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>91</v>
       </c>
@@ -8273,7 +8272,7 @@
         <v>0.27103672223477465</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>92</v>
       </c>
@@ -8299,7 +8298,7 @@
         <v>0.34924862381259542</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>93</v>
       </c>
@@ -8325,7 +8324,7 @@
         <v>0.22806859392320275</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>94</v>
       </c>
@@ -8351,7 +8350,7 @@
         <v>0.38607996022940305</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>95</v>
       </c>
@@ -8377,7 +8376,7 @@
         <v>0.25566353598655323</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B91" s="6"/>
       <c r="G91" s="4">
         <f>AVERAGE(G2:G90)</f>
@@ -8391,19 +8390,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.453125" customWidth="1"/>
-    <col min="2" max="1023" width="8.453125" customWidth="1"/>
-    <col min="1024" max="1025" width="9.1796875" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="2" max="1023" width="8.5" customWidth="1"/>
+    <col min="1024" max="1025" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8426,7 +8425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -8452,7 +8451,7 @@
         <v>0.19721067788733071</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -8478,7 +8477,7 @@
         <v>0.23916733656837177</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -8504,7 +8503,7 @@
         <v>0.25057968244896911</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -8530,7 +8529,7 @@
         <v>0.23875793163631823</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -8556,7 +8555,7 @@
         <v>0.14772640602123369</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -8582,7 +8581,7 @@
         <v>0.26536888823697813</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -8608,7 +8607,7 @@
         <v>0.20143519121240569</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -8634,7 +8633,7 @@
         <v>0.99665228160056885</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -8660,7 +8659,7 @@
         <v>0.38953530207794684</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -8686,7 +8685,7 @@
         <v>0.15863150960473996</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -8712,7 +8711,7 @@
         <v>0.11127289474696672</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -8738,7 +8737,7 @@
         <v>0.11694259911300876</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -8764,7 +8763,7 @@
         <v>0.23655314467664826</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -8790,7 +8789,7 @@
         <v>0.25988888454747683</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -8816,7 +8815,7 @@
         <v>0.37665692638336995</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -8842,7 +8841,7 @@
         <v>0.19877165713017877</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -8868,7 +8867,7 @@
         <v>0.13285012635682522</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -8894,7 +8893,7 @@
         <v>0.19187080945269661</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -8920,7 +8919,7 @@
         <v>0.26317195765854784</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -8946,7 +8945,7 @@
         <v>0.21594282344245036</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -8972,7 +8971,7 @@
         <v>0.33888210968085181</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -8998,7 +8997,7 @@
         <v>0.11564748419889825</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -9024,7 +9023,7 @@
         <v>0.44977501499282541</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -9050,7 +9049,7 @@
         <v>4.2943557844902613E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -9076,7 +9075,7 @@
         <v>0.27626420385222838</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -9102,7 +9101,7 @@
         <v>0.47338787728414716</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -9128,7 +9127,7 @@
         <v>0.29006783344100789</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -9154,7 +9153,7 @@
         <v>0.37528676054860127</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -9180,7 +9179,7 @@
         <v>0.51089044659302019</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -9206,7 +9205,7 @@
         <v>0.10866691422525786</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -9232,7 +9231,7 @@
         <v>0.48361579443455865</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -9258,7 +9257,7 @@
         <v>0.15339528782019463</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -9284,7 +9283,7 @@
         <v>0.27154089536421888</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -9310,7 +9309,7 @@
         <v>0.22243838134924562</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -9336,7 +9335,7 @@
         <v>0.28876091153796551</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -9362,7 +9361,7 @@
         <v>0.10279569251357885</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
@@ -9388,7 +9387,7 @@
         <v>0.45715590153875058</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -9414,7 +9413,7 @@
         <v>0.27435655222214611</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -9440,7 +9439,7 @@
         <v>0.34466540505782389</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -9466,7 +9465,7 @@
         <v>0.15878184250599547</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -9492,7 +9491,7 @@
         <v>0.20090294199880529</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
@@ -9518,7 +9517,7 @@
         <v>0.76212754071097499</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
@@ -9544,7 +9543,7 @@
         <v>0.45829340304465976</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
@@ -9570,7 +9569,7 @@
         <v>0.48355491982843091</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>51</v>
       </c>
@@ -9596,7 +9595,7 @@
         <v>0.27717572588621153</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -9622,7 +9621,7 @@
         <v>0.20167512126611314</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>53</v>
       </c>
@@ -9648,7 +9647,7 @@
         <v>9.7169939932318358E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -9674,7 +9673,7 @@
         <v>0.14266551119766241</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
@@ -9700,7 +9699,7 @@
         <v>0.32461734011196108</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -9726,7 +9725,7 @@
         <v>0.39358316055215031</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
@@ -9752,7 +9751,7 @@
         <v>0.1038489521802133</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -9778,7 +9777,7 @@
         <v>0.22619306052336913</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -9804,7 +9803,7 @@
         <v>0.1295754130734782</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>60</v>
       </c>
@@ -9830,7 +9829,7 @@
         <v>0.18372206269145225</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>61</v>
       </c>
@@ -9856,7 +9855,7 @@
         <v>0.12698467294566407</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
@@ -9882,7 +9881,7 @@
         <v>0.20754982798710578</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
@@ -9908,7 +9907,7 @@
         <v>0.22417049698386238</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
@@ -9934,7 +9933,7 @@
         <v>0.14468484654618036</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -9960,7 +9959,7 @@
         <v>0.45128186334520048</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -9986,7 +9985,7 @@
         <v>0.16106573311570752</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
@@ -10012,7 +10011,7 @@
         <v>0.38662181542539126</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
@@ -10038,7 +10037,7 @@
         <v>0.55268099672722149</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>69</v>
       </c>
@@ -10064,7 +10063,7 @@
         <v>0.42842785046321663</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>70</v>
       </c>
@@ -10090,7 +10089,7 @@
         <v>0.17278990076901649</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>71</v>
       </c>
@@ -10116,7 +10115,7 @@
         <v>0.588842035259456</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>72</v>
       </c>
@@ -10142,7 +10141,7 @@
         <v>0.67886087335629908</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>73</v>
       </c>
@@ -10168,7 +10167,7 @@
         <v>0.36373923610149533</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>74</v>
       </c>
@@ -10194,7 +10193,7 @@
         <v>0.51199551744789074</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -10220,7 +10219,7 @@
         <v>0.33848486348231416</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>76</v>
       </c>
@@ -10246,7 +10245,7 @@
         <v>0.25278142244066065</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
@@ -10272,7 +10271,7 @@
         <v>0.26809555681365038</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>78</v>
       </c>
@@ -10298,7 +10297,7 @@
         <v>0.26937529018737233</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>79</v>
       </c>
@@ -10324,7 +10323,7 @@
         <v>0.45984970720634438</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>80</v>
       </c>
@@ -10350,7 +10349,7 @@
         <v>0.32218296573261246</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>81</v>
       </c>
@@ -10376,7 +10375,7 @@
         <v>0.31051375653124114</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>82</v>
       </c>
@@ -10402,7 +10401,7 @@
         <v>0.15019118779741158</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>83</v>
       </c>
@@ -10428,7 +10427,7 @@
         <v>0.69061824251187409</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>84</v>
       </c>
@@ -10454,7 +10453,7 @@
         <v>0.11830255829252428</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>85</v>
       </c>
@@ -10480,7 +10479,7 @@
         <v>0.29247272696331894</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>86</v>
       </c>
@@ -10506,7 +10505,7 @@
         <v>0.74729853076845154</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
@@ -10532,7 +10531,7 @@
         <v>0.29228507772301537</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>88</v>
       </c>
@@ -10558,7 +10557,7 @@
         <v>0.30428287345104738</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>89</v>
       </c>
@@ -10584,7 +10583,7 @@
         <v>0.14664631322427474</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>90</v>
       </c>
@@ -10610,7 +10609,7 @@
         <v>0.31841515471704668</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>91</v>
       </c>
@@ -10636,7 +10635,7 @@
         <v>0.23974555902133554</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>92</v>
       </c>
@@ -10662,7 +10661,7 @@
         <v>0.34804179722014622</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>93</v>
       </c>
@@ -10688,7 +10687,7 @@
         <v>0.20724311580910484</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>94</v>
       </c>
@@ -10714,7 +10713,7 @@
         <v>0.40464521849124901</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>95</v>
       </c>
@@ -10740,7 +10739,7 @@
         <v>0.25580047131888672</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B91" s="6"/>
       <c r="G91" s="4">
         <f>AVERAGE(G2:G90)</f>
@@ -10754,19 +10753,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.453125" customWidth="1"/>
-    <col min="2" max="7" width="8.453125" customWidth="1"/>
-    <col min="8" max="1025" width="9.1796875" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="2" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="1025" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10789,7 +10788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -10815,7 +10814,7 @@
         <v>0.17826021690219282</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -10841,7 +10840,7 @@
         <v>0.21700728451606116</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -10867,7 +10866,7 @@
         <v>0.24757230798582069</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -10893,7 +10892,7 @@
         <v>0.2180189601422978</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -10919,7 +10918,7 @@
         <v>0.12912023681321969</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -10945,7 +10944,7 @@
         <v>0.26300231326626411</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -10971,7 +10970,7 @@
         <v>0.18334661969394511</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -10997,7 +10996,7 @@
         <v>0.10061906787084386</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -11023,7 +11022,7 @@
         <v>0.39674482723962684</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -11049,7 +11048,7 @@
         <v>0.1238786721625305</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -11075,7 +11074,7 @@
         <v>0.10103688451512323</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -11101,7 +11100,7 @@
         <v>0.10579446837474804</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -11127,7 +11126,7 @@
         <v>0.21200217182658609</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -11153,7 +11152,7 @@
         <v>0.26190241721049184</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -11179,7 +11178,7 @@
         <v>0.37190336943774455</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -11205,7 +11204,7 @@
         <v>0.19052820991628311</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -11231,7 +11230,7 @@
         <v>0.125695597041829</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -11257,7 +11256,7 @@
         <v>0.17056541173133222</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -11283,7 +11282,7 @@
         <v>0.24663087797021949</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -11309,7 +11308,7 @@
         <v>0.18590392792706237</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -11335,7 +11334,7 @@
         <v>0.33968105215094457</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -11361,7 +11360,7 @@
         <v>9.300507426273058E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -11387,7 +11386,7 @@
         <v>0.45836075359592682</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -11413,7 +11412,7 @@
         <v>5.4296405650769909E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -11439,7 +11438,7 @@
         <v>0.25186080788552151</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -11465,7 +11464,7 @@
         <v>0.49516835451661284</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -11491,7 +11490,7 @@
         <v>0.31146643555514542</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -11517,7 +11516,7 @@
         <v>0.37339281546359787</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -11543,7 +11542,7 @@
         <v>0.5941802636509087</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -11569,7 +11568,7 @@
         <v>0.22334611225907358</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -11595,7 +11594,7 @@
         <v>0.45055941125882198</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -11621,7 +11620,7 @@
         <v>7.6739654953553407E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -11647,7 +11646,7 @@
         <v>0.26503119478593679</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -11673,7 +11672,7 @@
         <v>0.20586276093584363</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -11699,7 +11698,7 @@
         <v>0.28735119025206562</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -11725,7 +11724,7 @@
         <v>8.5375481442459461E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
@@ -11751,7 +11750,7 @@
         <v>0.46267098595038914</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -11777,7 +11776,7 @@
         <v>0.25974177109858571</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -11803,7 +11802,7 @@
         <v>0.32319503856650966</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -11829,7 +11828,7 @@
         <v>0.14331126084796436</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -11855,7 +11854,7 @@
         <v>0.17722909374597173</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
@@ -11881,7 +11880,7 @@
         <v>0.93917510679008376</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
@@ -11907,7 +11906,7 @@
         <v>0.53209850224377619</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
@@ -11933,7 +11932,7 @@
         <v>0.56528642157821873</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>51</v>
       </c>
@@ -11959,7 +11958,7 @@
         <v>0.27681960448395054</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -11985,7 +11984,7 @@
         <v>0.1789834633914732</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>53</v>
       </c>
@@ -12011,7 +12010,7 @@
         <v>6.6241237719905088E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -12037,7 +12036,7 @@
         <v>0.11428721590428624</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
@@ -12063,7 +12062,7 @@
         <v>0.32299148949142714</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -12089,7 +12088,7 @@
         <v>0.39535388337541422</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
@@ -12115,7 +12114,7 @@
         <v>8.7851705385539491E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -12141,7 +12140,7 @@
         <v>0.2070652854203103</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -12167,7 +12166,7 @@
         <v>0.1080886672262454</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>60</v>
       </c>
@@ -12193,7 +12192,7 @@
         <v>0.16756751560551297</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>61</v>
       </c>
@@ -12219,7 +12218,7 @@
         <v>0.10000770568659359</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
@@ -12245,7 +12244,7 @@
         <v>0.18541424016800218</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
@@ -12271,7 +12270,7 @@
         <v>0.20197043960565947</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
@@ -12297,7 +12296,7 @@
         <v>0.12425056053375048</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -12323,7 +12322,7 @@
         <v>0.48008869392594833</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -12349,7 +12348,7 @@
         <v>0.18139707433976485</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
@@ -12375,7 +12374,7 @@
         <v>0.39763528901318518</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
@@ -12401,7 +12400,7 @@
         <v>0.66126754220354278</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>69</v>
       </c>
@@ -12427,7 +12426,7 @@
         <v>0.41965500054938243</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>70</v>
       </c>
@@ -12453,7 +12452,7 @@
         <v>0.14664402974722188</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>71</v>
       </c>
@@ -12479,7 +12478,7 @@
         <v>0.58884183831875869</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>72</v>
       </c>
@@ -12505,7 +12504,7 @@
         <v>0.84505282833646145</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>73</v>
       </c>
@@ -12531,7 +12530,7 @@
         <v>0.36373921691883415</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>74</v>
       </c>
@@ -12557,7 +12556,7 @@
         <v>0.46063553780099908</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -12583,7 +12582,7 @@
         <v>0.34125846597849846</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>76</v>
       </c>
@@ -12609,7 +12608,7 @@
         <v>0.1069517353590721</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
@@ -12635,7 +12634,7 @@
         <v>0.26347911717955297</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>78</v>
       </c>
@@ -12661,7 +12660,7 @@
         <v>0.26104615654977886</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>79</v>
       </c>
@@ -12687,7 +12686,7 @@
         <v>0.46569552928518343</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>80</v>
       </c>
@@ -12713,7 +12712,7 @@
         <v>0.3231830486358046</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>81</v>
       </c>
@@ -12739,7 +12738,7 @@
         <v>0.31230515563665462</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>82</v>
       </c>
@@ -12765,7 +12764,7 @@
         <v>0.30325982357221376</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>83</v>
       </c>
@@ -12791,7 +12790,7 @@
         <v>0.77091416982898342</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>84</v>
       </c>
@@ -12817,7 +12816,7 @@
         <v>0.16681086467137435</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>85</v>
       </c>
@@ -12843,7 +12842,7 @@
         <v>0.28707617684205988</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>86</v>
       </c>
@@ -12869,7 +12868,7 @@
         <v>0.76122644259225247</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
@@ -12895,7 +12894,7 @@
         <v>0.2954634911148088</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>88</v>
       </c>
@@ -12921,7 +12920,7 @@
         <v>0.3067336756707138</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>89</v>
       </c>
@@ -12947,7 +12946,7 @@
         <v>0.13569681859868549</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>90</v>
       </c>
@@ -12973,7 +12972,7 @@
         <v>0.32164174357385528</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>91</v>
       </c>
@@ -12999,7 +12998,7 @@
         <v>0.22003080425170193</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>92</v>
       </c>
@@ -13025,7 +13024,7 @@
         <v>0.37688924054881245</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>93</v>
       </c>
@@ -13051,7 +13050,7 @@
         <v>0.1949696422488898</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>94</v>
       </c>
@@ -13077,7 +13076,7 @@
         <v>0.40450706824538868</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>95</v>
       </c>
@@ -13103,7 +13102,7 @@
         <v>0.24604115079376454</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B91" s="6"/>
       <c r="G91" s="4">
         <f>AVERAGE(G2:G90)</f>
@@ -13121,26 +13120,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
       <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="8" width="8.453125" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.1796875" customWidth="1"/>
-    <col min="14" max="14" width="15.36328125" customWidth="1"/>
-    <col min="15" max="1026" width="9.1796875" customWidth="1"/>
+    <col min="3" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.1640625" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="1026" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13177,7 +13176,7 @@
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -13221,7 +13220,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -13265,7 +13264,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -13309,7 +13308,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -13353,7 +13352,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -13397,7 +13396,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -13441,7 +13440,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -13485,7 +13484,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -13527,7 +13526,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -13571,7 +13570,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -13615,7 +13614,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -13659,7 +13658,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -13703,7 +13702,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -13744,7 +13743,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -13788,7 +13787,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -13832,7 +13831,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -13876,7 +13875,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -13920,7 +13919,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -13964,7 +13963,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -14008,7 +14007,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -14052,7 +14051,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -14096,7 +14095,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -14140,7 +14139,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -14184,7 +14183,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -14228,7 +14227,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -14272,7 +14271,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -14316,7 +14315,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -14360,7 +14359,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -14404,7 +14403,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -14448,7 +14447,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -14492,7 +14491,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -14536,7 +14535,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -14580,7 +14579,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -14624,7 +14623,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -14668,7 +14667,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -14712,7 +14711,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -14756,7 +14755,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
@@ -14800,7 +14799,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -14844,7 +14843,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -14888,7 +14887,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -14932,7 +14931,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -14976,7 +14975,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
@@ -15020,7 +15019,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
@@ -15064,7 +15063,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
@@ -15108,7 +15107,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>51</v>
       </c>
@@ -15152,7 +15151,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -15196,7 +15195,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>53</v>
       </c>
@@ -15240,7 +15239,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -15284,7 +15283,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
@@ -15328,7 +15327,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -15372,7 +15371,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
@@ -15416,7 +15415,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -15460,7 +15459,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -15504,7 +15503,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>60</v>
       </c>
@@ -15548,7 +15547,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>61</v>
       </c>
@@ -15592,7 +15591,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
@@ -15636,7 +15635,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
@@ -15680,7 +15679,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
@@ -15724,7 +15723,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -15768,7 +15767,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -15812,7 +15811,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
@@ -15856,7 +15855,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
@@ -15900,7 +15899,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>69</v>
       </c>
@@ -15944,7 +15943,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>70</v>
       </c>
@@ -15988,7 +15987,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>71</v>
       </c>
@@ -16032,7 +16031,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>72</v>
       </c>
@@ -16076,7 +16075,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>73</v>
       </c>
@@ -16120,7 +16119,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>74</v>
       </c>
@@ -16164,7 +16163,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -16208,7 +16207,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>76</v>
       </c>
@@ -16252,7 +16251,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
@@ -16296,7 +16295,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>78</v>
       </c>
@@ -16340,7 +16339,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>79</v>
       </c>
@@ -16384,7 +16383,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>80</v>
       </c>
@@ -16428,7 +16427,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>81</v>
       </c>
@@ -16472,7 +16471,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>82</v>
       </c>
@@ -16516,7 +16515,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>83</v>
       </c>
@@ -16560,7 +16559,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>84</v>
       </c>
@@ -16604,7 +16603,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>85</v>
       </c>
@@ -16648,7 +16647,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>86</v>
       </c>
@@ -16692,7 +16691,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
@@ -16736,7 +16735,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>88</v>
       </c>
@@ -16780,7 +16779,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>89</v>
       </c>
@@ -16824,7 +16823,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>90</v>
       </c>
@@ -16868,7 +16867,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>91</v>
       </c>
@@ -16912,7 +16911,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>92</v>
       </c>
@@ -16956,7 +16955,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>93</v>
       </c>
@@ -17000,7 +16999,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>94</v>
       </c>
@@ -17044,7 +17043,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>95</v>
       </c>
@@ -17088,7 +17087,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>124</v>
       </c>
@@ -17121,7 +17120,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
         <v>125</v>
       </c>
@@ -17154,7 +17153,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>126</v>
       </c>
@@ -17187,7 +17186,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>127</v>
       </c>
@@ -17220,7 +17219,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
         <v>128</v>
       </c>
@@ -17253,7 +17252,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>129</v>
       </c>
@@ -17286,7 +17285,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>130</v>
       </c>
@@ -17318,7 +17317,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
         <v>131</v>
       </c>
@@ -17351,7 +17350,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>132</v>
       </c>
@@ -17384,7 +17383,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>133</v>
       </c>
@@ -17417,7 +17416,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>134</v>
       </c>
@@ -17450,7 +17449,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>135</v>
       </c>
@@ -17483,7 +17482,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
         <v>136</v>
       </c>
@@ -17516,7 +17515,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>137</v>
       </c>
@@ -17549,7 +17548,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>138</v>
       </c>
@@ -17582,7 +17581,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>139</v>
       </c>
@@ -17615,7 +17614,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>140</v>
       </c>
@@ -17648,7 +17647,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>141</v>
       </c>
@@ -17681,7 +17680,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>142</v>
       </c>
@@ -17714,7 +17713,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>143</v>
       </c>
@@ -17747,7 +17746,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>144</v>
       </c>
@@ -17780,7 +17779,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
         <v>145</v>
       </c>
@@ -17813,7 +17812,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
         <v>146</v>
       </c>
@@ -17846,7 +17845,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>147</v>
       </c>
@@ -17879,7 +17878,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
         <v>148</v>
       </c>
@@ -17912,7 +17911,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
         <v>149</v>
       </c>
@@ -17945,7 +17944,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
         <v>150</v>
       </c>
@@ -17978,7 +17977,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
         <v>151</v>
       </c>
@@ -18011,7 +18010,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
         <v>152</v>
       </c>
@@ -18044,7 +18043,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>153</v>
       </c>
@@ -18077,7 +18076,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
         <v>154</v>
       </c>
@@ -18110,7 +18109,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
         <v>155</v>
       </c>
@@ -18143,7 +18142,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
         <v>156</v>
       </c>
@@ -18176,7 +18175,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
         <v>157</v>
       </c>
@@ -18209,7 +18208,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
         <v>158</v>
       </c>
@@ -18242,7 +18241,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
         <v>159</v>
       </c>
@@ -18275,7 +18274,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
         <v>160</v>
       </c>
@@ -18308,7 +18307,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
         <v>161</v>
       </c>
@@ -18341,7 +18340,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
         <v>162</v>
       </c>
@@ -18374,7 +18373,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>163</v>
       </c>
@@ -18407,7 +18406,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
         <v>164</v>
       </c>
@@ -18440,7 +18439,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
         <v>165</v>
       </c>
@@ -18473,7 +18472,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>166</v>
       </c>
@@ -18506,7 +18505,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>167</v>
       </c>
@@ -18539,7 +18538,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>168</v>
       </c>
@@ -18572,7 +18571,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>169</v>
       </c>
@@ -18605,7 +18604,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>170</v>
       </c>
@@ -18638,7 +18637,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>171</v>
       </c>
@@ -18671,7 +18670,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>172</v>
       </c>
@@ -18704,7 +18703,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
         <v>173</v>
       </c>
@@ -18737,7 +18736,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>174</v>
       </c>
@@ -18770,7 +18769,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>175</v>
       </c>
@@ -18803,7 +18802,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>176</v>
       </c>
@@ -18836,7 +18835,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>177</v>
       </c>
@@ -18869,7 +18868,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>178</v>
       </c>
@@ -18902,7 +18901,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>179</v>
       </c>
@@ -18935,7 +18934,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>180</v>
       </c>
@@ -18968,7 +18967,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>181</v>
       </c>
@@ -19001,7 +19000,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>182</v>
       </c>
@@ -19034,7 +19033,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>183</v>
       </c>
@@ -19067,7 +19066,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>96</v>
       </c>
@@ -19100,7 +19099,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>97</v>
       </c>
@@ -19133,7 +19132,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>98</v>
       </c>
@@ -19166,7 +19165,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
         <v>99</v>
       </c>
@@ -19199,7 +19198,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>100</v>
       </c>
@@ -19232,7 +19231,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>101</v>
       </c>
@@ -19265,7 +19264,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>102</v>
       </c>
@@ -19298,7 +19297,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>103</v>
       </c>
@@ -19331,7 +19330,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>104</v>
       </c>
@@ -19364,7 +19363,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>105</v>
       </c>
@@ -19397,7 +19396,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>106</v>
       </c>
@@ -19430,7 +19429,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>107</v>
       </c>
@@ -19463,7 +19462,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>108</v>
       </c>
@@ -19496,7 +19495,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>109</v>
       </c>
@@ -19529,7 +19528,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="14" t="s">
         <v>110</v>
       </c>
@@ -19562,7 +19561,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>111</v>
       </c>
@@ -19595,7 +19594,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="14" t="s">
         <v>112</v>
       </c>
@@ -19628,7 +19627,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>113</v>
       </c>
@@ -19661,7 +19660,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="14" t="s">
         <v>114</v>
       </c>
@@ -19694,7 +19693,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>115</v>
       </c>
@@ -19727,7 +19726,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>116</v>
       </c>
@@ -19760,7 +19759,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>117</v>
       </c>
@@ -19793,7 +19792,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>118</v>
       </c>
@@ -19826,7 +19825,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>119</v>
       </c>
@@ -19859,7 +19858,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>120</v>
       </c>
@@ -19892,7 +19891,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>121</v>
       </c>
@@ -19925,7 +19924,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>122</v>
       </c>
@@ -19958,7 +19957,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>123</v>
       </c>
@@ -19991,7 +19990,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="8"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
@@ -20001,7 +20000,7 @@
       <c r="H179" s="8"/>
       <c r="I179" s="11"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="15"/>
       <c r="C180" s="16"/>
       <c r="D180" s="16"/>

--- a/data/First_round_results/Results - First and Second Plate 3 reps.xlsx
+++ b/data/First_round_results/Results - First and Second Plate 3 reps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\GitHub\SynbioML\data\First_round_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7B1E8B-15AF-4FA6-9979-DB2BC28E24B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6897E6D3-06DD-4816-99A7-C7CF146F940E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GFPOD" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="462">
   <si>
     <t>RBS</t>
   </si>
@@ -1424,6 +1424,9 @@
   </si>
   <si>
     <t>ttcaagaaggagatatacat</t>
+  </si>
+  <si>
+    <t>Rep5</t>
   </si>
 </sst>
 </file>
@@ -13137,25 +13140,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:N181"/>
+  <dimension ref="A1:O181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="P104" sqref="P104"/>
+    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.1796875" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="8" width="8.453125" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.1796875" customWidth="1"/>
-    <col min="14" max="14" width="15.36328125" customWidth="1"/>
-    <col min="15" max="1026" width="9.1796875" customWidth="1"/>
+    <col min="3" max="9" width="8.453125" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.1796875" customWidth="1"/>
+    <col min="15" max="15" width="15.36328125" customWidth="1"/>
+    <col min="16" max="1027" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13175,24 +13178,27 @@
         <v>457</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="M1" s="20"/>
       <c r="N1" s="20"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O1" s="20"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -13212,31 +13218,34 @@
         <v>61.622165036105699</v>
       </c>
       <c r="G2">
+        <v>54.151484835097101</v>
+      </c>
+      <c r="H2">
         <f>AVERAGE(C2:F2)</f>
         <v>73.416183977584367</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <f>_xlfn.STDEV.P(C2:F2)</f>
         <v>17.869560905540101</v>
       </c>
-      <c r="I2" s="4">
-        <f t="shared" ref="I2:I34" si="0">H2/G2</f>
+      <c r="J2" s="4">
+        <f t="shared" ref="J2:J34" si="0">I2/H2</f>
         <v>0.24340084076007118</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>363</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>4451.3999999999996</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>20.100000000000001</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -13256,31 +13265,34 @@
         <v>42.042854027511197</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G67" si="1">AVERAGE(C3:F3)</f>
+        <v>45.432031622390497</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H67" si="1">AVERAGE(C3:F3)</f>
         <v>55.397221273248171</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H67" si="2">_xlfn.STDEV.P(C3:F3)</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I67" si="2">_xlfn.STDEV.P(C3:F3)</f>
         <v>16.464423777197684</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <f t="shared" si="0"/>
         <v>0.29720667208173684</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>363</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>3804.5</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>47.3</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -13300,31 +13312,34 @@
         <v>24.487869963654301</v>
       </c>
       <c r="G4">
+        <v>24.133637075311899</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="1"/>
         <v>37.715864765628751</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="2"/>
         <v>13.210227103744803</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <f t="shared" si="0"/>
         <v>0.350256508390696</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>363</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1269</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>34.1</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -13344,31 +13359,34 @@
         <v>38.6419582348774</v>
       </c>
       <c r="G5">
+        <v>38.049576803906</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="1"/>
         <v>54.265356811104148</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="2"/>
         <v>14.355225573478041</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <f t="shared" si="0"/>
         <v>0.26453756903226661</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>363</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>4381.2</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>23.5</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -13388,31 +13406,34 @@
         <v>44.352931357439502</v>
       </c>
       <c r="G6">
+        <v>38.394865293671302</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="1"/>
         <v>54.724326261503748</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="2"/>
         <v>10.564849030446464</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <f t="shared" si="0"/>
         <v>0.19305580812382497</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>363</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>4759.7</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>64.900000000000006</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -13432,31 +13453,34 @@
         <v>21.2056788752271</v>
       </c>
       <c r="G7">
+        <v>21.1722417929108</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
         <v>30.426541897719773</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="2"/>
         <v>10.666788357509031</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <f t="shared" si="0"/>
         <v>0.35057511278691916</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>363</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1440.1</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>36.200000000000003</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -13476,31 +13500,34 @@
         <v>29.738674110669599</v>
       </c>
       <c r="G8">
+        <v>31.848505915259601</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="1"/>
         <v>43.930477002543199</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="2"/>
         <v>11.790603462120091</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <f t="shared" si="0"/>
         <v>0.26839233868181117</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>363</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3708.1</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>49.1</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>460</v>
       </c>
@@ -13523,28 +13550,31 @@
         <v>0</v>
       </c>
       <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="14" t="e">
+      <c r="J9" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="K9" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14">
-        <v>0</v>
-      </c>
+      <c r="L9" s="14"/>
       <c r="M9" s="14">
         <v>0</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -13562,31 +13592,34 @@
         <v>45.233411378176697</v>
       </c>
       <c r="G10">
+        <v>38.655692829940598</v>
+      </c>
+      <c r="H10">
         <f>AVERAGE(C10:F10)</f>
         <v>47.539791948168933</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f>_xlfn.STDEV.P(C10:F10)</f>
         <v>7.1254758070502131</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <f t="shared" si="0"/>
         <v>0.14988445500179901</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>363</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>4732.8</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>37.299999999999997</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -13606,31 +13639,34 @@
         <v>24.135048945303499</v>
       </c>
       <c r="G11">
+        <v>21.9453529617894</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="1"/>
         <v>39.319612070798009</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="2"/>
         <v>18.144266191776882</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <f t="shared" si="0"/>
         <v>0.46145588006073723</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>363</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1232.7</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>20.7</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -13650,31 +13686,34 @@
         <v>38.223958764392201</v>
       </c>
       <c r="G12">
+        <v>31.680387597935201</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="1"/>
         <v>44.284177973095701</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="2"/>
         <v>10.185845178865824</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <f t="shared" si="0"/>
         <v>0.23001093494507466</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>363</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>529.1</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>17.2</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -13694,31 +13733,34 @@
         <v>42.063148527607297</v>
       </c>
       <c r="G13">
+        <v>39.304469987386803</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="1"/>
         <v>55.028254497165072</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="2"/>
         <v>11.786997176422119</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <f t="shared" si="0"/>
         <v>0.21419900166067157</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>363</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>29.2</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>63</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -13738,31 +13780,34 @@
         <v>37.078370379348499</v>
       </c>
       <c r="G14">
+        <v>32.308771113994602</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="1"/>
         <v>54.067311158551718</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f t="shared" si="2"/>
         <v>17.064551059573802</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <f t="shared" si="0"/>
         <v>0.31561678755453954</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>363</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>2837.7</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>10.1</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -13782,28 +13827,31 @@
         <v>40.679528476473799</v>
       </c>
       <c r="G15">
+        <v>33.421516319064501</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="1"/>
         <v>53.009261465993376</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f t="shared" si="2"/>
         <v>15.499199218245529</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <f t="shared" si="0"/>
         <v>0.29238662810249888</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>363</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>4250.1000000000004</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -13823,31 +13871,34 @@
         <v>37.733533951420597</v>
       </c>
       <c r="G16">
+        <v>29.9416192635553</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="1"/>
         <v>50.981281892195696</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f t="shared" si="2"/>
         <v>16.209771362559025</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <f t="shared" si="0"/>
         <v>0.31795535068804232</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>363</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>4103.3999999999996</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>13.7</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -13867,31 +13918,34 @@
         <v>24.695211021941201</v>
       </c>
       <c r="G17">
+        <v>20.352209802182902</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="1"/>
         <v>37.3604415909927</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f t="shared" si="2"/>
         <v>16.198090095581602</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <f t="shared" si="0"/>
         <v>0.43356259738340003</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>363</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>2132.6999999999998</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>44.5</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -13911,31 +13965,34 @@
         <v>27.230803229479399</v>
       </c>
       <c r="G18">
+        <v>26.959225705586601</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="1"/>
         <v>37.897541350851547</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f t="shared" si="2"/>
         <v>10.021982039857061</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <f t="shared" si="0"/>
         <v>0.26444939915955445</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>363</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>3313.1</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>24.8</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -13955,31 +14012,34 @@
         <v>24.960836048252801</v>
       </c>
       <c r="G19">
+        <v>23.3457352398263</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="1"/>
         <v>33.147901962236325</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="2"/>
         <v>8.153024255501311</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <f t="shared" si="0"/>
         <v>0.24595898300862679</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>363</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>2351.1999999999998</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>37.299999999999997</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -13999,31 +14059,34 @@
         <v>27.337416486270001</v>
       </c>
       <c r="G20">
+        <v>24.537122060902501</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="1"/>
         <v>35.662045618418077</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f t="shared" si="2"/>
         <v>8.0376297075056957</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <f t="shared" si="0"/>
         <v>0.22538330508316576</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>363</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>3089.7</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>32.6</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
@@ -14043,31 +14106,34 @@
         <v>22.5475906493885</v>
       </c>
       <c r="G21">
+        <v>21.4979096286506</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="1"/>
         <v>31.987361288497425</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f t="shared" si="2"/>
         <v>11.511555650986132</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <f t="shared" si="0"/>
         <v>0.35987825151197012</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>363</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>2539.6999999999998</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>35.5</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -14087,31 +14153,34 @@
         <v>31.2219056419998</v>
       </c>
       <c r="G22">
+        <v>22.193803373861101</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="1"/>
         <v>40.538678709809169</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <f t="shared" si="2"/>
         <v>7.0400463010044936</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <f t="shared" si="0"/>
         <v>0.17366245090028082</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>363</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>4188</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>23.8</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -14131,31 +14200,34 @@
         <v>23.378552343325801</v>
       </c>
       <c r="G23">
+        <v>17.653695224930299</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="1"/>
         <v>32.216961135827297</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <f t="shared" si="2"/>
         <v>12.39258038963081</v>
       </c>
-      <c r="I23" s="4">
+      <c r="J23" s="4">
         <f t="shared" si="0"/>
         <v>0.38466012785574233</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>363</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>1410.8</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>61.9</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -14175,31 +14247,34 @@
         <v>27.8051960760375</v>
       </c>
       <c r="G24">
+        <v>25.769088486307101</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="1"/>
         <v>34.470016162072952</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <f t="shared" si="2"/>
         <v>5.7191127001052164</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J24" s="4">
         <f t="shared" si="0"/>
         <v>0.16591557930274209</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>363</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>51.7</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>43.5</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -14219,31 +14294,34 @@
         <v>14.425654783023299</v>
       </c>
       <c r="G25">
+        <v>14.8699802070958</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="1"/>
         <v>24.556999985293778</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <f t="shared" si="2"/>
         <v>15.215984260928566</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <f t="shared" si="0"/>
         <v>0.61961901983307488</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>363</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>19.600000000000001</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>19</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -14263,31 +14341,34 @@
         <v>28.175155765084401</v>
       </c>
       <c r="G26">
+        <v>30.712356200963502</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="1"/>
         <v>35.133921411357079</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <f t="shared" si="2"/>
         <v>7.8868346378362091</v>
       </c>
-      <c r="I26" s="4">
+      <c r="J26" s="4">
         <f t="shared" si="0"/>
         <v>0.22447920189423493</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>363</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1309.8</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1220.4000000000001</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
@@ -14307,31 +14388,34 @@
         <v>32.524704415513099</v>
       </c>
       <c r="G27">
+        <v>29.9620055057425</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="1"/>
         <v>45.993618886234273</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <f t="shared" si="2"/>
         <v>15.092280511808298</v>
       </c>
-      <c r="I27" s="4">
+      <c r="J27" s="4">
         <f t="shared" si="0"/>
         <v>0.32813857394303375</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>363</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>3779.7</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>2957.7</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -14351,31 +14435,34 @@
         <v>14.5349979149782</v>
       </c>
       <c r="G28">
+        <v>14.2301417533457</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="1"/>
         <v>30.159978787847503</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <f t="shared" si="2"/>
         <v>19.687662685180761</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J28" s="4">
         <f t="shared" si="0"/>
         <v>0.65277442082000403</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>363</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>664.6</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>454.1</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -14395,31 +14482,34 @@
         <v>13.5156308111582</v>
       </c>
       <c r="G29">
+        <v>12.9018004593177</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="1"/>
         <v>20.24790800327975</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <f t="shared" si="2"/>
         <v>9.4973900257809607</v>
       </c>
-      <c r="I29" s="4">
+      <c r="J29" s="4">
         <f t="shared" si="0"/>
         <v>0.46905537225092964</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>363</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>568.4</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>454</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -14439,31 +14529,34 @@
         <v>14.661262128155199</v>
       </c>
       <c r="G30">
+        <v>10.4689189958616</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="1"/>
         <v>20.147831354696475</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <f t="shared" si="2"/>
         <v>7.6188342068414894</v>
       </c>
-      <c r="I30" s="4">
+      <c r="J30" s="4">
         <f t="shared" si="0"/>
         <v>0.37814661403077177</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>363</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>579.70000000000005</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>425.2</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -14483,31 +14576,34 @@
         <v>6.79700512139644</v>
       </c>
       <c r="G31">
+        <v>9.2213284432397593</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="1"/>
         <v>12.089359845064109</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <f t="shared" si="2"/>
         <v>8.9770504911654871</v>
       </c>
-      <c r="I31" s="4">
+      <c r="J31" s="4">
         <f t="shared" si="0"/>
         <v>0.74255796884321146</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>363</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>424.2</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>331.1</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
@@ -14527,31 +14623,34 @@
         <v>10.8485346306729</v>
       </c>
       <c r="G32">
+        <v>6.8417408766984602</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="1"/>
         <v>8.4785455090424904</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <f t="shared" si="2"/>
         <v>4.3136054014646659</v>
       </c>
-      <c r="I32" s="4">
+      <c r="J32" s="4">
         <f t="shared" si="0"/>
         <v>0.50876714607053108</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>363</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>480.8</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>341.6</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
@@ -14571,31 +14670,34 @@
         <v>10.3236643085159</v>
       </c>
       <c r="G33">
+        <v>9.0646765683026</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="1"/>
         <v>7.8730615303211522</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <f t="shared" si="2"/>
         <v>3.4912947837481312</v>
       </c>
-      <c r="I33" s="4">
+      <c r="J33" s="4">
         <f t="shared" si="0"/>
         <v>0.44344817709124607</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>363</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>388.5</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>295.60000000000002</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
@@ -14615,31 +14717,34 @@
         <v>17.428368852076702</v>
       </c>
       <c r="G34">
+        <v>13.7978945484861</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="1"/>
         <v>18.752405463820502</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <f t="shared" si="2"/>
         <v>2.4899702088317643</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <f t="shared" si="0"/>
         <v>0.13278137642851889</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>363</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>940.1</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>1060</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>39</v>
       </c>
@@ -14659,31 +14764,34 @@
         <v>16.994633851288899</v>
       </c>
       <c r="G35">
+        <v>14.263203360011801</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="1"/>
         <v>23.619150399342846</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <f t="shared" si="2"/>
         <v>6.8238292617708316</v>
       </c>
-      <c r="I35" s="4">
-        <f t="shared" ref="I35:I66" si="3">H35/G35</f>
+      <c r="J35" s="4">
+        <f t="shared" ref="J35:J66" si="3">I35/H35</f>
         <v>0.28891086878216798</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>363</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>1510.1</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>1564.1</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
@@ -14703,31 +14811,34 @@
         <v>22.444411618568498</v>
       </c>
       <c r="G36">
+        <v>16.879975707983</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="1"/>
         <v>26.738979933596724</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <f t="shared" si="2"/>
         <v>5.9033881770534107</v>
       </c>
-      <c r="I36" s="4">
+      <c r="J36" s="4">
         <f t="shared" si="3"/>
         <v>0.2207783614675585</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>363</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>55.6</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>1795.2</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>41</v>
       </c>
@@ -14747,31 +14858,34 @@
         <v>16.6507809513895</v>
       </c>
       <c r="G37">
+        <v>16.493774392662601</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="1"/>
         <v>24.857484028944903</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <f t="shared" si="2"/>
         <v>8.2581874637125168</v>
       </c>
-      <c r="I37" s="4">
+      <c r="J37" s="4">
         <f t="shared" si="3"/>
         <v>0.33222137260940815</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>363</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>37.5</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>416.2</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>42</v>
       </c>
@@ -14791,31 +14905,34 @@
         <v>30.3848119444955</v>
       </c>
       <c r="G38">
+        <v>30.019442833052</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="1"/>
         <v>38.501347714413654</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <f t="shared" si="2"/>
         <v>6.7114221878263933</v>
       </c>
-      <c r="I38" s="4">
+      <c r="J38" s="4">
         <f t="shared" si="3"/>
         <v>0.17431655217912942</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>363</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>1006.5</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>807.7</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
@@ -14835,31 +14952,34 @@
         <v>21.5449384547329</v>
       </c>
       <c r="G39">
+        <v>18.640819524197401</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="1"/>
         <v>35.563188841650174</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <f t="shared" si="2"/>
         <v>18.673249464347226</v>
       </c>
-      <c r="I39" s="4">
+      <c r="J39" s="4">
         <f t="shared" si="3"/>
         <v>0.52507241539819027</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>363</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>1013.4</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>611.6</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
@@ -14879,31 +14999,34 @@
         <v>19.241786954268701</v>
       </c>
       <c r="G40">
+        <v>17.989919770028798</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="1"/>
         <v>29.474180347480729</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <f t="shared" si="2"/>
         <v>10.5551362415003</v>
       </c>
-      <c r="I40" s="4">
+      <c r="J40" s="4">
         <f t="shared" si="3"/>
         <v>0.35811466568577494</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>363</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>1132.2</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>781.9</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
@@ -14923,31 +15046,34 @@
         <v>18.237190689990499</v>
       </c>
       <c r="G41">
+        <v>17.456148279238199</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="1"/>
         <v>27.511929704452871</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <f t="shared" si="2"/>
         <v>11.183411879459863</v>
       </c>
-      <c r="I41" s="4">
+      <c r="J41" s="4">
         <f t="shared" si="3"/>
         <v>0.40649318312447569</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>363</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>2202.1</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>1909.9</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
@@ -14967,31 +15093,34 @@
         <v>32.393341833579598</v>
       </c>
       <c r="G42">
+        <v>23.708214576376001</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="1"/>
         <v>32.67631265004232</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <f t="shared" si="2"/>
         <v>5.5132449598906064</v>
       </c>
-      <c r="I42" s="4">
+      <c r="J42" s="4">
         <f t="shared" si="3"/>
         <v>0.1687229834937776</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>363</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>3021.3</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>2477.6</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
@@ -15011,31 +15140,34 @@
         <v>29.061844556404701</v>
       </c>
       <c r="G43">
+        <v>23.148221757381901</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="1"/>
         <v>34.268387254439176</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <f t="shared" si="2"/>
         <v>7.4448887321974935</v>
       </c>
-      <c r="I43" s="4">
+      <c r="J43" s="4">
         <f t="shared" si="3"/>
         <v>0.21725238123755217</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>363</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>4670</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>3796.5</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
@@ -15055,31 +15187,34 @@
         <v>6.8739392896310401</v>
       </c>
       <c r="G44">
+        <v>5.8717234707231301</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="1"/>
         <v>14.813175358987058</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <f t="shared" si="2"/>
         <v>16.42796439312691</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J44" s="4">
         <f t="shared" si="3"/>
         <v>1.1090103232430966</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>363</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>377.2</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>331.1</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
@@ -15099,31 +15234,34 @@
         <v>5.9296706764169604</v>
       </c>
       <c r="G45">
+        <v>6.3098615913942</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="1"/>
         <v>7.4906746425785222</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <f t="shared" si="2"/>
         <v>3.972574736195885</v>
       </c>
-      <c r="I45" s="4">
+      <c r="J45" s="4">
         <f t="shared" si="3"/>
         <v>0.53033604124453093</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>363</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>351.5</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>319.3</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
@@ -15143,31 +15281,34 @@
         <v>30.556163307764798</v>
       </c>
       <c r="G46">
+        <v>27.602967991351601</v>
+      </c>
+      <c r="H46">
         <f t="shared" si="1"/>
         <v>29.099845914583575</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <f t="shared" si="2"/>
         <v>14.782287969813023</v>
       </c>
-      <c r="I46" s="4">
+      <c r="J46" s="4">
         <f t="shared" si="3"/>
         <v>0.50798509425800031</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>363</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>4359</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>3996.5</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>51</v>
       </c>
@@ -15187,31 +15328,34 @@
         <v>27.187744604819201</v>
       </c>
       <c r="G47">
+        <v>22.026093065876498</v>
+      </c>
+      <c r="H47">
         <f t="shared" si="1"/>
         <v>36.370009791021602</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <f t="shared" si="2"/>
         <v>10.824905426012752</v>
       </c>
-      <c r="I47" s="4">
+      <c r="J47" s="4">
         <f t="shared" si="3"/>
         <v>0.29763273334848034</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>363</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>2306.9</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>2653.5</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
@@ -15231,31 +15375,34 @@
         <v>29.904370910053199</v>
       </c>
       <c r="G48">
+        <v>23.0535027186436</v>
+      </c>
+      <c r="H48">
         <f t="shared" si="1"/>
         <v>35.455263630365778</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <f t="shared" si="2"/>
         <v>8.1838893614418726</v>
       </c>
-      <c r="I48" s="4">
+      <c r="J48" s="4">
         <f t="shared" si="3"/>
         <v>0.2308229730502625</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>363</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>42.5</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>3093.1</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>53</v>
       </c>
@@ -15275,31 +15422,34 @@
         <v>35.0955900540214</v>
       </c>
       <c r="G49">
+        <v>31.4075696138237</v>
+      </c>
+      <c r="H49">
         <f t="shared" si="1"/>
         <v>42.327852855389494</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <f t="shared" si="2"/>
         <v>6.6698442255505803</v>
       </c>
-      <c r="I49" s="4">
+      <c r="J49" s="4">
         <f t="shared" si="3"/>
         <v>0.15757577518372343</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>363</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>12.2</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>4431.6000000000004</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
@@ -15319,31 +15469,34 @@
         <v>49.202630107681699</v>
       </c>
       <c r="G50">
+        <v>39.787619568243699</v>
+      </c>
+      <c r="H50">
         <f t="shared" si="1"/>
         <v>58.034199334462848</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <f t="shared" si="2"/>
         <v>12.004357513062324</v>
       </c>
-      <c r="I50" s="4">
+      <c r="J50" s="4">
         <f t="shared" si="3"/>
         <v>0.20684971362969581</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>363</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>4502.8999999999996</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>3529</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>55</v>
       </c>
@@ -15363,31 +15516,34 @@
         <v>37.128847358084798</v>
       </c>
       <c r="G51">
+        <v>31.8451363658838</v>
+      </c>
+      <c r="H51">
         <f t="shared" si="1"/>
         <v>50.290208123248846</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <f t="shared" si="2"/>
         <v>19.969381132545315</v>
       </c>
-      <c r="I51" s="4">
+      <c r="J51" s="4">
         <f t="shared" si="3"/>
         <v>0.39708288905079309</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>363</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>3976.6</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>3120.4</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>56</v>
       </c>
@@ -15407,31 +15563,34 @@
         <v>21.9914684361867</v>
       </c>
       <c r="G52">
+        <v>18.843433209128801</v>
+      </c>
+      <c r="H52">
         <f t="shared" si="1"/>
         <v>36.644594473612351</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <f t="shared" si="2"/>
         <v>18.112084446303154</v>
       </c>
-      <c r="I52" s="4">
+      <c r="J52" s="4">
         <f t="shared" si="3"/>
         <v>0.49426347068312093</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>363</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>2195.1999999999998</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>1872.5</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -15451,31 +15610,34 @@
         <v>29.070902787807199</v>
       </c>
       <c r="G53">
+        <v>23.646202186609099</v>
+      </c>
+      <c r="H53">
         <f t="shared" si="1"/>
         <v>36.967939845219419</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <f t="shared" si="2"/>
         <v>8.1308484565734744</v>
       </c>
-      <c r="I53" s="4">
+      <c r="J53" s="4">
         <f t="shared" si="3"/>
         <v>0.21994323975359234</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>363</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>3090.6</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>3361.9</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>58</v>
       </c>
@@ -15495,31 +15657,34 @@
         <v>30.518555679877402</v>
       </c>
       <c r="G54">
+        <v>29.408440648920902</v>
+      </c>
+      <c r="H54">
         <f t="shared" si="1"/>
         <v>37.625643265141974</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <f t="shared" si="2"/>
         <v>10.561501177415224</v>
       </c>
-      <c r="I54" s="4">
+      <c r="J54" s="4">
         <f t="shared" si="3"/>
         <v>0.28069955118082607</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>363</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>3243.6</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>3251.9</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>59</v>
       </c>
@@ -15539,31 +15704,34 @@
         <v>30.036947523879402</v>
       </c>
       <c r="G55">
+        <v>23.581866196506699</v>
+      </c>
+      <c r="H55">
         <f t="shared" si="1"/>
         <v>34.472022204390804</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <f t="shared" si="2"/>
         <v>6.2933986758901002</v>
       </c>
-      <c r="I55" s="4">
+      <c r="J55" s="4">
         <f t="shared" si="3"/>
         <v>0.18256540444814667</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>363</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>3051.6</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>3099.2</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>60</v>
       </c>
@@ -15583,31 +15751,34 @@
         <v>32.299823095563902</v>
       </c>
       <c r="G56">
+        <v>22.705826279454701</v>
+      </c>
+      <c r="H56">
         <f t="shared" si="1"/>
         <v>35.919172887187848</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <f t="shared" si="2"/>
         <v>7.1777957515729796</v>
       </c>
-      <c r="I56" s="4">
+      <c r="J56" s="4">
         <f t="shared" si="3"/>
         <v>0.1998318773685698</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>363</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>3604</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>3316</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>61</v>
       </c>
@@ -15627,31 +15798,34 @@
         <v>29.940182531718001</v>
       </c>
       <c r="G57">
+        <v>25.5368184106771</v>
+      </c>
+      <c r="H57">
         <f t="shared" si="1"/>
         <v>35.253224369029596</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <f t="shared" si="2"/>
         <v>6.2185580642500042</v>
       </c>
-      <c r="I57" s="4">
+      <c r="J57" s="4">
         <f t="shared" si="3"/>
         <v>0.17639685945189984</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>363</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>3888.4</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>3431.9</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>62</v>
       </c>
@@ -15671,31 +15845,34 @@
         <v>34.439062400366403</v>
       </c>
       <c r="G58">
+        <v>24.113670224242401</v>
+      </c>
+      <c r="H58">
         <f t="shared" si="1"/>
         <v>40.582837617918727</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <f t="shared" si="2"/>
         <v>7.886316206027856</v>
       </c>
-      <c r="I58" s="4">
+      <c r="J58" s="4">
         <f t="shared" si="3"/>
         <v>0.1943263869391374</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>363</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>4137.6000000000004</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>4277.1000000000004</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>63</v>
       </c>
@@ -15715,31 +15892,34 @@
         <v>31.9382486522844</v>
       </c>
       <c r="G59">
+        <v>23.701256363127701</v>
+      </c>
+      <c r="H59">
         <f t="shared" si="1"/>
         <v>40.378692160732953</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <f t="shared" si="2"/>
         <v>9.499863347671317</v>
       </c>
-      <c r="I59" s="4">
+      <c r="J59" s="4">
         <f t="shared" si="3"/>
         <v>0.23526921847433296</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>363</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>3491.1</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>4160.3999999999996</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>64</v>
       </c>
@@ -15759,31 +15939,34 @@
         <v>34.4090433315586</v>
       </c>
       <c r="G60">
+        <v>29.8368526732785</v>
+      </c>
+      <c r="H60">
         <f t="shared" si="1"/>
         <v>41.114926390269972</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <f t="shared" si="2"/>
         <v>9.8964909574157396</v>
       </c>
-      <c r="I60" s="4">
+      <c r="J60" s="4">
         <f t="shared" si="3"/>
         <v>0.24070311748771092</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>363</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>21</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>4323.2</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>65</v>
       </c>
@@ -15803,31 +15986,34 @@
         <v>15.4151223879278</v>
       </c>
       <c r="G61">
+        <v>16.277300312684499</v>
+      </c>
+      <c r="H61">
         <f t="shared" si="1"/>
         <v>26.796477972476296</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <f t="shared" si="2"/>
         <v>17.099571681609532</v>
       </c>
-      <c r="I61" s="4">
+      <c r="J61" s="4">
         <f t="shared" si="3"/>
         <v>0.63812758151176308</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>363</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>27.2</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>280.3</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>66</v>
       </c>
@@ -15847,31 +16033,34 @@
         <v>47.433873848541502</v>
       </c>
       <c r="G62">
+        <v>48.048027824141499</v>
+      </c>
+      <c r="H62">
         <f t="shared" si="1"/>
         <v>51.284419156397604</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <f t="shared" si="2"/>
         <v>13.260309459955868</v>
       </c>
-      <c r="I62" s="4">
+      <c r="J62" s="4">
         <f t="shared" si="3"/>
         <v>0.25856409564700467</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>363</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>4656.8999999999996</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>4013.2</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>67</v>
       </c>
@@ -15891,31 +16080,34 @@
         <v>30.995325654898501</v>
       </c>
       <c r="G63">
+        <v>28.867128747304999</v>
+      </c>
+      <c r="H63">
         <f t="shared" si="1"/>
         <v>50.528482096103652</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <f t="shared" si="2"/>
         <v>23.551538509047081</v>
       </c>
-      <c r="I63" s="4">
+      <c r="J63" s="4">
         <f t="shared" si="3"/>
         <v>0.46610421552447912</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>364</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>3478.8</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>3063.7</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>68</v>
       </c>
@@ -15935,31 +16127,34 @@
         <v>13.8595181761621</v>
       </c>
       <c r="G64">
+        <v>5.8523965066437</v>
+      </c>
+      <c r="H64">
         <f t="shared" si="1"/>
         <v>25.35554515215151</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <f t="shared" si="2"/>
         <v>24.000558975159738</v>
       </c>
-      <c r="I64" s="4">
+      <c r="J64" s="4">
         <f t="shared" si="3"/>
         <v>0.94656055829756836</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>364</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>492.6</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>354.8</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>69</v>
       </c>
@@ -15979,31 +16174,34 @@
         <v>10.779172408873301</v>
       </c>
       <c r="G65">
+        <v>4.2202208050945904</v>
+      </c>
+      <c r="H65">
         <f t="shared" si="1"/>
         <v>15.190313766590558</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <f t="shared" si="2"/>
         <v>10.415411149611657</v>
       </c>
-      <c r="I65" s="4">
+      <c r="J65" s="4">
         <f t="shared" si="3"/>
         <v>0.68566135694439834</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>364</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>346</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>252.3</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>70</v>
       </c>
@@ -16023,31 +16221,34 @@
         <v>7.6740038206439003</v>
       </c>
       <c r="G66">
+        <v>9.5769138980661008</v>
+      </c>
+      <c r="H66">
         <f t="shared" si="1"/>
         <v>10.976142662728179</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <f t="shared" si="2"/>
         <v>4.3197591322489064</v>
       </c>
-      <c r="I66" s="4">
+      <c r="J66" s="4">
         <f t="shared" si="3"/>
         <v>0.39355894552259829</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>364</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>251.3</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>248.2</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>71</v>
       </c>
@@ -16067,31 +16268,34 @@
         <v>8.5410948849661601</v>
       </c>
       <c r="G67">
+        <v>10.674066278582901</v>
+      </c>
+      <c r="H67">
         <f t="shared" si="1"/>
         <v>7.0181337049043426</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <f t="shared" si="2"/>
         <v>3.0141783505957171</v>
       </c>
-      <c r="I67" s="4">
-        <f t="shared" ref="I67:I98" si="4">H67/G67</f>
+      <c r="J67" s="4">
+        <f t="shared" ref="J67:J98" si="4">I67/H67</f>
         <v>0.42948431553667593</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>364</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>276.89999999999998</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>315</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>72</v>
       </c>
@@ -16111,31 +16315,34 @@
         <v>5.8294724703378398</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G131" si="5">AVERAGE(C68:F68)</f>
+        <v>10.717208322091</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ref="H68:H131" si="5">AVERAGE(C68:F68)</f>
         <v>10.173091076672661</v>
       </c>
-      <c r="H68">
-        <f t="shared" ref="H68:H131" si="6">_xlfn.STDEV.P(C68:F68)</f>
+      <c r="I68">
+        <f t="shared" ref="I68:I131" si="6">_xlfn.STDEV.P(C68:F68)</f>
         <v>6.9987405245641181</v>
       </c>
-      <c r="I68" s="4">
+      <c r="J68" s="4">
         <f t="shared" si="4"/>
         <v>0.68796597531821313</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>364</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>360.6</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>234.7</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>73</v>
       </c>
@@ -16155,31 +16362,34 @@
         <v>11.1002631547703</v>
       </c>
       <c r="G69">
+        <v>10.768347908870499</v>
+      </c>
+      <c r="H69">
         <f t="shared" si="5"/>
         <v>8.9791434531660883</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <f t="shared" si="6"/>
         <v>3.1170045299537792</v>
       </c>
-      <c r="I69" s="4">
+      <c r="J69" s="4">
         <f t="shared" si="4"/>
         <v>0.34713829289081116</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>364</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>318</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>302.7</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>74</v>
       </c>
@@ -16199,31 +16409,34 @@
         <v>11.217656928992801</v>
       </c>
       <c r="G70">
+        <v>10.578396745693301</v>
+      </c>
+      <c r="H70">
         <f t="shared" si="5"/>
         <v>10.355335813116776</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <f t="shared" si="6"/>
         <v>4.0528719269948743</v>
       </c>
-      <c r="I70" s="4">
+      <c r="J70" s="4">
         <f t="shared" si="4"/>
         <v>0.39138005759902345</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>364</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>348</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>249.4</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>75</v>
       </c>
@@ -16243,31 +16456,34 @@
         <v>7.36080243131667</v>
       </c>
       <c r="G71">
+        <v>8.6562646569683093</v>
+      </c>
+      <c r="H71">
         <f t="shared" si="5"/>
         <v>12.008420222742142</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <f t="shared" si="6"/>
         <v>3.0587570964201638</v>
       </c>
-      <c r="I71" s="4">
+      <c r="J71" s="4">
         <f t="shared" si="4"/>
         <v>0.2547176930590202</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>364</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>233.4</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>250</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>76</v>
       </c>
@@ -16287,31 +16503,34 @@
         <v>7.0600708378732797</v>
       </c>
       <c r="G72">
+        <v>11.7414573357705</v>
+      </c>
+      <c r="H72">
         <f t="shared" si="5"/>
         <v>12.479476546093544</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <f t="shared" si="6"/>
         <v>3.642198683254867</v>
       </c>
-      <c r="I72" s="4">
+      <c r="J72" s="4">
         <f t="shared" si="4"/>
         <v>0.29185508461049886</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>364</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>26.6</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>241.9</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>77</v>
       </c>
@@ -16331,31 +16550,34 @@
         <v>18.9132505173209</v>
       </c>
       <c r="G73">
+        <v>15.6735921434102</v>
+      </c>
+      <c r="H73">
         <f t="shared" si="5"/>
         <v>23.262221022590175</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <f t="shared" si="6"/>
         <v>6.0217001484443609</v>
       </c>
-      <c r="I73" s="4">
+      <c r="J73" s="4">
         <f t="shared" si="4"/>
         <v>0.25886178893221878</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>364</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>20.9</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>167.4</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>78</v>
       </c>
@@ -16375,31 +16597,34 @@
         <v>17.079993115501001</v>
       </c>
       <c r="G74">
+        <v>18.764788083403499</v>
+      </c>
+      <c r="H74">
         <f t="shared" si="5"/>
         <v>27.749061420821622</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <f t="shared" si="6"/>
         <v>11.178154147239997</v>
       </c>
-      <c r="I74" s="4">
+      <c r="J74" s="4">
         <f t="shared" si="4"/>
         <v>0.40282999045338608</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>364</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>440.5</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>68.400000000000006</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>79</v>
       </c>
@@ -16419,31 +16644,34 @@
         <v>13.186679705605799</v>
       </c>
       <c r="G75">
+        <v>11.6115925804387</v>
+      </c>
+      <c r="H75">
         <f t="shared" si="5"/>
         <v>23.379325779672072</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <f t="shared" si="6"/>
         <v>14.611721043560079</v>
       </c>
-      <c r="I75" s="4">
+      <c r="J75" s="4">
         <f t="shared" si="4"/>
         <v>0.62498470577217091</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>364</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>341.5</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>46.1</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>80</v>
       </c>
@@ -16463,31 +16691,34 @@
         <v>12.0135743576053</v>
       </c>
       <c r="G76">
+        <v>11.0212630611852</v>
+      </c>
+      <c r="H76">
         <f t="shared" si="5"/>
         <v>20.796773871051677</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <f t="shared" si="6"/>
         <v>9.8423429136441332</v>
       </c>
-      <c r="I76" s="4">
+      <c r="J76" s="4">
         <f t="shared" si="4"/>
         <v>0.47326296735592738</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>364</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>320.89999999999998</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>43.9</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>81</v>
       </c>
@@ -16507,31 +16738,34 @@
         <v>10.235302573096201</v>
       </c>
       <c r="G77">
+        <v>8.6526315646393606</v>
+      </c>
+      <c r="H77">
         <f t="shared" si="5"/>
         <v>18.698862467425826</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <f t="shared" si="6"/>
         <v>8.9897965862355385</v>
       </c>
-      <c r="I77" s="4">
+      <c r="J77" s="4">
         <f t="shared" si="4"/>
         <v>0.48076703071623356</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>364</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>378.1</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>51.1</v>
       </c>
-      <c r="N77" t="s">
+      <c r="O77" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>82</v>
       </c>
@@ -16551,31 +16785,34 @@
         <v>26.00441221881</v>
       </c>
       <c r="G78">
+        <v>21.477357509413</v>
+      </c>
+      <c r="H78">
         <f t="shared" si="5"/>
         <v>25.593259994463999</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <f t="shared" si="6"/>
         <v>9.3231900127773706</v>
       </c>
-      <c r="I78" s="4">
+      <c r="J78" s="4">
         <f t="shared" si="4"/>
         <v>0.36428301884144659</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>364</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>3130.8</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>74.400000000000006</v>
       </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>83</v>
       </c>
@@ -16595,31 +16832,34 @@
         <v>10.292231992779699</v>
       </c>
       <c r="G79">
+        <v>8.32621758676847</v>
+      </c>
+      <c r="H79">
         <f t="shared" si="5"/>
         <v>16.749921143049576</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <f t="shared" si="6"/>
         <v>14.748072625498327</v>
       </c>
-      <c r="I79" s="4">
+      <c r="J79" s="4">
         <f t="shared" si="4"/>
         <v>0.88048609301173208</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>364</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>274.10000000000002</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>48.7</v>
       </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>84</v>
       </c>
@@ -16639,31 +16879,34 @@
         <v>12.4970127608154</v>
       </c>
       <c r="G80">
+        <v>12.1284998407834</v>
+      </c>
+      <c r="H80">
         <f t="shared" si="5"/>
         <v>13.009635824015676</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <f t="shared" si="6"/>
         <v>2.8886486291269868</v>
       </c>
-      <c r="I80" s="4">
+      <c r="J80" s="4">
         <f t="shared" si="4"/>
         <v>0.22203916144943628</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>364</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>283.10000000000002</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>28.9</v>
       </c>
-      <c r="N80" t="s">
+      <c r="O80" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>85</v>
       </c>
@@ -16683,31 +16926,34 @@
         <v>11.913828026547099</v>
       </c>
       <c r="G81">
+        <v>11.707384970514401</v>
+      </c>
+      <c r="H81">
         <f t="shared" si="5"/>
         <v>18.473058022999624</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <f t="shared" si="6"/>
         <v>7.035984075450064</v>
       </c>
-      <c r="I81" s="4">
+      <c r="J81" s="4">
         <f t="shared" si="4"/>
         <v>0.38087814517174201</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>364</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>269.5</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>47.4</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>86</v>
       </c>
@@ -16727,31 +16973,34 @@
         <v>11.0447091184299</v>
       </c>
       <c r="G82">
+        <v>12.017648817912599</v>
+      </c>
+      <c r="H82">
         <f t="shared" si="5"/>
         <v>14.66102344045755</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <f t="shared" si="6"/>
         <v>11.631500310167917</v>
       </c>
-      <c r="I82" s="4">
+      <c r="J82" s="4">
         <f t="shared" si="4"/>
         <v>0.79336209763299548</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>364</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>312.8</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>242.4</v>
       </c>
-      <c r="N82" t="s">
+      <c r="O82" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>87</v>
       </c>
@@ -16771,31 +17020,34 @@
         <v>12.242910450783601</v>
       </c>
       <c r="G83">
+        <v>11.8933724868456</v>
+      </c>
+      <c r="H83">
         <f t="shared" si="5"/>
         <v>20.107709117653574</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <f t="shared" si="6"/>
         <v>7.6749547766368638</v>
       </c>
-      <c r="I83" s="4">
+      <c r="J83" s="4">
         <f t="shared" si="4"/>
         <v>0.38169215258334094</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>364</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>120.1</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <v>236.7</v>
       </c>
-      <c r="N83" t="s">
+      <c r="O83" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>88</v>
       </c>
@@ -16815,31 +17067,34 @@
         <v>13.056672402141301</v>
       </c>
       <c r="G84">
+        <v>11.889291732419499</v>
+      </c>
+      <c r="H84">
         <f t="shared" si="5"/>
         <v>19.048514130035656</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <f t="shared" si="6"/>
         <v>9.9779383690819508</v>
       </c>
-      <c r="I84" s="4">
+      <c r="J84" s="4">
         <f t="shared" si="4"/>
         <v>0.52381714925201217</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>364</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>227.6</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <v>218.3</v>
       </c>
-      <c r="N84" t="s">
+      <c r="O84" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>89</v>
       </c>
@@ -16859,31 +17114,34 @@
         <v>27.561543832645899</v>
       </c>
       <c r="G85">
+        <v>24.75041120325</v>
+      </c>
+      <c r="H85">
         <f t="shared" si="5"/>
         <v>34.716757508145299</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <f t="shared" si="6"/>
         <v>7.852437522866401</v>
       </c>
-      <c r="I85" s="4">
+      <c r="J85" s="4">
         <f t="shared" si="4"/>
         <v>0.2261857986312244</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>364</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>35.1</v>
       </c>
-      <c r="M85">
+      <c r="N85">
         <v>1637.2</v>
       </c>
-      <c r="N85" t="s">
+      <c r="O85" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>90</v>
       </c>
@@ -16903,31 +17161,34 @@
         <v>19.024864485335701</v>
       </c>
       <c r="G86">
+        <v>20.217338927014001</v>
+      </c>
+      <c r="H86">
         <f t="shared" si="5"/>
         <v>33.907867797630828</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <f t="shared" si="6"/>
         <v>16.908444470420651</v>
       </c>
-      <c r="I86" s="4">
+      <c r="J86" s="4">
         <f t="shared" si="4"/>
         <v>0.49865844031638162</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>364</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>308.60000000000002</v>
       </c>
-      <c r="M86">
+      <c r="N86">
         <v>232.2</v>
       </c>
-      <c r="N86" t="s">
+      <c r="O86" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>91</v>
       </c>
@@ -16947,31 +17208,34 @@
         <v>23.686498489203601</v>
       </c>
       <c r="G87">
+        <v>27.2903666766863</v>
+      </c>
+      <c r="H87">
         <f t="shared" si="5"/>
         <v>36.763967828824079</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <f t="shared" si="6"/>
         <v>13.048247940464483</v>
       </c>
-      <c r="I87" s="4">
+      <c r="J87" s="4">
         <f t="shared" si="4"/>
         <v>0.35491946900884447</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>364</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>1636.1</v>
       </c>
-      <c r="M87">
+      <c r="N87">
         <v>1475.3</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>92</v>
       </c>
@@ -16991,31 +17255,34 @@
         <v>15.9000428778351</v>
       </c>
       <c r="G88">
+        <v>17.7696158758996</v>
+      </c>
+      <c r="H88">
         <f t="shared" si="5"/>
         <v>29.408046203867102</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <f t="shared" si="6"/>
         <v>18.508008210733109</v>
       </c>
-      <c r="I88" s="4">
+      <c r="J88" s="4">
         <f t="shared" si="4"/>
         <v>0.62935184753277973</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>364</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>287.5</v>
       </c>
-      <c r="M88">
+      <c r="N88">
         <v>322.39999999999998</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>93</v>
       </c>
@@ -17035,31 +17302,34 @@
         <v>18.803817231104201</v>
       </c>
       <c r="G89">
+        <v>18.442798818957701</v>
+      </c>
+      <c r="H89">
         <f t="shared" si="5"/>
         <v>27.879578763241927</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <f t="shared" si="6"/>
         <v>10.172826192534297</v>
       </c>
-      <c r="I89" s="4">
+      <c r="J89" s="4">
         <f t="shared" si="4"/>
         <v>0.36488450126609329</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>364</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>566.1</v>
       </c>
-      <c r="M89">
+      <c r="N89">
         <v>656.9</v>
       </c>
-      <c r="N89" t="s">
+      <c r="O89" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>94</v>
       </c>
@@ -17079,31 +17349,34 @@
         <v>15.5264757173783</v>
       </c>
       <c r="G90">
+        <v>17.417029045003201</v>
+      </c>
+      <c r="H90">
         <f t="shared" si="5"/>
         <v>27.527479303856225</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <f t="shared" si="6"/>
         <v>14.467703862506111</v>
       </c>
-      <c r="I90" s="4">
+      <c r="J90" s="4">
         <f t="shared" si="4"/>
         <v>0.52557314466782223</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>364</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>302.7</v>
       </c>
-      <c r="M90">
+      <c r="N90">
         <v>277.5</v>
       </c>
-      <c r="N90" t="s">
+      <c r="O90" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>95</v>
       </c>
@@ -17123,31 +17396,34 @@
         <v>14.299060820765201</v>
       </c>
       <c r="G91">
+        <v>18.538759036861698</v>
+      </c>
+      <c r="H91">
         <f t="shared" si="5"/>
         <v>23.266345375050353</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <f t="shared" si="6"/>
         <v>9.4524596495919955</v>
       </c>
-      <c r="I91" s="4">
+      <c r="J91" s="4">
         <f t="shared" si="4"/>
         <v>0.4062717842970015</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>364</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>278.39999999999998</v>
       </c>
-      <c r="M91">
+      <c r="N91">
         <v>253.3</v>
       </c>
-      <c r="N91" t="s">
+      <c r="O91" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>124</v>
       </c>
@@ -17164,23 +17440,24 @@
         <v>30.096817956472499</v>
       </c>
       <c r="F92" s="13"/>
-      <c r="G92">
+      <c r="G92" s="13"/>
+      <c r="H92">
         <f t="shared" si="5"/>
         <v>30.440010549529234</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <f t="shared" si="6"/>
         <v>0.27913131935003588</v>
       </c>
-      <c r="I92" s="11">
+      <c r="J92" s="11">
         <f t="shared" si="4"/>
         <v>9.1698824774012026E-3</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="14" t="s">
         <v>125</v>
       </c>
@@ -17197,23 +17474,24 @@
         <v>161.48148148148101</v>
       </c>
       <c r="F93" s="13"/>
-      <c r="G93">
+      <c r="G93" s="13"/>
+      <c r="H93">
         <f t="shared" si="5"/>
         <v>181.85500125976304</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <f t="shared" si="6"/>
         <v>20.134181733470101</v>
       </c>
-      <c r="I93" s="12">
+      <c r="J93" s="12">
         <f t="shared" si="4"/>
         <v>0.11071557886225128</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>126</v>
       </c>
@@ -17230,23 +17508,24 @@
         <v>21.345062274719201</v>
       </c>
       <c r="F94" s="13"/>
-      <c r="G94">
+      <c r="G94" s="13"/>
+      <c r="H94">
         <f t="shared" si="5"/>
         <v>21.593535325214834</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <f t="shared" si="6"/>
         <v>1.757558707146031</v>
       </c>
-      <c r="I94" s="11">
+      <c r="J94" s="11">
         <f t="shared" si="4"/>
         <v>8.1392818761535757E-2</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>127</v>
       </c>
@@ -17263,23 +17542,24 @@
         <v>19.519235156703299</v>
       </c>
       <c r="F95" s="13"/>
-      <c r="G95">
+      <c r="G95" s="13"/>
+      <c r="H95">
         <f t="shared" si="5"/>
         <v>20.247576669166335</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <f t="shared" si="6"/>
         <v>0.68605746128762457</v>
       </c>
-      <c r="I95" s="11">
+      <c r="J95" s="11">
         <f t="shared" si="4"/>
         <v>3.3883435657382895E-2</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="14" t="s">
         <v>128</v>
       </c>
@@ -17296,23 +17576,24 @@
         <v>162.777777777778</v>
       </c>
       <c r="F96" s="13"/>
-      <c r="G96">
+      <c r="G96" s="13"/>
+      <c r="H96">
         <f t="shared" si="5"/>
         <v>187.06655931293631</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <f t="shared" si="6"/>
         <v>27.287487419434701</v>
       </c>
-      <c r="I96" s="12">
+      <c r="J96" s="12">
         <f t="shared" si="4"/>
         <v>0.14587047262566333</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>129</v>
       </c>
@@ -17329,23 +17610,24 @@
         <v>17.435941790015299</v>
       </c>
       <c r="F97" s="13"/>
-      <c r="G97">
+      <c r="G97" s="13"/>
+      <c r="H97">
         <f t="shared" si="5"/>
         <v>19.396004296683834</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <f t="shared" si="6"/>
         <v>1.3983112671597304</v>
       </c>
-      <c r="I97" s="11">
+      <c r="J97" s="11">
         <f t="shared" si="4"/>
         <v>7.209274888636738E-2</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>130</v>
       </c>
@@ -17361,23 +17643,23 @@
       <c r="E98" s="10">
         <v>14.817036887393099</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <f t="shared" si="5"/>
         <v>17.495456951090233</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <f t="shared" si="6"/>
         <v>1.9060477565132941</v>
       </c>
-      <c r="I98" s="11">
+      <c r="J98" s="11">
         <f t="shared" si="4"/>
         <v>0.10894529716153074</v>
       </c>
-      <c r="J98" t="s">
+      <c r="K98" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="14" t="s">
         <v>131</v>
       </c>
@@ -17394,23 +17676,24 @@
         <v>167.40740740740699</v>
       </c>
       <c r="F99" s="10"/>
-      <c r="G99">
+      <c r="G99" s="10"/>
+      <c r="H99">
         <f t="shared" si="5"/>
         <v>178.55542136339236</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <f t="shared" si="6"/>
         <v>17.614541914451781</v>
       </c>
-      <c r="I99" s="12">
-        <f t="shared" ref="I99:I130" si="7">H99/G99</f>
+      <c r="J99" s="12">
+        <f t="shared" ref="J99:J130" si="7">I99/H99</f>
         <v>9.8650277767836705E-2</v>
       </c>
-      <c r="J99" t="s">
+      <c r="K99" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>132</v>
       </c>
@@ -17427,23 +17710,24 @@
         <v>13.793785630534099</v>
       </c>
       <c r="F100" s="10"/>
-      <c r="G100">
+      <c r="G100" s="10"/>
+      <c r="H100">
         <f t="shared" si="5"/>
         <v>16.821059067926232</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <f t="shared" si="6"/>
         <v>2.1921723850996457</v>
       </c>
-      <c r="I100" s="11">
+      <c r="J100" s="11">
         <f t="shared" si="7"/>
         <v>0.13032308942304341</v>
       </c>
-      <c r="J100" t="s">
+      <c r="K100" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>133</v>
       </c>
@@ -17460,23 +17744,24 @@
         <v>14.3003078998694</v>
       </c>
       <c r="F101" s="10"/>
-      <c r="G101">
+      <c r="G101" s="10"/>
+      <c r="H101">
         <f t="shared" si="5"/>
         <v>15.798994909233967</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <f t="shared" si="6"/>
         <v>1.1682355946463394</v>
       </c>
-      <c r="I101" s="11">
+      <c r="J101" s="11">
         <f t="shared" si="7"/>
         <v>7.3943665489982921E-2</v>
       </c>
-      <c r="J101" t="s">
+      <c r="K101" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>134</v>
       </c>
@@ -17493,23 +17778,24 @@
         <v>14.541353796046099</v>
       </c>
       <c r="F102" s="10"/>
-      <c r="G102">
+      <c r="G102" s="10"/>
+      <c r="H102">
         <f t="shared" si="5"/>
         <v>16.063767641496867</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <f t="shared" si="6"/>
         <v>1.7296212445288115</v>
       </c>
-      <c r="I102" s="11">
-        <f>H102/G102</f>
+      <c r="J102" s="11">
+        <f>I102/H102</f>
         <v>0.10767220263201221</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>135</v>
       </c>
@@ -17526,23 +17812,24 @@
         <v>18.759638963852801</v>
       </c>
       <c r="F103" s="10"/>
-      <c r="G103">
+      <c r="G103" s="10"/>
+      <c r="H103">
         <f t="shared" si="5"/>
         <v>19.682277378864132</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <f t="shared" si="6"/>
         <v>2.4105744692201534</v>
       </c>
-      <c r="I103" s="11">
+      <c r="J103" s="11">
         <f t="shared" si="7"/>
         <v>0.12247436731121143</v>
       </c>
-      <c r="J103" t="s">
+      <c r="K103" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="14" t="s">
         <v>136</v>
       </c>
@@ -17559,23 +17846,24 @@
         <v>172.87037037037001</v>
       </c>
       <c r="F104" s="10"/>
-      <c r="G104">
+      <c r="G104" s="10"/>
+      <c r="H104">
         <f t="shared" si="5"/>
         <v>205.66022544283399</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <f t="shared" si="6"/>
         <v>23.613882537152339</v>
       </c>
-      <c r="I104" s="12">
+      <c r="J104" s="12">
         <f t="shared" si="7"/>
         <v>0.11481988063713434</v>
       </c>
-      <c r="J104" t="s">
+      <c r="K104" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>137</v>
       </c>
@@ -17592,23 +17880,24 @@
         <v>17.750195391975002</v>
       </c>
       <c r="F105" s="10"/>
-      <c r="G105">
+      <c r="G105" s="10"/>
+      <c r="H105">
         <f t="shared" si="5"/>
         <v>19.521604992889497</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <f t="shared" si="6"/>
         <v>1.3732810408426013</v>
       </c>
-      <c r="I105" s="11">
+      <c r="J105" s="11">
         <f t="shared" si="7"/>
         <v>7.0346728219467705E-2</v>
       </c>
-      <c r="J105" t="s">
+      <c r="K105" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>138</v>
       </c>
@@ -17625,23 +17914,24 @@
         <v>16.2135213755028</v>
       </c>
       <c r="F106" s="10"/>
-      <c r="G106">
+      <c r="G106" s="10"/>
+      <c r="H106">
         <f t="shared" si="5"/>
         <v>15.8130927284812</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <f t="shared" si="6"/>
         <v>1.4716378797533274</v>
       </c>
-      <c r="I106" s="11">
+      <c r="J106" s="11">
         <f t="shared" si="7"/>
         <v>9.3064519700358062E-2</v>
       </c>
-      <c r="J106" t="s">
+      <c r="K106" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>139</v>
       </c>
@@ -17658,23 +17948,24 @@
         <v>9.9751803415595202</v>
       </c>
       <c r="F107" s="10"/>
-      <c r="G107">
+      <c r="G107" s="10"/>
+      <c r="H107">
         <f t="shared" si="5"/>
         <v>12.002522758824705</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <f t="shared" si="6"/>
         <v>2.5101162868813893</v>
       </c>
-      <c r="I107" s="11">
+      <c r="J107" s="11">
         <f t="shared" si="7"/>
         <v>0.20913239135796327</v>
       </c>
-      <c r="J107" t="s">
+      <c r="K107" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>140</v>
       </c>
@@ -17691,23 +17982,24 @@
         <v>6.4394662980558799</v>
       </c>
       <c r="F108" s="10"/>
-      <c r="G108">
+      <c r="G108" s="10"/>
+      <c r="H108">
         <f t="shared" si="5"/>
         <v>10.267414901272227</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <f t="shared" si="6"/>
         <v>3.1773075322803783</v>
       </c>
-      <c r="I108" s="11">
+      <c r="J108" s="11">
         <f t="shared" si="7"/>
         <v>0.30945545327935281</v>
       </c>
-      <c r="J108" t="s">
+      <c r="K108" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>141</v>
       </c>
@@ -17724,23 +18016,24 @@
         <v>13.460942777743499</v>
       </c>
       <c r="F109" s="10"/>
-      <c r="G109">
+      <c r="G109" s="10"/>
+      <c r="H109">
         <f t="shared" si="5"/>
         <v>10.306472135750285</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <f t="shared" si="6"/>
         <v>2.2311122397195744</v>
       </c>
-      <c r="I109" s="11">
+      <c r="J109" s="11">
         <f t="shared" si="7"/>
         <v>0.21647681285436815</v>
       </c>
-      <c r="J109" t="s">
+      <c r="K109" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>142</v>
       </c>
@@ -17757,23 +18050,24 @@
         <v>7.7126794951582003</v>
       </c>
       <c r="F110" s="10"/>
-      <c r="G110">
+      <c r="G110" s="10"/>
+      <c r="H110">
         <f t="shared" si="5"/>
         <v>10.380402578636962</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <f t="shared" si="6"/>
         <v>2.8657503439162966</v>
       </c>
-      <c r="I110" s="11">
+      <c r="J110" s="11">
         <f t="shared" si="7"/>
         <v>0.27607314092172663</v>
       </c>
-      <c r="J110" t="s">
+      <c r="K110" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>143</v>
       </c>
@@ -17790,23 +18084,24 @@
         <v>6.5038017245112103</v>
       </c>
       <c r="F111" s="10"/>
-      <c r="G111">
+      <c r="G111" s="10"/>
+      <c r="H111">
         <f t="shared" si="5"/>
         <v>8.1390659077696199</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <f t="shared" si="6"/>
         <v>1.2802855120710934</v>
       </c>
-      <c r="I111" s="11">
+      <c r="J111" s="11">
         <f t="shared" si="7"/>
         <v>0.15730128328963675</v>
       </c>
-      <c r="J111" t="s">
+      <c r="K111" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>144</v>
       </c>
@@ -17823,23 +18118,24 @@
         <v>11.009068973732001</v>
       </c>
       <c r="F112" s="10"/>
-      <c r="G112">
+      <c r="G112" s="10"/>
+      <c r="H112">
         <f t="shared" si="5"/>
         <v>8.668695786141372</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <f t="shared" si="6"/>
         <v>2.5073326532306717</v>
       </c>
-      <c r="I112" s="11">
+      <c r="J112" s="11">
         <f t="shared" si="7"/>
         <v>0.28923989433787028</v>
       </c>
-      <c r="J112" t="s">
+      <c r="K112" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="14" t="s">
         <v>145</v>
       </c>
@@ -17856,23 +18152,24 @@
         <v>124.31390687634899</v>
       </c>
       <c r="F113" s="10"/>
-      <c r="G113">
+      <c r="G113" s="10"/>
+      <c r="H113">
         <f t="shared" si="5"/>
         <v>149.68843149347302</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <f t="shared" si="6"/>
         <v>20.07534215226125</v>
       </c>
-      <c r="I113" s="12">
+      <c r="J113" s="12">
         <f t="shared" si="7"/>
         <v>0.13411418605943914</v>
       </c>
-      <c r="J113" t="s">
+      <c r="K113" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="14" t="s">
         <v>146</v>
       </c>
@@ -17889,23 +18186,24 @@
         <v>143.333333333333</v>
       </c>
       <c r="F114" s="10"/>
-      <c r="G114">
+      <c r="G114" s="10"/>
+      <c r="H114">
         <f t="shared" si="5"/>
         <v>157.59057971014468</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <f t="shared" si="6"/>
         <v>16.752084986554976</v>
       </c>
-      <c r="I114" s="12">
+      <c r="J114" s="12">
         <f t="shared" si="7"/>
         <v>0.10630130949049732</v>
       </c>
-      <c r="J114" t="s">
+      <c r="K114" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>147</v>
       </c>
@@ -17922,23 +18220,24 @@
         <v>34.510294968036099</v>
       </c>
       <c r="F115" s="10"/>
-      <c r="G115">
+      <c r="G115" s="10"/>
+      <c r="H115">
         <f t="shared" si="5"/>
         <v>34.039485205565462</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <f t="shared" si="6"/>
         <v>1.073155830754688</v>
       </c>
-      <c r="I115" s="11">
+      <c r="J115" s="11">
         <f t="shared" si="7"/>
         <v>3.1526793788856325E-2</v>
       </c>
-      <c r="J115" t="s">
+      <c r="K115" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="14" t="s">
         <v>148</v>
       </c>
@@ -17955,23 +18254,24 @@
         <v>173.333333333333</v>
       </c>
       <c r="F116" s="10"/>
-      <c r="G116">
+      <c r="G116" s="10"/>
+      <c r="H116">
         <f t="shared" si="5"/>
         <v>200.87886717415699</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <f t="shared" si="6"/>
         <v>22.124666439360507</v>
       </c>
-      <c r="I116" s="12">
+      <c r="J116" s="12">
         <f t="shared" si="7"/>
         <v>0.11013934293137451</v>
       </c>
-      <c r="J116" t="s">
+      <c r="K116" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="14" t="s">
         <v>149</v>
       </c>
@@ -17988,23 +18288,24 @@
         <v>158.14814814814801</v>
       </c>
       <c r="F117" s="10"/>
-      <c r="G117">
+      <c r="G117" s="10"/>
+      <c r="H117">
         <f t="shared" si="5"/>
         <v>169.56790123456767</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <f t="shared" si="6"/>
         <v>15.242539483531898</v>
       </c>
-      <c r="I117" s="12">
+      <c r="J117" s="12">
         <f t="shared" si="7"/>
         <v>8.9890476750352055E-2</v>
       </c>
-      <c r="J117" t="s">
+      <c r="K117" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="14" t="s">
         <v>150</v>
       </c>
@@ -18021,23 +18322,24 @@
         <v>143.888888888889</v>
       </c>
       <c r="F118" s="10"/>
-      <c r="G118">
+      <c r="G118" s="10"/>
+      <c r="H118">
         <f t="shared" si="5"/>
         <v>164.42498658078367</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <f t="shared" si="6"/>
         <v>19.177250320565008</v>
       </c>
-      <c r="I118" s="12">
+      <c r="J118" s="12">
         <f t="shared" si="7"/>
         <v>0.11663221460044353</v>
       </c>
-      <c r="J118" t="s">
+      <c r="K118" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="14" t="s">
         <v>151</v>
       </c>
@@ -18054,23 +18356,24 @@
         <v>145.09259259259301</v>
       </c>
       <c r="F119" s="10"/>
-      <c r="G119">
+      <c r="G119" s="10"/>
+      <c r="H119">
         <f t="shared" si="5"/>
         <v>163.33333333333334</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <f t="shared" si="6"/>
         <v>21.137221237139912</v>
       </c>
-      <c r="I119" s="12">
+      <c r="J119" s="12">
         <f t="shared" si="7"/>
         <v>0.12941155859473413</v>
       </c>
-      <c r="J119" t="s">
+      <c r="K119" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="14" t="s">
         <v>152</v>
       </c>
@@ -18087,23 +18390,24 @@
         <v>130.878045020043</v>
       </c>
       <c r="F120" s="10"/>
-      <c r="G120">
+      <c r="G120" s="10"/>
+      <c r="H120">
         <f t="shared" si="5"/>
         <v>151.56169698838502</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <f t="shared" si="6"/>
         <v>16.608652315828699</v>
       </c>
-      <c r="I120" s="12">
+      <c r="J120" s="12">
         <f t="shared" si="7"/>
         <v>0.10958344123780502</v>
       </c>
-      <c r="J120" t="s">
+      <c r="K120" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>153</v>
       </c>
@@ -18120,23 +18424,24 @@
         <v>14.144547979727999</v>
       </c>
       <c r="F121" s="10"/>
-      <c r="G121">
+      <c r="G121" s="10"/>
+      <c r="H121">
         <f t="shared" si="5"/>
         <v>14.875922908362233</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <f t="shared" si="6"/>
         <v>0.51974707917229923</v>
       </c>
-      <c r="I121" s="11">
+      <c r="J121" s="11">
         <f t="shared" si="7"/>
         <v>3.4938812359677718E-2</v>
       </c>
-      <c r="J121" t="s">
+      <c r="K121" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="14" t="s">
         <v>154</v>
       </c>
@@ -18153,23 +18458,24 @@
         <v>122.777777777778</v>
       </c>
       <c r="F122" s="10"/>
-      <c r="G122">
+      <c r="G122" s="10"/>
+      <c r="H122">
         <f t="shared" si="5"/>
         <v>149.31226516371433</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <f t="shared" si="6"/>
         <v>20.281515894040112</v>
       </c>
-      <c r="I122" s="12">
+      <c r="J122" s="12">
         <f t="shared" si="7"/>
         <v>0.13583288601108773</v>
       </c>
-      <c r="J122" t="s">
+      <c r="K122" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="14" t="s">
         <v>155</v>
       </c>
@@ -18186,23 +18492,24 @@
         <v>120.38647342995201</v>
       </c>
       <c r="F123" s="10"/>
-      <c r="G123">
+      <c r="G123" s="10"/>
+      <c r="H123">
         <f t="shared" si="5"/>
         <v>140.97423510466999</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <f t="shared" si="6"/>
         <v>20.43988634937406</v>
       </c>
-      <c r="I123" s="12">
+      <c r="J123" s="12">
         <f t="shared" si="7"/>
         <v>0.14499022700281322</v>
       </c>
-      <c r="J123" t="s">
+      <c r="K123" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="14" t="s">
         <v>156</v>
       </c>
@@ -18219,23 +18526,24 @@
         <v>112.21014492753601</v>
       </c>
       <c r="F124" s="10"/>
-      <c r="G124">
+      <c r="G124" s="10"/>
+      <c r="H124">
         <f t="shared" si="5"/>
         <v>143.14009661835735</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <f t="shared" si="6"/>
         <v>27.303496718258462</v>
       </c>
-      <c r="I124" s="12">
+      <c r="J124" s="12">
         <f t="shared" si="7"/>
         <v>0.19074666961456319</v>
       </c>
-      <c r="J124" t="s">
+      <c r="K124" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="14" t="s">
         <v>157</v>
       </c>
@@ -18252,23 +18560,24 @@
         <v>110.47833795868</v>
       </c>
       <c r="F125" s="10"/>
-      <c r="G125">
+      <c r="G125" s="10"/>
+      <c r="H125">
         <f t="shared" si="5"/>
         <v>138.28695138246468</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <f t="shared" si="6"/>
         <v>23.323496493846122</v>
       </c>
-      <c r="I125" s="12">
+      <c r="J125" s="12">
         <f t="shared" si="7"/>
         <v>0.16866013937453561</v>
       </c>
-      <c r="J125" t="s">
+      <c r="K125" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="14" t="s">
         <v>158</v>
       </c>
@@ -18285,23 +18594,24 @@
         <v>118.792517006803</v>
       </c>
       <c r="F126" s="10"/>
-      <c r="G126">
+      <c r="G126" s="10"/>
+      <c r="H126">
         <f t="shared" si="5"/>
         <v>142.52960443436666</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <f t="shared" si="6"/>
         <v>20.814858896100482</v>
       </c>
-      <c r="I126" s="12">
+      <c r="J126" s="12">
         <f t="shared" si="7"/>
         <v>0.14603884560477748</v>
       </c>
-      <c r="J126" t="s">
+      <c r="K126" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="14" t="s">
         <v>159</v>
       </c>
@@ -18318,23 +18628,24 @@
         <v>156.944444444444</v>
       </c>
       <c r="F127" s="10"/>
-      <c r="G127">
+      <c r="G127" s="10"/>
+      <c r="H127">
         <f t="shared" si="5"/>
         <v>168.44873859366601</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <f t="shared" si="6"/>
         <v>18.268944850179224</v>
       </c>
-      <c r="I127" s="12">
+      <c r="J127" s="12">
         <f t="shared" si="7"/>
         <v>0.10845403178855369</v>
       </c>
-      <c r="J127" t="s">
+      <c r="K127" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="14" t="s">
         <v>160</v>
       </c>
@@ -18351,23 +18662,24 @@
         <v>196.111111111111</v>
       </c>
       <c r="F128" s="10"/>
-      <c r="G128">
+      <c r="G128" s="10"/>
+      <c r="H128">
         <f t="shared" si="5"/>
         <v>222.74020397208801</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <f t="shared" si="6"/>
         <v>21.670881910998638</v>
       </c>
-      <c r="I128" s="12">
+      <c r="J128" s="12">
         <f t="shared" si="7"/>
         <v>9.729218849828411E-2</v>
       </c>
-      <c r="J128" t="s">
+      <c r="K128" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="14" t="s">
         <v>161</v>
       </c>
@@ -18384,23 +18696,24 @@
         <v>163.70370370370401</v>
       </c>
       <c r="F129" s="10"/>
-      <c r="G129">
+      <c r="G129" s="10"/>
+      <c r="H129">
         <f t="shared" si="5"/>
         <v>177.99986580783698</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <f t="shared" si="6"/>
         <v>22.345721420800277</v>
       </c>
-      <c r="I129" s="12">
+      <c r="J129" s="12">
         <f t="shared" si="7"/>
         <v>0.12553785543256538</v>
       </c>
-      <c r="J129" t="s">
+      <c r="K129" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="14" t="s">
         <v>162</v>
       </c>
@@ -18417,23 +18730,24 @@
         <v>147.40740740740699</v>
       </c>
       <c r="F130" s="10"/>
-      <c r="G130">
+      <c r="G130" s="10"/>
+      <c r="H130">
         <f t="shared" si="5"/>
         <v>166.08024691358</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <f t="shared" si="6"/>
         <v>17.729218231172808</v>
       </c>
-      <c r="I130" s="12">
+      <c r="J130" s="12">
         <f t="shared" si="7"/>
         <v>0.10675091445642071</v>
       </c>
-      <c r="J130" t="s">
+      <c r="K130" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>163</v>
       </c>
@@ -18450,23 +18764,24 @@
         <v>18.735215130452001</v>
       </c>
       <c r="F131" s="10"/>
-      <c r="G131">
+      <c r="G131" s="10"/>
+      <c r="H131">
         <f t="shared" si="5"/>
         <v>17.9353752457213</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <f t="shared" si="6"/>
         <v>0.70178954691852624</v>
       </c>
-      <c r="I131" s="11">
-        <f t="shared" ref="I131:I162" si="8">H131/G131</f>
+      <c r="J131" s="11">
+        <f t="shared" ref="J131:J162" si="8">I131/H131</f>
         <v>3.9128790856268622E-2</v>
       </c>
-      <c r="J131" t="s">
+      <c r="K131" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="14" t="s">
         <v>164</v>
       </c>
@@ -18483,23 +18798,24 @@
         <v>137.777777777778</v>
       </c>
       <c r="F132" s="10"/>
-      <c r="G132">
-        <f t="shared" ref="G132:G179" si="9">AVERAGE(C132:F132)</f>
+      <c r="G132" s="10"/>
+      <c r="H132">
+        <f t="shared" ref="H132:H179" si="9">AVERAGE(C132:F132)</f>
         <v>151.01851851851868</v>
       </c>
-      <c r="H132">
-        <f t="shared" ref="H132:H179" si="10">_xlfn.STDEV.P(C132:F132)</f>
+      <c r="I132">
+        <f t="shared" ref="I132:I179" si="10">_xlfn.STDEV.P(C132:F132)</f>
         <v>16.674038150357973</v>
       </c>
-      <c r="I132" s="12">
+      <c r="J132" s="12">
         <f t="shared" si="8"/>
         <v>0.11041055304958057</v>
       </c>
-      <c r="J132" t="s">
+      <c r="K132" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="14" t="s">
         <v>165</v>
       </c>
@@ -18516,23 +18832,24 @@
         <v>138.28703703703701</v>
       </c>
       <c r="F133" s="10"/>
-      <c r="G133">
+      <c r="G133" s="10"/>
+      <c r="H133">
         <f t="shared" si="9"/>
         <v>154.28542673107899</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <f t="shared" si="10"/>
         <v>14.580499139853934</v>
       </c>
-      <c r="I133" s="12">
+      <c r="J133" s="12">
         <f t="shared" si="8"/>
         <v>9.4503411299291976E-2</v>
       </c>
-      <c r="J133" t="s">
+      <c r="K133" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>166</v>
       </c>
@@ -18549,23 +18866,24 @@
         <v>12.4872525408</v>
       </c>
       <c r="F134" s="10"/>
-      <c r="G134">
+      <c r="G134" s="10"/>
+      <c r="H134">
         <f t="shared" si="9"/>
         <v>12.098520072763696</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <f t="shared" si="10"/>
         <v>2.4748776057144819</v>
       </c>
-      <c r="I134" s="11">
+      <c r="J134" s="11">
         <f t="shared" si="8"/>
         <v>0.20456035869097328</v>
       </c>
-      <c r="J134" t="s">
+      <c r="K134" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>167</v>
       </c>
@@ -18582,23 +18900,24 @@
         <v>25.3105258738766</v>
       </c>
       <c r="F135" s="10"/>
-      <c r="G135">
+      <c r="G135" s="10"/>
+      <c r="H135">
         <f t="shared" si="9"/>
         <v>24.926472974699298</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <f t="shared" si="10"/>
         <v>0.5967925872320744</v>
       </c>
-      <c r="I135" s="11">
+      <c r="J135" s="11">
         <f t="shared" si="8"/>
         <v>2.3942119201454087E-2</v>
       </c>
-      <c r="J135" t="s">
+      <c r="K135" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>168</v>
       </c>
@@ -18615,23 +18934,24 @@
         <v>11.197136856498</v>
       </c>
       <c r="F136" s="10"/>
-      <c r="G136">
+      <c r="G136" s="10"/>
+      <c r="H136">
         <f t="shared" si="9"/>
         <v>11.763832113587801</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <f t="shared" si="10"/>
         <v>1.0297397879475056</v>
       </c>
-      <c r="I136" s="11">
+      <c r="J136" s="11">
         <f t="shared" si="8"/>
         <v>8.7534383184379672E-2</v>
       </c>
-      <c r="J136" t="s">
+      <c r="K136" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>169</v>
       </c>
@@ -18648,23 +18968,24 @@
         <v>9.6026487579800008</v>
       </c>
       <c r="F137" s="10"/>
-      <c r="G137">
+      <c r="G137" s="10"/>
+      <c r="H137">
         <f t="shared" si="9"/>
         <v>6.2364563386574545</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <f t="shared" si="10"/>
         <v>3.8584286466797879</v>
       </c>
-      <c r="I137" s="11">
+      <c r="J137" s="11">
         <f t="shared" si="8"/>
         <v>0.61868927435005605</v>
       </c>
-      <c r="J137" t="s">
+      <c r="K137" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>170</v>
       </c>
@@ -18681,23 +19002,24 @@
         <v>4.7606863315020496</v>
       </c>
       <c r="F138" s="10"/>
-      <c r="G138">
+      <c r="G138" s="10"/>
+      <c r="H138">
         <f t="shared" si="9"/>
         <v>5.5239679140411937</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <f t="shared" si="10"/>
         <v>3.2756729322826676</v>
       </c>
-      <c r="I138" s="11">
+      <c r="J138" s="11">
         <f t="shared" si="8"/>
         <v>0.59299275145250963</v>
       </c>
-      <c r="J138" t="s">
+      <c r="K138" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>171</v>
       </c>
@@ -18714,23 +19036,24 @@
         <v>42.584558382444698</v>
       </c>
       <c r="F139" s="10"/>
-      <c r="G139">
+      <c r="G139" s="10"/>
+      <c r="H139">
         <f t="shared" si="9"/>
         <v>42.406487850311862</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <f t="shared" si="10"/>
         <v>0.44086958980801505</v>
       </c>
-      <c r="I139" s="11">
+      <c r="J139" s="11">
         <f t="shared" si="8"/>
         <v>1.0396276894333112E-2</v>
       </c>
-      <c r="J139" t="s">
+      <c r="K139" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>172</v>
       </c>
@@ -18747,23 +19070,24 @@
         <v>61.284186979425101</v>
       </c>
       <c r="F140" s="10"/>
-      <c r="G140">
+      <c r="G140" s="10"/>
+      <c r="H140">
         <f t="shared" si="9"/>
         <v>54.851871287474033</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <f t="shared" si="10"/>
         <v>5.2237699148308083</v>
       </c>
-      <c r="I140" s="11">
+      <c r="J140" s="11">
         <f t="shared" si="8"/>
         <v>9.5234124054828881E-2</v>
       </c>
-      <c r="J140" t="s">
+      <c r="K140" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="14" t="s">
         <v>173</v>
       </c>
@@ -18780,23 +19104,24 @@
         <v>157.18397745571701</v>
       </c>
       <c r="F141" s="10"/>
-      <c r="G141">
+      <c r="G141" s="10"/>
+      <c r="H141">
         <f t="shared" si="9"/>
         <v>168.32058507783168</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <f t="shared" si="10"/>
         <v>17.925476681330977</v>
       </c>
-      <c r="I141" s="12">
+      <c r="J141" s="12">
         <f t="shared" si="8"/>
         <v>0.10649604546610987</v>
       </c>
-      <c r="J141" t="s">
+      <c r="K141" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>174</v>
       </c>
@@ -18813,23 +19138,24 @@
         <v>12.778585098080001</v>
       </c>
       <c r="F142" s="10"/>
-      <c r="G142">
+      <c r="G142" s="10"/>
+      <c r="H142">
         <f t="shared" si="9"/>
         <v>8.3008234039586259</v>
       </c>
-      <c r="H142">
+      <c r="I142">
         <f t="shared" si="10"/>
         <v>3.320320640221361</v>
       </c>
-      <c r="I142" s="11">
+      <c r="J142" s="11">
         <f t="shared" si="8"/>
         <v>0.39999894933771446</v>
       </c>
-      <c r="J142" t="s">
+      <c r="K142" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>175</v>
       </c>
@@ -18846,23 +19172,24 @@
         <v>6.1302389063803604</v>
       </c>
       <c r="F143" s="10"/>
-      <c r="G143">
+      <c r="G143" s="10"/>
+      <c r="H143">
         <f t="shared" si="9"/>
         <v>8.7589714298898276</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <f t="shared" si="10"/>
         <v>1.8669019599156651</v>
       </c>
-      <c r="I143" s="11">
+      <c r="J143" s="11">
         <f t="shared" si="8"/>
         <v>0.21314168848009901</v>
       </c>
-      <c r="J143" t="s">
+      <c r="K143" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>176</v>
       </c>
@@ -18879,23 +19206,24 @@
         <v>3.9872387391550799</v>
       </c>
       <c r="F144" s="10"/>
-      <c r="G144">
+      <c r="G144" s="10"/>
+      <c r="H144">
         <f t="shared" si="9"/>
         <v>5.7795831952248875</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <f t="shared" si="10"/>
         <v>1.2673800425040533</v>
       </c>
-      <c r="I144" s="11">
+      <c r="J144" s="11">
         <f t="shared" si="8"/>
         <v>0.21928571658094087</v>
       </c>
-      <c r="J144" t="s">
+      <c r="K144" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>177</v>
       </c>
@@ -18912,23 +19240,24 @@
         <v>6.08393613684449</v>
       </c>
       <c r="F145" s="10"/>
-      <c r="G145">
+      <c r="G145" s="10"/>
+      <c r="H145">
         <f t="shared" si="9"/>
         <v>6.4601792369234161</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <f t="shared" si="10"/>
         <v>1.2163083628430251</v>
       </c>
-      <c r="I145" s="11">
+      <c r="J145" s="11">
         <f t="shared" si="8"/>
         <v>0.18827780441309824</v>
       </c>
-      <c r="J145" t="s">
+      <c r="K145" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>178</v>
       </c>
@@ -18945,23 +19274,24 @@
         <v>4.9768393001559801</v>
       </c>
       <c r="F146" s="10"/>
-      <c r="G146">
+      <c r="G146" s="10"/>
+      <c r="H146">
         <f t="shared" si="9"/>
         <v>8.3464931480834377</v>
       </c>
-      <c r="H146">
+      <c r="I146">
         <f t="shared" si="10"/>
         <v>2.9807454298696037</v>
       </c>
-      <c r="I146" s="11">
+      <c r="J146" s="11">
         <f t="shared" si="8"/>
         <v>0.35712548695424939</v>
       </c>
-      <c r="J146" t="s">
+      <c r="K146" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>179</v>
       </c>
@@ -18978,23 +19308,24 @@
         <v>6.3531069281981196</v>
       </c>
       <c r="F147" s="10"/>
-      <c r="G147">
+      <c r="G147" s="10"/>
+      <c r="H147">
         <f t="shared" si="9"/>
         <v>5.6586774852099397</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <f t="shared" si="10"/>
         <v>2.8391256414819663</v>
       </c>
-      <c r="I147" s="11">
+      <c r="J147" s="11">
         <f t="shared" si="8"/>
         <v>0.50172953820085642</v>
       </c>
-      <c r="J147" t="s">
+      <c r="K147" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>180</v>
       </c>
@@ -19011,23 +19342,24 @@
         <v>5.5892327302852403</v>
       </c>
       <c r="F148" s="10"/>
-      <c r="G148">
+      <c r="G148" s="10"/>
+      <c r="H148">
         <f t="shared" si="9"/>
         <v>6.427442643984854</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <f t="shared" si="10"/>
         <v>0.75147424950728858</v>
       </c>
-      <c r="I148" s="11">
+      <c r="J148" s="11">
         <f t="shared" si="8"/>
         <v>0.11691652358976062</v>
       </c>
-      <c r="J148" t="s">
+      <c r="K148" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>181</v>
       </c>
@@ -19044,23 +19376,24 @@
         <v>30.885629667405102</v>
       </c>
       <c r="F149" s="10"/>
-      <c r="G149">
+      <c r="G149" s="10"/>
+      <c r="H149">
         <f t="shared" si="9"/>
         <v>32.746822184306936</v>
       </c>
-      <c r="H149">
+      <c r="I149">
         <f t="shared" si="10"/>
         <v>1.4506638503487761</v>
       </c>
-      <c r="I149" s="11">
+      <c r="J149" s="11">
         <f t="shared" si="8"/>
         <v>4.429937788112976E-2</v>
       </c>
-      <c r="J149" t="s">
+      <c r="K149" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>182</v>
       </c>
@@ -19077,23 +19410,24 @@
         <v>24.981477248295</v>
       </c>
       <c r="F150" s="10"/>
-      <c r="G150">
+      <c r="G150" s="10"/>
+      <c r="H150">
         <f t="shared" si="9"/>
         <v>25.349995388837403</v>
       </c>
-      <c r="H150">
+      <c r="I150">
         <f t="shared" si="10"/>
         <v>1.3250079792129639</v>
       </c>
-      <c r="I150" s="11">
+      <c r="J150" s="11">
         <f t="shared" si="8"/>
         <v>5.2268568845437222E-2</v>
       </c>
-      <c r="J150" t="s">
+      <c r="K150" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>183</v>
       </c>
@@ -19110,23 +19444,24 @@
         <v>17.479604211041199</v>
       </c>
       <c r="F151" s="10"/>
-      <c r="G151">
+      <c r="G151" s="10"/>
+      <c r="H151">
         <f t="shared" si="9"/>
         <v>18.141373789237168</v>
       </c>
-      <c r="H151">
+      <c r="I151">
         <f t="shared" si="10"/>
         <v>1.5049331227111069</v>
       </c>
-      <c r="I151" s="11">
+      <c r="J151" s="11">
         <f t="shared" si="8"/>
         <v>8.2955852197034094E-2</v>
       </c>
-      <c r="J151" t="s">
+      <c r="K151" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>96</v>
       </c>
@@ -19143,23 +19478,24 @@
         <v>21.550748875055401</v>
       </c>
       <c r="F152" s="10"/>
-      <c r="G152">
+      <c r="G152" s="10"/>
+      <c r="H152">
         <f t="shared" si="9"/>
         <v>23.868746556821634</v>
       </c>
-      <c r="H152">
+      <c r="I152">
         <f t="shared" si="10"/>
         <v>1.8700478579090605</v>
       </c>
-      <c r="I152" s="11">
+      <c r="J152" s="11">
         <f t="shared" si="8"/>
         <v>7.8347132869220779E-2</v>
       </c>
-      <c r="J152" t="s">
+      <c r="K152" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>97</v>
       </c>
@@ -19176,23 +19512,24 @@
         <v>16.6837770608205</v>
       </c>
       <c r="F153" s="10"/>
-      <c r="G153">
+      <c r="G153" s="10"/>
+      <c r="H153">
         <f t="shared" si="9"/>
         <v>17.3442792621466</v>
       </c>
-      <c r="H153">
+      <c r="I153">
         <f t="shared" si="10"/>
         <v>0.8667499906826277</v>
       </c>
-      <c r="I153" s="11">
+      <c r="J153" s="11">
         <f t="shared" si="8"/>
         <v>4.9973249253100135E-2</v>
       </c>
-      <c r="J153" t="s">
+      <c r="K153" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>98</v>
       </c>
@@ -19209,23 +19546,24 @@
         <v>37.260497209255398</v>
       </c>
       <c r="F154" s="10"/>
-      <c r="G154">
+      <c r="G154" s="10"/>
+      <c r="H154">
         <f t="shared" si="9"/>
         <v>34.101430245540001</v>
       </c>
-      <c r="H154">
+      <c r="I154">
         <f t="shared" si="10"/>
         <v>2.23404667374612</v>
       </c>
-      <c r="I154" s="11">
+      <c r="J154" s="11">
         <f t="shared" si="8"/>
         <v>6.5511817471007761E-2</v>
       </c>
-      <c r="J154" t="s">
+      <c r="K154" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="14" t="s">
         <v>99</v>
       </c>
@@ -19242,23 +19580,24 @@
         <v>137.952898550725</v>
       </c>
       <c r="F155" s="10"/>
-      <c r="G155">
+      <c r="G155" s="10"/>
+      <c r="H155">
         <f t="shared" si="9"/>
         <v>153.89492753623199</v>
       </c>
-      <c r="H155">
+      <c r="I155">
         <f t="shared" si="10"/>
         <v>15.256341054756252</v>
       </c>
-      <c r="I155" s="12">
+      <c r="J155" s="12">
         <f t="shared" si="8"/>
         <v>9.9134788254566744E-2</v>
       </c>
-      <c r="J155" t="s">
+      <c r="K155" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>100</v>
       </c>
@@ -19275,23 +19614,24 @@
         <v>8.5452790296236394</v>
       </c>
       <c r="F156" s="10"/>
-      <c r="G156">
+      <c r="G156" s="10"/>
+      <c r="H156">
         <f t="shared" si="9"/>
         <v>9.7692930953545591</v>
       </c>
-      <c r="H156">
+      <c r="I156">
         <f t="shared" si="10"/>
         <v>2.9962163590068829</v>
       </c>
-      <c r="I156" s="11">
+      <c r="J156" s="11">
         <f t="shared" si="8"/>
         <v>0.30669735565940048</v>
       </c>
-      <c r="J156" t="s">
+      <c r="K156" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>101</v>
       </c>
@@ -19308,23 +19648,24 @@
         <v>17.937976797804499</v>
       </c>
       <c r="F157" s="10"/>
-      <c r="G157">
+      <c r="G157" s="10"/>
+      <c r="H157">
         <f t="shared" si="9"/>
         <v>18.554495759732532</v>
       </c>
-      <c r="H157">
+      <c r="I157">
         <f t="shared" si="10"/>
         <v>0.51505109057371057</v>
       </c>
-      <c r="I157" s="11">
+      <c r="J157" s="11">
         <f t="shared" si="8"/>
         <v>2.7758829840662573E-2</v>
       </c>
-      <c r="J157" t="s">
+      <c r="K157" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>102</v>
       </c>
@@ -19341,23 +19682,24 @@
         <v>11.302414542655701</v>
       </c>
       <c r="F158" s="10"/>
-      <c r="G158">
+      <c r="G158" s="10"/>
+      <c r="H158">
         <f t="shared" si="9"/>
         <v>8.8012579216006781</v>
       </c>
-      <c r="H158">
+      <c r="I158">
         <f t="shared" si="10"/>
         <v>2.1727382152639021</v>
       </c>
-      <c r="I158" s="11">
+      <c r="J158" s="11">
         <f t="shared" si="8"/>
         <v>0.24686678138717105</v>
       </c>
-      <c r="J158" t="s">
+      <c r="K158" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>103</v>
       </c>
@@ -19374,23 +19716,24 @@
         <v>29.481336926448201</v>
       </c>
       <c r="F159" s="10"/>
-      <c r="G159">
+      <c r="G159" s="10"/>
+      <c r="H159">
         <f t="shared" si="9"/>
         <v>30.886721076742834</v>
       </c>
-      <c r="H159">
+      <c r="I159">
         <f t="shared" si="10"/>
         <v>1.9061097922690926</v>
       </c>
-      <c r="I159" s="11">
+      <c r="J159" s="11">
         <f t="shared" si="8"/>
         <v>6.1712921469814427E-2</v>
       </c>
-      <c r="J159" t="s">
+      <c r="K159" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>104</v>
       </c>
@@ -19407,23 +19750,24 @@
         <v>12.3462986423805</v>
       </c>
       <c r="F160" s="10"/>
-      <c r="G160">
+      <c r="G160" s="10"/>
+      <c r="H160">
         <f t="shared" si="9"/>
         <v>11.867361121928283</v>
       </c>
-      <c r="H160">
+      <c r="I160">
         <f t="shared" si="10"/>
         <v>1.9413417484395468</v>
       </c>
-      <c r="I160" s="11">
+      <c r="J160" s="11">
         <f t="shared" si="8"/>
         <v>0.16358664141873736</v>
       </c>
-      <c r="J160" t="s">
+      <c r="K160" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>105</v>
       </c>
@@ -19440,23 +19784,24 @@
         <v>30.743758113195501</v>
       </c>
       <c r="F161" s="10"/>
-      <c r="G161">
+      <c r="G161" s="10"/>
+      <c r="H161">
         <f t="shared" si="9"/>
         <v>35.678729882178132</v>
       </c>
-      <c r="H161">
+      <c r="I161">
         <f t="shared" si="10"/>
         <v>3.5401825704095962</v>
       </c>
-      <c r="I161" s="11">
+      <c r="J161" s="11">
         <f t="shared" si="8"/>
         <v>9.9223895640353249E-2</v>
       </c>
-      <c r="J161" t="s">
+      <c r="K161" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>106</v>
       </c>
@@ -19473,23 +19818,24 @@
         <v>15.6213419757535</v>
       </c>
       <c r="F162" s="10"/>
-      <c r="G162">
+      <c r="G162" s="10"/>
+      <c r="H162">
         <f t="shared" si="9"/>
         <v>17.525054268894568</v>
       </c>
-      <c r="H162">
+      <c r="I162">
         <f t="shared" si="10"/>
         <v>1.3467453001412995</v>
       </c>
-      <c r="I162" s="11">
+      <c r="J162" s="11">
         <f t="shared" si="8"/>
         <v>7.6846854764475919E-2</v>
       </c>
-      <c r="J162" t="s">
+      <c r="K162" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>107</v>
       </c>
@@ -19506,23 +19852,24 @@
         <v>16.491394650730001</v>
       </c>
       <c r="F163" s="10"/>
-      <c r="G163">
+      <c r="G163" s="10"/>
+      <c r="H163">
         <f t="shared" si="9"/>
         <v>17.354002372198934</v>
       </c>
-      <c r="H163">
+      <c r="I163">
         <f t="shared" si="10"/>
         <v>0.75896121002842498</v>
       </c>
-      <c r="I163" s="11">
-        <f t="shared" ref="I163:I179" si="11">H163/G163</f>
+      <c r="J163" s="11">
+        <f t="shared" ref="J163:J179" si="11">I163/H163</f>
         <v>4.3734073198254189E-2</v>
       </c>
-      <c r="J163" t="s">
+      <c r="K163" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>108</v>
       </c>
@@ -19539,23 +19886,24 @@
         <v>22.6831942884134</v>
       </c>
       <c r="F164" s="10"/>
-      <c r="G164">
+      <c r="G164" s="10"/>
+      <c r="H164">
         <f t="shared" si="9"/>
         <v>22.768179465059635</v>
       </c>
-      <c r="H164">
+      <c r="I164">
         <f t="shared" si="10"/>
         <v>7.4605573725537652E-2</v>
       </c>
-      <c r="I164" s="11">
+      <c r="J164" s="11">
         <f t="shared" si="11"/>
         <v>3.2767474378014457E-3</v>
       </c>
-      <c r="J164" t="s">
+      <c r="K164" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>109</v>
       </c>
@@ -19572,23 +19920,24 @@
         <v>21.011195654297001</v>
       </c>
       <c r="F165" s="10"/>
-      <c r="G165">
+      <c r="G165" s="10"/>
+      <c r="H165">
         <f t="shared" si="9"/>
         <v>19.218269064439934</v>
       </c>
-      <c r="H165">
+      <c r="I165">
         <f t="shared" si="10"/>
         <v>1.347754250918602</v>
       </c>
-      <c r="I165" s="11">
+      <c r="J165" s="11">
         <f t="shared" si="11"/>
         <v>7.0128805377815587E-2</v>
       </c>
-      <c r="J165" t="s">
+      <c r="K165" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="14" t="s">
         <v>110</v>
       </c>
@@ -19605,23 +19954,24 @@
         <v>144.655797101449</v>
       </c>
       <c r="F166" s="10"/>
-      <c r="G166">
+      <c r="G166" s="10"/>
+      <c r="H166">
         <f t="shared" si="9"/>
         <v>158.133544043581</v>
       </c>
-      <c r="H166">
+      <c r="I166">
         <f t="shared" si="10"/>
         <v>15.670235879747452</v>
       </c>
-      <c r="I166" s="12">
+      <c r="J166" s="12">
         <f t="shared" si="11"/>
         <v>9.9094951514074672E-2</v>
       </c>
-      <c r="J166" t="s">
+      <c r="K166" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>111</v>
       </c>
@@ -19638,23 +19988,24 @@
         <v>14.386838444729699</v>
       </c>
       <c r="F167" s="10"/>
-      <c r="G167">
+      <c r="G167" s="10"/>
+      <c r="H167">
         <f t="shared" si="9"/>
         <v>14.835455810456834</v>
       </c>
-      <c r="H167">
+      <c r="I167">
         <f t="shared" si="10"/>
         <v>0.31744674737713491</v>
       </c>
-      <c r="I167" s="11">
+      <c r="J167" s="11">
         <f t="shared" si="11"/>
         <v>2.1397842535676E-2</v>
       </c>
-      <c r="J167" t="s">
+      <c r="K167" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" s="14" t="s">
         <v>112</v>
       </c>
@@ -19671,23 +20022,24 @@
         <v>159.05797101449301</v>
       </c>
       <c r="F168" s="10"/>
-      <c r="G168">
+      <c r="G168" s="10"/>
+      <c r="H168">
         <f t="shared" si="9"/>
         <v>164.81010381334167</v>
       </c>
-      <c r="H168">
+      <c r="I168">
         <f t="shared" si="10"/>
         <v>6.8706934839678295</v>
       </c>
-      <c r="I168" s="12">
+      <c r="J168" s="12">
         <f t="shared" si="11"/>
         <v>4.1688545331840479E-2</v>
       </c>
-      <c r="J168" t="s">
+      <c r="K168" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>113</v>
       </c>
@@ -19704,23 +20056,24 @@
         <v>22.465222655281099</v>
       </c>
       <c r="F169" s="10"/>
-      <c r="G169">
+      <c r="G169" s="10"/>
+      <c r="H169">
         <f t="shared" si="9"/>
         <v>21.074682354896229</v>
       </c>
-      <c r="H169">
+      <c r="I169">
         <f t="shared" si="10"/>
         <v>1.2487606314942454</v>
       </c>
-      <c r="I169" s="11">
+      <c r="J169" s="11">
         <f t="shared" si="11"/>
         <v>5.9254066584027251E-2</v>
       </c>
-      <c r="J169" t="s">
+      <c r="K169" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" s="14" t="s">
         <v>114</v>
       </c>
@@ -19737,23 +20090,24 @@
         <v>133.15217391304401</v>
       </c>
       <c r="F170" s="10"/>
-      <c r="G170">
+      <c r="G170" s="10"/>
+      <c r="H170">
         <f t="shared" si="9"/>
         <v>152.27187332259834</v>
       </c>
-      <c r="H170">
+      <c r="I170">
         <f t="shared" si="10"/>
         <v>18.231268370011271</v>
       </c>
-      <c r="I170" s="12">
+      <c r="J170" s="12">
         <f t="shared" si="11"/>
         <v>0.11972840401974361</v>
       </c>
-      <c r="J170" t="s">
+      <c r="K170" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>115</v>
       </c>
@@ -19770,23 +20124,24 @@
         <v>30.0678983018156</v>
       </c>
       <c r="F171" s="10"/>
-      <c r="G171">
+      <c r="G171" s="10"/>
+      <c r="H171">
         <f t="shared" si="9"/>
         <v>31.565529677918803</v>
       </c>
-      <c r="H171">
+      <c r="I171">
         <f t="shared" si="10"/>
         <v>1.2578853019832938</v>
       </c>
-      <c r="I171" s="11">
+      <c r="J171" s="11">
         <f t="shared" si="11"/>
         <v>3.9849966555867075E-2</v>
       </c>
-      <c r="J171" t="s">
+      <c r="K171" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>116</v>
       </c>
@@ -19803,23 +20158,24 @@
         <v>12.841600111170701</v>
       </c>
       <c r="F172" s="10"/>
-      <c r="G172">
+      <c r="G172" s="10"/>
+      <c r="H172">
         <f t="shared" si="9"/>
         <v>14.732158495904132</v>
       </c>
-      <c r="H172">
+      <c r="I172">
         <f t="shared" si="10"/>
         <v>1.3514886554144694</v>
       </c>
-      <c r="I172" s="11">
+      <c r="J172" s="11">
         <f t="shared" si="11"/>
         <v>9.1737314378623702E-2</v>
       </c>
-      <c r="J172" t="s">
+      <c r="K172" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>117</v>
       </c>
@@ -19836,23 +20192,24 @@
         <v>21.9406602177351</v>
       </c>
       <c r="F173" s="10"/>
-      <c r="G173">
+      <c r="G173" s="10"/>
+      <c r="H173">
         <f t="shared" si="9"/>
         <v>26.166945453428436</v>
       </c>
-      <c r="H173">
+      <c r="I173">
         <f t="shared" si="10"/>
         <v>3.4618057796778205</v>
       </c>
-      <c r="I173" s="11">
+      <c r="J173" s="11">
         <f t="shared" si="11"/>
         <v>0.13229690052433113</v>
       </c>
-      <c r="J173" t="s">
+      <c r="K173" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>118</v>
       </c>
@@ -19869,23 +20226,24 @@
         <v>15.3244907937877</v>
       </c>
       <c r="F174" s="10"/>
-      <c r="G174">
+      <c r="G174" s="10"/>
+      <c r="H174">
         <f t="shared" si="9"/>
         <v>16.652406594370564</v>
       </c>
-      <c r="H174">
+      <c r="I174">
         <f t="shared" si="10"/>
         <v>0.94854149746010141</v>
       </c>
-      <c r="I174" s="11">
+      <c r="J174" s="11">
         <f t="shared" si="11"/>
         <v>5.696122611975863E-2</v>
       </c>
-      <c r="J174" t="s">
+      <c r="K174" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>119</v>
       </c>
@@ -19902,23 +20260,24 @@
         <v>48.6683443476077</v>
       </c>
       <c r="F175" s="10"/>
-      <c r="G175">
+      <c r="G175" s="10"/>
+      <c r="H175">
         <f t="shared" si="9"/>
         <v>46.109290348969466</v>
       </c>
-      <c r="H175">
+      <c r="I175">
         <f t="shared" si="10"/>
         <v>2.1850415759889743</v>
       </c>
-      <c r="I175" s="11">
+      <c r="J175" s="11">
         <f t="shared" si="11"/>
         <v>4.7388315010964153E-2</v>
       </c>
-      <c r="J175" t="s">
+      <c r="K175" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>120</v>
       </c>
@@ -19935,23 +20294,24 @@
         <v>24.805073212836199</v>
       </c>
       <c r="F176" s="10"/>
-      <c r="G176">
+      <c r="G176" s="10"/>
+      <c r="H176">
         <f t="shared" si="9"/>
         <v>26.184307699953802</v>
       </c>
-      <c r="H176">
+      <c r="I176">
         <f t="shared" si="10"/>
         <v>1.4132479812142704</v>
       </c>
-      <c r="I176" s="11">
+      <c r="J176" s="11">
         <f t="shared" si="11"/>
         <v>5.397308943236883E-2</v>
       </c>
-      <c r="J176" t="s">
+      <c r="K176" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>121</v>
       </c>
@@ -19968,23 +20328,24 @@
         <v>18.952508911837199</v>
       </c>
       <c r="F177" s="10"/>
-      <c r="G177">
+      <c r="G177" s="10"/>
+      <c r="H177">
         <f t="shared" si="9"/>
         <v>19.470232726221166</v>
       </c>
-      <c r="H177">
+      <c r="I177">
         <f t="shared" si="10"/>
         <v>0.49192270061862337</v>
       </c>
-      <c r="I177" s="11">
+      <c r="J177" s="11">
         <f t="shared" si="11"/>
         <v>2.526537343111137E-2</v>
       </c>
-      <c r="J177" t="s">
+      <c r="K177" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>122</v>
       </c>
@@ -20001,23 +20362,24 @@
         <v>18.998272140959202</v>
       </c>
       <c r="F178" s="10"/>
-      <c r="G178">
+      <c r="G178" s="10"/>
+      <c r="H178">
         <f t="shared" si="9"/>
         <v>18.636131114644069</v>
       </c>
-      <c r="H178">
+      <c r="I178">
         <f t="shared" si="10"/>
         <v>1.1810257108490159</v>
       </c>
-      <c r="I178" s="11">
+      <c r="J178" s="11">
         <f t="shared" si="11"/>
         <v>6.3372902003301465E-2</v>
       </c>
-      <c r="J178" t="s">
+      <c r="K178" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>123</v>
       </c>
@@ -20034,45 +20396,48 @@
         <v>20.3868681042213</v>
       </c>
       <c r="F179" s="10"/>
-      <c r="G179">
+      <c r="G179" s="10"/>
+      <c r="H179">
         <f t="shared" si="9"/>
         <v>20.534437657695936</v>
       </c>
-      <c r="H179">
+      <c r="I179">
         <f t="shared" si="10"/>
         <v>0.34181402720053022</v>
       </c>
-      <c r="I179" s="11">
+      <c r="J179" s="11">
         <f t="shared" si="11"/>
         <v>1.6645891789124526E-2</v>
       </c>
-      <c r="J179" t="s">
+      <c r="K179" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" s="8"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
-      <c r="G180" s="8"/>
+      <c r="G180" s="10"/>
       <c r="H180" s="8"/>
-      <c r="I180" s="11"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I180" s="8"/>
+      <c r="J180" s="11"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" s="15"/>
       <c r="C181" s="16"/>
       <c r="D181" s="16"/>
       <c r="E181" s="17"/>
       <c r="F181" s="17"/>
-      <c r="G181" s="15"/>
+      <c r="G181" s="17"/>
       <c r="H181" s="15"/>
-      <c r="I181" s="18"/>
+      <c r="I181" s="15"/>
+      <c r="J181" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/data/First_round_results/Results - First and Second Plate 3 reps.xlsx
+++ b/data/First_round_results/Results - First and Second Plate 3 reps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\GitHub\SynbioML\data\First_round_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF9E102-D3AC-4AD9-B58E-6FF1751CB235}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5C735A-D6FE-4EC9-BBA6-762D2CB0BEE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-2150" windowWidth="25820" windowHeight="14020" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GFPOD" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="473">
   <si>
     <t>RBS</t>
   </si>
@@ -1451,6 +1451,15 @@
   </si>
   <si>
     <t>1,2,3</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>bps_noncore</t>
+  </si>
+  <si>
+    <t>bps_core</t>
   </si>
 </sst>
 </file>
@@ -1586,7 +1595,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1598,13 +1607,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13179,8 +13181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B66" workbookViewId="0">
-      <selection activeCell="Q175" sqref="Q175"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13278,23 +13280,23 @@
         <v>69.563244149086913</v>
       </c>
       <c r="I2">
-        <f>AVERAGE(D2,F2,G2)</f>
+        <f t="shared" ref="I2:I33" si="0">AVERAGE(D2,F2,G2)</f>
         <v>56.058693581811532</v>
       </c>
       <c r="J2">
-        <f>_xlfn.STDEV.P(D2,F2,G2)</f>
+        <f t="shared" ref="J2:J33" si="1">_xlfn.STDEV.P(D2,F2,G2)</f>
         <v>3.9982461493813499</v>
       </c>
       <c r="K2">
-        <f>_xlfn.STDEV.P(C2:G2)</f>
+        <f t="shared" ref="K2:K33" si="2">_xlfn.STDEV.P(C2:G2)</f>
         <v>17.743662160149835</v>
       </c>
       <c r="L2" s="4">
-        <f>K2/H2</f>
+        <f t="shared" ref="L2:L33" si="3">K2/H2</f>
         <v>0.25507237877120686</v>
       </c>
       <c r="M2" t="s">
-        <v>363</v>
+        <v>470</v>
       </c>
       <c r="N2" t="s">
         <v>466</v>
@@ -13335,27 +13337,27 @@
         <v>45.432031622390497</v>
       </c>
       <c r="H3">
-        <f>AVERAGE(C3:F3)</f>
+        <f t="shared" ref="H3:H8" si="4">AVERAGE(C3:F3)</f>
         <v>55.397221273248171</v>
       </c>
       <c r="I3">
-        <f>AVERAGE(D3,F3,G3)</f>
+        <f t="shared" si="0"/>
         <v>42.515945571794397</v>
       </c>
       <c r="J3">
-        <f>_xlfn.STDEV.P(D3,F3,G3)</f>
+        <f t="shared" si="1"/>
         <v>2.2132627213858149</v>
       </c>
       <c r="K3">
-        <f>_xlfn.STDEV.P(C3:G3)</f>
+        <f t="shared" si="2"/>
         <v>15.256165999900897</v>
       </c>
       <c r="L3" s="4">
-        <f>K3/H3</f>
+        <f t="shared" si="3"/>
         <v>0.2753958709345633</v>
       </c>
       <c r="M3" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N3" t="s">
         <v>466</v>
@@ -13396,27 +13398,27 @@
         <v>24.133637075311899</v>
       </c>
       <c r="H4">
-        <f>AVERAGE(C4:F4)</f>
+        <f t="shared" si="4"/>
         <v>37.715864765628751</v>
       </c>
       <c r="I4">
-        <f>AVERAGE(D4,F4,G4)</f>
+        <f t="shared" si="0"/>
         <v>25.817688712608966</v>
       </c>
       <c r="J4">
-        <f>_xlfn.STDEV.P(D4,F4,G4)</f>
+        <f t="shared" si="1"/>
         <v>2.136029223214535</v>
       </c>
       <c r="K4">
-        <f>_xlfn.STDEV.P(C4:G4)</f>
+        <f t="shared" si="2"/>
         <v>13.004783179702333</v>
       </c>
       <c r="L4" s="4">
-        <f>K4/H4</f>
+        <f t="shared" si="3"/>
         <v>0.34480935968234411</v>
       </c>
       <c r="M4" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N4" t="s">
         <v>466</v>
@@ -13457,27 +13459,27 @@
         <v>38.049576803906</v>
       </c>
       <c r="H5">
-        <f>AVERAGE(C5:F5)</f>
+        <f t="shared" si="4"/>
         <v>54.265356811104148</v>
       </c>
       <c r="I5">
-        <f>AVERAGE(D5,F5,G5)</f>
+        <f t="shared" si="0"/>
         <v>39.928298016107533</v>
       </c>
       <c r="J5">
-        <f>_xlfn.STDEV.P(D5,F5,G5)</f>
+        <f t="shared" si="1"/>
         <v>2.2510645272917604</v>
       </c>
       <c r="K5">
-        <f>_xlfn.STDEV.P(C5:G5)</f>
+        <f t="shared" si="2"/>
         <v>14.385070191384047</v>
       </c>
       <c r="L5" s="4">
-        <f>K5/H5</f>
+        <f t="shared" si="3"/>
         <v>0.26508754455366401</v>
       </c>
       <c r="M5" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N5" t="s">
         <v>466</v>
@@ -13518,27 +13520,27 @@
         <v>38.394865293671302</v>
       </c>
       <c r="H6">
-        <f>AVERAGE(C6:F6)</f>
+        <f t="shared" si="4"/>
         <v>54.724326261503748</v>
       </c>
       <c r="I6">
-        <f>AVERAGE(D6,F6,G6)</f>
+        <f t="shared" si="0"/>
         <v>42.887003446562098</v>
       </c>
       <c r="J6">
-        <f>_xlfn.STDEV.P(D6,F6,G6)</f>
+        <f t="shared" si="1"/>
         <v>3.2396603861831648</v>
       </c>
       <c r="K6">
-        <f>_xlfn.STDEV.P(C6:G6)</f>
+        <f t="shared" si="2"/>
         <v>11.487255342721955</v>
       </c>
       <c r="L6" s="4">
-        <f>K6/H6</f>
+        <f t="shared" si="3"/>
         <v>0.20991131599920224</v>
       </c>
       <c r="M6" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N6" t="s">
         <v>466</v>
@@ -13579,27 +13581,27 @@
         <v>21.1722417929108</v>
       </c>
       <c r="H7">
-        <f>AVERAGE(C7:F7)</f>
+        <f t="shared" si="4"/>
         <v>30.426541897719773</v>
       </c>
       <c r="I7">
-        <f>AVERAGE(D7,F7,G7)</f>
+        <f t="shared" si="0"/>
         <v>21.450546461263301</v>
       </c>
       <c r="J7">
-        <f>_xlfn.STDEV.P(D7,F7,G7)</f>
+        <f t="shared" si="1"/>
         <v>0.37019041536311503</v>
       </c>
       <c r="K7">
-        <f>_xlfn.STDEV.P(C7:G7)</f>
+        <f t="shared" si="2"/>
         <v>10.233622543356331</v>
       </c>
       <c r="L7" s="4">
-        <f>K7/H7</f>
+        <f t="shared" si="3"/>
         <v>0.33633866700189347</v>
       </c>
       <c r="M7" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N7" t="s">
         <v>466</v>
@@ -13640,27 +13642,27 @@
         <v>31.848505915259601</v>
       </c>
       <c r="H8">
-        <f>AVERAGE(C8:F8)</f>
+        <f t="shared" si="4"/>
         <v>43.930477002543199</v>
       </c>
       <c r="I8">
-        <f>AVERAGE(D8,F8,G8)</f>
+        <f t="shared" si="0"/>
         <v>32.329941308477466</v>
       </c>
       <c r="J8">
-        <f>_xlfn.STDEV.P(D8,F8,G8)</f>
+        <f t="shared" si="1"/>
         <v>2.337231049851805</v>
       </c>
       <c r="K8">
-        <f>_xlfn.STDEV.P(C8:G8)</f>
+        <f t="shared" si="2"/>
         <v>11.600452924666333</v>
       </c>
       <c r="L8" s="4">
-        <f>K8/H8</f>
+        <f t="shared" si="3"/>
         <v>0.26406389632406602</v>
       </c>
       <c r="M8" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N8" t="s">
         <v>466</v>
@@ -13679,7 +13681,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" t="s">
         <v>460</v>
       </c>
       <c r="B9" t="s">
@@ -13704,23 +13706,23 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <f>AVERAGE(D9,F9,G9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>_xlfn.STDEV.P(D9,F9,G9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>_xlfn.STDEV.P(C9:G9)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L9" t="e">
-        <f>K9/H9</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M9" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N9" t="s">
         <v>467</v>
@@ -13759,27 +13761,27 @@
         <v>38.655692829940598</v>
       </c>
       <c r="H10">
-        <f>AVERAGE(C10:F10)</f>
+        <f t="shared" ref="H10:H41" si="5">AVERAGE(C10:F10)</f>
         <v>47.539791948168933</v>
       </c>
       <c r="I10">
-        <f>AVERAGE(D10,F10,G10)</f>
+        <f t="shared" si="0"/>
         <v>41.362282891482465</v>
       </c>
       <c r="J10">
-        <f>_xlfn.STDEV.P(D10,F10,G10)</f>
+        <f t="shared" si="1"/>
         <v>2.8087610118691795</v>
       </c>
       <c r="K10">
-        <f>_xlfn.STDEV.P(C10:G10)</f>
+        <f t="shared" si="2"/>
         <v>7.2717368848070576</v>
       </c>
       <c r="L10" s="4">
-        <f>K10/H10</f>
+        <f t="shared" si="3"/>
         <v>0.15296105823801653</v>
       </c>
       <c r="M10" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N10" t="s">
         <v>466</v>
@@ -13820,27 +13822,27 @@
         <v>21.9453529617894</v>
       </c>
       <c r="H11">
-        <f>AVERAGE(C11:F11)</f>
+        <f t="shared" si="5"/>
         <v>39.319612070798009</v>
       </c>
       <c r="I11">
-        <f>AVERAGE(D11,F11,G11)</f>
+        <f t="shared" si="0"/>
         <v>24.4193804149938</v>
       </c>
       <c r="J11">
-        <f>_xlfn.STDEV.P(D11,F11,G11)</f>
+        <f t="shared" si="1"/>
         <v>2.1455535549424152</v>
       </c>
       <c r="K11">
-        <f>_xlfn.STDEV.P(C11:G11)</f>
+        <f t="shared" si="2"/>
         <v>17.654175065529426</v>
       </c>
       <c r="L11" s="4">
-        <f>K11/H11</f>
+        <f t="shared" si="3"/>
         <v>0.44899158805894918</v>
       </c>
       <c r="M11" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N11" t="s">
         <v>466</v>
@@ -13881,27 +13883,27 @@
         <v>31.680387597935201</v>
       </c>
       <c r="H12">
-        <f>AVERAGE(C12:F12)</f>
+        <f t="shared" si="5"/>
         <v>44.284177973095701</v>
       </c>
       <c r="I12">
-        <f>AVERAGE(D12,F12,G12)</f>
+        <f t="shared" si="0"/>
         <v>33.610266496772674</v>
       </c>
       <c r="J12">
-        <f>_xlfn.STDEV.P(D12,F12,G12)</f>
+        <f t="shared" si="1"/>
         <v>3.2768604437237241</v>
       </c>
       <c r="K12">
-        <f>_xlfn.STDEV.P(C12:G12)</f>
+        <f t="shared" si="2"/>
         <v>10.412398316315842</v>
       </c>
       <c r="L12" s="4">
-        <f>K12/H12</f>
+        <f t="shared" si="3"/>
         <v>0.23512682842711374</v>
       </c>
       <c r="M12" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N12" t="s">
         <v>466</v>
@@ -13942,27 +13944,27 @@
         <v>39.304469987386803</v>
       </c>
       <c r="H13">
-        <f>AVERAGE(C13:F13)</f>
+        <f t="shared" si="5"/>
         <v>55.028254497165072</v>
       </c>
       <c r="I13">
-        <f>AVERAGE(D13,F13,G13)</f>
+        <f t="shared" si="0"/>
         <v>42.088465992015699</v>
       </c>
       <c r="J13">
-        <f>_xlfn.STDEV.P(D13,F13,G13)</f>
+        <f t="shared" si="1"/>
         <v>2.2835292053535694</v>
       </c>
       <c r="K13">
-        <f>_xlfn.STDEV.P(C13:G13)</f>
+        <f t="shared" si="2"/>
         <v>12.276181240075342</v>
       </c>
       <c r="L13" s="4">
-        <f>K13/H13</f>
+        <f t="shared" si="3"/>
         <v>0.2230886905690927</v>
       </c>
       <c r="M13" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N13" t="s">
         <v>466</v>
@@ -14003,27 +14005,27 @@
         <v>32.308771113994602</v>
       </c>
       <c r="H14">
-        <f>AVERAGE(C14:F14)</f>
+        <f t="shared" si="5"/>
         <v>54.067311158551718</v>
       </c>
       <c r="I14">
-        <f>AVERAGE(D14,F14,G14)</f>
+        <f t="shared" si="0"/>
         <v>35.7459252494005</v>
       </c>
       <c r="J14">
-        <f>_xlfn.STDEV.P(D14,F14,G14)</f>
+        <f t="shared" si="1"/>
         <v>2.450798412253687</v>
       </c>
       <c r="K14">
-        <f>_xlfn.STDEV.P(C14:G14)</f>
+        <f t="shared" si="2"/>
         <v>17.570104515088595</v>
       </c>
       <c r="L14" s="4">
-        <f>K14/H14</f>
+        <f t="shared" si="3"/>
         <v>0.32496723322460924</v>
       </c>
       <c r="M14" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N14" t="s">
         <v>466</v>
@@ -14064,27 +14066,27 @@
         <v>33.421516319064501</v>
       </c>
       <c r="H15">
-        <f>AVERAGE(C15:F15)</f>
+        <f t="shared" si="5"/>
         <v>53.009261465993376</v>
       </c>
       <c r="I15">
-        <f>AVERAGE(D15,F15,G15)</f>
+        <f t="shared" si="0"/>
         <v>37.095867394345994</v>
       </c>
       <c r="J15">
-        <f>_xlfn.STDEV.P(D15,F15,G15)</f>
+        <f t="shared" si="1"/>
         <v>2.9637649058159066</v>
       </c>
       <c r="K15">
-        <f>_xlfn.STDEV.P(C15:G15)</f>
+        <f t="shared" si="2"/>
         <v>15.923846982311037</v>
       </c>
       <c r="L15" s="4">
-        <f>K15/H15</f>
+        <f t="shared" si="3"/>
         <v>0.30039745021776132</v>
       </c>
       <c r="M15" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N15" t="s">
         <v>466</v>
@@ -14122,27 +14124,27 @@
         <v>29.9416192635553</v>
       </c>
       <c r="H16">
-        <f>AVERAGE(C16:F16)</f>
+        <f t="shared" si="5"/>
         <v>50.981281892195696</v>
       </c>
       <c r="I16">
-        <f>AVERAGE(D16,F16,G16)</f>
+        <f t="shared" si="0"/>
         <v>34.798092277446031</v>
       </c>
       <c r="J16">
-        <f>_xlfn.STDEV.P(D16,F16,G16)</f>
+        <f t="shared" si="1"/>
         <v>3.4589261033301284</v>
       </c>
       <c r="K16">
-        <f>_xlfn.STDEV.P(C16:G16)</f>
+        <f t="shared" si="2"/>
         <v>16.764013083551077</v>
       </c>
       <c r="L16" s="4">
-        <f>K16/H16</f>
+        <f t="shared" si="3"/>
         <v>0.32882682548077202</v>
       </c>
       <c r="M16" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N16" t="s">
         <v>466</v>
@@ -14183,27 +14185,27 @@
         <v>20.352209802182902</v>
       </c>
       <c r="H17">
-        <f>AVERAGE(C17:F17)</f>
+        <f t="shared" si="5"/>
         <v>37.3604415909927</v>
       </c>
       <c r="I17">
-        <f>AVERAGE(D17,F17,G17)</f>
+        <f t="shared" si="0"/>
         <v>22.997958722051234</v>
       </c>
       <c r="J17">
-        <f>_xlfn.STDEV.P(D17,F17,G17)</f>
+        <f t="shared" si="1"/>
         <v>1.895635210562818</v>
       </c>
       <c r="K17">
-        <f>_xlfn.STDEV.P(C17:G17)</f>
+        <f t="shared" si="2"/>
         <v>16.00585174143394</v>
       </c>
       <c r="L17" s="4">
-        <f>K17/H17</f>
+        <f t="shared" si="3"/>
         <v>0.42841709197818534</v>
       </c>
       <c r="M17" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N17" t="s">
         <v>466</v>
@@ -14244,27 +14246,27 @@
         <v>26.959225705586601</v>
       </c>
       <c r="H18">
-        <f>AVERAGE(C18:F18)</f>
+        <f t="shared" si="5"/>
         <v>37.897541350851547</v>
       </c>
       <c r="I18">
-        <f>AVERAGE(D18,F18,G18)</f>
+        <f t="shared" si="0"/>
         <v>27.965183702997603</v>
       </c>
       <c r="J18">
-        <f>_xlfn.STDEV.P(D18,F18,G18)</f>
+        <f t="shared" si="1"/>
         <v>1.2355894903292308</v>
       </c>
       <c r="K18">
-        <f>_xlfn.STDEV.P(C18:G18)</f>
+        <f t="shared" si="2"/>
         <v>9.9747470680035679</v>
       </c>
       <c r="L18" s="4">
-        <f>K18/H18</f>
+        <f t="shared" si="3"/>
         <v>0.26320301297802895</v>
       </c>
       <c r="M18" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N18" t="s">
         <v>466</v>
@@ -14305,27 +14307,27 @@
         <v>23.3457352398263</v>
       </c>
       <c r="H19">
-        <f>AVERAGE(C19:F19)</f>
+        <f t="shared" si="5"/>
         <v>33.147901962236325</v>
       </c>
       <c r="I19">
-        <f>AVERAGE(D19,F19,G19)</f>
+        <f t="shared" si="0"/>
         <v>24.473547696257199</v>
       </c>
       <c r="J19">
-        <f>_xlfn.STDEV.P(D19,F19,G19)</f>
+        <f t="shared" si="1"/>
         <v>0.79993374793040029</v>
       </c>
       <c r="K19">
-        <f>_xlfn.STDEV.P(C19:G19)</f>
+        <f t="shared" si="2"/>
         <v>8.2795313394697612</v>
       </c>
       <c r="L19" s="4">
-        <f>K19/H19</f>
+        <f t="shared" si="3"/>
         <v>0.24977542617635948</v>
       </c>
       <c r="M19" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N19" t="s">
         <v>466</v>
@@ -14366,27 +14368,27 @@
         <v>24.537122060902501</v>
       </c>
       <c r="H20">
-        <f>AVERAGE(C20:F20)</f>
+        <f t="shared" si="5"/>
         <v>35.662045618418077</v>
       </c>
       <c r="I20">
-        <f>AVERAGE(D20,F20,G20)</f>
+        <f t="shared" si="0"/>
         <v>26.69776484485827</v>
       </c>
       <c r="J20">
-        <f>_xlfn.STDEV.P(D20,F20,G20)</f>
+        <f t="shared" si="1"/>
         <v>1.5696013844198631</v>
       </c>
       <c r="K20">
-        <f>_xlfn.STDEV.P(C20:G20)</f>
+        <f t="shared" si="2"/>
         <v>8.4548814845432823</v>
       </c>
       <c r="L20" s="4">
-        <f>K20/H20</f>
+        <f t="shared" si="3"/>
         <v>0.23708346893529464</v>
       </c>
       <c r="M20" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N20" t="s">
         <v>466</v>
@@ -14427,27 +14429,27 @@
         <v>21.4979096286506</v>
       </c>
       <c r="H21">
-        <f>AVERAGE(C21:F21)</f>
+        <f t="shared" si="5"/>
         <v>31.987361288497425</v>
       </c>
       <c r="I21">
-        <f>AVERAGE(D21,F21,G21)</f>
+        <f t="shared" si="0"/>
         <v>21.9975082608801</v>
       </c>
       <c r="J21">
-        <f>_xlfn.STDEV.P(D21,F21,G21)</f>
+        <f t="shared" si="1"/>
         <v>0.43001474281731356</v>
       </c>
       <c r="K21">
-        <f>_xlfn.STDEV.P(C21:G21)</f>
+        <f t="shared" si="2"/>
         <v>11.118331987509753</v>
       </c>
       <c r="L21" s="4">
-        <f>K21/H21</f>
+        <f t="shared" si="3"/>
         <v>0.3475851567508908</v>
       </c>
       <c r="M21" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N21" t="s">
         <v>466</v>
@@ -14488,27 +14490,27 @@
         <v>22.193803373861101</v>
       </c>
       <c r="H22">
-        <f>AVERAGE(C22:F22)</f>
+        <f t="shared" si="5"/>
         <v>40.538678709809169</v>
       </c>
       <c r="I22">
-        <f>AVERAGE(D22,F22,G22)</f>
+        <f t="shared" si="0"/>
         <v>30.644339404365933</v>
       </c>
       <c r="J22">
-        <f>_xlfn.STDEV.P(D22,F22,G22)</f>
+        <f t="shared" si="1"/>
         <v>6.6765458964241482</v>
       </c>
       <c r="K22">
-        <f>_xlfn.STDEV.P(C22:G22)</f>
+        <f t="shared" si="2"/>
         <v>9.6692974776281311</v>
       </c>
       <c r="L22" s="4">
-        <f>K22/H22</f>
+        <f t="shared" si="3"/>
         <v>0.23852029186359361</v>
       </c>
       <c r="M22" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N22" t="s">
         <v>466</v>
@@ -14549,27 +14551,27 @@
         <v>17.653695224930299</v>
       </c>
       <c r="H23">
-        <f>AVERAGE(C23:F23)</f>
+        <f t="shared" si="5"/>
         <v>32.216961135827297</v>
       </c>
       <c r="I23">
-        <f>AVERAGE(D23,F23,G23)</f>
+        <f t="shared" si="0"/>
         <v>21.488819922746501</v>
       </c>
       <c r="J23">
-        <f>_xlfn.STDEV.P(D23,F23,G23)</f>
+        <f t="shared" si="1"/>
         <v>2.7119378791755313</v>
       </c>
       <c r="K23">
-        <f>_xlfn.STDEV.P(C23:G23)</f>
+        <f t="shared" si="2"/>
         <v>12.521782349546291</v>
       </c>
       <c r="L23" s="4">
-        <f>K23/H23</f>
+        <f t="shared" si="3"/>
         <v>0.38867049864679126</v>
       </c>
       <c r="M23" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="N23" t="s">
         <v>466</v>
@@ -14610,27 +14612,27 @@
         <v>25.769088486307101</v>
       </c>
       <c r="H24">
-        <f>AVERAGE(C24:F24)</f>
+        <f t="shared" si="5"/>
         <v>34.470016162072952</v>
       </c>
       <c r="I24">
-        <f>AVERAGE(D24,F24,G24)</f>
+        <f t="shared" si="0"/>
         <v>27.896937711532967</v>
       </c>
       <c r="J24">
-        <f>_xlfn.STDEV.P(D24,F24,G24)</f>
+        <f t="shared" si="1"/>
         <v>1.7760201239452371</v>
       </c>
       <c r="K24">
-        <f>_xlfn.STDEV.P(C24:G24)</f>
+        <f t="shared" si="2"/>
         <v>6.1870496077071255</v>
       </c>
       <c r="L24" s="4">
-        <f>K24/H24</f>
+        <f t="shared" si="3"/>
         <v>0.17949076607961328</v>
       </c>
       <c r="M24" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="N24" t="s">
         <v>466</v>
@@ -14671,27 +14673,27 @@
         <v>14.8699802070958</v>
       </c>
       <c r="H25">
-        <f>AVERAGE(C25:F25)</f>
+        <f t="shared" si="5"/>
         <v>24.556999985293778</v>
       </c>
       <c r="I25">
-        <f>AVERAGE(D25,F25,G25)</f>
+        <f t="shared" si="0"/>
         <v>15.015536716090301</v>
       </c>
       <c r="J25">
-        <f>_xlfn.STDEV.P(D25,F25,G25)</f>
+        <f t="shared" si="1"/>
         <v>0.5507622276843166</v>
       </c>
       <c r="K25">
-        <f>_xlfn.STDEV.P(C25:G25)</f>
+        <f t="shared" si="2"/>
         <v>14.150444444340691</v>
       </c>
       <c r="L25" s="4">
-        <f>K25/H25</f>
+        <f t="shared" si="3"/>
         <v>0.5762285479828495</v>
       </c>
       <c r="M25" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="N25" t="s">
         <v>466</v>
@@ -14732,27 +14734,27 @@
         <v>30.712356200963502</v>
       </c>
       <c r="H26">
-        <f>AVERAGE(C26:F26)</f>
+        <f t="shared" si="5"/>
         <v>35.133921411357079</v>
       </c>
       <c r="I26">
-        <f>AVERAGE(D26,F26,G26)</f>
+        <f t="shared" si="0"/>
         <v>29.765880615463931</v>
       </c>
       <c r="J26">
-        <f>_xlfn.STDEV.P(D26,F26,G26)</f>
+        <f t="shared" si="1"/>
         <v>1.1315592043518403</v>
       </c>
       <c r="K26">
-        <f>_xlfn.STDEV.P(C26:G26)</f>
+        <f t="shared" si="2"/>
         <v>7.2725350950834384</v>
       </c>
       <c r="L26" s="4">
-        <f>K26/H26</f>
+        <f t="shared" si="3"/>
         <v>0.20699468783841998</v>
       </c>
       <c r="M26" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="N26" t="s">
         <v>466</v>
@@ -14793,27 +14795,27 @@
         <v>29.9620055057425</v>
       </c>
       <c r="H27">
-        <f>AVERAGE(C27:F27)</f>
+        <f t="shared" si="5"/>
         <v>45.993618886234273</v>
       </c>
       <c r="I27">
-        <f>AVERAGE(D27,F27,G27)</f>
+        <f t="shared" si="0"/>
         <v>31.839250350226532</v>
       </c>
       <c r="J27">
-        <f>_xlfn.STDEV.P(D27,F27,G27)</f>
+        <f t="shared" si="1"/>
         <v>1.3434111734858469</v>
       </c>
       <c r="K27">
-        <f>_xlfn.STDEV.P(C27:G27)</f>
+        <f t="shared" si="2"/>
         <v>14.944683511226884</v>
       </c>
       <c r="L27" s="4">
-        <f>K27/H27</f>
+        <f t="shared" si="3"/>
         <v>0.32492949833307799</v>
       </c>
       <c r="M27" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="N27" t="s">
         <v>466</v>
@@ -14854,27 +14856,27 @@
         <v>14.2301417533457</v>
       </c>
       <c r="H28">
-        <f>AVERAGE(C28:F28)</f>
+        <f t="shared" si="5"/>
         <v>30.159978787847503</v>
       </c>
       <c r="I28">
-        <f>AVERAGE(D28,F28,G28)</f>
+        <f t="shared" si="0"/>
         <v>15.361618968245233</v>
       </c>
       <c r="J28">
-        <f>_xlfn.STDEV.P(D28,F28,G28)</f>
+        <f t="shared" si="1"/>
         <v>1.3901668822288946</v>
       </c>
       <c r="K28">
-        <f>_xlfn.STDEV.P(C28:G28)</f>
+        <f t="shared" si="2"/>
         <v>18.726580116927192</v>
       </c>
       <c r="L28" s="4">
-        <f>K28/H28</f>
+        <f t="shared" si="3"/>
         <v>0.62090826550822298</v>
       </c>
       <c r="M28" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="N28" t="s">
         <v>466</v>
@@ -14915,27 +14917,27 @@
         <v>12.9018004593177</v>
       </c>
       <c r="H29">
-        <f>AVERAGE(C29:F29)</f>
+        <f t="shared" si="5"/>
         <v>20.24790800327975</v>
       </c>
       <c r="I29">
-        <f>AVERAGE(D29,F29,G29)</f>
+        <f t="shared" si="0"/>
         <v>13.630844157478899</v>
       </c>
       <c r="J29">
-        <f>_xlfn.STDEV.P(D29,F29,G29)</f>
+        <f t="shared" si="1"/>
         <v>0.64744337877436209</v>
       </c>
       <c r="K29">
-        <f>_xlfn.STDEV.P(C29:G29)</f>
+        <f t="shared" si="2"/>
         <v>8.9885917255728103</v>
       </c>
       <c r="L29" s="4">
-        <f>K29/H29</f>
+        <f t="shared" si="3"/>
         <v>0.44392693428461055</v>
       </c>
       <c r="M29" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="N29" t="s">
         <v>466</v>
@@ -14976,27 +14978,27 @@
         <v>10.4689189958616</v>
       </c>
       <c r="H30">
-        <f>AVERAGE(C30:F30)</f>
+        <f t="shared" si="5"/>
         <v>20.147831354696475</v>
       </c>
       <c r="I30">
-        <f>AVERAGE(D30,F30,G30)</f>
+        <f t="shared" si="0"/>
         <v>12.9436148048825</v>
       </c>
       <c r="J30">
-        <f>_xlfn.STDEV.P(D30,F30,G30)</f>
+        <f t="shared" si="1"/>
         <v>1.7932794989538992</v>
       </c>
       <c r="K30">
-        <f>_xlfn.STDEV.P(C30:G30)</f>
+        <f t="shared" si="2"/>
         <v>7.8374946793647933</v>
       </c>
       <c r="L30" s="4">
-        <f>K30/H30</f>
+        <f t="shared" si="3"/>
         <v>0.38899941841819452</v>
       </c>
       <c r="M30" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="N30" t="s">
         <v>466</v>
@@ -15037,27 +15039,27 @@
         <v>9.2213284432397593</v>
       </c>
       <c r="H31">
-        <f>AVERAGE(C31:F31)</f>
+        <f t="shared" si="5"/>
         <v>12.089359845064109</v>
       </c>
       <c r="I31">
-        <f>AVERAGE(D31,F31,G31)</f>
+        <f t="shared" si="0"/>
         <v>8.7736796078320669</v>
       </c>
       <c r="J31">
-        <f>_xlfn.STDEV.P(D31,F31,G31)</f>
+        <f t="shared" si="1"/>
         <v>1.4657820377610455</v>
       </c>
       <c r="K31">
-        <f>_xlfn.STDEV.P(C31:G31)</f>
+        <f t="shared" si="2"/>
         <v>8.1108597001947764</v>
       </c>
       <c r="L31" s="4">
-        <f>K31/H31</f>
+        <f t="shared" si="3"/>
         <v>0.6709089483763121</v>
       </c>
       <c r="M31" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="N31" t="s">
         <v>466</v>
@@ -15098,27 +15100,27 @@
         <v>6.8417408766984602</v>
       </c>
       <c r="H32">
-        <f>AVERAGE(C32:F32)</f>
+        <f t="shared" si="5"/>
         <v>8.4785455090424904</v>
       </c>
       <c r="I32">
-        <f>AVERAGE(D32,F32,G32)</f>
+        <f t="shared" si="0"/>
         <v>6.6323909709561404</v>
       </c>
       <c r="J32">
-        <f>_xlfn.STDEV.P(D32,F32,G32)</f>
+        <f t="shared" si="1"/>
         <v>3.531037998489202</v>
       </c>
       <c r="K32">
-        <f>_xlfn.STDEV.P(C32:G32)</f>
+        <f t="shared" si="2"/>
         <v>3.9133635088437897</v>
       </c>
       <c r="L32" s="4">
-        <f>K32/H32</f>
+        <f t="shared" si="3"/>
         <v>0.46156071282157196</v>
       </c>
       <c r="M32" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="N32" t="s">
         <v>466</v>
@@ -15159,27 +15161,27 @@
         <v>9.0646765683026</v>
       </c>
       <c r="H33">
-        <f>AVERAGE(C33:F33)</f>
+        <f t="shared" si="5"/>
         <v>7.8730615303211522</v>
       </c>
       <c r="I33">
-        <f>AVERAGE(D33,F33,G33)</f>
+        <f t="shared" si="0"/>
         <v>8.1607478965290685</v>
       </c>
       <c r="J33">
-        <f>_xlfn.STDEV.P(D33,F33,G33)</f>
+        <f t="shared" si="1"/>
         <v>2.2286642648816466</v>
       </c>
       <c r="K33">
-        <f>_xlfn.STDEV.P(C33:G33)</f>
+        <f t="shared" si="2"/>
         <v>3.1588768316318512</v>
       </c>
       <c r="L33" s="4">
-        <f>K33/H33</f>
+        <f t="shared" si="3"/>
         <v>0.4012259804481671</v>
       </c>
       <c r="M33" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="N33" t="s">
         <v>466</v>
@@ -15220,27 +15222,27 @@
         <v>13.7978945484861</v>
       </c>
       <c r="H34">
-        <f>AVERAGE(C34:F34)</f>
+        <f t="shared" si="5"/>
         <v>18.752405463820502</v>
       </c>
       <c r="I34">
-        <f>AVERAGE(D34,F34,G34)</f>
+        <f t="shared" ref="I34:I65" si="6">AVERAGE(D34,F34,G34)</f>
         <v>16.857045467922699</v>
       </c>
       <c r="J34">
-        <f>_xlfn.STDEV.P(D34,F34,G34)</f>
+        <f t="shared" ref="J34:J65" si="7">_xlfn.STDEV.P(D34,F34,G34)</f>
         <v>2.300297125915217</v>
       </c>
       <c r="K34">
-        <f>_xlfn.STDEV.P(C34:G34)</f>
+        <f t="shared" ref="K34:K65" si="8">_xlfn.STDEV.P(C34:G34)</f>
         <v>2.9811926905724477</v>
       </c>
       <c r="L34" s="4">
-        <f>K34/H34</f>
+        <f t="shared" ref="L34:L65" si="9">K34/H34</f>
         <v>0.15897654817266721</v>
       </c>
       <c r="M34" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="N34" t="s">
         <v>466</v>
@@ -15281,27 +15283,27 @@
         <v>14.263203360011801</v>
       </c>
       <c r="H35">
-        <f>AVERAGE(C35:F35)</f>
+        <f t="shared" si="5"/>
         <v>23.619150399342846</v>
       </c>
       <c r="I35">
-        <f>AVERAGE(D35,F35,G35)</f>
+        <f t="shared" si="6"/>
         <v>16.973434985794398</v>
       </c>
       <c r="J35">
-        <f>_xlfn.STDEV.P(D35,F35,G35)</f>
+        <f t="shared" si="7"/>
         <v>2.2042914238059175</v>
       </c>
       <c r="K35">
-        <f>_xlfn.STDEV.P(C35:G35)</f>
+        <f t="shared" si="8"/>
         <v>7.1594075058961941</v>
       </c>
       <c r="L35" s="4">
-        <f>K35/H35</f>
+        <f t="shared" si="9"/>
         <v>0.30311875680741629</v>
       </c>
       <c r="M35" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="N35" t="s">
         <v>466</v>
@@ -15342,27 +15344,27 @@
         <v>16.879975707983</v>
       </c>
       <c r="H36">
-        <f>AVERAGE(C36:F36)</f>
+        <f t="shared" si="5"/>
         <v>26.738979933596724</v>
       </c>
       <c r="I36">
-        <f>AVERAGE(D36,F36,G36)</f>
+        <f t="shared" si="6"/>
         <v>19.835345147456632</v>
       </c>
       <c r="J36">
-        <f>_xlfn.STDEV.P(D36,F36,G36)</f>
+        <f t="shared" si="7"/>
         <v>2.2848312935788049</v>
       </c>
       <c r="K36">
-        <f>_xlfn.STDEV.P(C36:G36)</f>
+        <f t="shared" si="8"/>
         <v>6.590294975681017</v>
       </c>
       <c r="L36" s="4">
-        <f>K36/H36</f>
+        <f t="shared" si="9"/>
         <v>0.2464677034070589</v>
       </c>
       <c r="M36" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="N36" t="s">
         <v>466</v>
@@ -15403,27 +15405,27 @@
         <v>16.493774392662601</v>
       </c>
       <c r="H37">
-        <f>AVERAGE(C37:F37)</f>
+        <f t="shared" si="5"/>
         <v>24.857484028944903</v>
       </c>
       <c r="I37">
-        <f>AVERAGE(D37,F37,G37)</f>
+        <f t="shared" si="6"/>
         <v>17.512886836147402</v>
       </c>
       <c r="J37">
-        <f>_xlfn.STDEV.P(D37,F37,G37)</f>
+        <f t="shared" si="7"/>
         <v>1.3317656359780452</v>
       </c>
       <c r="K37">
-        <f>_xlfn.STDEV.P(C37:G37)</f>
+        <f t="shared" si="8"/>
         <v>8.108661441289895</v>
       </c>
       <c r="L37" s="4">
-        <f>K37/H37</f>
+        <f t="shared" si="9"/>
         <v>0.32620604047649765</v>
       </c>
       <c r="M37" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="N37" t="s">
         <v>466</v>
@@ -15464,27 +15466,27 @@
         <v>30.019442833052</v>
       </c>
       <c r="H38">
-        <f>AVERAGE(C38:F38)</f>
+        <f t="shared" si="5"/>
         <v>38.501347714413654</v>
       </c>
       <c r="I38">
-        <f>AVERAGE(D38,F38,G38)</f>
+        <f t="shared" si="6"/>
         <v>31.353201230235531</v>
       </c>
       <c r="J38">
-        <f>_xlfn.STDEV.P(D38,F38,G38)</f>
+        <f t="shared" si="7"/>
         <v>1.634683784384005</v>
       </c>
       <c r="K38">
-        <f>_xlfn.STDEV.P(C38:G38)</f>
+        <f t="shared" si="8"/>
         <v>6.8953160836348237</v>
       </c>
       <c r="L38" s="4">
-        <f>K38/H38</f>
+        <f t="shared" si="9"/>
         <v>0.17909284980830531</v>
       </c>
       <c r="M38" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="N38" t="s">
         <v>466</v>
@@ -15525,27 +15527,27 @@
         <v>18.640819524197401</v>
       </c>
       <c r="H39">
-        <f>AVERAGE(C39:F39)</f>
+        <f t="shared" si="5"/>
         <v>35.563188841650174</v>
       </c>
       <c r="I39">
-        <f>AVERAGE(D39,F39,G39)</f>
+        <f t="shared" si="6"/>
         <v>20.646774963599366</v>
       </c>
       <c r="J39">
-        <f>_xlfn.STDEV.P(D39,F39,G39)</f>
+        <f t="shared" si="7"/>
         <v>1.4210040912819224</v>
       </c>
       <c r="K39">
-        <f>_xlfn.STDEV.P(C39:G39)</f>
+        <f t="shared" si="8"/>
         <v>18.021399772958752</v>
       </c>
       <c r="L39" s="4">
-        <f>K39/H39</f>
+        <f t="shared" si="9"/>
         <v>0.50674307788318507</v>
       </c>
       <c r="M39" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="N39" t="s">
         <v>466</v>
@@ -15586,27 +15588,27 @@
         <v>17.989919770028798</v>
       </c>
       <c r="H40">
-        <f>AVERAGE(C40:F40)</f>
+        <f t="shared" si="5"/>
         <v>29.474180347480729</v>
       </c>
       <c r="I40">
-        <f>AVERAGE(D40,F40,G40)</f>
+        <f t="shared" si="6"/>
         <v>19.972770386650566</v>
       </c>
       <c r="J40">
-        <f>_xlfn.STDEV.P(D40,F40,G40)</f>
+        <f t="shared" si="7"/>
         <v>1.9858607362875469</v>
       </c>
       <c r="K40">
-        <f>_xlfn.STDEV.P(C40:G40)</f>
+        <f t="shared" si="8"/>
         <v>10.499087551927412</v>
       </c>
       <c r="L40" s="4">
-        <f>K40/H40</f>
+        <f t="shared" si="9"/>
         <v>0.35621304572850687</v>
       </c>
       <c r="M40" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="N40" t="s">
         <v>466</v>
@@ -15647,27 +15649,27 @@
         <v>17.456148279238199</v>
       </c>
       <c r="H41">
-        <f>AVERAGE(C41:F41)</f>
+        <f t="shared" si="5"/>
         <v>27.511929704452871</v>
       </c>
       <c r="I41">
-        <f>AVERAGE(D41,F41,G41)</f>
+        <f t="shared" si="6"/>
         <v>17.766482365683235</v>
       </c>
       <c r="J41">
-        <f>_xlfn.STDEV.P(D41,F41,G41)</f>
+        <f t="shared" si="7"/>
         <v>0.33842452036444792</v>
       </c>
       <c r="K41">
-        <f>_xlfn.STDEV.P(C41:G41)</f>
+        <f t="shared" si="8"/>
         <v>10.781185436861103</v>
       </c>
       <c r="L41" s="4">
-        <f>K41/H41</f>
+        <f t="shared" si="9"/>
         <v>0.3918731093266839</v>
       </c>
       <c r="M41" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N41" t="s">
         <v>466</v>
@@ -15708,27 +15710,27 @@
         <v>23.708214576376001</v>
       </c>
       <c r="H42">
-        <f>AVERAGE(C42:F42)</f>
+        <f t="shared" ref="H42:H73" si="10">AVERAGE(C42:F42)</f>
         <v>32.67631265004232</v>
       </c>
       <c r="I42">
-        <f>AVERAGE(D42,F42,G42)</f>
+        <f t="shared" si="6"/>
         <v>27.043151725515099</v>
       </c>
       <c r="J42">
-        <f>_xlfn.STDEV.P(D42,F42,G42)</f>
+        <f t="shared" si="7"/>
         <v>3.8213254449905687</v>
       </c>
       <c r="K42">
-        <f>_xlfn.STDEV.P(C42:G42)</f>
+        <f t="shared" si="8"/>
         <v>6.0979489403922313</v>
       </c>
       <c r="L42" s="4">
-        <f>K42/H42</f>
+        <f t="shared" si="9"/>
         <v>0.18661680115808091</v>
       </c>
       <c r="M42" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N42" t="s">
         <v>466</v>
@@ -15769,27 +15771,27 @@
         <v>23.148221757381901</v>
       </c>
       <c r="H43">
-        <f>AVERAGE(C43:F43)</f>
+        <f t="shared" si="10"/>
         <v>34.268387254439176</v>
       </c>
       <c r="I43">
-        <f>AVERAGE(D43,F43,G43)</f>
+        <f t="shared" si="6"/>
         <v>25.8551369250462</v>
       </c>
       <c r="J43">
-        <f>_xlfn.STDEV.P(D43,F43,G43)</f>
+        <f t="shared" si="7"/>
         <v>2.4399560149525517</v>
       </c>
       <c r="K43">
-        <f>_xlfn.STDEV.P(C43:G43)</f>
+        <f t="shared" si="8"/>
         <v>8.0078953225521179</v>
       </c>
       <c r="L43" s="4">
-        <f>K43/H43</f>
+        <f t="shared" si="9"/>
         <v>0.23368170970796892</v>
       </c>
       <c r="M43" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N43" t="s">
         <v>466</v>
@@ -15830,27 +15832,27 @@
         <v>5.8717234707231301</v>
       </c>
       <c r="H44">
-        <f>AVERAGE(C44:F44)</f>
+        <f t="shared" si="10"/>
         <v>14.813175358987058</v>
       </c>
       <c r="I44">
-        <f>AVERAGE(D44,F44,G44)</f>
+        <f t="shared" si="6"/>
         <v>6.1211643022237867</v>
       </c>
       <c r="J44">
-        <f>_xlfn.STDEV.P(D44,F44,G44)</f>
+        <f t="shared" si="7"/>
         <v>0.5422902613262679</v>
       </c>
       <c r="K44">
-        <f>_xlfn.STDEV.P(C44:G44)</f>
+        <f t="shared" si="8"/>
         <v>15.122643326505409</v>
       </c>
       <c r="L44" s="4">
-        <f>K44/H44</f>
+        <f t="shared" si="9"/>
         <v>1.0208913997180624</v>
       </c>
       <c r="M44" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N44" t="s">
         <v>466</v>
@@ -15891,27 +15893,27 @@
         <v>6.3098615913942</v>
       </c>
       <c r="H45">
-        <f>AVERAGE(C45:F45)</f>
+        <f t="shared" si="10"/>
         <v>7.4906746425785222</v>
       </c>
       <c r="I45">
-        <f>AVERAGE(D45,F45,G45)</f>
+        <f t="shared" si="6"/>
         <v>5.8855923872360973</v>
       </c>
       <c r="J45">
-        <f>_xlfn.STDEV.P(D45,F45,G45)</f>
+        <f t="shared" si="7"/>
         <v>0.36573971969646929</v>
       </c>
       <c r="K45">
-        <f>_xlfn.STDEV.P(C45:G45)</f>
+        <f t="shared" si="8"/>
         <v>3.5844345637247987</v>
       </c>
       <c r="L45" s="4">
-        <f>K45/H45</f>
+        <f t="shared" si="9"/>
         <v>0.4785195906587828</v>
       </c>
       <c r="M45" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N45" t="s">
         <v>466</v>
@@ -15952,27 +15954,27 @@
         <v>27.602967991351601</v>
       </c>
       <c r="H46">
-        <f>AVERAGE(C46:F46)</f>
+        <f t="shared" si="10"/>
         <v>29.099845914583575</v>
       </c>
       <c r="I46">
-        <f>AVERAGE(D46,F46,G46)</f>
+        <f t="shared" si="6"/>
         <v>31.723802883228633</v>
       </c>
       <c r="J46">
-        <f>_xlfn.STDEV.P(D46,F46,G46)</f>
+        <f t="shared" si="7"/>
         <v>3.929063695759949</v>
       </c>
       <c r="K46">
-        <f>_xlfn.STDEV.P(C46:G46)</f>
+        <f t="shared" si="8"/>
         <v>13.235230752076545</v>
       </c>
       <c r="L46" s="4">
-        <f>K46/H46</f>
+        <f t="shared" si="9"/>
         <v>0.45482133448148682</v>
       </c>
       <c r="M46" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N46" t="s">
         <v>466</v>
@@ -16013,27 +16015,27 @@
         <v>22.026093065876498</v>
       </c>
       <c r="H47">
-        <f>AVERAGE(C47:F47)</f>
+        <f t="shared" si="10"/>
         <v>36.370009791021602</v>
       </c>
       <c r="I47">
-        <f>AVERAGE(D47,F47,G47)</f>
+        <f t="shared" si="6"/>
         <v>25.8455140766543</v>
       </c>
       <c r="J47">
-        <f>_xlfn.STDEV.P(D47,F47,G47)</f>
+        <f t="shared" si="7"/>
         <v>2.74019660702514</v>
       </c>
       <c r="K47">
-        <f>_xlfn.STDEV.P(C47:G47)</f>
+        <f t="shared" si="8"/>
         <v>11.254445055557376</v>
       </c>
       <c r="L47" s="4">
-        <f>K47/H47</f>
+        <f t="shared" si="9"/>
         <v>0.30944300318378465</v>
       </c>
       <c r="M47" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N47" t="s">
         <v>466</v>
@@ -16074,27 +16076,27 @@
         <v>23.0535027186436</v>
       </c>
       <c r="H48">
-        <f>AVERAGE(C48:F48)</f>
+        <f t="shared" si="10"/>
         <v>35.455263630365778</v>
       </c>
       <c r="I48">
-        <f>AVERAGE(D48,F48,G48)</f>
+        <f t="shared" si="6"/>
         <v>26.293165746702233</v>
       </c>
       <c r="J48">
-        <f>_xlfn.STDEV.P(D48,F48,G48)</f>
+        <f t="shared" si="7"/>
         <v>2.8091673039935978</v>
       </c>
       <c r="K48">
-        <f>_xlfn.STDEV.P(C48:G48)</f>
+        <f t="shared" si="8"/>
         <v>8.8424783775873887</v>
       </c>
       <c r="L48" s="4">
-        <f>K48/H48</f>
+        <f t="shared" si="9"/>
         <v>0.24939818442117628</v>
       </c>
       <c r="M48" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N48" t="s">
         <v>466</v>
@@ -16135,27 +16137,27 @@
         <v>31.4075696138237</v>
       </c>
       <c r="H49">
-        <f>AVERAGE(C49:F49)</f>
+        <f t="shared" si="10"/>
         <v>42.327852855389494</v>
       </c>
       <c r="I49">
-        <f>AVERAGE(D49,F49,G49)</f>
+        <f t="shared" si="6"/>
         <v>34.285657011793901</v>
       </c>
       <c r="J49">
-        <f>_xlfn.STDEV.P(D49,F49,G49)</f>
+        <f t="shared" si="7"/>
         <v>2.0989394974942526</v>
       </c>
       <c r="K49">
-        <f>_xlfn.STDEV.P(C49:G49)</f>
+        <f t="shared" si="8"/>
         <v>7.3939077196467489</v>
       </c>
       <c r="L49" s="4">
-        <f>K49/H49</f>
+        <f t="shared" si="9"/>
         <v>0.17468185180352946</v>
       </c>
       <c r="M49" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N49" t="s">
         <v>466</v>
@@ -16196,27 +16198,27 @@
         <v>39.787619568243699</v>
       </c>
       <c r="H50">
-        <f>AVERAGE(C50:F50)</f>
+        <f t="shared" si="10"/>
         <v>58.034199334462848</v>
       </c>
       <c r="I50">
-        <f>AVERAGE(D50,F50,G50)</f>
+        <f t="shared" si="6"/>
         <v>44.122515635365033</v>
       </c>
       <c r="J50">
-        <f>_xlfn.STDEV.P(D50,F50,G50)</f>
+        <f t="shared" si="7"/>
         <v>3.8796149910365729</v>
       </c>
       <c r="K50">
-        <f>_xlfn.STDEV.P(C50:G50)</f>
+        <f t="shared" si="8"/>
         <v>12.982823542956009</v>
       </c>
       <c r="L50" s="4">
-        <f>K50/H50</f>
+        <f t="shared" si="9"/>
         <v>0.22370987610483548</v>
       </c>
       <c r="M50" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N50" t="s">
         <v>466</v>
@@ -16257,27 +16259,27 @@
         <v>31.8451363658838</v>
       </c>
       <c r="H51">
-        <f>AVERAGE(C51:F51)</f>
+        <f t="shared" si="10"/>
         <v>50.290208123248846</v>
       </c>
       <c r="I51">
-        <f>AVERAGE(D51,F51,G51)</f>
+        <f t="shared" si="6"/>
         <v>33.189169619626398</v>
       </c>
       <c r="J51">
-        <f>_xlfn.STDEV.P(D51,F51,G51)</f>
+        <f t="shared" si="7"/>
         <v>2.8322462440676626</v>
       </c>
       <c r="K51">
-        <f>_xlfn.STDEV.P(C51:G51)</f>
+        <f t="shared" si="8"/>
         <v>19.325016268944783</v>
       </c>
       <c r="L51" s="4">
-        <f>K51/H51</f>
+        <f t="shared" si="9"/>
         <v>0.3842699601000647</v>
       </c>
       <c r="M51" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N51" t="s">
         <v>466</v>
@@ -16318,27 +16320,27 @@
         <v>18.843433209128801</v>
       </c>
       <c r="H52">
-        <f>AVERAGE(C52:F52)</f>
+        <f t="shared" si="10"/>
         <v>36.644594473612351</v>
       </c>
       <c r="I52">
-        <f>AVERAGE(D52,F52,G52)</f>
+        <f t="shared" si="6"/>
         <v>21.69495703452607</v>
       </c>
       <c r="J52">
-        <f>_xlfn.STDEV.P(D52,F52,G52)</f>
+        <f t="shared" si="7"/>
         <v>2.2171449827478065</v>
       </c>
       <c r="K52">
-        <f>_xlfn.STDEV.P(C52:G52)</f>
+        <f t="shared" si="8"/>
         <v>17.695736694760047</v>
       </c>
       <c r="L52" s="4">
-        <f>K52/H52</f>
+        <f t="shared" si="9"/>
         <v>0.48290169256758148</v>
       </c>
       <c r="M52" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N52" t="s">
         <v>466</v>
@@ -16379,27 +16381,27 @@
         <v>23.646202186609099</v>
       </c>
       <c r="H53">
-        <f>AVERAGE(C53:F53)</f>
+        <f t="shared" si="10"/>
         <v>36.967939845219419</v>
       </c>
       <c r="I53">
-        <f>AVERAGE(D53,F53,G53)</f>
+        <f t="shared" si="6"/>
         <v>27.224550522495601</v>
       </c>
       <c r="J53">
-        <f>_xlfn.STDEV.P(D53,F53,G53)</f>
+        <f t="shared" si="7"/>
         <v>2.5307050327955287</v>
       </c>
       <c r="K53">
-        <f>_xlfn.STDEV.P(C53:G53)</f>
+        <f t="shared" si="8"/>
         <v>9.015738925799953</v>
       </c>
       <c r="L53" s="4">
-        <f>K53/H53</f>
+        <f t="shared" si="9"/>
         <v>0.24387993930816354</v>
       </c>
       <c r="M53" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N53" t="s">
         <v>466</v>
@@ -16440,27 +16442,27 @@
         <v>29.408440648920902</v>
       </c>
       <c r="H54">
-        <f>AVERAGE(C54:F54)</f>
+        <f t="shared" si="10"/>
         <v>37.625643265141974</v>
       </c>
       <c r="I54">
-        <f>AVERAGE(D54,F54,G54)</f>
+        <f t="shared" si="6"/>
         <v>28.766131236496268</v>
       </c>
       <c r="J54">
-        <f>_xlfn.STDEV.P(D54,F54,G54)</f>
+        <f t="shared" si="7"/>
         <v>1.7529311691365521</v>
       </c>
       <c r="K54">
-        <f>_xlfn.STDEV.P(C54:G54)</f>
+        <f t="shared" si="8"/>
         <v>10.001991437218861</v>
       </c>
       <c r="L54" s="4">
-        <f>K54/H54</f>
+        <f t="shared" si="9"/>
         <v>0.26582911464759296</v>
       </c>
       <c r="M54" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N54" t="s">
         <v>466</v>
@@ -16501,27 +16503,27 @@
         <v>23.581866196506699</v>
       </c>
       <c r="H55">
-        <f>AVERAGE(C55:F55)</f>
+        <f t="shared" si="10"/>
         <v>34.472022204390804</v>
       </c>
       <c r="I55">
-        <f>AVERAGE(D55,F55,G55)</f>
+        <f t="shared" si="6"/>
         <v>26.845448338023299</v>
       </c>
       <c r="J55">
-        <f>_xlfn.STDEV.P(D55,F55,G55)</f>
+        <f t="shared" si="7"/>
         <v>2.63576879361873</v>
       </c>
       <c r="K55">
-        <f>_xlfn.STDEV.P(C55:G55)</f>
+        <f t="shared" si="8"/>
         <v>7.1176381739397883</v>
       </c>
       <c r="L55" s="4">
-        <f>K55/H55</f>
+        <f t="shared" si="9"/>
         <v>0.20647579453674156</v>
       </c>
       <c r="M55" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N55" t="s">
         <v>466</v>
@@ -16562,27 +16564,27 @@
         <v>22.705826279454701</v>
       </c>
       <c r="H56">
-        <f>AVERAGE(C56:F56)</f>
+        <f t="shared" si="10"/>
         <v>35.919172887187848</v>
       </c>
       <c r="I56">
-        <f>AVERAGE(D56,F56,G56)</f>
+        <f t="shared" si="6"/>
         <v>27.069765942735369</v>
       </c>
       <c r="J56">
-        <f>_xlfn.STDEV.P(D56,F56,G56)</f>
+        <f t="shared" si="7"/>
         <v>3.9643253613659457</v>
       </c>
       <c r="K56">
-        <f>_xlfn.STDEV.P(C56:G56)</f>
+        <f t="shared" si="8"/>
         <v>8.3157324423777705</v>
       </c>
       <c r="L56" s="4">
-        <f>K56/H56</f>
+        <f t="shared" si="9"/>
         <v>0.23151235883117849</v>
       </c>
       <c r="M56" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N56" t="s">
         <v>466</v>
@@ -16623,27 +16625,27 @@
         <v>25.5368184106771</v>
       </c>
       <c r="H57">
-        <f>AVERAGE(C57:F57)</f>
+        <f t="shared" si="10"/>
         <v>35.253224369029596</v>
       </c>
       <c r="I57">
-        <f>AVERAGE(D57,F57,G57)</f>
+        <f t="shared" si="6"/>
         <v>27.969178628931832</v>
       </c>
       <c r="J57">
-        <f>_xlfn.STDEV.P(D57,F57,G57)</f>
+        <f t="shared" si="7"/>
         <v>1.8270269352118897</v>
       </c>
       <c r="K57">
-        <f>_xlfn.STDEV.P(C57:G57)</f>
+        <f t="shared" si="8"/>
         <v>6.7854063016418227</v>
       </c>
       <c r="L57" s="4">
-        <f>K57/H57</f>
+        <f t="shared" si="9"/>
         <v>0.19247618971281641</v>
       </c>
       <c r="M57" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N57" t="s">
         <v>466</v>
@@ -16684,27 +16686,27 @@
         <v>24.113670224242401</v>
       </c>
       <c r="H58">
-        <f>AVERAGE(C58:F58)</f>
+        <f t="shared" si="10"/>
         <v>40.582837617918727</v>
       </c>
       <c r="I58">
-        <f>AVERAGE(D58,F58,G58)</f>
+        <f t="shared" si="6"/>
         <v>30.411073565305767</v>
       </c>
       <c r="J58">
-        <f>_xlfn.STDEV.P(D58,F58,G58)</f>
+        <f t="shared" si="7"/>
         <v>4.5104406693605759</v>
       </c>
       <c r="K58">
-        <f>_xlfn.STDEV.P(C58:G58)</f>
+        <f t="shared" si="8"/>
         <v>9.6515564850294915</v>
       </c>
       <c r="L58" s="4">
-        <f>K58/H58</f>
+        <f t="shared" si="9"/>
         <v>0.23782359863293531</v>
       </c>
       <c r="M58" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N58" t="s">
         <v>466</v>
@@ -16745,27 +16747,27 @@
         <v>23.701256363127701</v>
       </c>
       <c r="H59">
-        <f>AVERAGE(C59:F59)</f>
+        <f t="shared" si="10"/>
         <v>40.378692160732953</v>
       </c>
       <c r="I59">
-        <f>AVERAGE(D59,F59,G59)</f>
+        <f t="shared" si="6"/>
         <v>28.9479416686865</v>
       </c>
       <c r="J59">
-        <f>_xlfn.STDEV.P(D59,F59,G59)</f>
+        <f t="shared" si="7"/>
         <v>3.7220462868130197</v>
       </c>
       <c r="K59">
-        <f>_xlfn.STDEV.P(C59:G59)</f>
+        <f t="shared" si="8"/>
         <v>10.802769147994534</v>
       </c>
       <c r="L59" s="4">
-        <f>K59/H59</f>
+        <f t="shared" si="9"/>
         <v>0.26753638045017952</v>
       </c>
       <c r="M59" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N59" t="s">
         <v>466</v>
@@ -16806,27 +16808,27 @@
         <v>29.8368526732785</v>
       </c>
       <c r="H60">
-        <f>AVERAGE(C60:F60)</f>
+        <f t="shared" si="10"/>
         <v>41.114926390269972</v>
       </c>
       <c r="I60">
-        <f>AVERAGE(D60,F60,G60)</f>
+        <f t="shared" si="6"/>
         <v>31.140349411452799</v>
       </c>
       <c r="J60">
-        <f>_xlfn.STDEV.P(D60,F60,G60)</f>
+        <f t="shared" si="7"/>
         <v>2.3270484634431354</v>
       </c>
       <c r="K60">
-        <f>_xlfn.STDEV.P(C60:G60)</f>
+        <f t="shared" si="8"/>
         <v>9.9349694563552866</v>
       </c>
       <c r="L60" s="4">
-        <f>K60/H60</f>
+        <f t="shared" si="9"/>
         <v>0.24163899412225243</v>
       </c>
       <c r="M60" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N60" t="s">
         <v>466</v>
@@ -16867,27 +16869,27 @@
         <v>16.277300312684499</v>
       </c>
       <c r="H61">
-        <f>AVERAGE(C61:F61)</f>
+        <f t="shared" si="10"/>
         <v>26.796477972476296</v>
       </c>
       <c r="I61">
-        <f>AVERAGE(D61,F61,G61)</f>
+        <f t="shared" si="6"/>
         <v>14.8650340675299</v>
       </c>
       <c r="J61">
-        <f>_xlfn.STDEV.P(D61,F61,G61)</f>
+        <f t="shared" si="7"/>
         <v>1.4315409585927557</v>
       </c>
       <c r="K61">
-        <f>_xlfn.STDEV.P(C61:G61)</f>
+        <f t="shared" si="8"/>
         <v>15.86255897192266</v>
       </c>
       <c r="L61" s="4">
-        <f>K61/H61</f>
+        <f t="shared" si="9"/>
         <v>0.59196432412557021</v>
       </c>
       <c r="M61" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="N61" t="s">
         <v>466</v>
@@ -16928,23 +16930,23 @@
         <v>48.048027824141499</v>
       </c>
       <c r="H62">
-        <f>AVERAGE(C62:F62)</f>
+        <f t="shared" si="10"/>
         <v>51.284419156397604</v>
       </c>
       <c r="I62">
-        <f>AVERAGE(D62,F62,G62)</f>
+        <f t="shared" si="6"/>
         <v>46.221691483243966</v>
       </c>
       <c r="J62">
-        <f>_xlfn.STDEV.P(D62,F62,G62)</f>
+        <f t="shared" si="7"/>
         <v>2.163137108053844</v>
       </c>
       <c r="K62">
-        <f>_xlfn.STDEV.P(C62:G62)</f>
+        <f t="shared" si="8"/>
         <v>11.930822360420757</v>
       </c>
       <c r="L62" s="4">
-        <f>K62/H62</f>
+        <f t="shared" si="9"/>
         <v>0.2326402942000059</v>
       </c>
       <c r="M62" t="s">
@@ -16989,23 +16991,23 @@
         <v>28.867128747304999</v>
       </c>
       <c r="H63">
-        <f>AVERAGE(C63:F63)</f>
+        <f t="shared" si="10"/>
         <v>50.528482096103652</v>
       </c>
       <c r="I63">
-        <f>AVERAGE(D63,F63,G63)</f>
+        <f t="shared" si="6"/>
         <v>31.206132377239868</v>
       </c>
       <c r="J63">
-        <f>_xlfn.STDEV.P(D63,F63,G63)</f>
+        <f t="shared" si="7"/>
         <v>2.0014086945289185</v>
       </c>
       <c r="K63">
-        <f>_xlfn.STDEV.P(C63:G63)</f>
+        <f t="shared" si="8"/>
         <v>22.777494364805435</v>
       </c>
       <c r="L63" s="4">
-        <f>K63/H63</f>
+        <f t="shared" si="9"/>
         <v>0.45078524863429159</v>
       </c>
       <c r="M63" t="s">
@@ -17050,23 +17052,23 @@
         <v>5.8523965066437</v>
       </c>
       <c r="H64">
-        <f>AVERAGE(C64:F64)</f>
+        <f t="shared" si="10"/>
         <v>25.35554515215151</v>
       </c>
       <c r="I64">
-        <f>AVERAGE(D64,F64,G64)</f>
+        <f t="shared" si="6"/>
         <v>9.2965590384165768</v>
       </c>
       <c r="J64">
-        <f>_xlfn.STDEV.P(D64,F64,G64)</f>
+        <f t="shared" si="7"/>
         <v>3.3632601982570116</v>
       </c>
       <c r="K64">
-        <f>_xlfn.STDEV.P(C64:G64)</f>
+        <f t="shared" si="8"/>
         <v>22.840339621605896</v>
       </c>
       <c r="L64" s="4">
-        <f>K64/H64</f>
+        <f t="shared" si="9"/>
         <v>0.90080254573693552</v>
       </c>
       <c r="M64" t="s">
@@ -17111,23 +17113,23 @@
         <v>4.2202208050945904</v>
       </c>
       <c r="H65">
-        <f>AVERAGE(C65:F65)</f>
+        <f t="shared" si="10"/>
         <v>15.190313766590558</v>
       </c>
       <c r="I65">
-        <f>AVERAGE(D65,F65,G65)</f>
+        <f t="shared" si="6"/>
         <v>6.5881952904856069</v>
       </c>
       <c r="J65">
-        <f>_xlfn.STDEV.P(D65,F65,G65)</f>
+        <f t="shared" si="7"/>
         <v>2.9718081460184522</v>
       </c>
       <c r="K65">
-        <f>_xlfn.STDEV.P(C65:G65)</f>
+        <f t="shared" si="8"/>
         <v>10.297548342483369</v>
       </c>
       <c r="L65" s="4">
-        <f>K65/H65</f>
+        <f t="shared" si="9"/>
         <v>0.67790228040790745</v>
       </c>
       <c r="M65" t="s">
@@ -17172,23 +17174,23 @@
         <v>9.5769138980661008</v>
       </c>
       <c r="H66">
-        <f>AVERAGE(C66:F66)</f>
+        <f t="shared" si="10"/>
         <v>10.976142662728179</v>
       </c>
       <c r="I66">
-        <f>AVERAGE(D66,F66,G66)</f>
+        <f t="shared" ref="I66:I91" si="11">AVERAGE(D66,F66,G66)</f>
         <v>8.2754048496596067</v>
       </c>
       <c r="J66">
-        <f>_xlfn.STDEV.P(D66,F66,G66)</f>
+        <f t="shared" ref="J66:J91" si="12">_xlfn.STDEV.P(D66,F66,G66)</f>
         <v>0.92118768257803618</v>
       </c>
       <c r="K66">
-        <f>_xlfn.STDEV.P(C66:G66)</f>
+        <f t="shared" ref="K66:K97" si="13">_xlfn.STDEV.P(C66:G66)</f>
         <v>3.9040376215215296</v>
       </c>
       <c r="L66" s="4">
-        <f>K66/H66</f>
+        <f t="shared" ref="L66:L97" si="14">K66/H66</f>
         <v>0.35568393573987678</v>
       </c>
       <c r="M66" t="s">
@@ -17233,23 +17235,23 @@
         <v>10.674066278582901</v>
       </c>
       <c r="H67">
-        <f>AVERAGE(C67:F67)</f>
+        <f t="shared" si="10"/>
         <v>7.0181337049043426</v>
       </c>
       <c r="I67">
-        <f>AVERAGE(D67,F67,G67)</f>
+        <f t="shared" si="11"/>
         <v>8.6800766994000895</v>
       </c>
       <c r="J67">
-        <f>_xlfn.STDEV.P(D67,F67,G67)</f>
+        <f t="shared" si="12"/>
         <v>1.5744167379182732</v>
       </c>
       <c r="K67">
-        <f>_xlfn.STDEV.P(C67:G67)</f>
+        <f t="shared" si="13"/>
         <v>3.0670428397212457</v>
       </c>
       <c r="L67" s="4">
-        <f>K67/H67</f>
+        <f t="shared" si="14"/>
         <v>0.43701687210347179</v>
       </c>
       <c r="M67" t="s">
@@ -17294,23 +17296,23 @@
         <v>10.717208322091</v>
       </c>
       <c r="H68">
-        <f>AVERAGE(C68:F68)</f>
+        <f t="shared" si="10"/>
         <v>10.173091076672661</v>
       </c>
       <c r="I68">
-        <f>AVERAGE(D68,F68,G68)</f>
+        <f t="shared" si="11"/>
         <v>9.303072876260547</v>
       </c>
       <c r="J68">
-        <f>_xlfn.STDEV.P(D68,F68,G68)</f>
+        <f t="shared" si="12"/>
         <v>2.4702951754144844</v>
       </c>
       <c r="K68">
-        <f>_xlfn.STDEV.P(C68:G68)</f>
+        <f t="shared" si="13"/>
         <v>6.2636463275334009</v>
       </c>
       <c r="L68" s="4">
-        <f>K68/H68</f>
+        <f t="shared" si="14"/>
         <v>0.61570728899657778</v>
       </c>
       <c r="M68" t="s">
@@ -17355,23 +17357,23 @@
         <v>10.768347908870499</v>
       </c>
       <c r="H69">
-        <f>AVERAGE(C69:F69)</f>
+        <f t="shared" si="10"/>
         <v>8.9791434531660883</v>
       </c>
       <c r="I69">
-        <f>AVERAGE(D69,F69,G69)</f>
+        <f t="shared" si="11"/>
         <v>9.5201349071782868</v>
       </c>
       <c r="J69">
-        <f>_xlfn.STDEV.P(D69,F69,G69)</f>
+        <f t="shared" si="12"/>
         <v>2.0045244821681409</v>
       </c>
       <c r="K69">
-        <f>_xlfn.STDEV.P(C69:G69)</f>
+        <f t="shared" si="13"/>
         <v>2.8783283699557152</v>
       </c>
       <c r="L69" s="4">
-        <f>K69/H69</f>
+        <f t="shared" si="14"/>
         <v>0.32055712050583213</v>
       </c>
       <c r="M69" t="s">
@@ -17416,23 +17418,23 @@
         <v>10.578396745693301</v>
       </c>
       <c r="H70">
-        <f>AVERAGE(C70:F70)</f>
+        <f t="shared" si="10"/>
         <v>10.355335813116776</v>
       </c>
       <c r="I70">
-        <f>AVERAGE(D70,F70,G70)</f>
+        <f t="shared" si="11"/>
         <v>11.500861332720135</v>
       </c>
       <c r="J70">
-        <f>_xlfn.STDEV.P(D70,F70,G70)</f>
+        <f t="shared" si="12"/>
         <v>0.8915872295846532</v>
       </c>
       <c r="K70">
-        <f>_xlfn.STDEV.P(C70:G70)</f>
+        <f t="shared" si="13"/>
         <v>3.6260967546442036</v>
       </c>
       <c r="L70" s="4">
-        <f>K70/H70</f>
+        <f t="shared" si="14"/>
         <v>0.35016698831255105</v>
       </c>
       <c r="M70" t="s">
@@ -17477,23 +17479,23 @@
         <v>8.6562646569683093</v>
       </c>
       <c r="H71">
-        <f>AVERAGE(C71:F71)</f>
+        <f t="shared" si="10"/>
         <v>12.008420222742142</v>
       </c>
       <c r="I71">
-        <f>AVERAGE(D71,F71,G71)</f>
+        <f t="shared" si="11"/>
         <v>9.4351551826456248</v>
       </c>
       <c r="J71">
-        <f>_xlfn.STDEV.P(D71,F71,G71)</f>
+        <f t="shared" si="12"/>
         <v>2.085713865460094</v>
       </c>
       <c r="K71">
-        <f>_xlfn.STDEV.P(C71:G71)</f>
+        <f t="shared" si="13"/>
         <v>3.0467535984822129</v>
       </c>
       <c r="L71" s="4">
-        <f>K71/H71</f>
+        <f t="shared" si="14"/>
         <v>0.25371810296179675</v>
       </c>
       <c r="M71" t="s">
@@ -17538,23 +17540,23 @@
         <v>11.7414573357705</v>
       </c>
       <c r="H72">
-        <f>AVERAGE(C72:F72)</f>
+        <f t="shared" si="10"/>
         <v>12.479476546093544</v>
       </c>
       <c r="I72">
-        <f>AVERAGE(D72,F72,G72)</f>
+        <f t="shared" si="11"/>
         <v>10.06572117338156</v>
       </c>
       <c r="J72">
-        <f>_xlfn.STDEV.P(D72,F72,G72)</f>
+        <f t="shared" si="12"/>
         <v>2.1299997913257167</v>
       </c>
       <c r="K72">
-        <f>_xlfn.STDEV.P(C72:G72)</f>
+        <f t="shared" si="13"/>
         <v>3.2710298952182857</v>
       </c>
       <c r="L72" s="4">
-        <f>K72/H72</f>
+        <f t="shared" si="14"/>
         <v>0.26211274833015474</v>
       </c>
       <c r="M72" t="s">
@@ -17599,23 +17601,23 @@
         <v>15.6735921434102</v>
       </c>
       <c r="H73">
-        <f>AVERAGE(C73:F73)</f>
+        <f t="shared" si="10"/>
         <v>23.262221022590175</v>
       </c>
       <c r="I73">
-        <f>AVERAGE(D73,F73,G73)</f>
+        <f t="shared" si="11"/>
         <v>17.375538744590301</v>
       </c>
       <c r="J73">
-        <f>_xlfn.STDEV.P(D73,F73,G73)</f>
+        <f t="shared" si="12"/>
         <v>1.3276737561286929</v>
       </c>
       <c r="K73">
-        <f>_xlfn.STDEV.P(C73:G73)</f>
+        <f t="shared" si="13"/>
         <v>6.1824480802322741</v>
       </c>
       <c r="L73" s="4">
-        <f>K73/H73</f>
+        <f t="shared" si="14"/>
         <v>0.26577204619577971</v>
       </c>
       <c r="M73" t="s">
@@ -17660,23 +17662,23 @@
         <v>18.764788083403499</v>
       </c>
       <c r="H74">
-        <f>AVERAGE(C74:F74)</f>
+        <f t="shared" ref="H74:H105" si="15">AVERAGE(C74:F74)</f>
         <v>27.749061420821622</v>
       </c>
       <c r="I74">
-        <f>AVERAGE(D74,F74,G74)</f>
+        <f t="shared" si="11"/>
         <v>18.344517922230001</v>
       </c>
       <c r="J74">
-        <f>_xlfn.STDEV.P(D74,F74,G74)</f>
+        <f t="shared" si="12"/>
         <v>0.91075351618826272</v>
       </c>
       <c r="K74">
-        <f>_xlfn.STDEV.P(C74:G74)</f>
+        <f t="shared" si="13"/>
         <v>10.624295312904181</v>
       </c>
       <c r="L74" s="4">
-        <f>K74/H74</f>
+        <f t="shared" si="14"/>
         <v>0.38287043845498131</v>
       </c>
       <c r="M74" t="s">
@@ -17721,23 +17723,23 @@
         <v>11.6115925804387</v>
       </c>
       <c r="H75">
-        <f>AVERAGE(C75:F75)</f>
+        <f t="shared" si="15"/>
         <v>23.379325779672072</v>
       </c>
       <c r="I75">
-        <f>AVERAGE(D75,F75,G75)</f>
+        <f t="shared" si="11"/>
         <v>12.429091899708999</v>
       </c>
       <c r="J75">
-        <f>_xlfn.STDEV.P(D75,F75,G75)</f>
+        <f t="shared" si="12"/>
         <v>0.64442062094195229</v>
       </c>
       <c r="K75">
-        <f>_xlfn.STDEV.P(C75:G75)</f>
+        <f t="shared" si="13"/>
         <v>13.890955353307685</v>
       </c>
       <c r="L75" s="4">
-        <f>K75/H75</f>
+        <f t="shared" si="14"/>
         <v>0.59415551518537102</v>
       </c>
       <c r="M75" t="s">
@@ -17782,23 +17784,23 @@
         <v>11.0212630611852</v>
       </c>
       <c r="H76">
-        <f>AVERAGE(C76:F76)</f>
+        <f t="shared" si="15"/>
         <v>20.796773871051677</v>
       </c>
       <c r="I76">
-        <f>AVERAGE(D76,F76,G76)</f>
+        <f t="shared" si="11"/>
         <v>11.921862848463967</v>
       </c>
       <c r="J76">
-        <f>_xlfn.STDEV.P(D76,F76,G76)</f>
+        <f t="shared" si="12"/>
         <v>0.70090209118052071</v>
       </c>
       <c r="K76">
-        <f>_xlfn.STDEV.P(C76:G76)</f>
+        <f t="shared" si="13"/>
         <v>9.6326044805555746</v>
       </c>
       <c r="L76" s="4">
-        <f>K76/H76</f>
+        <f t="shared" si="14"/>
         <v>0.4631778246126817</v>
       </c>
       <c r="M76" t="s">
@@ -17843,23 +17845,23 @@
         <v>8.6526315646393606</v>
       </c>
       <c r="H77">
-        <f>AVERAGE(C77:F77)</f>
+        <f t="shared" si="15"/>
         <v>18.698862467425826</v>
       </c>
       <c r="I77">
-        <f>AVERAGE(D77,F77,G77)</f>
+        <f t="shared" si="11"/>
         <v>10.149883811447554</v>
       </c>
       <c r="J77">
-        <f>_xlfn.STDEV.P(D77,F77,G77)</f>
+        <f t="shared" si="12"/>
         <v>1.189164194610596</v>
       </c>
       <c r="K77">
-        <f>_xlfn.STDEV.P(C77:G77)</f>
+        <f t="shared" si="13"/>
         <v>8.9889618413835759</v>
       </c>
       <c r="L77" s="4">
-        <f>K77/H77</f>
+        <f t="shared" si="14"/>
         <v>0.48072238923852778</v>
       </c>
       <c r="M77" t="s">
@@ -17904,23 +17906,23 @@
         <v>21.477357509413</v>
       </c>
       <c r="H78">
-        <f>AVERAGE(C78:F78)</f>
+        <f t="shared" si="15"/>
         <v>25.593259994463999</v>
       </c>
       <c r="I78">
-        <f>AVERAGE(D78,F78,G78)</f>
+        <f t="shared" si="11"/>
         <v>24.524605829089666</v>
       </c>
       <c r="J78">
-        <f>_xlfn.STDEV.P(D78,F78,G78)</f>
+        <f t="shared" si="12"/>
         <v>2.1550269508457527</v>
       </c>
       <c r="K78">
-        <f>_xlfn.STDEV.P(C78:G78)</f>
+        <f t="shared" si="13"/>
         <v>8.4998824776648139</v>
       </c>
       <c r="L78" s="4">
-        <f>K78/H78</f>
+        <f t="shared" si="14"/>
         <v>0.33211409877066844</v>
       </c>
       <c r="M78" t="s">
@@ -17965,23 +17967,23 @@
         <v>8.32621758676847</v>
       </c>
       <c r="H79">
-        <f>AVERAGE(C79:F79)</f>
+        <f t="shared" si="15"/>
         <v>16.749921143049576</v>
       </c>
       <c r="I79">
-        <f>AVERAGE(D79,F79,G79)</f>
+        <f t="shared" si="11"/>
         <v>10.307105386322256</v>
       </c>
       <c r="J79">
-        <f>_xlfn.STDEV.P(D79,F79,G79)</f>
+        <f t="shared" si="12"/>
         <v>1.6234942184606937</v>
       </c>
       <c r="K79">
-        <f>_xlfn.STDEV.P(C79:G79)</f>
+        <f t="shared" si="13"/>
         <v>13.614621624938206</v>
       </c>
       <c r="L79" s="4">
-        <f>K79/H79</f>
+        <f t="shared" si="14"/>
         <v>0.81281705798284476</v>
       </c>
       <c r="M79" t="s">
@@ -18026,23 +18028,23 @@
         <v>12.1284998407834</v>
       </c>
       <c r="H80">
-        <f>AVERAGE(C80:F80)</f>
+        <f t="shared" si="15"/>
         <v>13.009635824015676</v>
       </c>
       <c r="I80">
-        <f>AVERAGE(D80,F80,G80)</f>
+        <f t="shared" si="11"/>
         <v>12.120027712282033</v>
       </c>
       <c r="J80">
-        <f>_xlfn.STDEV.P(D80,F80,G80)</f>
+        <f t="shared" si="12"/>
         <v>0.31132337909138452</v>
       </c>
       <c r="K80">
-        <f>_xlfn.STDEV.P(C80:G80)</f>
+        <f t="shared" si="13"/>
         <v>2.6076151597575237</v>
       </c>
       <c r="L80" s="4">
-        <f>K80/H80</f>
+        <f t="shared" si="14"/>
         <v>0.20043721400286152</v>
       </c>
       <c r="M80" t="s">
@@ -18087,23 +18089,23 @@
         <v>11.707384970514401</v>
       </c>
       <c r="H81">
-        <f>AVERAGE(C81:F81)</f>
+        <f t="shared" si="15"/>
         <v>18.473058022999624</v>
       </c>
       <c r="I81">
-        <f>AVERAGE(D81,F81,G81)</f>
+        <f t="shared" si="11"/>
         <v>11.896762354170965</v>
       </c>
       <c r="J81">
-        <f>_xlfn.STDEV.P(D81,F81,G81)</f>
+        <f t="shared" si="12"/>
         <v>0.14815122505809949</v>
       </c>
       <c r="K81">
-        <f>_xlfn.STDEV.P(C81:G81)</f>
+        <f t="shared" si="13"/>
         <v>6.8503978442488647</v>
       </c>
       <c r="L81" s="4">
-        <f>K81/H81</f>
+        <f t="shared" si="14"/>
         <v>0.37083182631266964</v>
       </c>
       <c r="M81" t="s">
@@ -18148,23 +18150,23 @@
         <v>12.017648817912599</v>
       </c>
       <c r="H82">
-        <f>AVERAGE(C82:F82)</f>
+        <f t="shared" si="15"/>
         <v>14.66102344045755</v>
       </c>
       <c r="I82">
-        <f>AVERAGE(D82,F82,G82)</f>
+        <f t="shared" si="11"/>
         <v>12.348511526580934</v>
       </c>
       <c r="J82">
-        <f>_xlfn.STDEV.P(D82,F82,G82)</f>
+        <f t="shared" si="12"/>
         <v>1.2222248696037699</v>
       </c>
       <c r="K82">
-        <f>_xlfn.STDEV.P(C82:G82)</f>
+        <f t="shared" si="13"/>
         <v>10.457123326975134</v>
       </c>
       <c r="L82" s="4">
-        <f>K82/H82</f>
+        <f t="shared" si="14"/>
         <v>0.71326011921639643</v>
       </c>
       <c r="M82" t="s">
@@ -18209,23 +18211,23 @@
         <v>11.8933724868456</v>
       </c>
       <c r="H83">
-        <f>AVERAGE(C83:F83)</f>
+        <f t="shared" si="15"/>
         <v>20.107709117653574</v>
       </c>
       <c r="I83">
-        <f>AVERAGE(D83,F83,G83)</f>
+        <f t="shared" si="11"/>
         <v>13.0869063191533</v>
       </c>
       <c r="J83">
-        <f>_xlfn.STDEV.P(D83,F83,G83)</f>
+        <f t="shared" si="12"/>
         <v>1.4478005520824426</v>
       </c>
       <c r="K83">
-        <f>_xlfn.STDEV.P(C83:G83)</f>
+        <f t="shared" si="13"/>
         <v>7.6105188301596227</v>
       </c>
       <c r="L83" s="4">
-        <f>K83/H83</f>
+        <f t="shared" si="14"/>
         <v>0.3784876131651399</v>
       </c>
       <c r="M83" t="s">
@@ -18270,23 +18272,23 @@
         <v>11.889291732419499</v>
       </c>
       <c r="H84">
-        <f>AVERAGE(C84:F84)</f>
+        <f t="shared" si="15"/>
         <v>19.048514130035656</v>
       </c>
       <c r="I84">
-        <f>AVERAGE(D84,F84,G84)</f>
+        <f t="shared" si="11"/>
         <v>11.435299417520708</v>
       </c>
       <c r="J84">
-        <f>_xlfn.STDEV.P(D84,F84,G84)</f>
+        <f t="shared" si="12"/>
         <v>1.5429517710861576</v>
       </c>
       <c r="K84">
-        <f>_xlfn.STDEV.P(C84:G84)</f>
+        <f t="shared" si="13"/>
         <v>9.3727326715277055</v>
       </c>
       <c r="L84" s="4">
-        <f>K84/H84</f>
+        <f t="shared" si="14"/>
         <v>0.49204534314562631</v>
       </c>
       <c r="M84" t="s">
@@ -18331,23 +18333,23 @@
         <v>24.75041120325</v>
       </c>
       <c r="H85">
-        <f>AVERAGE(C85:F85)</f>
+        <f t="shared" si="15"/>
         <v>34.716757508145299</v>
       </c>
       <c r="I85">
-        <f>AVERAGE(D85,F85,G85)</f>
+        <f t="shared" si="11"/>
         <v>26.512050411943733</v>
       </c>
       <c r="J85">
-        <f>_xlfn.STDEV.P(D85,F85,G85)</f>
+        <f t="shared" si="12"/>
         <v>1.2532571916222075</v>
       </c>
       <c r="K85">
-        <f>_xlfn.STDEV.P(C85:G85)</f>
+        <f t="shared" si="13"/>
         <v>8.0759587311645173</v>
       </c>
       <c r="L85" s="4">
-        <f>K85/H85</f>
+        <f t="shared" si="14"/>
         <v>0.23262422273363875</v>
       </c>
       <c r="M85" t="s">
@@ -18392,23 +18394,23 @@
         <v>20.217338927014001</v>
       </c>
       <c r="H86">
-        <f>AVERAGE(C86:F86)</f>
+        <f t="shared" si="15"/>
         <v>33.907867797630828</v>
       </c>
       <c r="I86">
-        <f>AVERAGE(D86,F86,G86)</f>
+        <f t="shared" si="11"/>
         <v>19.899830039179097</v>
       </c>
       <c r="J86">
-        <f>_xlfn.STDEV.P(D86,F86,G86)</f>
+        <f t="shared" si="12"/>
         <v>0.62640097614439483</v>
       </c>
       <c r="K86">
-        <f>_xlfn.STDEV.P(C86:G86)</f>
+        <f t="shared" si="13"/>
         <v>16.084318090879382</v>
       </c>
       <c r="L86" s="4">
-        <f>K86/H86</f>
+        <f t="shared" si="14"/>
         <v>0.47435356852497834</v>
       </c>
       <c r="M86" t="s">
@@ -18453,23 +18455,23 @@
         <v>27.2903666766863</v>
       </c>
       <c r="H87">
-        <f>AVERAGE(C87:F87)</f>
+        <f t="shared" si="15"/>
         <v>36.763967828824079</v>
       </c>
       <c r="I87">
-        <f>AVERAGE(D87,F87,G87)</f>
+        <f t="shared" si="11"/>
         <v>25.6602426639942</v>
       </c>
       <c r="J87">
-        <f>_xlfn.STDEV.P(D87,F87,G87)</f>
+        <f t="shared" si="12"/>
         <v>1.4912014373289546</v>
       </c>
       <c r="K87">
-        <f>_xlfn.STDEV.P(C87:G87)</f>
+        <f t="shared" si="13"/>
         <v>12.270504409315642</v>
       </c>
       <c r="L87" s="4">
-        <f>K87/H87</f>
+        <f t="shared" si="14"/>
         <v>0.33376442027280823</v>
       </c>
       <c r="M87" t="s">
@@ -18514,23 +18516,23 @@
         <v>17.7696158758996</v>
       </c>
       <c r="H88">
-        <f>AVERAGE(C88:F88)</f>
+        <f t="shared" si="15"/>
         <v>29.408046203867102</v>
       </c>
       <c r="I88">
-        <f>AVERAGE(D88,F88,G88)</f>
+        <f t="shared" si="11"/>
         <v>16.944683563789336</v>
       </c>
       <c r="J88">
-        <f>_xlfn.STDEV.P(D88,F88,G88)</f>
+        <f t="shared" si="12"/>
         <v>0.77890077499248533</v>
       </c>
       <c r="K88">
-        <f>_xlfn.STDEV.P(C88:G88)</f>
+        <f t="shared" si="13"/>
         <v>17.196208419959436</v>
       </c>
       <c r="L88" s="4">
-        <f>K88/H88</f>
+        <f t="shared" si="14"/>
         <v>0.58474501504619403</v>
       </c>
       <c r="M88" t="s">
@@ -18575,23 +18577,23 @@
         <v>18.442798818957701</v>
       </c>
       <c r="H89">
-        <f>AVERAGE(C89:F89)</f>
+        <f t="shared" si="15"/>
         <v>27.879578763241927</v>
       </c>
       <c r="I89">
-        <f>AVERAGE(D89,F89,G89)</f>
+        <f t="shared" si="11"/>
         <v>18.5836612906418</v>
       </c>
       <c r="J89">
-        <f>_xlfn.STDEV.P(D89,F89,G89)</f>
+        <f t="shared" si="12"/>
         <v>0.15768991538325353</v>
       </c>
       <c r="K89">
-        <f>_xlfn.STDEV.P(C89:G89)</f>
+        <f t="shared" si="13"/>
         <v>9.8507646763844949</v>
       </c>
       <c r="L89" s="4">
-        <f>K89/H89</f>
+        <f t="shared" si="14"/>
         <v>0.35333262242011781</v>
       </c>
       <c r="M89" t="s">
@@ -18636,23 +18638,23 @@
         <v>17.417029045003201</v>
       </c>
       <c r="H90">
-        <f>AVERAGE(C90:F90)</f>
+        <f t="shared" si="15"/>
         <v>27.527479303856225</v>
       </c>
       <c r="I90">
-        <f>AVERAGE(D90,F90,G90)</f>
+        <f t="shared" si="11"/>
         <v>16.678308753476035</v>
       </c>
       <c r="J90">
-        <f>_xlfn.STDEV.P(D90,F90,G90)</f>
+        <f t="shared" si="12"/>
         <v>0.82524524675733635</v>
       </c>
       <c r="K90">
-        <f>_xlfn.STDEV.P(C90:G90)</f>
+        <f t="shared" si="13"/>
         <v>13.557542430411864</v>
       </c>
       <c r="L90" s="4">
-        <f>K90/H90</f>
+        <f t="shared" si="14"/>
         <v>0.49250940417608952</v>
       </c>
       <c r="M90" t="s">
@@ -18697,23 +18699,23 @@
         <v>18.538759036861698</v>
       </c>
       <c r="H91">
-        <f>AVERAGE(C91:F91)</f>
+        <f t="shared" si="15"/>
         <v>23.266345375050353</v>
       </c>
       <c r="I91">
-        <f>AVERAGE(D91,F91,G91)</f>
+        <f t="shared" si="11"/>
         <v>16.309363512354366</v>
       </c>
       <c r="J91">
-        <f>_xlfn.STDEV.P(D91,F91,G91)</f>
+        <f t="shared" si="12"/>
         <v>1.7377689706383124</v>
       </c>
       <c r="K91">
-        <f>_xlfn.STDEV.P(C91:G91)</f>
+        <f t="shared" si="13"/>
         <v>8.6634407919334464</v>
       </c>
       <c r="L91" s="4">
-        <f>K91/H91</f>
+        <f t="shared" si="14"/>
         <v>0.37235933071051547</v>
       </c>
       <c r="M91" t="s">
@@ -18754,15 +18756,15 @@
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
       <c r="H92">
-        <f>AVERAGE(C92:F92)</f>
+        <f t="shared" si="15"/>
         <v>30.440010549529234</v>
       </c>
       <c r="K92">
-        <f>_xlfn.STDEV.P(C92:G92)</f>
+        <f t="shared" si="13"/>
         <v>0.27913131935003588</v>
       </c>
       <c r="L92">
-        <f>K92/H92</f>
+        <f t="shared" si="14"/>
         <v>9.1698824774012026E-3</v>
       </c>
       <c r="M92" t="s">
@@ -18794,15 +18796,15 @@
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
       <c r="H93">
-        <f>AVERAGE(C93:F93)</f>
+        <f t="shared" si="15"/>
         <v>181.85500125976304</v>
       </c>
       <c r="K93">
-        <f>_xlfn.STDEV.P(C93:G93)</f>
+        <f t="shared" si="13"/>
         <v>20.134181733470101</v>
       </c>
       <c r="L93">
-        <f>K93/H93</f>
+        <f t="shared" si="14"/>
         <v>0.11071557886225128</v>
       </c>
       <c r="M93" t="s">
@@ -18834,15 +18836,15 @@
       <c r="F94" s="12"/>
       <c r="G94" s="12"/>
       <c r="H94">
-        <f>AVERAGE(C94:F94)</f>
+        <f t="shared" si="15"/>
         <v>21.593535325214834</v>
       </c>
       <c r="K94">
-        <f>_xlfn.STDEV.P(C94:G94)</f>
+        <f t="shared" si="13"/>
         <v>1.757558707146031</v>
       </c>
       <c r="L94">
-        <f>K94/H94</f>
+        <f t="shared" si="14"/>
         <v>8.1392818761535757E-2</v>
       </c>
       <c r="M94" t="s">
@@ -18874,15 +18876,15 @@
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
       <c r="H95">
-        <f>AVERAGE(C95:F95)</f>
+        <f t="shared" si="15"/>
         <v>20.247576669166335</v>
       </c>
       <c r="K95">
-        <f>_xlfn.STDEV.P(C95:G95)</f>
+        <f t="shared" si="13"/>
         <v>0.68605746128762457</v>
       </c>
       <c r="L95">
-        <f>K95/H95</f>
+        <f t="shared" si="14"/>
         <v>3.3883435657382895E-2</v>
       </c>
       <c r="M95" t="s">
@@ -18914,15 +18916,15 @@
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
       <c r="H96">
-        <f>AVERAGE(C96:F96)</f>
+        <f t="shared" si="15"/>
         <v>187.06655931293631</v>
       </c>
       <c r="K96">
-        <f>_xlfn.STDEV.P(C96:G96)</f>
+        <f t="shared" si="13"/>
         <v>27.287487419434701</v>
       </c>
       <c r="L96">
-        <f>K96/H96</f>
+        <f t="shared" si="14"/>
         <v>0.14587047262566333</v>
       </c>
       <c r="M96" t="s">
@@ -18954,15 +18956,15 @@
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
       <c r="H97">
-        <f>AVERAGE(C97:F97)</f>
+        <f t="shared" si="15"/>
         <v>19.396004296683834</v>
       </c>
       <c r="K97">
-        <f>_xlfn.STDEV.P(C97:G97)</f>
+        <f t="shared" si="13"/>
         <v>1.3983112671597304</v>
       </c>
       <c r="L97">
-        <f>K97/H97</f>
+        <f t="shared" si="14"/>
         <v>7.209274888636738E-2</v>
       </c>
       <c r="M97" t="s">
@@ -18992,15 +18994,15 @@
         <v>14.817036887393099</v>
       </c>
       <c r="H98">
-        <f>AVERAGE(C98:F98)</f>
+        <f t="shared" si="15"/>
         <v>17.495456951090233</v>
       </c>
       <c r="K98">
-        <f>_xlfn.STDEV.P(C98:G98)</f>
+        <f t="shared" ref="K98:K129" si="16">_xlfn.STDEV.P(C98:G98)</f>
         <v>1.9060477565132941</v>
       </c>
       <c r="L98">
-        <f>K98/H98</f>
+        <f t="shared" ref="L98:L129" si="17">K98/H98</f>
         <v>0.10894529716153074</v>
       </c>
       <c r="M98" t="s">
@@ -19032,15 +19034,15 @@
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
       <c r="H99">
-        <f>AVERAGE(C99:F99)</f>
+        <f t="shared" si="15"/>
         <v>178.55542136339236</v>
       </c>
       <c r="K99">
-        <f>_xlfn.STDEV.P(C99:G99)</f>
+        <f t="shared" si="16"/>
         <v>17.614541914451781</v>
       </c>
       <c r="L99">
-        <f>K99/H99</f>
+        <f t="shared" si="17"/>
         <v>9.8650277767836705E-2</v>
       </c>
       <c r="M99" t="s">
@@ -19072,15 +19074,15 @@
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
       <c r="H100">
-        <f>AVERAGE(C100:F100)</f>
+        <f t="shared" si="15"/>
         <v>16.821059067926232</v>
       </c>
       <c r="K100">
-        <f>_xlfn.STDEV.P(C100:G100)</f>
+        <f t="shared" si="16"/>
         <v>2.1921723850996457</v>
       </c>
       <c r="L100">
-        <f>K100/H100</f>
+        <f t="shared" si="17"/>
         <v>0.13032308942304341</v>
       </c>
       <c r="M100" t="s">
@@ -19112,15 +19114,15 @@
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
       <c r="H101">
-        <f>AVERAGE(C101:F101)</f>
+        <f t="shared" si="15"/>
         <v>15.798994909233967</v>
       </c>
       <c r="K101">
-        <f>_xlfn.STDEV.P(C101:G101)</f>
+        <f t="shared" si="16"/>
         <v>1.1682355946463394</v>
       </c>
       <c r="L101">
-        <f>K101/H101</f>
+        <f t="shared" si="17"/>
         <v>7.3943665489982921E-2</v>
       </c>
       <c r="M101" t="s">
@@ -19152,15 +19154,15 @@
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
       <c r="H102">
-        <f>AVERAGE(C102:F102)</f>
+        <f t="shared" si="15"/>
         <v>16.063767641496867</v>
       </c>
       <c r="K102">
-        <f>_xlfn.STDEV.P(C102:G102)</f>
+        <f t="shared" si="16"/>
         <v>1.7296212445288115</v>
       </c>
       <c r="L102">
-        <f>K102/H102</f>
+        <f t="shared" si="17"/>
         <v>0.10767220263201221</v>
       </c>
       <c r="M102" t="s">
@@ -19192,15 +19194,15 @@
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
       <c r="H103">
-        <f>AVERAGE(C103:F103)</f>
+        <f t="shared" si="15"/>
         <v>19.682277378864132</v>
       </c>
       <c r="K103">
-        <f>_xlfn.STDEV.P(C103:G103)</f>
+        <f t="shared" si="16"/>
         <v>2.4105744692201534</v>
       </c>
       <c r="L103">
-        <f>K103/H103</f>
+        <f t="shared" si="17"/>
         <v>0.12247436731121143</v>
       </c>
       <c r="M103" t="s">
@@ -19232,15 +19234,15 @@
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104">
-        <f>AVERAGE(C104:F104)</f>
+        <f t="shared" si="15"/>
         <v>205.66022544283399</v>
       </c>
       <c r="K104">
-        <f>_xlfn.STDEV.P(C104:G104)</f>
+        <f t="shared" si="16"/>
         <v>23.613882537152339</v>
       </c>
       <c r="L104">
-        <f>K104/H104</f>
+        <f t="shared" si="17"/>
         <v>0.11481988063713434</v>
       </c>
       <c r="M104" t="s">
@@ -19272,15 +19274,15 @@
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
       <c r="H105">
-        <f>AVERAGE(C105:F105)</f>
+        <f t="shared" si="15"/>
         <v>19.521604992889497</v>
       </c>
       <c r="K105">
-        <f>_xlfn.STDEV.P(C105:G105)</f>
+        <f t="shared" si="16"/>
         <v>1.3732810408426013</v>
       </c>
       <c r="L105">
-        <f>K105/H105</f>
+        <f t="shared" si="17"/>
         <v>7.0346728219467705E-2</v>
       </c>
       <c r="M105" t="s">
@@ -19312,15 +19314,15 @@
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
       <c r="H106">
-        <f>AVERAGE(C106:F106)</f>
+        <f t="shared" ref="H106:H137" si="18">AVERAGE(C106:F106)</f>
         <v>15.8130927284812</v>
       </c>
       <c r="K106">
-        <f>_xlfn.STDEV.P(C106:G106)</f>
+        <f t="shared" si="16"/>
         <v>1.4716378797533274</v>
       </c>
       <c r="L106">
-        <f>K106/H106</f>
+        <f t="shared" si="17"/>
         <v>9.3064519700358062E-2</v>
       </c>
       <c r="M106" t="s">
@@ -19352,15 +19354,15 @@
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
       <c r="H107">
-        <f>AVERAGE(C107:F107)</f>
+        <f t="shared" si="18"/>
         <v>12.002522758824705</v>
       </c>
       <c r="K107">
-        <f>_xlfn.STDEV.P(C107:G107)</f>
+        <f t="shared" si="16"/>
         <v>2.5101162868813893</v>
       </c>
       <c r="L107">
-        <f>K107/H107</f>
+        <f t="shared" si="17"/>
         <v>0.20913239135796327</v>
       </c>
       <c r="M107" t="s">
@@ -19392,15 +19394,15 @@
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
       <c r="H108">
-        <f>AVERAGE(C108:F108)</f>
+        <f t="shared" si="18"/>
         <v>10.267414901272227</v>
       </c>
       <c r="K108">
-        <f>_xlfn.STDEV.P(C108:G108)</f>
+        <f t="shared" si="16"/>
         <v>3.1773075322803783</v>
       </c>
       <c r="L108">
-        <f>K108/H108</f>
+        <f t="shared" si="17"/>
         <v>0.30945545327935281</v>
       </c>
       <c r="M108" t="s">
@@ -19432,15 +19434,15 @@
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
       <c r="H109">
-        <f>AVERAGE(C109:F109)</f>
+        <f t="shared" si="18"/>
         <v>10.306472135750285</v>
       </c>
       <c r="K109">
-        <f>_xlfn.STDEV.P(C109:G109)</f>
+        <f t="shared" si="16"/>
         <v>2.2311122397195744</v>
       </c>
       <c r="L109">
-        <f>K109/H109</f>
+        <f t="shared" si="17"/>
         <v>0.21647681285436815</v>
       </c>
       <c r="M109" t="s">
@@ -19472,15 +19474,15 @@
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
       <c r="H110">
-        <f>AVERAGE(C110:F110)</f>
+        <f t="shared" si="18"/>
         <v>10.380402578636962</v>
       </c>
       <c r="K110">
-        <f>_xlfn.STDEV.P(C110:G110)</f>
+        <f t="shared" si="16"/>
         <v>2.8657503439162966</v>
       </c>
       <c r="L110">
-        <f>K110/H110</f>
+        <f t="shared" si="17"/>
         <v>0.27607314092172663</v>
       </c>
       <c r="M110" t="s">
@@ -19512,15 +19514,15 @@
       <c r="F111" s="10"/>
       <c r="G111" s="10"/>
       <c r="H111">
-        <f>AVERAGE(C111:F111)</f>
+        <f t="shared" si="18"/>
         <v>8.1390659077696199</v>
       </c>
       <c r="K111">
-        <f>_xlfn.STDEV.P(C111:G111)</f>
+        <f t="shared" si="16"/>
         <v>1.2802855120710934</v>
       </c>
       <c r="L111">
-        <f>K111/H111</f>
+        <f t="shared" si="17"/>
         <v>0.15730128328963675</v>
       </c>
       <c r="M111" t="s">
@@ -19552,15 +19554,15 @@
       <c r="F112" s="10"/>
       <c r="G112" s="10"/>
       <c r="H112">
-        <f>AVERAGE(C112:F112)</f>
+        <f t="shared" si="18"/>
         <v>8.668695786141372</v>
       </c>
       <c r="K112">
-        <f>_xlfn.STDEV.P(C112:G112)</f>
+        <f t="shared" si="16"/>
         <v>2.5073326532306717</v>
       </c>
       <c r="L112">
-        <f>K112/H112</f>
+        <f t="shared" si="17"/>
         <v>0.28923989433787028</v>
       </c>
       <c r="M112" t="s">
@@ -19592,15 +19594,15 @@
       <c r="F113" s="10"/>
       <c r="G113" s="10"/>
       <c r="H113">
-        <f>AVERAGE(C113:F113)</f>
+        <f t="shared" si="18"/>
         <v>149.68843149347302</v>
       </c>
       <c r="K113">
-        <f>_xlfn.STDEV.P(C113:G113)</f>
+        <f t="shared" si="16"/>
         <v>20.07534215226125</v>
       </c>
       <c r="L113">
-        <f>K113/H113</f>
+        <f t="shared" si="17"/>
         <v>0.13411418605943914</v>
       </c>
       <c r="M113" t="s">
@@ -19632,15 +19634,15 @@
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
       <c r="H114">
-        <f>AVERAGE(C114:F114)</f>
+        <f t="shared" si="18"/>
         <v>157.59057971014468</v>
       </c>
       <c r="K114">
-        <f>_xlfn.STDEV.P(C114:G114)</f>
+        <f t="shared" si="16"/>
         <v>16.752084986554976</v>
       </c>
       <c r="L114">
-        <f>K114/H114</f>
+        <f t="shared" si="17"/>
         <v>0.10630130949049732</v>
       </c>
       <c r="M114" t="s">
@@ -19672,15 +19674,15 @@
       <c r="F115" s="10"/>
       <c r="G115" s="10"/>
       <c r="H115">
-        <f>AVERAGE(C115:F115)</f>
+        <f t="shared" si="18"/>
         <v>34.039485205565462</v>
       </c>
       <c r="K115">
-        <f>_xlfn.STDEV.P(C115:G115)</f>
+        <f t="shared" si="16"/>
         <v>1.073155830754688</v>
       </c>
       <c r="L115">
-        <f>K115/H115</f>
+        <f t="shared" si="17"/>
         <v>3.1526793788856325E-2</v>
       </c>
       <c r="M115" t="s">
@@ -19712,15 +19714,15 @@
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
       <c r="H116">
-        <f>AVERAGE(C116:F116)</f>
+        <f t="shared" si="18"/>
         <v>200.87886717415699</v>
       </c>
       <c r="K116">
-        <f>_xlfn.STDEV.P(C116:G116)</f>
+        <f t="shared" si="16"/>
         <v>22.124666439360507</v>
       </c>
       <c r="L116">
-        <f>K116/H116</f>
+        <f t="shared" si="17"/>
         <v>0.11013934293137451</v>
       </c>
       <c r="M116" t="s">
@@ -19752,15 +19754,15 @@
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
       <c r="H117">
-        <f>AVERAGE(C117:F117)</f>
+        <f t="shared" si="18"/>
         <v>169.56790123456767</v>
       </c>
       <c r="K117">
-        <f>_xlfn.STDEV.P(C117:G117)</f>
+        <f t="shared" si="16"/>
         <v>15.242539483531898</v>
       </c>
       <c r="L117">
-        <f>K117/H117</f>
+        <f t="shared" si="17"/>
         <v>8.9890476750352055E-2</v>
       </c>
       <c r="M117" t="s">
@@ -19792,15 +19794,15 @@
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
       <c r="H118">
-        <f>AVERAGE(C118:F118)</f>
+        <f t="shared" si="18"/>
         <v>164.42498658078367</v>
       </c>
       <c r="K118">
-        <f>_xlfn.STDEV.P(C118:G118)</f>
+        <f t="shared" si="16"/>
         <v>19.177250320565008</v>
       </c>
       <c r="L118">
-        <f>K118/H118</f>
+        <f t="shared" si="17"/>
         <v>0.11663221460044353</v>
       </c>
       <c r="M118" t="s">
@@ -19832,15 +19834,15 @@
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
       <c r="H119">
-        <f>AVERAGE(C119:F119)</f>
+        <f t="shared" si="18"/>
         <v>163.33333333333334</v>
       </c>
       <c r="K119">
-        <f>_xlfn.STDEV.P(C119:G119)</f>
+        <f t="shared" si="16"/>
         <v>21.137221237139912</v>
       </c>
       <c r="L119">
-        <f>K119/H119</f>
+        <f t="shared" si="17"/>
         <v>0.12941155859473413</v>
       </c>
       <c r="M119" t="s">
@@ -19872,15 +19874,15 @@
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
       <c r="H120">
-        <f>AVERAGE(C120:F120)</f>
+        <f t="shared" si="18"/>
         <v>151.56169698838502</v>
       </c>
       <c r="K120">
-        <f>_xlfn.STDEV.P(C120:G120)</f>
+        <f t="shared" si="16"/>
         <v>16.608652315828699</v>
       </c>
       <c r="L120">
-        <f>K120/H120</f>
+        <f t="shared" si="17"/>
         <v>0.10958344123780502</v>
       </c>
       <c r="M120" t="s">
@@ -19912,15 +19914,15 @@
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
       <c r="H121">
-        <f>AVERAGE(C121:F121)</f>
+        <f t="shared" si="18"/>
         <v>14.875922908362233</v>
       </c>
       <c r="K121">
-        <f>_xlfn.STDEV.P(C121:G121)</f>
+        <f t="shared" si="16"/>
         <v>0.51974707917229923</v>
       </c>
       <c r="L121">
-        <f>K121/H121</f>
+        <f t="shared" si="17"/>
         <v>3.4938812359677718E-2</v>
       </c>
       <c r="M121" t="s">
@@ -19952,15 +19954,15 @@
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
       <c r="H122">
-        <f>AVERAGE(C122:F122)</f>
+        <f t="shared" si="18"/>
         <v>149.31226516371433</v>
       </c>
       <c r="K122">
-        <f>_xlfn.STDEV.P(C122:G122)</f>
+        <f t="shared" si="16"/>
         <v>20.281515894040112</v>
       </c>
       <c r="L122">
-        <f>K122/H122</f>
+        <f t="shared" si="17"/>
         <v>0.13583288601108773</v>
       </c>
       <c r="M122" t="s">
@@ -19992,15 +19994,15 @@
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
       <c r="H123">
-        <f>AVERAGE(C123:F123)</f>
+        <f t="shared" si="18"/>
         <v>140.97423510466999</v>
       </c>
       <c r="K123">
-        <f>_xlfn.STDEV.P(C123:G123)</f>
+        <f t="shared" si="16"/>
         <v>20.43988634937406</v>
       </c>
       <c r="L123">
-        <f>K123/H123</f>
+        <f t="shared" si="17"/>
         <v>0.14499022700281322</v>
       </c>
       <c r="M123" t="s">
@@ -20032,15 +20034,15 @@
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
       <c r="H124">
-        <f>AVERAGE(C124:F124)</f>
+        <f t="shared" si="18"/>
         <v>143.14009661835735</v>
       </c>
       <c r="K124">
-        <f>_xlfn.STDEV.P(C124:G124)</f>
+        <f t="shared" si="16"/>
         <v>27.303496718258462</v>
       </c>
       <c r="L124">
-        <f>K124/H124</f>
+        <f t="shared" si="17"/>
         <v>0.19074666961456319</v>
       </c>
       <c r="M124" t="s">
@@ -20072,15 +20074,15 @@
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
       <c r="H125">
-        <f>AVERAGE(C125:F125)</f>
+        <f t="shared" si="18"/>
         <v>138.28695138246468</v>
       </c>
       <c r="K125">
-        <f>_xlfn.STDEV.P(C125:G125)</f>
+        <f t="shared" si="16"/>
         <v>23.323496493846122</v>
       </c>
       <c r="L125">
-        <f>K125/H125</f>
+        <f t="shared" si="17"/>
         <v>0.16866013937453561</v>
       </c>
       <c r="M125" t="s">
@@ -20112,15 +20114,15 @@
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
       <c r="H126">
-        <f>AVERAGE(C126:F126)</f>
+        <f t="shared" si="18"/>
         <v>142.52960443436666</v>
       </c>
       <c r="K126">
-        <f>_xlfn.STDEV.P(C126:G126)</f>
+        <f t="shared" si="16"/>
         <v>20.814858896100482</v>
       </c>
       <c r="L126">
-        <f>K126/H126</f>
+        <f t="shared" si="17"/>
         <v>0.14603884560477748</v>
       </c>
       <c r="M126" t="s">
@@ -20152,15 +20154,15 @@
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
       <c r="H127">
-        <f>AVERAGE(C127:F127)</f>
+        <f t="shared" si="18"/>
         <v>168.44873859366601</v>
       </c>
       <c r="K127">
-        <f>_xlfn.STDEV.P(C127:G127)</f>
+        <f t="shared" si="16"/>
         <v>18.268944850179224</v>
       </c>
       <c r="L127">
-        <f>K127/H127</f>
+        <f t="shared" si="17"/>
         <v>0.10845403178855369</v>
       </c>
       <c r="M127" t="s">
@@ -20192,15 +20194,15 @@
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
       <c r="H128">
-        <f>AVERAGE(C128:F128)</f>
+        <f t="shared" si="18"/>
         <v>222.74020397208801</v>
       </c>
       <c r="K128">
-        <f>_xlfn.STDEV.P(C128:G128)</f>
+        <f t="shared" si="16"/>
         <v>21.670881910998638</v>
       </c>
       <c r="L128">
-        <f>K128/H128</f>
+        <f t="shared" si="17"/>
         <v>9.729218849828411E-2</v>
       </c>
       <c r="M128" t="s">
@@ -20232,15 +20234,15 @@
       <c r="F129" s="10"/>
       <c r="G129" s="10"/>
       <c r="H129">
-        <f>AVERAGE(C129:F129)</f>
+        <f t="shared" si="18"/>
         <v>177.99986580783698</v>
       </c>
       <c r="K129">
-        <f>_xlfn.STDEV.P(C129:G129)</f>
+        <f t="shared" si="16"/>
         <v>22.345721420800277</v>
       </c>
       <c r="L129">
-        <f>K129/H129</f>
+        <f t="shared" si="17"/>
         <v>0.12553785543256538</v>
       </c>
       <c r="M129" t="s">
@@ -20272,15 +20274,15 @@
       <c r="F130" s="10"/>
       <c r="G130" s="10"/>
       <c r="H130">
-        <f>AVERAGE(C130:F130)</f>
+        <f t="shared" si="18"/>
         <v>166.08024691358</v>
       </c>
       <c r="K130">
-        <f>_xlfn.STDEV.P(C130:G130)</f>
+        <f t="shared" ref="K130:K161" si="19">_xlfn.STDEV.P(C130:G130)</f>
         <v>17.729218231172808</v>
       </c>
       <c r="L130">
-        <f>K130/H130</f>
+        <f t="shared" ref="L130:L161" si="20">K130/H130</f>
         <v>0.10675091445642071</v>
       </c>
       <c r="M130" t="s">
@@ -20312,15 +20314,15 @@
       <c r="F131" s="10"/>
       <c r="G131" s="10"/>
       <c r="H131">
-        <f>AVERAGE(C131:F131)</f>
+        <f t="shared" si="18"/>
         <v>17.9353752457213</v>
       </c>
       <c r="K131">
-        <f>_xlfn.STDEV.P(C131:G131)</f>
+        <f t="shared" si="19"/>
         <v>0.70178954691852624</v>
       </c>
       <c r="L131">
-        <f>K131/H131</f>
+        <f t="shared" si="20"/>
         <v>3.9128790856268622E-2</v>
       </c>
       <c r="M131" t="s">
@@ -20352,15 +20354,15 @@
       <c r="F132" s="10"/>
       <c r="G132" s="10"/>
       <c r="H132">
-        <f>AVERAGE(C132:F132)</f>
+        <f t="shared" si="18"/>
         <v>151.01851851851868</v>
       </c>
       <c r="K132">
-        <f>_xlfn.STDEV.P(C132:G132)</f>
+        <f t="shared" si="19"/>
         <v>16.674038150357973</v>
       </c>
       <c r="L132">
-        <f>K132/H132</f>
+        <f t="shared" si="20"/>
         <v>0.11041055304958057</v>
       </c>
       <c r="M132" t="s">
@@ -20392,15 +20394,15 @@
       <c r="F133" s="10"/>
       <c r="G133" s="10"/>
       <c r="H133">
-        <f>AVERAGE(C133:F133)</f>
+        <f t="shared" si="18"/>
         <v>154.28542673107899</v>
       </c>
       <c r="K133">
-        <f>_xlfn.STDEV.P(C133:G133)</f>
+        <f t="shared" si="19"/>
         <v>14.580499139853934</v>
       </c>
       <c r="L133">
-        <f>K133/H133</f>
+        <f t="shared" si="20"/>
         <v>9.4503411299291976E-2</v>
       </c>
       <c r="M133" t="s">
@@ -20432,15 +20434,15 @@
       <c r="F134" s="10"/>
       <c r="G134" s="10"/>
       <c r="H134">
-        <f>AVERAGE(C134:F134)</f>
+        <f t="shared" si="18"/>
         <v>12.098520072763696</v>
       </c>
       <c r="K134">
-        <f>_xlfn.STDEV.P(C134:G134)</f>
+        <f t="shared" si="19"/>
         <v>2.4748776057144819</v>
       </c>
       <c r="L134">
-        <f>K134/H134</f>
+        <f t="shared" si="20"/>
         <v>0.20456035869097328</v>
       </c>
       <c r="M134" t="s">
@@ -20472,15 +20474,15 @@
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
       <c r="H135">
-        <f>AVERAGE(C135:F135)</f>
+        <f t="shared" si="18"/>
         <v>24.926472974699298</v>
       </c>
       <c r="K135">
-        <f>_xlfn.STDEV.P(C135:G135)</f>
+        <f t="shared" si="19"/>
         <v>0.5967925872320744</v>
       </c>
       <c r="L135">
-        <f>K135/H135</f>
+        <f t="shared" si="20"/>
         <v>2.3942119201454087E-2</v>
       </c>
       <c r="M135" t="s">
@@ -20512,15 +20514,15 @@
       <c r="F136" s="10"/>
       <c r="G136" s="10"/>
       <c r="H136">
-        <f>AVERAGE(C136:F136)</f>
+        <f t="shared" si="18"/>
         <v>11.763832113587801</v>
       </c>
       <c r="K136">
-        <f>_xlfn.STDEV.P(C136:G136)</f>
+        <f t="shared" si="19"/>
         <v>1.0297397879475056</v>
       </c>
       <c r="L136">
-        <f>K136/H136</f>
+        <f t="shared" si="20"/>
         <v>8.7534383184379672E-2</v>
       </c>
       <c r="M136" t="s">
@@ -20552,15 +20554,15 @@
       <c r="F137" s="10"/>
       <c r="G137" s="10"/>
       <c r="H137">
-        <f>AVERAGE(C137:F137)</f>
+        <f t="shared" si="18"/>
         <v>6.2364563386574545</v>
       </c>
       <c r="K137">
-        <f>_xlfn.STDEV.P(C137:G137)</f>
+        <f t="shared" si="19"/>
         <v>3.8584286466797879</v>
       </c>
       <c r="L137">
-        <f>K137/H137</f>
+        <f t="shared" si="20"/>
         <v>0.61868927435005605</v>
       </c>
       <c r="M137" t="s">
@@ -20592,15 +20594,15 @@
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
       <c r="H138">
-        <f>AVERAGE(C138:F138)</f>
+        <f t="shared" ref="H138:H169" si="21">AVERAGE(C138:F138)</f>
         <v>5.5239679140411937</v>
       </c>
       <c r="K138">
-        <f>_xlfn.STDEV.P(C138:G138)</f>
+        <f t="shared" si="19"/>
         <v>3.2756729322826676</v>
       </c>
       <c r="L138">
-        <f>K138/H138</f>
+        <f t="shared" si="20"/>
         <v>0.59299275145250963</v>
       </c>
       <c r="M138" t="s">
@@ -20632,15 +20634,15 @@
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
       <c r="H139">
-        <f>AVERAGE(C139:F139)</f>
+        <f t="shared" si="21"/>
         <v>42.406487850311862</v>
       </c>
       <c r="K139">
-        <f>_xlfn.STDEV.P(C139:G139)</f>
+        <f t="shared" si="19"/>
         <v>0.44086958980801505</v>
       </c>
       <c r="L139">
-        <f>K139/H139</f>
+        <f t="shared" si="20"/>
         <v>1.0396276894333112E-2</v>
       </c>
       <c r="M139" t="s">
@@ -20672,15 +20674,15 @@
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
       <c r="H140">
-        <f>AVERAGE(C140:F140)</f>
+        <f t="shared" si="21"/>
         <v>54.851871287474033</v>
       </c>
       <c r="K140">
-        <f>_xlfn.STDEV.P(C140:G140)</f>
+        <f t="shared" si="19"/>
         <v>5.2237699148308083</v>
       </c>
       <c r="L140">
-        <f>K140/H140</f>
+        <f t="shared" si="20"/>
         <v>9.5234124054828881E-2</v>
       </c>
       <c r="M140" t="s">
@@ -20712,15 +20714,15 @@
       <c r="F141" s="10"/>
       <c r="G141" s="10"/>
       <c r="H141">
-        <f>AVERAGE(C141:F141)</f>
+        <f t="shared" si="21"/>
         <v>168.32058507783168</v>
       </c>
       <c r="K141">
-        <f>_xlfn.STDEV.P(C141:G141)</f>
+        <f t="shared" si="19"/>
         <v>17.925476681330977</v>
       </c>
       <c r="L141">
-        <f>K141/H141</f>
+        <f t="shared" si="20"/>
         <v>0.10649604546610987</v>
       </c>
       <c r="M141" t="s">
@@ -20752,15 +20754,15 @@
       <c r="F142" s="10"/>
       <c r="G142" s="10"/>
       <c r="H142">
-        <f>AVERAGE(C142:F142)</f>
+        <f t="shared" si="21"/>
         <v>8.3008234039586259</v>
       </c>
       <c r="K142">
-        <f>_xlfn.STDEV.P(C142:G142)</f>
+        <f t="shared" si="19"/>
         <v>3.320320640221361</v>
       </c>
       <c r="L142">
-        <f>K142/H142</f>
+        <f t="shared" si="20"/>
         <v>0.39999894933771446</v>
       </c>
       <c r="M142" t="s">
@@ -20792,15 +20794,15 @@
       <c r="F143" s="10"/>
       <c r="G143" s="10"/>
       <c r="H143">
-        <f>AVERAGE(C143:F143)</f>
+        <f t="shared" si="21"/>
         <v>8.7589714298898276</v>
       </c>
       <c r="K143">
-        <f>_xlfn.STDEV.P(C143:G143)</f>
+        <f t="shared" si="19"/>
         <v>1.8669019599156651</v>
       </c>
       <c r="L143">
-        <f>K143/H143</f>
+        <f t="shared" si="20"/>
         <v>0.21314168848009901</v>
       </c>
       <c r="M143" t="s">
@@ -20832,15 +20834,15 @@
       <c r="F144" s="10"/>
       <c r="G144" s="10"/>
       <c r="H144">
-        <f>AVERAGE(C144:F144)</f>
+        <f t="shared" si="21"/>
         <v>5.7795831952248875</v>
       </c>
       <c r="K144">
-        <f>_xlfn.STDEV.P(C144:G144)</f>
+        <f t="shared" si="19"/>
         <v>1.2673800425040533</v>
       </c>
       <c r="L144">
-        <f>K144/H144</f>
+        <f t="shared" si="20"/>
         <v>0.21928571658094087</v>
       </c>
       <c r="M144" t="s">
@@ -20872,15 +20874,15 @@
       <c r="F145" s="10"/>
       <c r="G145" s="10"/>
       <c r="H145">
-        <f>AVERAGE(C145:F145)</f>
+        <f t="shared" si="21"/>
         <v>6.4601792369234161</v>
       </c>
       <c r="K145">
-        <f>_xlfn.STDEV.P(C145:G145)</f>
+        <f t="shared" si="19"/>
         <v>1.2163083628430251</v>
       </c>
       <c r="L145">
-        <f>K145/H145</f>
+        <f t="shared" si="20"/>
         <v>0.18827780441309824</v>
       </c>
       <c r="M145" t="s">
@@ -20912,15 +20914,15 @@
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
       <c r="H146">
-        <f>AVERAGE(C146:F146)</f>
+        <f t="shared" si="21"/>
         <v>8.3464931480834377</v>
       </c>
       <c r="K146">
-        <f>_xlfn.STDEV.P(C146:G146)</f>
+        <f t="shared" si="19"/>
         <v>2.9807454298696037</v>
       </c>
       <c r="L146">
-        <f>K146/H146</f>
+        <f t="shared" si="20"/>
         <v>0.35712548695424939</v>
       </c>
       <c r="M146" t="s">
@@ -20952,15 +20954,15 @@
       <c r="F147" s="10"/>
       <c r="G147" s="10"/>
       <c r="H147">
-        <f>AVERAGE(C147:F147)</f>
+        <f t="shared" si="21"/>
         <v>5.6586774852099397</v>
       </c>
       <c r="K147">
-        <f>_xlfn.STDEV.P(C147:G147)</f>
+        <f t="shared" si="19"/>
         <v>2.8391256414819663</v>
       </c>
       <c r="L147">
-        <f>K147/H147</f>
+        <f t="shared" si="20"/>
         <v>0.50172953820085642</v>
       </c>
       <c r="M147" t="s">
@@ -20992,15 +20994,15 @@
       <c r="F148" s="10"/>
       <c r="G148" s="10"/>
       <c r="H148">
-        <f>AVERAGE(C148:F148)</f>
+        <f t="shared" si="21"/>
         <v>6.427442643984854</v>
       </c>
       <c r="K148">
-        <f>_xlfn.STDEV.P(C148:G148)</f>
+        <f t="shared" si="19"/>
         <v>0.75147424950728858</v>
       </c>
       <c r="L148">
-        <f>K148/H148</f>
+        <f t="shared" si="20"/>
         <v>0.11691652358976062</v>
       </c>
       <c r="M148" t="s">
@@ -21032,15 +21034,15 @@
       <c r="F149" s="10"/>
       <c r="G149" s="10"/>
       <c r="H149">
-        <f>AVERAGE(C149:F149)</f>
+        <f t="shared" si="21"/>
         <v>32.746822184306936</v>
       </c>
       <c r="K149">
-        <f>_xlfn.STDEV.P(C149:G149)</f>
+        <f t="shared" si="19"/>
         <v>1.4506638503487761</v>
       </c>
       <c r="L149">
-        <f>K149/H149</f>
+        <f t="shared" si="20"/>
         <v>4.429937788112976E-2</v>
       </c>
       <c r="M149" t="s">
@@ -21072,15 +21074,15 @@
       <c r="F150" s="10"/>
       <c r="G150" s="10"/>
       <c r="H150">
-        <f>AVERAGE(C150:F150)</f>
+        <f t="shared" si="21"/>
         <v>25.349995388837403</v>
       </c>
       <c r="K150">
-        <f>_xlfn.STDEV.P(C150:G150)</f>
+        <f t="shared" si="19"/>
         <v>1.3250079792129639</v>
       </c>
       <c r="L150">
-        <f>K150/H150</f>
+        <f t="shared" si="20"/>
         <v>5.2268568845437222E-2</v>
       </c>
       <c r="M150" t="s">
@@ -21112,15 +21114,15 @@
       <c r="F151" s="10"/>
       <c r="G151" s="10"/>
       <c r="H151">
-        <f>AVERAGE(C151:F151)</f>
+        <f t="shared" si="21"/>
         <v>18.141373789237168</v>
       </c>
       <c r="K151">
-        <f>_xlfn.STDEV.P(C151:G151)</f>
+        <f t="shared" si="19"/>
         <v>1.5049331227111069</v>
       </c>
       <c r="L151">
-        <f>K151/H151</f>
+        <f t="shared" si="20"/>
         <v>8.2955852197034094E-2</v>
       </c>
       <c r="M151" t="s">
@@ -21152,15 +21154,15 @@
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
       <c r="H152">
-        <f>AVERAGE(C152:F152)</f>
+        <f t="shared" si="21"/>
         <v>23.868746556821634</v>
       </c>
       <c r="K152">
-        <f>_xlfn.STDEV.P(C152:G152)</f>
+        <f t="shared" si="19"/>
         <v>1.8700478579090605</v>
       </c>
       <c r="L152">
-        <f>K152/H152</f>
+        <f t="shared" si="20"/>
         <v>7.8347132869220779E-2</v>
       </c>
       <c r="M152" t="s">
@@ -21192,15 +21194,15 @@
       <c r="F153" s="10"/>
       <c r="G153" s="10"/>
       <c r="H153">
-        <f>AVERAGE(C153:F153)</f>
+        <f t="shared" si="21"/>
         <v>17.3442792621466</v>
       </c>
       <c r="K153">
-        <f>_xlfn.STDEV.P(C153:G153)</f>
+        <f t="shared" si="19"/>
         <v>0.8667499906826277</v>
       </c>
       <c r="L153">
-        <f>K153/H153</f>
+        <f t="shared" si="20"/>
         <v>4.9973249253100135E-2</v>
       </c>
       <c r="M153" t="s">
@@ -21232,15 +21234,15 @@
       <c r="F154" s="10"/>
       <c r="G154" s="10"/>
       <c r="H154">
-        <f>AVERAGE(C154:F154)</f>
+        <f t="shared" si="21"/>
         <v>34.101430245540001</v>
       </c>
       <c r="K154">
-        <f>_xlfn.STDEV.P(C154:G154)</f>
+        <f t="shared" si="19"/>
         <v>2.23404667374612</v>
       </c>
       <c r="L154">
-        <f>K154/H154</f>
+        <f t="shared" si="20"/>
         <v>6.5511817471007761E-2</v>
       </c>
       <c r="M154" t="s">
@@ -21272,15 +21274,15 @@
       <c r="F155" s="10"/>
       <c r="G155" s="10"/>
       <c r="H155">
-        <f>AVERAGE(C155:F155)</f>
+        <f t="shared" si="21"/>
         <v>153.89492753623199</v>
       </c>
       <c r="K155">
-        <f>_xlfn.STDEV.P(C155:G155)</f>
+        <f t="shared" si="19"/>
         <v>15.256341054756252</v>
       </c>
       <c r="L155">
-        <f>K155/H155</f>
+        <f t="shared" si="20"/>
         <v>9.9134788254566744E-2</v>
       </c>
       <c r="M155" t="s">
@@ -21312,15 +21314,15 @@
       <c r="F156" s="10"/>
       <c r="G156" s="10"/>
       <c r="H156">
-        <f>AVERAGE(C156:F156)</f>
+        <f t="shared" si="21"/>
         <v>9.7692930953545591</v>
       </c>
       <c r="K156">
-        <f>_xlfn.STDEV.P(C156:G156)</f>
+        <f t="shared" si="19"/>
         <v>2.9962163590068829</v>
       </c>
       <c r="L156">
-        <f>K156/H156</f>
+        <f t="shared" si="20"/>
         <v>0.30669735565940048</v>
       </c>
       <c r="M156" t="s">
@@ -21352,15 +21354,15 @@
       <c r="F157" s="10"/>
       <c r="G157" s="10"/>
       <c r="H157">
-        <f>AVERAGE(C157:F157)</f>
+        <f t="shared" si="21"/>
         <v>18.554495759732532</v>
       </c>
       <c r="K157">
-        <f>_xlfn.STDEV.P(C157:G157)</f>
+        <f t="shared" si="19"/>
         <v>0.51505109057371057</v>
       </c>
       <c r="L157">
-        <f>K157/H157</f>
+        <f t="shared" si="20"/>
         <v>2.7758829840662573E-2</v>
       </c>
       <c r="M157" t="s">
@@ -21392,15 +21394,15 @@
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
       <c r="H158">
-        <f>AVERAGE(C158:F158)</f>
+        <f t="shared" si="21"/>
         <v>8.8012579216006781</v>
       </c>
       <c r="K158">
-        <f>_xlfn.STDEV.P(C158:G158)</f>
+        <f t="shared" si="19"/>
         <v>2.1727382152639021</v>
       </c>
       <c r="L158">
-        <f>K158/H158</f>
+        <f t="shared" si="20"/>
         <v>0.24686678138717105</v>
       </c>
       <c r="M158" t="s">
@@ -21432,15 +21434,15 @@
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
       <c r="H159">
-        <f>AVERAGE(C159:F159)</f>
+        <f t="shared" si="21"/>
         <v>30.886721076742834</v>
       </c>
       <c r="K159">
-        <f>_xlfn.STDEV.P(C159:G159)</f>
+        <f t="shared" si="19"/>
         <v>1.9061097922690926</v>
       </c>
       <c r="L159">
-        <f>K159/H159</f>
+        <f t="shared" si="20"/>
         <v>6.1712921469814427E-2</v>
       </c>
       <c r="M159" t="s">
@@ -21472,15 +21474,15 @@
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
       <c r="H160">
-        <f>AVERAGE(C160:F160)</f>
+        <f t="shared" si="21"/>
         <v>11.867361121928283</v>
       </c>
       <c r="K160">
-        <f>_xlfn.STDEV.P(C160:G160)</f>
+        <f t="shared" si="19"/>
         <v>1.9413417484395468</v>
       </c>
       <c r="L160">
-        <f>K160/H160</f>
+        <f t="shared" si="20"/>
         <v>0.16358664141873736</v>
       </c>
       <c r="M160" t="s">
@@ -21512,15 +21514,15 @@
       <c r="F161" s="10"/>
       <c r="G161" s="10"/>
       <c r="H161">
-        <f>AVERAGE(C161:F161)</f>
+        <f t="shared" si="21"/>
         <v>35.678729882178132</v>
       </c>
       <c r="K161">
-        <f>_xlfn.STDEV.P(C161:G161)</f>
+        <f t="shared" si="19"/>
         <v>3.5401825704095962</v>
       </c>
       <c r="L161">
-        <f>K161/H161</f>
+        <f t="shared" si="20"/>
         <v>9.9223895640353249E-2</v>
       </c>
       <c r="M161" t="s">
@@ -21552,15 +21554,15 @@
       <c r="F162" s="10"/>
       <c r="G162" s="10"/>
       <c r="H162">
-        <f>AVERAGE(C162:F162)</f>
+        <f t="shared" si="21"/>
         <v>17.525054268894568</v>
       </c>
       <c r="K162">
-        <f>_xlfn.STDEV.P(C162:G162)</f>
+        <f t="shared" ref="K162:K179" si="22">_xlfn.STDEV.P(C162:G162)</f>
         <v>1.3467453001412995</v>
       </c>
       <c r="L162">
-        <f>K162/H162</f>
+        <f t="shared" ref="L162:L193" si="23">K162/H162</f>
         <v>7.6846854764475919E-2</v>
       </c>
       <c r="M162" t="s">
@@ -21592,15 +21594,15 @@
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
       <c r="H163">
-        <f>AVERAGE(C163:F163)</f>
+        <f t="shared" si="21"/>
         <v>17.354002372198934</v>
       </c>
       <c r="K163">
-        <f>_xlfn.STDEV.P(C163:G163)</f>
+        <f t="shared" si="22"/>
         <v>0.75896121002842498</v>
       </c>
       <c r="L163">
-        <f>K163/H163</f>
+        <f t="shared" si="23"/>
         <v>4.3734073198254189E-2</v>
       </c>
       <c r="M163" t="s">
@@ -21632,15 +21634,15 @@
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
       <c r="H164">
-        <f>AVERAGE(C164:F164)</f>
+        <f t="shared" si="21"/>
         <v>22.768179465059635</v>
       </c>
       <c r="K164">
-        <f>_xlfn.STDEV.P(C164:G164)</f>
+        <f t="shared" si="22"/>
         <v>7.4605573725537652E-2</v>
       </c>
       <c r="L164">
-        <f>K164/H164</f>
+        <f t="shared" si="23"/>
         <v>3.2767474378014457E-3</v>
       </c>
       <c r="M164" t="s">
@@ -21672,15 +21674,15 @@
       <c r="F165" s="10"/>
       <c r="G165" s="10"/>
       <c r="H165">
-        <f>AVERAGE(C165:F165)</f>
+        <f t="shared" si="21"/>
         <v>19.218269064439934</v>
       </c>
       <c r="K165">
-        <f>_xlfn.STDEV.P(C165:G165)</f>
+        <f t="shared" si="22"/>
         <v>1.347754250918602</v>
       </c>
       <c r="L165">
-        <f>K165/H165</f>
+        <f t="shared" si="23"/>
         <v>7.0128805377815587E-2</v>
       </c>
       <c r="M165" t="s">
@@ -21712,15 +21714,15 @@
       <c r="F166" s="10"/>
       <c r="G166" s="10"/>
       <c r="H166">
-        <f>AVERAGE(C166:F166)</f>
+        <f t="shared" si="21"/>
         <v>158.133544043581</v>
       </c>
       <c r="K166">
-        <f>_xlfn.STDEV.P(C166:G166)</f>
+        <f t="shared" si="22"/>
         <v>15.670235879747452</v>
       </c>
       <c r="L166">
-        <f>K166/H166</f>
+        <f t="shared" si="23"/>
         <v>9.9094951514074672E-2</v>
       </c>
       <c r="M166" t="s">
@@ -21752,15 +21754,15 @@
       <c r="F167" s="10"/>
       <c r="G167" s="10"/>
       <c r="H167">
-        <f>AVERAGE(C167:F167)</f>
+        <f t="shared" si="21"/>
         <v>14.835455810456834</v>
       </c>
       <c r="K167">
-        <f>_xlfn.STDEV.P(C167:G167)</f>
+        <f t="shared" si="22"/>
         <v>0.31744674737713491</v>
       </c>
       <c r="L167">
-        <f>K167/H167</f>
+        <f t="shared" si="23"/>
         <v>2.1397842535676E-2</v>
       </c>
       <c r="M167" t="s">
@@ -21792,15 +21794,15 @@
       <c r="F168" s="10"/>
       <c r="G168" s="10"/>
       <c r="H168">
-        <f>AVERAGE(C168:F168)</f>
+        <f t="shared" si="21"/>
         <v>164.81010381334167</v>
       </c>
       <c r="K168">
-        <f>_xlfn.STDEV.P(C168:G168)</f>
+        <f t="shared" si="22"/>
         <v>6.8706934839678295</v>
       </c>
       <c r="L168">
-        <f>K168/H168</f>
+        <f t="shared" si="23"/>
         <v>4.1688545331840479E-2</v>
       </c>
       <c r="M168" t="s">
@@ -21832,15 +21834,15 @@
       <c r="F169" s="10"/>
       <c r="G169" s="10"/>
       <c r="H169">
-        <f>AVERAGE(C169:F169)</f>
+        <f t="shared" si="21"/>
         <v>21.074682354896229</v>
       </c>
       <c r="K169">
-        <f>_xlfn.STDEV.P(C169:G169)</f>
+        <f t="shared" si="22"/>
         <v>1.2487606314942454</v>
       </c>
       <c r="L169">
-        <f>K169/H169</f>
+        <f t="shared" si="23"/>
         <v>5.9254066584027251E-2</v>
       </c>
       <c r="M169" t="s">
@@ -21872,15 +21874,15 @@
       <c r="F170" s="10"/>
       <c r="G170" s="10"/>
       <c r="H170">
-        <f>AVERAGE(C170:F170)</f>
+        <f t="shared" ref="H170:H179" si="24">AVERAGE(C170:F170)</f>
         <v>152.27187332259834</v>
       </c>
       <c r="K170">
-        <f>_xlfn.STDEV.P(C170:G170)</f>
+        <f t="shared" si="22"/>
         <v>18.231268370011271</v>
       </c>
       <c r="L170">
-        <f>K170/H170</f>
+        <f t="shared" si="23"/>
         <v>0.11972840401974361</v>
       </c>
       <c r="M170" t="s">
@@ -21912,15 +21914,15 @@
       <c r="F171" s="10"/>
       <c r="G171" s="10"/>
       <c r="H171">
-        <f>AVERAGE(C171:F171)</f>
+        <f t="shared" si="24"/>
         <v>31.565529677918803</v>
       </c>
       <c r="K171">
-        <f>_xlfn.STDEV.P(C171:G171)</f>
+        <f t="shared" si="22"/>
         <v>1.2578853019832938</v>
       </c>
       <c r="L171">
-        <f>K171/H171</f>
+        <f t="shared" si="23"/>
         <v>3.9849966555867075E-2</v>
       </c>
       <c r="M171" t="s">
@@ -21952,15 +21954,15 @@
       <c r="F172" s="10"/>
       <c r="G172" s="10"/>
       <c r="H172">
-        <f>AVERAGE(C172:F172)</f>
+        <f t="shared" si="24"/>
         <v>14.732158495904132</v>
       </c>
       <c r="K172">
-        <f>_xlfn.STDEV.P(C172:G172)</f>
+        <f t="shared" si="22"/>
         <v>1.3514886554144694</v>
       </c>
       <c r="L172">
-        <f>K172/H172</f>
+        <f t="shared" si="23"/>
         <v>9.1737314378623702E-2</v>
       </c>
       <c r="M172" t="s">
@@ -21992,15 +21994,15 @@
       <c r="F173" s="10"/>
       <c r="G173" s="10"/>
       <c r="H173">
-        <f>AVERAGE(C173:F173)</f>
+        <f t="shared" si="24"/>
         <v>26.166945453428436</v>
       </c>
       <c r="K173">
-        <f>_xlfn.STDEV.P(C173:G173)</f>
+        <f t="shared" si="22"/>
         <v>3.4618057796778205</v>
       </c>
       <c r="L173">
-        <f>K173/H173</f>
+        <f t="shared" si="23"/>
         <v>0.13229690052433113</v>
       </c>
       <c r="M173" t="s">
@@ -22032,15 +22034,15 @@
       <c r="F174" s="10"/>
       <c r="G174" s="10"/>
       <c r="H174">
-        <f>AVERAGE(C174:F174)</f>
+        <f t="shared" si="24"/>
         <v>16.652406594370564</v>
       </c>
       <c r="K174">
-        <f>_xlfn.STDEV.P(C174:G174)</f>
+        <f t="shared" si="22"/>
         <v>0.94854149746010141</v>
       </c>
       <c r="L174">
-        <f>K174/H174</f>
+        <f t="shared" si="23"/>
         <v>5.696122611975863E-2</v>
       </c>
       <c r="M174" t="s">
@@ -22072,15 +22074,15 @@
       <c r="F175" s="10"/>
       <c r="G175" s="10"/>
       <c r="H175">
-        <f>AVERAGE(C175:F175)</f>
+        <f t="shared" si="24"/>
         <v>46.109290348969466</v>
       </c>
       <c r="K175">
-        <f>_xlfn.STDEV.P(C175:G175)</f>
+        <f t="shared" si="22"/>
         <v>2.1850415759889743</v>
       </c>
       <c r="L175">
-        <f>K175/H175</f>
+        <f t="shared" si="23"/>
         <v>4.7388315010964153E-2</v>
       </c>
       <c r="M175" t="s">
@@ -22112,15 +22114,15 @@
       <c r="F176" s="10"/>
       <c r="G176" s="10"/>
       <c r="H176">
-        <f>AVERAGE(C176:F176)</f>
+        <f t="shared" si="24"/>
         <v>26.184307699953802</v>
       </c>
       <c r="K176">
-        <f>_xlfn.STDEV.P(C176:G176)</f>
+        <f t="shared" si="22"/>
         <v>1.4132479812142704</v>
       </c>
       <c r="L176">
-        <f>K176/H176</f>
+        <f t="shared" si="23"/>
         <v>5.397308943236883E-2</v>
       </c>
       <c r="M176" t="s">
@@ -22152,15 +22154,15 @@
       <c r="F177" s="10"/>
       <c r="G177" s="10"/>
       <c r="H177">
-        <f>AVERAGE(C177:F177)</f>
+        <f t="shared" si="24"/>
         <v>19.470232726221166</v>
       </c>
       <c r="K177">
-        <f>_xlfn.STDEV.P(C177:G177)</f>
+        <f t="shared" si="22"/>
         <v>0.49192270061862337</v>
       </c>
       <c r="L177">
-        <f>K177/H177</f>
+        <f t="shared" si="23"/>
         <v>2.526537343111137E-2</v>
       </c>
       <c r="M177" t="s">
@@ -22192,15 +22194,15 @@
       <c r="F178" s="10"/>
       <c r="G178" s="10"/>
       <c r="H178">
-        <f>AVERAGE(C178:F178)</f>
+        <f t="shared" si="24"/>
         <v>18.636131114644069</v>
       </c>
       <c r="K178">
-        <f>_xlfn.STDEV.P(C178:G178)</f>
+        <f t="shared" si="22"/>
         <v>1.1810257108490159</v>
       </c>
       <c r="L178">
-        <f>K178/H178</f>
+        <f t="shared" si="23"/>
         <v>6.3372902003301465E-2</v>
       </c>
       <c r="M178" t="s">
@@ -22232,15 +22234,15 @@
       <c r="F179" s="10"/>
       <c r="G179" s="10"/>
       <c r="H179">
-        <f>AVERAGE(C179:F179)</f>
+        <f t="shared" si="24"/>
         <v>20.534437657695936</v>
       </c>
       <c r="K179">
-        <f>_xlfn.STDEV.P(C179:G179)</f>
+        <f t="shared" si="22"/>
         <v>0.34181402720053022</v>
       </c>
       <c r="L179">
-        <f>K179/H179</f>
+        <f t="shared" si="23"/>
         <v>1.6645891789124526E-2</v>
       </c>
       <c r="M179" t="s">
@@ -22283,11 +22285,11 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/data/First_round_results/Results - First and Second Plate 3 reps.xlsx
+++ b/data/First_round_results/Results - First and Second Plate 3 reps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\GitHub\SynbioML\data\First_round_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486702AF-2255-4E58-96E9-94BBB72D01A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58396B52-8274-4E24-BCF4-D99DF19B5D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microplate" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="476">
   <si>
     <t>RBS</t>
   </si>
@@ -1980,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O180"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H152" sqref="H152"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H163" sqref="H163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6039,19 +6039,21 @@
       <c r="F93">
         <v>26.206176828644601</v>
       </c>
-      <c r="G93" s="7"/>
+      <c r="G93">
+        <v>28.448262390593399</v>
+      </c>
       <c r="H93" s="7"/>
       <c r="I93">
         <f t="shared" si="5"/>
-        <v>38.966335580941625</v>
+        <v>36.862720942871974</v>
       </c>
       <c r="J93">
         <f t="shared" si="6"/>
-        <v>12.051580413678121</v>
+        <v>11.571225110414362</v>
       </c>
       <c r="K93" s="4">
         <f t="shared" si="4"/>
-        <v>0.30928185147521364</v>
+        <v>0.313900461345403</v>
       </c>
       <c r="L93" t="s">
         <v>292</v>
@@ -6082,19 +6084,21 @@
       <c r="F94">
         <v>23.410972979038501</v>
       </c>
-      <c r="G94" s="7"/>
+      <c r="G94">
+        <v>22.781510188163899</v>
+      </c>
       <c r="H94" s="7"/>
       <c r="I94">
         <f t="shared" si="5"/>
-        <v>35.204493367968247</v>
+        <v>32.719896732007378</v>
       </c>
       <c r="J94">
         <f t="shared" si="6"/>
-        <v>11.266345087480174</v>
+        <v>11.235537685302971</v>
       </c>
       <c r="K94" s="4">
         <f t="shared" si="4"/>
-        <v>0.32002576971413427</v>
+        <v>0.34338548734819513</v>
       </c>
       <c r="L94" t="s">
         <v>292</v>
@@ -6125,19 +6129,21 @@
       <c r="F95">
         <v>22.866424807441302</v>
       </c>
-      <c r="G95" s="7"/>
+      <c r="G95">
+        <v>20.6679366849243</v>
+      </c>
       <c r="H95" s="7"/>
       <c r="I95">
         <f t="shared" si="5"/>
-        <v>34.600918865253625</v>
+        <v>31.814322429187758</v>
       </c>
       <c r="J95">
         <f t="shared" si="6"/>
-        <v>11.175304778780577</v>
+        <v>11.444231224022381</v>
       </c>
       <c r="K95" s="4">
         <f t="shared" si="4"/>
-        <v>0.32297711000972462</v>
+        <v>0.35971947067220822</v>
       </c>
       <c r="L95" t="s">
         <v>292</v>
@@ -6168,19 +6174,21 @@
       <c r="F96">
         <v>22.549677723625098</v>
       </c>
-      <c r="G96" s="7"/>
+      <c r="G96">
+        <v>20.847422421645302</v>
+      </c>
       <c r="H96" s="7"/>
       <c r="I96">
         <f t="shared" si="5"/>
-        <v>32.657200572032274</v>
+        <v>30.295244941954877</v>
       </c>
       <c r="J96">
         <f t="shared" si="6"/>
-        <v>11.062199721842205</v>
+        <v>10.964175652668013</v>
       </c>
       <c r="K96" s="4">
         <f t="shared" si="4"/>
-        <v>0.33873692564193353</v>
+        <v>0.36191077753869194</v>
       </c>
       <c r="L96" t="s">
         <v>292</v>
@@ -6211,19 +6219,21 @@
       <c r="F97">
         <v>23.571594743845999</v>
       </c>
-      <c r="G97" s="7"/>
+      <c r="G97">
+        <v>19.5712612716571</v>
+      </c>
       <c r="H97" s="7"/>
       <c r="I97">
         <f t="shared" si="5"/>
-        <v>34.029804121692102</v>
+        <v>31.138095551685105</v>
       </c>
       <c r="J97">
         <f t="shared" si="6"/>
-        <v>9.4894330424103455</v>
+        <v>10.270705204050939</v>
       </c>
       <c r="K97" s="4">
         <f t="shared" si="4"/>
-        <v>0.27885652848531567</v>
+        <v>0.32984371786652567</v>
       </c>
       <c r="L97" t="s">
         <v>292</v>
@@ -6254,19 +6264,21 @@
       <c r="F98">
         <v>19.889512352733998</v>
       </c>
-      <c r="G98" s="7"/>
+      <c r="G98">
+        <v>19.7120943595311</v>
+      </c>
       <c r="H98" s="7"/>
       <c r="I98">
         <f t="shared" si="5"/>
-        <v>30.985983398375627</v>
+        <v>28.73120559060672</v>
       </c>
       <c r="J98">
         <f t="shared" si="6"/>
-        <v>8.8001815895960167</v>
+        <v>9.0714193298248809</v>
       </c>
       <c r="K98" s="4">
         <f t="shared" si="4"/>
-        <v>0.2840052379960078</v>
+        <v>0.31573403006766482</v>
       </c>
       <c r="L98" t="s">
         <v>292</v>
@@ -6297,17 +6309,20 @@
       <c r="F99">
         <v>22.240944894074499</v>
       </c>
+      <c r="G99">
+        <v>20.800327597900601</v>
+      </c>
       <c r="I99">
         <f t="shared" si="5"/>
-        <v>34.119988432469675</v>
+        <v>31.456056265555862</v>
       </c>
       <c r="J99">
         <f t="shared" si="6"/>
-        <v>9.8817851697756911</v>
+        <v>10.320168645567355</v>
       </c>
       <c r="K99" s="4">
         <f t="shared" ref="K99:K130" si="7">J99/I99</f>
-        <v>0.28961865533259873</v>
+        <v>0.32808208881759471</v>
       </c>
       <c r="L99" t="s">
         <v>292</v>
@@ -6338,19 +6353,21 @@
       <c r="F100">
         <v>20.0314310018762</v>
       </c>
-      <c r="G100" s="9"/>
+      <c r="G100">
+        <v>17.0593774488521</v>
+      </c>
       <c r="H100" s="9"/>
       <c r="I100">
         <f t="shared" si="5"/>
-        <v>28.212641945919373</v>
+        <v>25.98198904650592</v>
       </c>
       <c r="J100">
         <f t="shared" si="6"/>
-        <v>8.5202198924998207</v>
+        <v>8.8305473807622068</v>
       </c>
       <c r="K100" s="4">
         <f t="shared" si="7"/>
-        <v>0.30200007177038485</v>
+        <v>0.33987187682036785</v>
       </c>
       <c r="L100" t="s">
         <v>292</v>
@@ -6381,19 +6398,21 @@
       <c r="F101">
         <v>18.529548309465302</v>
       </c>
-      <c r="G101" s="9"/>
+      <c r="G101">
+        <v>15.4131932253265</v>
+      </c>
       <c r="H101" s="9"/>
       <c r="I101">
         <f t="shared" si="5"/>
-        <v>26.177117534932847</v>
+        <v>24.024332673011578</v>
       </c>
       <c r="J101">
         <f t="shared" si="6"/>
-        <v>6.8608787957676984</v>
+        <v>7.4963495734284837</v>
       </c>
       <c r="K101" s="4">
         <f t="shared" si="7"/>
-        <v>0.26209451008545881</v>
+        <v>0.31203154216432089</v>
       </c>
       <c r="L101" t="s">
         <v>292</v>
@@ -6424,19 +6443,21 @@
       <c r="F102">
         <v>19.0135906839539</v>
       </c>
-      <c r="G102" s="9"/>
+      <c r="G102">
+        <v>16.130277057782301</v>
+      </c>
       <c r="H102" s="9"/>
       <c r="I102">
         <f t="shared" si="5"/>
-        <v>26.958869275809128</v>
+        <v>24.793150832203764</v>
       </c>
       <c r="J102">
         <f t="shared" si="6"/>
-        <v>8.1491294570111368</v>
+        <v>8.4786788023601343</v>
       </c>
       <c r="K102" s="4">
         <f t="shared" si="7"/>
-        <v>0.3022800909652229</v>
+        <v>0.34197665555872786</v>
       </c>
       <c r="L102" t="s">
         <v>292</v>
@@ -6467,19 +6488,21 @@
       <c r="F103">
         <v>21.641915203995101</v>
       </c>
-      <c r="G103" s="9"/>
+      <c r="G103">
+        <v>18.025865508528</v>
+      </c>
       <c r="H103" s="9"/>
       <c r="I103">
         <f t="shared" si="5"/>
-        <v>31.01379470824935</v>
+        <v>28.41620886830508</v>
       </c>
       <c r="J103">
         <f t="shared" si="6"/>
-        <v>8.6014544651495672</v>
+        <v>9.2832011675040818</v>
       </c>
       <c r="K103" s="4">
         <f t="shared" si="7"/>
-        <v>0.27734285810764298</v>
+        <v>0.3266868290040757</v>
       </c>
       <c r="L103" t="s">
         <v>292</v>
@@ -6510,19 +6533,21 @@
       <c r="F104">
         <v>27.118930340946701</v>
       </c>
-      <c r="G104" s="9"/>
+      <c r="G104">
+        <v>24.478803718440499</v>
+      </c>
       <c r="H104" s="9"/>
       <c r="I104">
         <f t="shared" si="5"/>
-        <v>42.517960500466948</v>
+        <v>38.910129144061656</v>
       </c>
       <c r="J104">
         <f t="shared" si="6"/>
-        <v>14.740709962643839</v>
+        <v>15.029857369492062</v>
       </c>
       <c r="K104" s="4">
         <f t="shared" si="7"/>
-        <v>0.34669372164457302</v>
+        <v>0.38627107388529119</v>
       </c>
       <c r="L104" t="s">
         <v>292</v>
@@ -6553,19 +6578,21 @@
       <c r="F105">
         <v>19.502980880460999</v>
       </c>
-      <c r="G105" s="9"/>
+      <c r="G105">
+        <v>23.292963837659901</v>
+      </c>
       <c r="H105" s="9"/>
       <c r="I105">
         <f t="shared" si="5"/>
-        <v>29.942868416824524</v>
+        <v>28.612887500991597</v>
       </c>
       <c r="J105">
         <f t="shared" si="6"/>
-        <v>10.943468071229603</v>
+        <v>10.143125341172544</v>
       </c>
       <c r="K105" s="4">
         <f t="shared" si="7"/>
-        <v>0.3654782808009337</v>
+        <v>0.35449499253862538</v>
       </c>
       <c r="L105" t="s">
         <v>292</v>
@@ -6596,19 +6623,21 @@
       <c r="F106">
         <v>19.7624291901862</v>
       </c>
-      <c r="G106" s="9"/>
+      <c r="G106">
+        <v>18.937206740355201</v>
+      </c>
       <c r="H106" s="9"/>
       <c r="I106">
         <f t="shared" si="5"/>
-        <v>25.4167417719745</v>
+        <v>24.120834765650642</v>
       </c>
       <c r="J106">
         <f t="shared" si="6"/>
-        <v>7.0350567353082383</v>
+        <v>6.8052272916752532</v>
       </c>
       <c r="K106" s="4">
         <f t="shared" si="7"/>
-        <v>0.27678829955558537</v>
+        <v>0.28213067075797316</v>
       </c>
       <c r="L106" t="s">
         <v>292</v>
@@ -6639,19 +6668,21 @@
       <c r="F107">
         <v>18.352732621086101</v>
       </c>
-      <c r="G107" s="9"/>
+      <c r="G107">
+        <v>17.9290942250482</v>
+      </c>
       <c r="H107" s="9"/>
       <c r="I107">
         <f t="shared" si="5"/>
-        <v>24.828452348770476</v>
+        <v>23.448580724026023</v>
       </c>
       <c r="J107">
         <f t="shared" si="6"/>
-        <v>8.1732416537671266</v>
+        <v>7.8139417778608253</v>
       </c>
       <c r="K107" s="4">
         <f t="shared" si="7"/>
-        <v>0.32918852689470479</v>
+        <v>0.3332373020706732</v>
       </c>
       <c r="L107" t="s">
         <v>292</v>
@@ -6682,19 +6713,21 @@
       <c r="F108">
         <v>8.0606280005404294</v>
       </c>
-      <c r="G108" s="9"/>
+      <c r="G108">
+        <v>15.154030195477601</v>
+      </c>
       <c r="H108" s="9"/>
       <c r="I108">
         <f t="shared" si="5"/>
-        <v>18.82495626136588</v>
+        <v>18.090771048188223</v>
       </c>
       <c r="J108">
         <f t="shared" si="6"/>
-        <v>9.5542361511898442</v>
+        <v>8.6708047178538887</v>
       </c>
       <c r="K108" s="4">
         <f t="shared" si="7"/>
-        <v>0.50753032403043785</v>
+        <v>0.47929437030392702</v>
       </c>
       <c r="L108" t="s">
         <v>292</v>
@@ -6725,19 +6758,21 @@
       <c r="F109">
         <v>16.242686192707499</v>
       </c>
-      <c r="G109" s="9"/>
+      <c r="G109">
+        <v>14.045493624243599</v>
+      </c>
       <c r="H109" s="9"/>
       <c r="I109">
         <f t="shared" si="5"/>
-        <v>15.402533703981312</v>
+        <v>15.131125688033771</v>
       </c>
       <c r="J109">
         <f t="shared" si="6"/>
-        <v>9.077865620334725</v>
+        <v>8.1376141848312287</v>
       </c>
       <c r="K109" s="4">
         <f t="shared" si="7"/>
-        <v>0.58937482590856072</v>
+        <v>0.5378062645574837</v>
       </c>
       <c r="L109" t="s">
         <v>292</v>
@@ -6768,19 +6803,21 @@
       <c r="F110">
         <v>6.8530911913149604</v>
       </c>
-      <c r="G110" s="9"/>
+      <c r="G110">
+        <v>13.561199369137499</v>
+      </c>
       <c r="H110" s="9"/>
       <c r="I110">
         <f t="shared" si="5"/>
-        <v>13.005581807506189</v>
+        <v>13.116705319832452</v>
       </c>
       <c r="J110">
         <f t="shared" si="6"/>
-        <v>5.6251062959548177</v>
+        <v>5.0361543277186538</v>
       </c>
       <c r="K110" s="4">
         <f t="shared" si="7"/>
-        <v>0.43251477551802259</v>
+        <v>0.38394964321596758</v>
       </c>
       <c r="L110" t="s">
         <v>292</v>
@@ -6811,19 +6848,21 @@
       <c r="F111">
         <v>6.2912430800547599</v>
       </c>
-      <c r="G111" s="9"/>
+      <c r="G111">
+        <v>13.4848841211061</v>
+      </c>
       <c r="H111" s="9"/>
       <c r="I111">
         <f t="shared" si="5"/>
-        <v>15.950130588127365</v>
+        <v>15.457081294723114</v>
       </c>
       <c r="J111">
         <f t="shared" si="6"/>
-        <v>8.3934681720176378</v>
+        <v>7.5718317986233803</v>
       </c>
       <c r="K111" s="4">
         <f t="shared" si="7"/>
-        <v>0.52623194058770884</v>
+        <v>0.48986167920384327</v>
       </c>
       <c r="L111" t="s">
         <v>292</v>
@@ -6854,19 +6893,21 @@
       <c r="F112">
         <v>5.9891283763664296</v>
       </c>
-      <c r="G112" s="9"/>
+      <c r="G112">
+        <v>12.8601746947795</v>
+      </c>
       <c r="H112" s="9"/>
       <c r="I112">
         <f t="shared" si="5"/>
-        <v>12.296917043318491</v>
+        <v>12.409568573610693</v>
       </c>
       <c r="J112">
         <f t="shared" si="6"/>
-        <v>5.134881269024584</v>
+        <v>4.598300336721417</v>
       </c>
       <c r="K112" s="4">
         <f t="shared" si="7"/>
-        <v>0.41757468566599898</v>
+        <v>0.37054473807412097</v>
       </c>
       <c r="L112" t="s">
         <v>292</v>
@@ -6897,19 +6938,21 @@
       <c r="F113">
         <v>6.9873032224768199</v>
       </c>
-      <c r="G113" s="9"/>
+      <c r="G113">
+        <v>12.513820027362501</v>
+      </c>
       <c r="H113" s="9"/>
       <c r="I113">
         <f t="shared" si="5"/>
-        <v>9.8087243108493549</v>
+        <v>10.349743454151984</v>
       </c>
       <c r="J113">
         <f t="shared" si="6"/>
-        <v>1.6736333276834729</v>
+        <v>1.847064066594865</v>
       </c>
       <c r="K113" s="4">
         <f t="shared" si="7"/>
-        <v>0.17062701271278263</v>
+        <v>0.17846471990123411</v>
       </c>
       <c r="L113" t="s">
         <v>292</v>
@@ -6940,19 +6983,21 @@
       <c r="F114">
         <v>4.60500862500583</v>
       </c>
-      <c r="G114" s="9"/>
+      <c r="G114">
+        <v>12.725108225303901</v>
+      </c>
       <c r="H114" s="9"/>
       <c r="I114">
         <f t="shared" si="5"/>
-        <v>13.210671550129957</v>
+        <v>13.113558885164746</v>
       </c>
       <c r="J114">
         <f t="shared" si="6"/>
-        <v>4.9899521930201836</v>
+        <v>4.4673730300578347</v>
       </c>
       <c r="K114" s="4">
         <f t="shared" si="7"/>
-        <v>0.37772131220468469</v>
+        <v>0.34066824034410176</v>
       </c>
       <c r="L114" t="s">
         <v>292</v>
@@ -6983,19 +7028,21 @@
       <c r="F115">
         <v>33.292137356929501</v>
       </c>
-      <c r="G115" s="9"/>
+      <c r="G115">
+        <v>29.781028898584299</v>
+      </c>
       <c r="H115" s="9"/>
       <c r="I115">
         <f t="shared" si="5"/>
-        <v>40.557000150407447</v>
+        <v>38.401805900042817</v>
       </c>
       <c r="J115">
         <f t="shared" si="6"/>
-        <v>11.073746762747176</v>
+        <v>10.801932369700413</v>
       </c>
       <c r="K115" s="4">
         <f t="shared" si="7"/>
-        <v>0.27304156425967629</v>
+        <v>0.28128709357620002</v>
       </c>
       <c r="L115" t="s">
         <v>292</v>
@@ -7026,23 +7073,23 @@
       <c r="F116" t="s">
         <v>473</v>
       </c>
-      <c r="G116" t="s">
-        <v>473</v>
+      <c r="G116">
+        <v>153.12499999999901</v>
       </c>
       <c r="H116" t="s">
         <v>473</v>
       </c>
-      <c r="I116" t="e">
+      <c r="I116">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J116" t="e">
+        <v>153.12499999999901</v>
+      </c>
+      <c r="J116">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K116" s="4" t="e">
+        <v>0</v>
+      </c>
+      <c r="K116" s="4">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="L116" t="s">
         <v>292</v>
@@ -7073,19 +7120,21 @@
       <c r="F117">
         <v>38.097428804270599</v>
       </c>
-      <c r="G117" s="9"/>
+      <c r="G117">
+        <v>41.906710389288797</v>
+      </c>
       <c r="H117" s="9"/>
       <c r="I117">
         <f t="shared" si="5"/>
-        <v>42.539648504399779</v>
+        <v>42.413060881377582</v>
       </c>
       <c r="J117">
         <f t="shared" si="6"/>
-        <v>15.177191149904457</v>
+        <v>13.577253134040044</v>
       </c>
       <c r="K117" s="4">
         <f t="shared" si="7"/>
-        <v>0.35677754009497081</v>
+        <v>0.320119624754587</v>
       </c>
       <c r="L117" t="s">
         <v>292</v>
@@ -7116,19 +7165,21 @@
       <c r="F118">
         <v>43.819689094954803</v>
       </c>
-      <c r="G118" s="9"/>
+      <c r="G118">
+        <v>42.3487107783954</v>
+      </c>
       <c r="H118" s="9"/>
       <c r="I118">
         <f t="shared" si="5"/>
-        <v>44.255517322929052</v>
+        <v>43.874156014022319</v>
       </c>
       <c r="J118">
         <f t="shared" si="6"/>
-        <v>13.709632895567857</v>
+        <v>12.285966510483144</v>
       </c>
       <c r="K118" s="4">
         <f t="shared" si="7"/>
-        <v>0.30978358688092461</v>
+        <v>0.28002741537766584</v>
       </c>
       <c r="L118" t="s">
         <v>292</v>
@@ -7159,19 +7210,21 @@
       <c r="F119">
         <v>15.9738651575256</v>
       </c>
-      <c r="G119" s="9"/>
+      <c r="G119">
+        <v>15.3896542491626</v>
+      </c>
       <c r="H119" s="9"/>
       <c r="I119">
         <f t="shared" si="5"/>
-        <v>21.385352456285823</v>
+        <v>20.186212814861179</v>
       </c>
       <c r="J119">
         <f t="shared" si="6"/>
-        <v>7.9692560004490058</v>
+        <v>7.5205702230015818</v>
       </c>
       <c r="K119" s="4">
         <f t="shared" si="7"/>
-        <v>0.37265020610434657</v>
+        <v>0.37255974124402896</v>
       </c>
       <c r="L119" t="s">
         <v>292</v>
@@ -7202,19 +7255,21 @@
       <c r="F120">
         <v>16.937361861757001</v>
       </c>
-      <c r="G120" s="9"/>
+      <c r="G120">
+        <v>16.292013374925901</v>
+      </c>
       <c r="H120" s="9"/>
       <c r="I120">
         <f t="shared" si="5"/>
-        <v>20.052263770659401</v>
+        <v>19.300213691512702</v>
       </c>
       <c r="J120">
         <f t="shared" si="6"/>
-        <v>4.3047151959215242</v>
+        <v>4.1336153208270812</v>
       </c>
       <c r="K120" s="4">
         <f t="shared" si="7"/>
-        <v>0.21467477413798089</v>
+        <v>0.21417458826607938</v>
       </c>
       <c r="L120" t="s">
         <v>292</v>
@@ -7245,19 +7300,21 @@
       <c r="F121">
         <v>9.8783749658822497</v>
       </c>
-      <c r="G121" s="9"/>
+      <c r="G121">
+        <v>15.392516624826699</v>
+      </c>
       <c r="H121" s="9"/>
       <c r="I121">
         <f t="shared" si="5"/>
-        <v>17.753320166668662</v>
+        <v>17.281159458300269</v>
       </c>
       <c r="J121">
         <f t="shared" si="6"/>
-        <v>5.3462069393212399</v>
+        <v>4.8741446273725852</v>
       </c>
       <c r="K121" s="4">
         <f t="shared" si="7"/>
-        <v>0.30113842870690671</v>
+        <v>0.28204962977941261</v>
       </c>
       <c r="L121" t="s">
         <v>292</v>
@@ -7288,19 +7345,21 @@
       <c r="F122">
         <v>17.063773936698801</v>
       </c>
-      <c r="G122" s="9"/>
+      <c r="G122">
+        <v>16.096393779276902</v>
+      </c>
       <c r="H122" s="9"/>
       <c r="I122">
         <f t="shared" si="5"/>
-        <v>20.563928907152601</v>
+        <v>19.670421881577461</v>
       </c>
       <c r="J122">
         <f t="shared" si="6"/>
-        <v>4.3914162582793246</v>
+        <v>4.3152113067372007</v>
       </c>
       <c r="K122" s="4">
         <f t="shared" si="7"/>
-        <v>0.2135494767613153</v>
+        <v>0.21937563580060562</v>
       </c>
       <c r="L122" t="s">
         <v>292</v>
@@ -7331,19 +7390,21 @@
       <c r="F123">
         <v>4.2949159363459497</v>
       </c>
-      <c r="G123" s="9"/>
+      <c r="G123">
+        <v>11.8919119535608</v>
+      </c>
       <c r="H123" s="9"/>
       <c r="I123">
         <f t="shared" si="5"/>
-        <v>9.3202264166892892</v>
+        <v>9.8345635240635918</v>
       </c>
       <c r="J123">
         <f t="shared" si="6"/>
-        <v>3.3153094422891143</v>
+        <v>3.1386608607165174</v>
       </c>
       <c r="K123" s="4">
         <f t="shared" si="7"/>
-        <v>0.35571125572148615</v>
+        <v>0.31914592376537304</v>
       </c>
       <c r="L123" t="s">
         <v>292</v>
@@ -7374,19 +7435,21 @@
       <c r="F124">
         <v>25.757212860550801</v>
       </c>
-      <c r="G124" s="9"/>
+      <c r="G124">
+        <v>24.058542588976099</v>
+      </c>
       <c r="H124" s="9"/>
       <c r="I124">
         <f t="shared" si="5"/>
-        <v>32.321227404549028</v>
+        <v>30.668690441434443</v>
       </c>
       <c r="J124">
         <f t="shared" si="6"/>
-        <v>7.797326912352637</v>
+        <v>7.7176524436073644</v>
       </c>
       <c r="K124" s="4">
         <f t="shared" si="7"/>
-        <v>0.2412447650813907</v>
+        <v>0.2516459728968588</v>
       </c>
       <c r="L124" t="s">
         <v>292</v>
@@ -7417,19 +7480,21 @@
       <c r="F125">
         <v>23.866068427195302</v>
       </c>
-      <c r="G125" s="9"/>
+      <c r="G125">
+        <v>20.724565249267801</v>
+      </c>
       <c r="H125" s="9"/>
       <c r="I125">
         <f t="shared" si="5"/>
-        <v>29.859102322273777</v>
+        <v>28.032194907672583</v>
       </c>
       <c r="J125">
         <f t="shared" si="6"/>
-        <v>6.8382020159188412</v>
+        <v>7.1245468806452763</v>
       </c>
       <c r="K125" s="4">
         <f t="shared" si="7"/>
-        <v>0.22901565968437695</v>
+        <v>0.2541558698528899</v>
       </c>
       <c r="L125" t="s">
         <v>292</v>
@@ -7460,19 +7525,21 @@
       <c r="F126">
         <v>30.666588746782299</v>
       </c>
-      <c r="G126" s="9"/>
+      <c r="G126">
+        <v>28.923218311693802</v>
+      </c>
       <c r="H126" s="9"/>
       <c r="I126">
         <f t="shared" si="5"/>
-        <v>37.058467615192178</v>
+        <v>35.4314177544925</v>
       </c>
       <c r="J126">
         <f t="shared" si="6"/>
-        <v>7.9471530581225789</v>
+        <v>7.8176056679902404</v>
       </c>
       <c r="K126" s="4">
         <f t="shared" si="7"/>
-        <v>0.2144490468587166</v>
+        <v>0.22064049827639237</v>
       </c>
       <c r="L126" t="s">
         <v>292</v>
@@ -7503,19 +7570,21 @@
       <c r="F127">
         <v>33.313452512386597</v>
       </c>
-      <c r="G127" s="9"/>
+      <c r="G127">
+        <v>31.842625412094499</v>
+      </c>
       <c r="H127" s="9"/>
       <c r="I127">
         <f t="shared" si="5"/>
-        <v>45.656847168756194</v>
+        <v>42.894002817423853</v>
       </c>
       <c r="J127">
         <f t="shared" si="6"/>
-        <v>15.112060789254169</v>
+        <v>14.602490906596955</v>
       </c>
       <c r="K127" s="4">
         <f t="shared" si="7"/>
-        <v>0.3309922109469623</v>
+        <v>0.3404319939258576</v>
       </c>
       <c r="L127" t="s">
         <v>292</v>
@@ -7546,19 +7615,21 @@
       <c r="F128">
         <v>30.3735591807418</v>
       </c>
-      <c r="G128" s="9"/>
+      <c r="G128">
+        <v>28.9504845790049</v>
+      </c>
       <c r="H128" s="9"/>
       <c r="I128">
         <f t="shared" si="5"/>
-        <v>46.232578909745705</v>
+        <v>42.776160043597542</v>
       </c>
       <c r="J128">
         <f t="shared" si="6"/>
-        <v>12.423665977054933</v>
+        <v>13.086837148853242</v>
       </c>
       <c r="K128" s="4">
         <f t="shared" si="7"/>
-        <v>0.2687210246546739</v>
+        <v>0.30593763291317205</v>
       </c>
       <c r="L128" t="s">
         <v>292</v>
@@ -7589,19 +7660,21 @@
       <c r="F129">
         <v>26.977535126198902</v>
       </c>
-      <c r="G129" s="9"/>
+      <c r="G129">
+        <v>33.732149301183497</v>
+      </c>
       <c r="H129" s="9"/>
       <c r="I129">
         <f t="shared" si="5"/>
-        <v>40.517801112145506</v>
+        <v>39.160670749953098</v>
       </c>
       <c r="J129">
         <f t="shared" si="6"/>
-        <v>10.183741640584385</v>
+        <v>9.5044245655208321</v>
       </c>
       <c r="K129" s="4">
         <f t="shared" si="7"/>
-        <v>0.25133993852227421</v>
+        <v>0.24270331389898922</v>
       </c>
       <c r="L129" t="s">
         <v>292</v>
@@ -7632,19 +7705,21 @@
       <c r="F130">
         <v>29.643630267089499</v>
       </c>
-      <c r="G130" s="9"/>
+      <c r="G130">
+        <v>30.7405571104213</v>
+      </c>
       <c r="H130" s="9"/>
       <c r="I130">
         <f t="shared" si="5"/>
-        <v>36.682498999862979</v>
+        <v>35.494110621974642</v>
       </c>
       <c r="J130">
         <f t="shared" si="6"/>
-        <v>8.8844890553911871</v>
+        <v>8.2943585868403851</v>
       </c>
       <c r="K130" s="4">
         <f t="shared" si="7"/>
-        <v>0.24219966735157203</v>
+        <v>0.23368267133605236</v>
       </c>
       <c r="L130" t="s">
         <v>292</v>
@@ -7675,19 +7750,21 @@
       <c r="F131">
         <v>18.209712126689301</v>
       </c>
-      <c r="G131" s="9"/>
+      <c r="G131">
+        <v>20.126161469957399</v>
+      </c>
       <c r="H131" s="9"/>
       <c r="I131">
         <f t="shared" si="5"/>
-        <v>25.736335482662025</v>
+        <v>24.614300680121097</v>
       </c>
       <c r="J131">
         <f t="shared" si="6"/>
-        <v>7.0631977177931606</v>
+        <v>6.704241791057588</v>
       </c>
       <c r="K131" s="4">
         <f t="shared" ref="K131:K162" si="8">J131/I131</f>
-        <v>0.27444457749439405</v>
+        <v>0.2723718166192729</v>
       </c>
       <c r="L131" t="s">
         <v>292</v>
@@ -7718,19 +7795,21 @@
       <c r="F132">
         <v>16.368983008659299</v>
       </c>
-      <c r="G132" s="9"/>
+      <c r="G132">
+        <v>14.784999501861799</v>
+      </c>
       <c r="H132" s="9"/>
       <c r="I132">
         <f t="shared" ref="I132:I180" si="9">AVERAGE(C132:H132)</f>
-        <v>18.715984708737349</v>
+        <v>17.929787667362241</v>
       </c>
       <c r="J132">
         <f t="shared" ref="J132:J180" si="10">_xlfn.STDEV.P(C132:H132)</f>
-        <v>7.1975992706650977</v>
+        <v>6.6269730164178897</v>
       </c>
       <c r="K132" s="4">
         <f t="shared" si="8"/>
-        <v>0.3845696276565656</v>
+        <v>0.36960688767558747</v>
       </c>
       <c r="L132" t="s">
         <v>292</v>
@@ -7761,19 +7840,21 @@
       <c r="F133">
         <v>25.765824222058399</v>
       </c>
-      <c r="G133" s="9"/>
+      <c r="G133">
+        <v>22.7707941779741</v>
+      </c>
       <c r="H133" s="9"/>
       <c r="I133">
         <f t="shared" si="9"/>
-        <v>31.568846800951899</v>
+        <v>29.809236276356341</v>
       </c>
       <c r="J133">
         <f t="shared" si="10"/>
-        <v>6.3255703170570392</v>
+        <v>6.6629714588835096</v>
       </c>
       <c r="K133" s="4">
         <f t="shared" si="8"/>
-        <v>0.20037381653314951</v>
+        <v>0.22352036788571966</v>
       </c>
       <c r="L133" t="s">
         <v>292</v>
@@ -7804,19 +7885,21 @@
       <c r="F134">
         <v>10.617184570185101</v>
       </c>
-      <c r="G134" s="9"/>
+      <c r="G134">
+        <v>13.592459968259799</v>
+      </c>
       <c r="H134" s="9"/>
       <c r="I134">
         <f t="shared" si="9"/>
-        <v>15.769319677717224</v>
+        <v>15.33394773582574</v>
       </c>
       <c r="J134">
         <f t="shared" si="10"/>
-        <v>4.2168570840089306</v>
+        <v>3.8708786915518871</v>
       </c>
       <c r="K134" s="4">
         <f t="shared" si="8"/>
-        <v>0.26740894155171097</v>
+        <v>0.25243849517682204</v>
       </c>
       <c r="L134" t="s">
         <v>292</v>
@@ -7847,19 +7930,21 @@
       <c r="F135">
         <v>24.8983044164498</v>
       </c>
-      <c r="G135" s="9"/>
+      <c r="G135">
+        <v>23.289561896719299</v>
+      </c>
       <c r="H135" s="9"/>
       <c r="I135">
         <f t="shared" si="9"/>
-        <v>30.191920419743351</v>
+        <v>28.811448715138539</v>
       </c>
       <c r="J135">
         <f t="shared" si="10"/>
-        <v>7.7345972554889011</v>
+        <v>7.4486243208092739</v>
       </c>
       <c r="K135" s="4">
         <f t="shared" si="8"/>
-        <v>0.25618102949261318</v>
+        <v>0.2585300168156941</v>
       </c>
       <c r="L135" t="s">
         <v>292</v>
@@ -7890,19 +7975,21 @@
       <c r="F136">
         <v>13.3142024887359</v>
       </c>
-      <c r="G136" s="9"/>
+      <c r="G136">
+        <v>13.111065299456101</v>
+      </c>
       <c r="H136" s="9"/>
       <c r="I136">
         <f t="shared" si="9"/>
-        <v>10.139790360227973</v>
+        <v>10.734045348073598</v>
       </c>
       <c r="J136">
         <f t="shared" si="10"/>
-        <v>3.1201297899612297</v>
+        <v>3.0332695045578162</v>
       </c>
       <c r="K136" s="4">
         <f t="shared" si="8"/>
-        <v>0.30771146928239645</v>
+        <v>0.28258400315983262</v>
       </c>
       <c r="L136" t="s">
         <v>292</v>
@@ -7933,19 +8020,21 @@
       <c r="F137">
         <v>11.7590603130572</v>
       </c>
-      <c r="G137" s="9"/>
+      <c r="G137">
+        <v>6.5029278809294597</v>
+      </c>
       <c r="H137" s="9"/>
       <c r="I137">
         <f t="shared" si="9"/>
-        <v>10.050704200843676</v>
+        <v>9.3411489368608329</v>
       </c>
       <c r="J137">
         <f t="shared" si="10"/>
-        <v>2.7265759287056204</v>
+        <v>2.8215683097491344</v>
       </c>
       <c r="K137" s="4">
         <f t="shared" si="8"/>
-        <v>0.27128207876983845</v>
+        <v>0.30205795120287898</v>
       </c>
       <c r="L137" t="s">
         <v>292</v>
@@ -7976,19 +8065,21 @@
       <c r="F138">
         <v>7.4001883623979596</v>
       </c>
-      <c r="G138" s="9"/>
+      <c r="G138">
+        <v>10.724451520743401</v>
+      </c>
       <c r="H138" s="9"/>
       <c r="I138">
         <f t="shared" si="9"/>
-        <v>11.082600251412746</v>
+        <v>11.010970505278877</v>
       </c>
       <c r="J138">
         <f t="shared" si="10"/>
-        <v>3.2298382861455313</v>
+        <v>2.8924051524373326</v>
       </c>
       <c r="K138" s="4">
         <f t="shared" si="8"/>
-        <v>0.29143325689598976</v>
+        <v>0.26268394335001227</v>
       </c>
       <c r="L138" t="s">
         <v>292</v>
@@ -8019,19 +8110,21 @@
       <c r="F139">
         <v>16.228736283204199</v>
       </c>
-      <c r="G139" s="9"/>
+      <c r="G139">
+        <v>15.671395483422</v>
+      </c>
       <c r="H139" s="9"/>
       <c r="I139">
         <f t="shared" si="9"/>
-        <v>25.390849395745651</v>
+        <v>23.44695861328092</v>
       </c>
       <c r="J139">
         <f t="shared" si="10"/>
-        <v>8.5491126263863517</v>
+        <v>8.5781528813326773</v>
       </c>
       <c r="K139" s="4">
         <f t="shared" si="8"/>
-        <v>0.33670053699813579</v>
+        <v>0.36585354300381651</v>
       </c>
       <c r="L139" t="s">
         <v>292</v>
@@ -8062,19 +8155,21 @@
       <c r="F140">
         <v>24.1188104142906</v>
       </c>
-      <c r="G140" s="9"/>
+      <c r="G140">
+        <v>22.269784006469202</v>
+      </c>
       <c r="H140" s="9"/>
       <c r="I140">
         <f t="shared" si="9"/>
-        <v>34.362264009594874</v>
+        <v>31.943768008969737</v>
       </c>
       <c r="J140">
         <f t="shared" si="10"/>
-        <v>11.178133358532895</v>
+        <v>11.106620724823367</v>
       </c>
       <c r="K140" s="4">
         <f t="shared" si="8"/>
-        <v>0.32530258644807741</v>
+        <v>0.34769288086817601</v>
       </c>
       <c r="L140" t="s">
         <v>292</v>
@@ -8105,19 +8200,21 @@
       <c r="F141">
         <v>15.484879540069</v>
       </c>
-      <c r="G141" s="9"/>
+      <c r="G141">
+        <v>17.838274224084198</v>
+      </c>
       <c r="H141" s="9"/>
       <c r="I141">
         <f t="shared" si="9"/>
-        <v>19.248941432065191</v>
+        <v>18.966807990468993</v>
       </c>
       <c r="J141">
         <f t="shared" si="10"/>
-        <v>8.931076223467791</v>
+        <v>8.0081018426953747</v>
       </c>
       <c r="K141" s="4">
         <f t="shared" si="8"/>
-        <v>0.46397752598437764</v>
+        <v>0.42221663480325866</v>
       </c>
       <c r="L141" t="s">
         <v>292</v>
@@ -8148,19 +8245,21 @@
       <c r="F142">
         <v>15.897886350645701</v>
       </c>
-      <c r="G142" s="9"/>
+      <c r="G142">
+        <v>3.8317418335727802</v>
+      </c>
       <c r="H142" s="9"/>
       <c r="I142">
         <f t="shared" si="9"/>
-        <v>15.53855208572975</v>
+        <v>13.197190035298357</v>
       </c>
       <c r="J142">
         <f t="shared" si="10"/>
-        <v>3.907950967937869</v>
+        <v>5.8434210544035272</v>
       </c>
       <c r="K142" s="4">
         <f t="shared" si="8"/>
-        <v>0.25150032939856998</v>
+        <v>0.44277767000203855</v>
       </c>
       <c r="L142" t="s">
         <v>292</v>
@@ -8191,19 +8290,21 @@
       <c r="F143">
         <v>23.9305174776574</v>
       </c>
-      <c r="G143" s="9"/>
+      <c r="G143">
+        <v>25.609905464745299</v>
+      </c>
       <c r="H143" s="9"/>
       <c r="I143">
         <f t="shared" si="9"/>
-        <v>32.626463785737869</v>
+        <v>31.223152121539357</v>
       </c>
       <c r="J143">
         <f t="shared" si="10"/>
-        <v>9.493144193129357</v>
+        <v>8.9427604152598601</v>
       </c>
       <c r="K143" s="4">
         <f t="shared" si="8"/>
-        <v>0.2909645450843843</v>
+        <v>0.28641440109727673</v>
       </c>
       <c r="L143" t="s">
         <v>292</v>
@@ -8234,19 +8335,21 @@
       <c r="F144">
         <v>13.0447411335072</v>
       </c>
-      <c r="G144" s="9"/>
+      <c r="G144">
+        <v>4.3208021293111996</v>
+      </c>
       <c r="H144" s="9"/>
       <c r="I144">
         <f t="shared" si="9"/>
-        <v>10.653418010266048</v>
+        <v>9.3868948340750773</v>
       </c>
       <c r="J144">
         <f t="shared" si="10"/>
-        <v>4.9098284544233408</v>
+        <v>5.0696603618790403</v>
       </c>
       <c r="K144" s="4">
         <f t="shared" si="8"/>
-        <v>0.46086884506850656</v>
+        <v>0.54007852985375127</v>
       </c>
       <c r="L144" t="s">
         <v>292</v>
@@ -8277,19 +8380,21 @@
       <c r="F145">
         <v>6.5680590466586404</v>
       </c>
-      <c r="G145" s="9"/>
+      <c r="G145">
+        <v>0.951690505261933</v>
+      </c>
       <c r="H145" s="9"/>
       <c r="I145">
         <f t="shared" si="9"/>
-        <v>8.9081537528535595</v>
+        <v>7.3168611033352349</v>
       </c>
       <c r="J145">
         <f t="shared" si="10"/>
-        <v>2.4645928798280829</v>
+        <v>3.8714627256740597</v>
       </c>
       <c r="K145" s="4">
         <f t="shared" si="8"/>
-        <v>0.27666707919568595</v>
+        <v>0.52911524094797102</v>
       </c>
       <c r="L145" t="s">
         <v>292</v>
@@ -8320,19 +8425,21 @@
       <c r="F146">
         <v>12.4447912733404</v>
       </c>
-      <c r="G146" s="9"/>
+      <c r="G146">
+        <v>5.5604195573194799</v>
+      </c>
       <c r="H146" s="9"/>
       <c r="I146">
         <f t="shared" si="9"/>
-        <v>11.859931435075183</v>
+        <v>10.600029059524042</v>
       </c>
       <c r="J146">
         <f t="shared" si="10"/>
-        <v>2.3916973380714301</v>
+        <v>3.3053878606342111</v>
       </c>
       <c r="K146" s="4">
         <f t="shared" si="8"/>
-        <v>0.20166198693173715</v>
+        <v>0.3118281885901385</v>
       </c>
       <c r="L146" t="s">
         <v>292</v>
@@ -8363,19 +8470,21 @@
       <c r="F147">
         <v>7.1396006676827497</v>
       </c>
-      <c r="G147" s="9"/>
+      <c r="G147">
+        <v>12.897622769928001</v>
+      </c>
       <c r="H147" s="9"/>
       <c r="I147">
         <f t="shared" si="9"/>
-        <v>11.304702129958043</v>
+        <v>11.623286257952035</v>
       </c>
       <c r="J147">
         <f t="shared" si="10"/>
-        <v>5.844613919574086</v>
+        <v>5.2662693514044756</v>
       </c>
       <c r="K147" s="4">
         <f t="shared" si="8"/>
-        <v>0.51700733485808159</v>
+        <v>0.45307920965996806</v>
       </c>
       <c r="L147" t="s">
         <v>292</v>
@@ -8406,19 +8515,21 @@
       <c r="F148">
         <v>2.4364037585850702</v>
       </c>
-      <c r="G148" s="9"/>
+      <c r="G148">
+        <v>4.49098106286994</v>
+      </c>
       <c r="H148" s="9"/>
       <c r="I148">
         <f t="shared" si="9"/>
-        <v>7.8600405834901599</v>
+        <v>7.1862286793661152</v>
       </c>
       <c r="J148">
         <f t="shared" si="10"/>
-        <v>3.1731452040630947</v>
+        <v>3.1418418670283179</v>
       </c>
       <c r="K148" s="4">
         <f t="shared" si="8"/>
-        <v>0.40370595677689192</v>
+        <v>0.43720315720671643</v>
       </c>
       <c r="L148" t="s">
         <v>292</v>
@@ -8449,19 +8560,21 @@
       <c r="F149">
         <v>5.7382064283743297</v>
       </c>
-      <c r="G149" s="9"/>
+      <c r="G149">
+        <v>11.7916656958004</v>
+      </c>
       <c r="H149" s="9"/>
       <c r="I149">
         <f t="shared" si="9"/>
-        <v>12.490896453830068</v>
+        <v>12.351050302224134</v>
       </c>
       <c r="J149">
         <f t="shared" si="10"/>
-        <v>6.9799418721474087</v>
+        <v>6.2493118513418153</v>
       </c>
       <c r="K149" s="4">
         <f t="shared" si="8"/>
-        <v>0.55880231638676003</v>
+        <v>0.50597412352992044</v>
       </c>
       <c r="L149" t="s">
         <v>292</v>
@@ -8492,19 +8605,21 @@
       <c r="F150">
         <v>23.9509365509563</v>
       </c>
-      <c r="G150" s="9"/>
+      <c r="G150">
+        <v>26.105160466718701</v>
+      </c>
       <c r="H150" s="9"/>
       <c r="I150">
         <f t="shared" si="9"/>
-        <v>33.27752938857865</v>
+        <v>31.843055604206661</v>
       </c>
       <c r="J150">
         <f t="shared" si="10"/>
-        <v>10.579570976093411</v>
+        <v>9.8880087875547673</v>
       </c>
       <c r="K150" s="4">
         <f t="shared" si="8"/>
-        <v>0.31791936392142378</v>
+        <v>0.31052323968082074</v>
       </c>
       <c r="L150" t="s">
         <v>292</v>
@@ -8535,19 +8650,21 @@
       <c r="F151">
         <v>17.203586166922999</v>
       </c>
-      <c r="G151" s="9"/>
+      <c r="G151">
+        <v>16.387940116071601</v>
+      </c>
       <c r="H151" s="9"/>
       <c r="I151">
         <f t="shared" si="9"/>
-        <v>27.931509817507127</v>
+        <v>25.622795877220021</v>
       </c>
       <c r="J151">
         <f t="shared" si="10"/>
-        <v>9.8047048205708993</v>
+        <v>9.9109247564051763</v>
       </c>
       <c r="K151" s="4">
         <f t="shared" si="8"/>
-        <v>0.35102666789696529</v>
+        <v>0.38680106589056884</v>
       </c>
       <c r="L151" t="s">
         <v>292</v>
@@ -8578,19 +8695,21 @@
       <c r="F152">
         <v>21.728839973430102</v>
       </c>
-      <c r="G152" s="9"/>
+      <c r="G152">
+        <v>21.282032890943501</v>
+      </c>
       <c r="H152" s="9"/>
       <c r="I152">
         <f t="shared" si="9"/>
-        <v>34.4927226836231</v>
+        <v>31.850584725087181</v>
       </c>
       <c r="J152">
         <f t="shared" si="10"/>
-        <v>12.063774655099824</v>
+        <v>12.014628546524797</v>
       </c>
       <c r="K152" s="4">
         <f t="shared" si="8"/>
-        <v>0.34974840246019834</v>
+        <v>0.37721846082974575</v>
       </c>
       <c r="L152" t="s">
         <v>292</v>
@@ -8621,19 +8740,21 @@
       <c r="F153">
         <v>15.9303746611377</v>
       </c>
-      <c r="G153" s="9"/>
+      <c r="G153">
+        <v>18.900745249679701</v>
+      </c>
       <c r="H153" s="9"/>
       <c r="I153">
         <f t="shared" si="9"/>
-        <v>25.049846234797052</v>
+        <v>23.82002603777358</v>
       </c>
       <c r="J153">
         <f t="shared" si="10"/>
-        <v>7.6275713082987622</v>
+        <v>7.2521518267734439</v>
       </c>
       <c r="K153" s="4">
         <f t="shared" si="8"/>
-        <v>0.30449573369848509</v>
+        <v>0.30445608309886174</v>
       </c>
       <c r="L153" t="s">
         <v>414</v>
@@ -8664,19 +8785,21 @@
       <c r="F154">
         <v>35.453497948327403</v>
       </c>
-      <c r="G154" s="9"/>
+      <c r="G154">
+        <v>34.711870402620903</v>
+      </c>
       <c r="H154" s="9"/>
       <c r="I154">
         <f t="shared" si="9"/>
-        <v>39.760628591208928</v>
+        <v>38.750876953491321</v>
       </c>
       <c r="J154">
         <f t="shared" si="10"/>
-        <v>11.135689046392779</v>
+        <v>10.162738307653875</v>
       </c>
       <c r="K154" s="4">
         <f t="shared" si="8"/>
-        <v>0.28006823435520029</v>
+        <v>0.26225827920878181</v>
       </c>
       <c r="L154" t="s">
         <v>414</v>
@@ -8707,19 +8830,21 @@
       <c r="F155">
         <v>26.954312270116802</v>
       </c>
-      <c r="G155" s="9"/>
+      <c r="G155">
+        <v>26.971265811047399</v>
+      </c>
       <c r="H155" s="9"/>
       <c r="I155">
         <f t="shared" si="9"/>
-        <v>34.60344641179708</v>
+        <v>33.077010291647142</v>
       </c>
       <c r="J155">
         <f t="shared" si="10"/>
-        <v>10.053703056733848</v>
+        <v>9.4963985298626348</v>
       </c>
       <c r="K155" s="4">
         <f t="shared" si="8"/>
-        <v>0.29054051255733643</v>
+        <v>0.28709966366763012</v>
       </c>
       <c r="L155" t="s">
         <v>414</v>
@@ -8750,19 +8875,21 @@
       <c r="F156">
         <v>14.897677522862301</v>
       </c>
-      <c r="G156" s="9"/>
+      <c r="G156">
+        <v>5.8521459622915799</v>
+      </c>
       <c r="H156" s="9"/>
       <c r="I156">
         <f t="shared" si="9"/>
-        <v>17.720496622727698</v>
+        <v>15.346826490640472</v>
       </c>
       <c r="J156">
         <f t="shared" si="10"/>
-        <v>7.1652875240533014</v>
+        <v>7.9756075521388992</v>
       </c>
       <c r="K156" s="4">
         <f t="shared" si="8"/>
-        <v>0.40435026605650265</v>
+        <v>0.5196909965068649</v>
       </c>
       <c r="L156" t="s">
         <v>414</v>
@@ -8793,19 +8920,21 @@
       <c r="F157">
         <v>19.8974072284439</v>
       </c>
-      <c r="G157" s="9"/>
+      <c r="G157">
+        <v>20.368758091847099</v>
+      </c>
       <c r="H157" s="9"/>
       <c r="I157">
         <f t="shared" si="9"/>
-        <v>27.453234182694121</v>
+        <v>26.036338964524713</v>
       </c>
       <c r="J157">
         <f t="shared" si="10"/>
-        <v>6.7121353403602768</v>
+        <v>6.6387180162239332</v>
       </c>
       <c r="K157" s="4">
         <f t="shared" si="8"/>
-        <v>0.24449342819475348</v>
+        <v>0.25497893637309699</v>
       </c>
       <c r="L157" t="s">
         <v>414</v>
@@ -8836,19 +8965,21 @@
       <c r="F158">
         <v>13.454547327677099</v>
       </c>
-      <c r="G158" s="9"/>
+      <c r="G158">
+        <v>6.9304959358788203</v>
+      </c>
       <c r="H158" s="9"/>
       <c r="I158">
         <f t="shared" si="9"/>
-        <v>17.846120977538103</v>
+        <v>15.662995969206246</v>
       </c>
       <c r="J158">
         <f t="shared" si="10"/>
-        <v>6.6507458206911183</v>
+        <v>7.3790294202671536</v>
       </c>
       <c r="K158" s="4">
         <f t="shared" si="8"/>
-        <v>0.37267178839939691</v>
+        <v>0.47111225941540613</v>
       </c>
       <c r="L158" t="s">
         <v>414</v>
@@ -8879,19 +9010,21 @@
       <c r="F159">
         <v>9.2704311059651694</v>
       </c>
-      <c r="G159" s="9"/>
+      <c r="G159">
+        <v>13.079344598580599</v>
+      </c>
       <c r="H159" s="9"/>
       <c r="I159">
         <f t="shared" si="9"/>
-        <v>12.793513342253927</v>
+        <v>12.850679593519263</v>
       </c>
       <c r="J159">
         <f t="shared" si="10"/>
-        <v>3.9585477275320837</v>
+        <v>3.5424782300043036</v>
       </c>
       <c r="K159" s="4">
         <f t="shared" si="8"/>
-        <v>0.30941834519044453</v>
+        <v>0.27566466070719042</v>
       </c>
       <c r="L159" t="s">
         <v>414</v>
@@ -8922,19 +9055,21 @@
       <c r="F160">
         <v>10.7349653145068</v>
       </c>
-      <c r="G160" s="9"/>
+      <c r="G160">
+        <v>13.549582365229901</v>
+      </c>
       <c r="H160" s="9"/>
       <c r="I160">
         <f t="shared" si="9"/>
-        <v>15.502361463364</v>
+        <v>15.111805643737179</v>
       </c>
       <c r="J160">
         <f t="shared" si="10"/>
-        <v>6.6031201424881063</v>
+        <v>5.9574400446738238</v>
       </c>
       <c r="K160" s="4">
         <f t="shared" si="8"/>
-        <v>0.42594285767964762</v>
+        <v>0.39422423667437645</v>
       </c>
       <c r="L160" t="s">
         <v>414</v>
@@ -8965,19 +9100,21 @@
       <c r="F161">
         <v>13.473583751983201</v>
       </c>
-      <c r="G161" s="9"/>
+      <c r="G161">
+        <v>12.4157563905103</v>
+      </c>
       <c r="H161" s="9"/>
       <c r="I161">
         <f t="shared" si="9"/>
-        <v>14.309260262721823</v>
+        <v>13.930559488279519</v>
       </c>
       <c r="J161">
         <f t="shared" si="10"/>
-        <v>4.6447648655086198</v>
+        <v>4.2228816738032613</v>
       </c>
       <c r="K161" s="4">
         <f t="shared" si="8"/>
-        <v>0.32459853131674887</v>
+        <v>0.30313798073624998</v>
       </c>
       <c r="L161" t="s">
         <v>414</v>
@@ -9008,19 +9145,21 @@
       <c r="F162">
         <v>17.454146862423599</v>
       </c>
-      <c r="G162" s="9"/>
+      <c r="G162">
+        <v>17.703692836545802</v>
+      </c>
       <c r="H162" s="9"/>
       <c r="I162">
         <f t="shared" si="9"/>
-        <v>24.802985559565876</v>
+        <v>23.383127014961861</v>
       </c>
       <c r="J162">
         <f t="shared" si="10"/>
-        <v>6.5839378069132222</v>
+        <v>6.5377811819440081</v>
       </c>
       <c r="K162" s="4">
         <f t="shared" si="8"/>
-        <v>0.26544940693133479</v>
+        <v>0.27959396438982526</v>
       </c>
       <c r="L162" t="s">
         <v>414</v>
@@ -9051,19 +9190,21 @@
       <c r="F163">
         <v>18.555563304335099</v>
       </c>
-      <c r="G163" s="9"/>
+      <c r="G163">
+        <v>19.143799390120801</v>
+      </c>
       <c r="H163" s="9"/>
       <c r="I163">
         <f t="shared" si="9"/>
-        <v>28.330646184933826</v>
+        <v>26.493276825971218</v>
       </c>
       <c r="J163">
         <f t="shared" si="10"/>
-        <v>9.6533698607996072</v>
+        <v>9.3836956675147025</v>
       </c>
       <c r="K163" s="4">
         <f t="shared" ref="K163:K180" si="11">J163/I163</f>
-        <v>0.34073948747181232</v>
+        <v>0.35419158336487527</v>
       </c>
       <c r="L163" t="s">
         <v>414</v>
@@ -9094,19 +9235,21 @@
       <c r="F164">
         <v>20.6482158346003</v>
       </c>
-      <c r="G164" s="9"/>
+      <c r="G164">
+        <v>22.092158841316198</v>
+      </c>
       <c r="H164" s="9"/>
       <c r="I164">
         <f t="shared" si="9"/>
-        <v>32.403975491104177</v>
+        <v>30.341612161146582</v>
       </c>
       <c r="J164">
         <f t="shared" si="10"/>
-        <v>10.113421194589327</v>
+        <v>9.941750380408374</v>
       </c>
       <c r="K164" s="4">
         <f t="shared" si="11"/>
-        <v>0.31210433415386801</v>
+        <v>0.3276605846652772</v>
       </c>
       <c r="L164" t="s">
         <v>414</v>
@@ -9137,19 +9280,21 @@
       <c r="F165">
         <v>18.139238953194099</v>
       </c>
-      <c r="G165" s="9"/>
+      <c r="G165">
+        <v>19.369843101083301</v>
+      </c>
       <c r="H165" s="9"/>
       <c r="I165">
         <f t="shared" si="9"/>
-        <v>26.543349604241225</v>
+        <v>25.108648303609641</v>
       </c>
       <c r="J165">
         <f t="shared" si="10"/>
-        <v>7.1058790166739643</v>
+        <v>6.9733983514368143</v>
       </c>
       <c r="K165" s="4">
         <f t="shared" si="11"/>
-        <v>0.26770845136811794</v>
+        <v>0.27772894291702321</v>
       </c>
       <c r="L165" t="s">
         <v>414</v>
@@ -9180,19 +9325,21 @@
       <c r="F166">
         <v>30.452424831329399</v>
       </c>
-      <c r="G166" s="9"/>
+      <c r="G166">
+        <v>33.459357214648897</v>
+      </c>
       <c r="H166" s="9"/>
       <c r="I166">
         <f t="shared" si="9"/>
-        <v>37.958666510840104</v>
+        <v>37.058804651601861</v>
       </c>
       <c r="J166">
         <f t="shared" si="10"/>
-        <v>9.4845879894510414</v>
+        <v>8.6720777744758468</v>
       </c>
       <c r="K166" s="4">
         <f t="shared" si="11"/>
-        <v>0.24986620609400137</v>
+        <v>0.23400856708693105</v>
       </c>
       <c r="L166" t="s">
         <v>414</v>
@@ -9223,19 +9370,21 @@
       <c r="F167">
         <v>13.5164926843735</v>
       </c>
-      <c r="G167" s="9"/>
+      <c r="G167">
+        <v>6.2141164797847797</v>
+      </c>
       <c r="H167" s="9"/>
       <c r="I167">
         <f t="shared" si="9"/>
-        <v>18.133948737501125</v>
+        <v>15.749982285957856</v>
       </c>
       <c r="J167">
         <f t="shared" si="10"/>
-        <v>8.7371127492886878</v>
+        <v>9.1543921438488542</v>
       </c>
       <c r="K167" s="4">
         <f t="shared" si="11"/>
-        <v>0.48180971920474669</v>
+        <v>0.58123190094065036</v>
       </c>
       <c r="L167" t="s">
         <v>414</v>
@@ -9266,19 +9415,21 @@
       <c r="F168">
         <v>14.879707698037301</v>
       </c>
-      <c r="G168" s="9"/>
+      <c r="G168">
+        <v>14.1597317187858</v>
+      </c>
       <c r="H168" s="9"/>
       <c r="I168">
         <f t="shared" si="9"/>
-        <v>18.602431365849228</v>
+        <v>17.713891436436541</v>
       </c>
       <c r="J168">
         <f t="shared" si="10"/>
-        <v>8.7405663843640422</v>
+        <v>8.0172322780509848</v>
       </c>
       <c r="K168" s="4">
         <f t="shared" si="11"/>
-        <v>0.46986150425530804</v>
+        <v>0.45259576682060731</v>
       </c>
       <c r="L168" t="s">
         <v>414</v>
@@ -9309,19 +9460,21 @@
       <c r="F169">
         <v>13.8692700260781</v>
       </c>
-      <c r="G169" s="9"/>
+      <c r="G169">
+        <v>14.8767585556466</v>
+      </c>
       <c r="H169" s="9"/>
       <c r="I169">
         <f t="shared" si="9"/>
-        <v>18.513595695811574</v>
+        <v>17.786228267778579</v>
       </c>
       <c r="J169">
         <f t="shared" si="10"/>
-        <v>2.9601053659046168</v>
+        <v>3.0209323930301988</v>
       </c>
       <c r="K169" s="4">
         <f t="shared" si="11"/>
-        <v>0.15988819322517109</v>
+        <v>0.16984671216116692</v>
       </c>
       <c r="L169" t="s">
         <v>414</v>
@@ -9352,19 +9505,21 @@
       <c r="F170">
         <v>14.600904622926199</v>
       </c>
-      <c r="G170" s="9"/>
+      <c r="G170">
+        <v>6.6099855876625098</v>
+      </c>
       <c r="H170" s="9"/>
       <c r="I170">
         <f t="shared" si="9"/>
-        <v>18.8341732603471</v>
+        <v>16.389335725810181</v>
       </c>
       <c r="J170">
         <f t="shared" si="10"/>
-        <v>6.7757958499413604</v>
+        <v>7.7870437138357103</v>
       </c>
       <c r="K170" s="4">
         <f t="shared" si="11"/>
-        <v>0.35976072622242022</v>
+        <v>0.47512869612967612</v>
       </c>
       <c r="L170" t="s">
         <v>414</v>
@@ -9395,19 +9550,21 @@
       <c r="F171">
         <v>34.987832304724598</v>
       </c>
-      <c r="G171" s="9"/>
+      <c r="G171">
+        <v>32.741801452917002</v>
+      </c>
       <c r="H171" s="9"/>
       <c r="I171">
         <f t="shared" si="9"/>
-        <v>42.919139456067604</v>
+        <v>40.883671855437484</v>
       </c>
       <c r="J171">
         <f t="shared" si="10"/>
-        <v>10.371521758275595</v>
+        <v>10.130512537812052</v>
       </c>
       <c r="K171" s="4">
         <f t="shared" si="11"/>
-        <v>0.24165260277159034</v>
+        <v>0.24778871559367299</v>
       </c>
       <c r="L171" t="s">
         <v>414</v>
@@ -9438,19 +9595,21 @@
       <c r="F172">
         <v>15.678914388487</v>
       </c>
-      <c r="G172" s="9"/>
+      <c r="G172">
+        <v>15.716172249906901</v>
+      </c>
       <c r="H172" s="9"/>
       <c r="I172">
         <f t="shared" si="9"/>
-        <v>21.108593384359626</v>
+        <v>20.030109157469081</v>
       </c>
       <c r="J172">
         <f t="shared" si="10"/>
-        <v>7.4353955024683325</v>
+        <v>6.991466078949955</v>
       </c>
       <c r="K172" s="4">
         <f t="shared" si="11"/>
-        <v>0.35224495384792315</v>
+        <v>0.34904782714790589</v>
       </c>
       <c r="L172" t="s">
         <v>414</v>
@@ -9481,19 +9640,21 @@
       <c r="F173">
         <v>25.196245038717301</v>
       </c>
-      <c r="G173" s="9"/>
+      <c r="G173">
+        <v>24.169153032631201</v>
+      </c>
       <c r="H173" s="9"/>
       <c r="I173">
         <f t="shared" si="9"/>
-        <v>33.334460912431027</v>
+        <v>31.50139933647106</v>
       </c>
       <c r="J173">
         <f t="shared" si="10"/>
-        <v>8.1364032800336119</v>
+        <v>8.1486996283650566</v>
       </c>
       <c r="K173" s="4">
         <f t="shared" si="11"/>
-        <v>0.24408384168586927</v>
+        <v>0.25867738576714011</v>
       </c>
       <c r="L173" t="s">
         <v>414</v>
@@ -9524,19 +9685,21 @@
       <c r="F174">
         <v>14.9654140697121</v>
       </c>
-      <c r="G174" s="9"/>
+      <c r="G174">
+        <v>15.3499100264417</v>
+      </c>
       <c r="H174" s="9"/>
       <c r="I174">
         <f t="shared" si="9"/>
-        <v>24.06432819850275</v>
+        <v>22.321444564090541</v>
       </c>
       <c r="J174">
         <f t="shared" si="10"/>
-        <v>7.5619376200867787</v>
+        <v>7.6090008482372067</v>
       </c>
       <c r="K174" s="4">
         <f t="shared" si="11"/>
-        <v>0.31423846773155595</v>
+        <v>0.34088299376816006</v>
       </c>
       <c r="L174" t="s">
         <v>414</v>
@@ -9567,19 +9730,21 @@
       <c r="F175">
         <v>22.3820767229033</v>
       </c>
-      <c r="G175" s="9"/>
+      <c r="G175">
+        <v>23.1805700003422</v>
+      </c>
       <c r="H175" s="9"/>
       <c r="I175">
         <f t="shared" si="9"/>
-        <v>35.425065460712524</v>
+        <v>32.976166368638459</v>
       </c>
       <c r="J175">
         <f t="shared" si="10"/>
-        <v>10.886775676501228</v>
+        <v>10.899813519368642</v>
       </c>
       <c r="K175" s="4">
         <f t="shared" si="11"/>
-        <v>0.30731843498143974</v>
+        <v>0.33053610287867674</v>
       </c>
       <c r="L175" t="s">
         <v>414</v>
@@ -9610,19 +9775,21 @@
       <c r="F176">
         <v>23.1923178269384</v>
       </c>
-      <c r="G176" s="9"/>
+      <c r="G176">
+        <v>22.529527436349401</v>
+      </c>
       <c r="H176" s="9"/>
       <c r="I176">
         <f t="shared" si="9"/>
-        <v>35.904907498802622</v>
+        <v>33.22983148631198</v>
       </c>
       <c r="J176">
         <f t="shared" si="10"/>
-        <v>9.716700881498717</v>
+        <v>10.205662521699683</v>
       </c>
       <c r="K176" s="4">
         <f t="shared" si="11"/>
-        <v>0.27062319772924509</v>
+        <v>0.30712351117108722</v>
       </c>
       <c r="L176" t="s">
         <v>414</v>
@@ -9653,19 +9820,21 @@
       <c r="F177">
         <v>19.754875308616899</v>
       </c>
-      <c r="G177" s="9"/>
+      <c r="G177">
+        <v>20.914429917880501</v>
+      </c>
       <c r="H177" s="9"/>
       <c r="I177">
         <f t="shared" si="9"/>
-        <v>31.940979197222376</v>
+        <v>29.735669341354004</v>
       </c>
       <c r="J177">
         <f t="shared" si="10"/>
-        <v>10.596874174410658</v>
+        <v>10.454116895089408</v>
       </c>
       <c r="K177" s="4">
         <f t="shared" si="11"/>
-        <v>0.3317642239137169</v>
+        <v>0.35156823863892828</v>
       </c>
       <c r="L177" t="s">
         <v>414</v>
@@ -9696,19 +9865,21 @@
       <c r="F178">
         <v>19.173250809875</v>
       </c>
-      <c r="G178" s="9"/>
+      <c r="G178">
+        <v>19.6699330440733</v>
+      </c>
       <c r="H178" s="9"/>
       <c r="I178">
         <f t="shared" si="9"/>
-        <v>27.620148019995025</v>
+        <v>26.030105024810677</v>
       </c>
       <c r="J178">
         <f t="shared" si="10"/>
-        <v>7.3932607269510475</v>
+        <v>7.3376556370192718</v>
       </c>
       <c r="K178" s="4">
         <f t="shared" si="11"/>
-        <v>0.26767636153140278</v>
+        <v>0.28189112683277162</v>
       </c>
       <c r="L178" t="s">
         <v>414</v>
@@ -9739,19 +9910,21 @@
       <c r="F179">
         <v>18.105527767581101</v>
       </c>
-      <c r="G179" s="9"/>
+      <c r="G179">
+        <v>21.241526478538599</v>
+      </c>
       <c r="H179" s="9"/>
       <c r="I179">
         <f t="shared" si="9"/>
-        <v>28.637700788069552</v>
+        <v>27.158465926163359</v>
       </c>
       <c r="J179">
         <f t="shared" si="10"/>
-        <v>10.093599844518559</v>
+        <v>9.5003762748496854</v>
       </c>
       <c r="K179" s="4">
         <f t="shared" si="11"/>
-        <v>0.35245845744444493</v>
+        <v>0.34981269931367553</v>
       </c>
       <c r="L179" t="s">
         <v>414</v>
@@ -9782,19 +9955,21 @@
       <c r="F180">
         <v>18.336488312443102</v>
       </c>
-      <c r="G180" s="9"/>
+      <c r="G180">
+        <v>21.197064724973501</v>
+      </c>
       <c r="H180" s="9"/>
       <c r="I180">
         <f t="shared" si="9"/>
-        <v>29.525574321501949</v>
+        <v>27.85987240219626</v>
       </c>
       <c r="J180">
         <f t="shared" si="10"/>
-        <v>9.5436451048677995</v>
+        <v>9.1631425311433645</v>
       </c>
       <c r="K180" s="4">
         <f t="shared" si="11"/>
-        <v>0.32323317409333696</v>
+        <v>0.32890109469492806</v>
       </c>
       <c r="L180" t="s">
         <v>414</v>
@@ -9831,7 +10006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76964F8-BF03-4432-A4BE-C93FD1CE516F}">
   <dimension ref="A1:M186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
